--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C51C237-3C41-3B44-AC5A-13EB2828E052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B7E22-9350-B645-B4C2-12BDFB1EF72B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,6 +269,39 @@
     <author>Matthew Heun</author>
   </authors>
   <commentList>
+    <comment ref="CU45" authorId="0" shapeId="0" xr:uid="{0A988C0E-F14F-254B-A38D-6535609FD63D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthew Heun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Change the yellow cells here to adjust the primary energy available to the ECC. Matrices and the ECCs to the right will update in response.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BE53" authorId="0" shapeId="0" xr:uid="{0B0F228D-C18D-8043-97DE-CF1EF2DC4A03}">
       <text>
         <r>
@@ -677,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="141">
   <si>
     <t>Buildings</t>
   </si>
@@ -2241,9 +2274,6 @@
     <t>1. Reverse the ECC</t>
   </si>
   <si>
-    <t>2. Upstream swim with a new value for the Y matrix</t>
-  </si>
-  <si>
     <t>Y'</t>
   </si>
   <si>
@@ -2355,6 +2385,283 @@
   </si>
   <si>
     <t>y''</t>
+  </si>
+  <si>
+    <t>2. Upstream swim with a new value for the Y matrix (Y')</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V''</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_bar''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W''</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_bar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -23492,7 +23799,7 @@
   <dimension ref="A1:CO144"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AE23"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30676,10 +30983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018262C-ADF6-FA4F-AD02-C6E8C0BF89C2}">
   <dimension ref="A1:GE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="29060" topLeftCell="EV1"/>
-      <selection activeCell="CV46" sqref="CV46"/>
-      <selection pane="topRight" activeCell="FG7" sqref="FG7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30691,14 +30996,16 @@
     <col min="7" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="92" width="5.33203125" customWidth="1"/>
     <col min="93" max="93" width="5.33203125" style="65" customWidth="1"/>
-    <col min="94" max="115" width="5.33203125" customWidth="1"/>
+    <col min="94" max="97" width="5.33203125" customWidth="1"/>
+    <col min="98" max="98" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="115" width="5.33203125" customWidth="1"/>
     <col min="116" max="116" width="19" bestFit="1" customWidth="1"/>
     <col min="117" max="129" width="5.33203125" customWidth="1"/>
     <col min="130" max="130" width="6" bestFit="1" customWidth="1"/>
     <col min="131" max="152" width="5.33203125" customWidth="1"/>
     <col min="153" max="153" width="5.33203125" style="65" customWidth="1"/>
     <col min="154" max="158" width="5.33203125" customWidth="1"/>
-    <col min="159" max="159" width="19" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="4.83203125" customWidth="1"/>
     <col min="160" max="908" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30741,7 +31048,7 @@
       <c r="AH1" s="64"/>
       <c r="AI1" s="64"/>
       <c r="CQ1" s="64" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="CR1" s="64"/>
       <c r="CS1" s="64"/>
@@ -30776,7 +31083,7 @@
       <c r="DV1" s="64"/>
       <c r="DW1" s="64"/>
       <c r="EY1" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="EZ1" s="64"/>
       <c r="FA1" s="64"/>
@@ -30913,12 +31220,12 @@
         <v>23</v>
       </c>
       <c r="DW7" s="21">
-        <f>-EA93</f>
-        <v>0</v>
+        <f ca="1">EA95</f>
+        <v>28.1</v>
       </c>
       <c r="FQ7" s="22">
-        <f>-FM93</f>
-        <v>0</v>
+        <f ca="1">-FR95</f>
+        <v>28.1</v>
       </c>
     </row>
     <row r="8" spans="1:187" x14ac:dyDescent="0.2">
@@ -30930,18 +31237,18 @@
         <v>97</v>
       </c>
       <c r="EM8" s="62">
-        <f>-DV93</f>
-        <v>0</v>
+        <f ca="1">DV95</f>
+        <v>77.600000000000009</v>
       </c>
       <c r="FE8" s="24">
-        <f>-FH93</f>
-        <v>0</v>
+        <f ca="1">-FM95</f>
+        <v>77.600000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:187" x14ac:dyDescent="0.2">
       <c r="M9" s="21">
-        <f>-Q95</f>
-        <v>-28.1</v>
+        <f>Q95</f>
+        <v>28.1</v>
       </c>
       <c r="DY9" t="s">
         <v>27</v>
@@ -30949,8 +31256,8 @@
     </row>
     <row r="10" spans="1:187" x14ac:dyDescent="0.2">
       <c r="AC10" s="62">
-        <f>-L95</f>
-        <v>-77.599999999999994</v>
+        <f>L95</f>
+        <v>77.599999999999994</v>
       </c>
       <c r="DS10" t="s">
         <v>17</v>
@@ -31081,12 +31388,12 @@
         <v>1</v>
       </c>
       <c r="DV13" s="21">
-        <f>-DZ93</f>
-        <v>0</v>
+        <f ca="1">DZ95</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="FR13" s="22">
-        <f>-FL93</f>
-        <v>0</v>
+        <f ca="1">-FQ95</f>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:187" x14ac:dyDescent="0.2">
@@ -31106,26 +31413,26 @@
         <v>87</v>
       </c>
       <c r="EE14" s="23">
-        <f>-DX93</f>
-        <v>0</v>
+        <f ca="1">DX95</f>
+        <v>5.2000000000000011</v>
       </c>
       <c r="EK14" s="23">
-        <f>-DW93</f>
-        <v>0</v>
+        <f ca="1">DW95</f>
+        <v>8.7999999999999972</v>
       </c>
       <c r="FF14" s="21">
-        <f>-FI93</f>
-        <v>0</v>
+        <f ca="1">-FN95</f>
+        <v>8.7999999999999972</v>
       </c>
       <c r="FL14" s="23">
-        <f>-FJ93</f>
-        <v>0</v>
+        <f ca="1">-FO95</f>
+        <v>5.2000000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:187" x14ac:dyDescent="0.2">
       <c r="L15" s="21">
-        <f>-P95</f>
-        <v>-19.899999999999999</v>
+        <f>P95</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="DY15" t="s">
         <v>29</v>
@@ -31133,12 +31440,12 @@
     </row>
     <row r="16" spans="1:187" x14ac:dyDescent="0.2">
       <c r="U16" s="23">
-        <f>-N95</f>
-        <v>-5.2000000000000011</v>
+        <f>N95</f>
+        <v>5.2000000000000011</v>
       </c>
       <c r="AA16" s="23">
-        <f>-M95</f>
-        <v>-8.7999999999999972</v>
+        <f>M95</f>
+        <v>8.7999999999999972</v>
       </c>
       <c r="DQ16" t="s">
         <v>19</v>
@@ -31195,12 +31502,12 @@
         <v>26</v>
       </c>
       <c r="DU19" s="21">
-        <f>-DY93</f>
-        <v>0</v>
+        <f ca="1">DY95</f>
+        <v>44.4</v>
       </c>
       <c r="FS19" s="21">
-        <f>-FK93</f>
-        <v>0</v>
+        <f ca="1">-FP95</f>
+        <v>44.4</v>
       </c>
     </row>
     <row r="20" spans="1:177" x14ac:dyDescent="0.2">
@@ -31211,20 +31518,20 @@
     </row>
     <row r="21" spans="1:177" x14ac:dyDescent="0.2">
       <c r="K21" s="21">
-        <f>-O95</f>
-        <v>-44.4</v>
+        <f>O95</f>
+        <v>44.4</v>
       </c>
       <c r="FS21" s="21"/>
     </row>
     <row r="22" spans="1:177" x14ac:dyDescent="0.2">
       <c r="DQ22" s="23">
-        <f>EM8+EK14+EE14+DW7+DV13+DU19</f>
-        <v>0</v>
+        <f ca="1">EM8+EK14+EE14+DW7+DV13+DU19</f>
+        <v>184.00000000000003</v>
       </c>
       <c r="FS22" s="21"/>
       <c r="FU22" s="23">
-        <f>FE8+FF14+FL14+FQ7+FR13+FS19</f>
-        <v>0</v>
+        <f ca="1">FE8+FF14+FL14+FQ7+FR13+FS19</f>
+        <v>184.00000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:177" x14ac:dyDescent="0.2">
@@ -31233,7 +31540,7 @@
     <row r="24" spans="1:177" x14ac:dyDescent="0.2">
       <c r="G24" s="23">
         <f>AC10+AA16+U16+M9+L15+K21</f>
-        <v>-184</v>
+        <v>184</v>
       </c>
       <c r="FS24" s="21"/>
     </row>
@@ -34512,14 +34819,14 @@
       <c r="CN53" s="8"/>
       <c r="CO53" s="67"/>
       <c r="CU53" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CV53" s="53"/>
       <c r="CX53" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DV53" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DW53" s="53"/>
       <c r="DX53" s="53"/>
@@ -34528,11 +34835,11 @@
       <c r="EA53" s="53"/>
       <c r="EB53" s="8"/>
       <c r="EC53" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="ED53" s="53"/>
       <c r="EF53" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="EG53" s="8"/>
       <c r="EH53" s="8"/>
@@ -34552,7 +34859,7 @@
       <c r="EV53" s="8"/>
       <c r="EW53" s="67"/>
       <c r="FM53" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="FN53" s="53"/>
       <c r="FO53" s="53"/>
@@ -34561,11 +34868,11 @@
       <c r="FR53" s="53"/>
       <c r="FS53" s="8"/>
       <c r="FT53" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="FU53" s="53"/>
       <c r="FW53" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="FX53" s="8"/>
     </row>
@@ -36546,10 +36853,10 @@
       <c r="BY71" s="56"/>
       <c r="BZ71" s="26"/>
       <c r="CX71" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DB71" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="DC71" s="53"/>
       <c r="DD71" s="53"/>
@@ -36562,7 +36869,7 @@
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
       <c r="DM71" s="53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DN71" s="53"/>
       <c r="DO71" s="53"/>
@@ -36585,7 +36892,7 @@
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
       <c r="FD71" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="FE71" s="53"/>
       <c r="FF71" s="53"/>
@@ -37364,7 +37671,7 @@
       <c r="AZ80" s="60"/>
       <c r="BA80" s="60"/>
       <c r="BE80" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BF80" s="60"/>
       <c r="BG80" s="60"/>
@@ -37375,7 +37682,7 @@
       <c r="BL80" s="60"/>
       <c r="DL80" s="1"/>
       <c r="DM80" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DN80" s="53"/>
       <c r="DO80" s="53"/>
@@ -37386,7 +37693,7 @@
       <c r="DT80" s="53"/>
       <c r="FC80" s="1"/>
       <c r="FD80" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="FE80" s="53"/>
       <c r="FF80" s="53"/>
@@ -37396,7 +37703,7 @@
       <c r="FJ80" s="53"/>
       <c r="FK80" s="53"/>
     </row>
-    <row r="81" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:174" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="6">
         <f>SUM(C78:C79)</f>
@@ -37447,7 +37754,7 @@
       <c r="Z81" s="49"/>
       <c r="AA81" s="49"/>
     </row>
-    <row r="82" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:174" x14ac:dyDescent="0.2">
       <c r="C82" s="53" t="s">
         <v>54</v>
       </c>
@@ -37459,7 +37766,7 @@
       <c r="I82" s="53"/>
       <c r="J82" s="53"/>
     </row>
-    <row r="83" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:174" x14ac:dyDescent="0.2">
       <c r="C83" s="6">
         <f>C72+C81</f>
         <v>97</v>
@@ -37493,7 +37800,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="84" spans="1:153" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="61" t="s">
         <v>85</v>
       </c>
@@ -37542,8 +37849,24 @@
       <c r="BW84" s="53"/>
       <c r="BX84" s="53"/>
       <c r="BY84" s="53"/>
+      <c r="DV84" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="DW84" s="53"/>
+      <c r="DX84" s="53"/>
+      <c r="DY84" s="53"/>
+      <c r="DZ84" s="53"/>
+      <c r="EA84" s="53"/>
+      <c r="FM84" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="FN84" s="53"/>
+      <c r="FO84" s="53"/>
+      <c r="FP84" s="53"/>
+      <c r="FQ84" s="53"/>
+      <c r="FR84" s="53"/>
     </row>
-    <row r="85" spans="1:153" ht="114" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:174" ht="114" x14ac:dyDescent="0.2">
       <c r="AI85" s="2" t="s">
         <v>23</v>
       </c>
@@ -37634,8 +37957,44 @@
       <c r="BY85" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="DV85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="DW85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="DX85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="DY85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="DZ85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="EA85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="FM85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="FN85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="FO85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="FP85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="FQ85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="FR85" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="86" spans="1:153" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="55" t="s">
         <v>4</v>
       </c>
@@ -37833,8 +38192,68 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK86" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="DL86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DV86" s="6">
+        <f t="array" aca="1" ref="DV86:EA93" ca="1">TRANSPOSE(DM65:DT70) - DV45:EA52</f>
+        <v>97</v>
+      </c>
+      <c r="DW86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB86" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="FC86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="FM86" s="6">
+        <f t="array" aca="1" ref="FM86:FR93" ca="1">TRANSPOSE(FD65:FK70) - FM45:FR52</f>
+        <v>-97</v>
+      </c>
+      <c r="FN86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A87" s="55"/>
       <c r="B87" s="1" t="s">
         <v>1</v>
@@ -38029,8 +38448,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK87" s="55"/>
+      <c r="DL87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW87" s="6">
+        <f ca="1"/>
+        <v>87</v>
+      </c>
+      <c r="DX87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB87" s="55"/>
+      <c r="FC87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FM87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN87" s="6">
+        <f ca="1"/>
+        <v>-87</v>
+      </c>
+      <c r="FO87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A88" s="55"/>
       <c r="B88" s="1" t="s">
         <v>27</v>
@@ -38225,8 +38700,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK88" s="55"/>
+      <c r="DL88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DV88" s="6">
+        <f ca="1"/>
+        <v>-19.399999999999995</v>
+      </c>
+      <c r="DW88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ88" s="6">
+        <f ca="1"/>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="EA88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB88" s="55"/>
+      <c r="FC88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="FM88" s="6">
+        <f ca="1"/>
+        <v>19.399999999999995</v>
+      </c>
+      <c r="FN88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ88" s="6">
+        <f ca="1"/>
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="FR88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A89" s="55"/>
       <c r="B89" s="1" t="s">
         <v>26</v>
@@ -38421,8 +38952,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK89" s="55"/>
+      <c r="DL89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DV89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW89" s="6">
+        <f ca="1"/>
+        <v>-78.2</v>
+      </c>
+      <c r="DX89" s="6">
+        <f ca="1"/>
+        <v>17.8</v>
+      </c>
+      <c r="DY89" s="6">
+        <f ca="1"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="DZ89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA89" s="6">
+        <f ca="1"/>
+        <v>28.1</v>
+      </c>
+      <c r="FB89" s="55"/>
+      <c r="FC89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="FM89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN89" s="6">
+        <f ca="1"/>
+        <v>78.2</v>
+      </c>
+      <c r="FO89" s="6">
+        <f ca="1"/>
+        <v>-17.8</v>
+      </c>
+      <c r="FP89" s="6">
+        <f ca="1"/>
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="FQ89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR89" s="6">
+        <f ca="1"/>
+        <v>-28.1</v>
+      </c>
     </row>
-    <row r="90" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A90" s="55"/>
       <c r="B90" s="1" t="s">
         <v>29</v>
@@ -38617,8 +39204,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK90" s="55"/>
+      <c r="DL90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="DV90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX90" s="6">
+        <f ca="1"/>
+        <v>-12.6</v>
+      </c>
+      <c r="DY90" s="6">
+        <f ca="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="DZ90" s="6">
+        <f ca="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="EA90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB90" s="55"/>
+      <c r="FC90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="FM90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO90" s="6">
+        <f ca="1"/>
+        <v>12.6</v>
+      </c>
+      <c r="FP90" s="6">
+        <f ca="1"/>
+        <v>-12.1</v>
+      </c>
+      <c r="FQ90" s="6">
+        <f ca="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="FR90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A91" s="55"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
@@ -38813,8 +39456,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK91" s="55"/>
+      <c r="DL91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="DV91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY91" s="6">
+        <f ca="1"/>
+        <v>-25.200000000000003</v>
+      </c>
+      <c r="DZ91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB91" s="55"/>
+      <c r="FC91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="FM91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP91" s="6">
+        <f ca="1"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="FQ91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR91" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A92" s="55"/>
       <c r="B92" s="1" t="s">
         <v>17</v>
@@ -39009,8 +39708,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
+      <c r="DK92" s="55"/>
+      <c r="DL92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DV92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ92" s="6">
+        <f ca="1"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="EA92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB92" s="55"/>
+      <c r="FC92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="FM92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ92" s="6">
+        <f ca="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="FR92" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:153" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A93" s="55"/>
       <c r="B93" s="1" t="s">
         <v>18</v>
@@ -39205,8 +39960,64 @@
         <f t="shared" ca="1" si="23"/>
         <v>5.9</v>
       </c>
+      <c r="DK93" s="55"/>
+      <c r="DL93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DV93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA93" s="6">
+        <f ca="1"/>
+        <v>-5.9</v>
+      </c>
+      <c r="FB93" s="55"/>
+      <c r="FC93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="FM93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ93" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR93" s="6">
+        <f ca="1"/>
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="94" spans="1:153" ht="19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:174" ht="19" x14ac:dyDescent="0.2">
       <c r="L94" s="61" t="s">
         <v>13</v>
       </c>
@@ -39281,10 +40092,10 @@
       <c r="CN94" s="8"/>
       <c r="CO94" s="67"/>
       <c r="CX94" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB94" s="53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DC94" s="53"/>
       <c r="DD94" s="53"/>
@@ -39294,20 +40105,25 @@
       <c r="DH94" s="53"/>
       <c r="DI94" s="53"/>
       <c r="DJ94" s="8"/>
-      <c r="DK94" s="8"/>
-      <c r="DL94" s="8"/>
-      <c r="DN94" s="8"/>
-      <c r="DO94" s="8"/>
-      <c r="DP94" s="8"/>
-      <c r="DQ94" s="8"/>
-      <c r="DR94" s="8"/>
-      <c r="DS94" s="8"/>
-      <c r="DT94" s="8"/>
-      <c r="DU94" s="8"/>
-      <c r="DV94" s="8"/>
+      <c r="DV94" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="DW94" s="61"/>
+      <c r="DX94" s="61"/>
+      <c r="DY94" s="61"/>
+      <c r="DZ94" s="61"/>
+      <c r="EA94" s="61"/>
       <c r="EW94" s="67"/>
+      <c r="FM94" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="FN94" s="61"/>
+      <c r="FO94" s="61"/>
+      <c r="FP94" s="61"/>
+      <c r="FQ94" s="61"/>
+      <c r="FR94" s="61"/>
     </row>
-    <row r="95" spans="1:153" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="55" t="s">
         <v>30</v>
       </c>
@@ -39333,8 +40149,68 @@
       <c r="Q95" s="16">
         <v>28.1</v>
       </c>
+      <c r="DT95" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="DU95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV95" s="16">
+        <f t="array" aca="1" ref="DV95:EA97" ca="1">MMULT(TRANSPOSE(C31:E38), DV86:EA93)</f>
+        <v>77.600000000000009</v>
+      </c>
+      <c r="DW95" s="16">
+        <f ca="1"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="DX95" s="16">
+        <f ca="1"/>
+        <v>5.2000000000000011</v>
+      </c>
+      <c r="DY95" s="16">
+        <f ca="1"/>
+        <v>44.4</v>
+      </c>
+      <c r="DZ95" s="16">
+        <f ca="1"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="EA95" s="16">
+        <f ca="1"/>
+        <v>28.1</v>
+      </c>
+      <c r="FK95" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="FL95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="FM95" s="16">
+        <f t="array" aca="1" ref="FM95:FR97" ca="1">MMULT(TRANSPOSE(C31:E38), FM86:FR93)</f>
+        <v>-77.600000000000009</v>
+      </c>
+      <c r="FN95" s="16">
+        <f ca="1"/>
+        <v>-8.7999999999999972</v>
+      </c>
+      <c r="FO95" s="16">
+        <f ca="1"/>
+        <v>-5.2000000000000011</v>
+      </c>
+      <c r="FP95" s="16">
+        <f ca="1"/>
+        <v>-44.4</v>
+      </c>
+      <c r="FQ95" s="16">
+        <f ca="1"/>
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="FR95" s="16">
+        <f ca="1"/>
+        <v>-28.1</v>
+      </c>
     </row>
-    <row r="96" spans="1:153" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:174" ht="17" x14ac:dyDescent="0.2">
       <c r="J96" s="55"/>
       <c r="K96" s="37" t="s">
         <v>81</v>
@@ -39357,8 +40233,64 @@
       <c r="Q96" s="6">
         <v>0</v>
       </c>
+      <c r="DT96" s="55"/>
+      <c r="DU96" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="DV96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY96" s="6">
+        <f ca="1"/>
+        <v>-25.200000000000003</v>
+      </c>
+      <c r="DZ96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FK96" s="55"/>
+      <c r="FL96" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="FM96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP96" s="6">
+        <f ca="1"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="FQ96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR96" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:174" x14ac:dyDescent="0.2">
       <c r="J97" s="55"/>
       <c r="K97" s="1" t="s">
         <v>33</v>
@@ -39391,8 +40323,64 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
       <c r="AA97" s="17"/>
+      <c r="DT97" s="55"/>
+      <c r="DU97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="DV97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ97" s="6">
+        <f ca="1"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="EA97" s="6">
+        <f ca="1"/>
+        <v>-5.9</v>
+      </c>
+      <c r="FK97" s="55"/>
+      <c r="FL97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="FM97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP97" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ97" s="6">
+        <f ca="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="FR97" s="6">
+        <f ca="1"/>
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="98" spans="1:27" ht="20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:174" ht="20" x14ac:dyDescent="0.25">
       <c r="L98" s="61" t="s">
         <v>35</v>
       </c>
@@ -39401,8 +40389,24 @@
       <c r="O98" s="61"/>
       <c r="P98" s="61"/>
       <c r="Q98" s="61"/>
+      <c r="DV98" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="DW98" s="61"/>
+      <c r="DX98" s="61"/>
+      <c r="DY98" s="61"/>
+      <c r="DZ98" s="61"/>
+      <c r="EA98" s="61"/>
+      <c r="FM98" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="FN98" s="61"/>
+      <c r="FO98" s="61"/>
+      <c r="FP98" s="61"/>
+      <c r="FQ98" s="61"/>
+      <c r="FR98" s="61"/>
     </row>
-    <row r="101" spans="1:27" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:174" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="27" t="s">
         <v>7</v>
       </c>
@@ -39415,7 +40419,7 @@
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
         <v>8</v>
       </c>
@@ -39428,7 +40432,7 @@
       <c r="H103" s="53"/>
       <c r="I103" s="53"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A104" s="46"/>
       <c r="B104" s="46"/>
       <c r="C104" s="46"/>
@@ -39439,7 +40443,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="s">
         <v>4</v>
       </c>
@@ -39464,7 +40468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A106" s="55"/>
       <c r="B106" s="1" t="s">
         <v>1</v>
@@ -39486,7 +40490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A107" s="55"/>
       <c r="B107" s="1" t="s">
         <v>27</v>
@@ -39507,7 +40511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A108" s="55"/>
       <c r="B108" s="1" t="s">
         <v>26</v>
@@ -39537,7 +40541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A109" s="55"/>
       <c r="B109" s="1" t="s">
         <v>29</v>
@@ -39559,7 +40563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A110" s="55"/>
       <c r="B110" s="1" t="s">
         <v>19</v>
@@ -39581,7 +40585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A111" s="55"/>
       <c r="B111" s="1" t="s">
         <v>17</v>
@@ -39602,7 +40606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A112" s="55"/>
       <c r="B112" s="1" t="s">
         <v>18</v>
@@ -40453,11 +41457,21 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="111">
+    <mergeCell ref="FK95:FK97"/>
+    <mergeCell ref="FM98:FR98"/>
+    <mergeCell ref="FM84:FR84"/>
+    <mergeCell ref="DV84:EA84"/>
+    <mergeCell ref="DK86:DK93"/>
+    <mergeCell ref="DV94:EA94"/>
+    <mergeCell ref="DT95:DT97"/>
+    <mergeCell ref="DV98:EA98"/>
     <mergeCell ref="FB65:FB70"/>
     <mergeCell ref="FD71:FK71"/>
     <mergeCell ref="FB78:FB79"/>
     <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="FB86:FB93"/>
+    <mergeCell ref="FM94:FR94"/>
     <mergeCell ref="EY1:GE1"/>
     <mergeCell ref="FD43:FK43"/>
     <mergeCell ref="FM43:FR43"/>

--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B7E22-9350-B645-B4C2-12BDFB1EF72B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE23A6-E1A2-C64D-A19E-165B8F9591A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2262,13 +2262,7 @@
     <t>It assumes perfect substitution among inputs to any processing stage in the ECC.</t>
   </si>
   <si>
-    <t>The algorith is:</t>
-  </si>
-  <si>
     <t>* reverse the ECC</t>
-  </si>
-  <si>
-    <t>* do an upstream swim with the new final demand</t>
   </si>
   <si>
     <t>1. Reverse the ECC</t>
@@ -2662,6 +2656,12 @@
       </rPr>
       <t>W'</t>
     </r>
+  </si>
+  <si>
+    <t>* do an upstream swim with the new final demand (which is actually new resources)</t>
+  </si>
+  <si>
+    <t>The algorithm is:</t>
   </si>
 </sst>
 </file>
@@ -23750,7 +23750,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23767,22 +23767,22 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -30983,8 +30983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018262C-ADF6-FA4F-AD02-C6E8C0BF89C2}">
   <dimension ref="A1:GE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BV17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DE31" sqref="DE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31011,7 +31011,7 @@
   <sheetData>
     <row r="1" spans="1:187" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -31048,7 +31048,7 @@
       <c r="AH1" s="64"/>
       <c r="AI1" s="64"/>
       <c r="CQ1" s="64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CR1" s="64"/>
       <c r="CS1" s="64"/>
@@ -31083,7 +31083,7 @@
       <c r="DV1" s="64"/>
       <c r="DW1" s="64"/>
       <c r="EY1" s="64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="EZ1" s="64"/>
       <c r="FA1" s="64"/>
@@ -34819,14 +34819,14 @@
       <c r="CN53" s="8"/>
       <c r="CO53" s="67"/>
       <c r="CU53" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CV53" s="53"/>
       <c r="CX53" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="DV53" s="53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="DW53" s="53"/>
       <c r="DX53" s="53"/>
@@ -34835,11 +34835,11 @@
       <c r="EA53" s="53"/>
       <c r="EB53" s="8"/>
       <c r="EC53" s="53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="ED53" s="53"/>
       <c r="EF53" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="EG53" s="8"/>
       <c r="EH53" s="8"/>
@@ -34859,7 +34859,7 @@
       <c r="EV53" s="8"/>
       <c r="EW53" s="67"/>
       <c r="FM53" s="53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="FN53" s="53"/>
       <c r="FO53" s="53"/>
@@ -34868,11 +34868,11 @@
       <c r="FR53" s="53"/>
       <c r="FS53" s="8"/>
       <c r="FT53" s="53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="FU53" s="53"/>
       <c r="FW53" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="FX53" s="8"/>
     </row>
@@ -36853,10 +36853,10 @@
       <c r="BY71" s="56"/>
       <c r="BZ71" s="26"/>
       <c r="CX71" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="DB71" s="53" t="s">
         <v>122</v>
-      </c>
-      <c r="DB71" s="53" t="s">
-        <v>124</v>
       </c>
       <c r="DC71" s="53"/>
       <c r="DD71" s="53"/>
@@ -36869,7 +36869,7 @@
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
       <c r="DM71" s="53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="DN71" s="53"/>
       <c r="DO71" s="53"/>
@@ -36892,7 +36892,7 @@
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
       <c r="FD71" s="53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="FE71" s="53"/>
       <c r="FF71" s="53"/>
@@ -37671,7 +37671,7 @@
       <c r="AZ80" s="60"/>
       <c r="BA80" s="60"/>
       <c r="BE80" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BF80" s="60"/>
       <c r="BG80" s="60"/>
@@ -37682,7 +37682,7 @@
       <c r="BL80" s="60"/>
       <c r="DL80" s="1"/>
       <c r="DM80" s="53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="DN80" s="53"/>
       <c r="DO80" s="53"/>
@@ -37693,7 +37693,7 @@
       <c r="DT80" s="53"/>
       <c r="FC80" s="1"/>
       <c r="FD80" s="53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="FE80" s="53"/>
       <c r="FF80" s="53"/>
@@ -40092,10 +40092,10 @@
       <c r="CN94" s="8"/>
       <c r="CO94" s="67"/>
       <c r="CX94" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="DB94" s="53" t="s">
         <v>123</v>
-      </c>
-      <c r="DB94" s="53" t="s">
-        <v>125</v>
       </c>
       <c r="DC94" s="53"/>
       <c r="DD94" s="53"/>
@@ -40106,7 +40106,7 @@
       <c r="DI94" s="53"/>
       <c r="DJ94" s="8"/>
       <c r="DV94" s="61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="DW94" s="61"/>
       <c r="DX94" s="61"/>
@@ -40115,7 +40115,7 @@
       <c r="EA94" s="61"/>
       <c r="EW94" s="67"/>
       <c r="FM94" s="61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="FN94" s="61"/>
       <c r="FO94" s="61"/>
@@ -40390,7 +40390,7 @@
       <c r="P98" s="61"/>
       <c r="Q98" s="61"/>
       <c r="DV98" s="61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="DW98" s="61"/>
       <c r="DX98" s="61"/>
@@ -40398,7 +40398,7 @@
       <c r="DZ98" s="61"/>
       <c r="EA98" s="61"/>
       <c r="FM98" s="61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="FN98" s="61"/>
       <c r="FO98" s="61"/>

--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE23A6-E1A2-C64D-A19E-165B8F9591A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD4ABB-DBBD-4C43-BFF8-7DB19FD82E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3470,40 +3470,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
@@ -3513,6 +3483,36 @@
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -23981,11 +23981,11 @@
     </row>
     <row r="26" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -24004,7 +24004,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -24023,7 +24023,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -24040,7 +24040,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -24057,7 +24057,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -24074,7 +24074,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -24119,7 +24119,7 @@
       <c r="CO32" s="31"/>
     </row>
     <row r="33" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -24164,7 +24164,7 @@
       <c r="CO33" s="31"/>
     </row>
     <row r="34" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -24209,7 +24209,7 @@
       <c r="CO34" s="31"/>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
@@ -24254,11 +24254,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -24351,81 +24351,81 @@
       <c r="CO38" s="29"/>
     </row>
     <row r="40" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="L40" s="53" t="s">
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="L40" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="W40" s="53" t="s">
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="W40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="X40" s="53"/>
+      <c r="X40" s="59"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-      <c r="AI40" s="53" t="s">
+      <c r="AI40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AJ40" s="53"/>
-      <c r="AK40" s="53"/>
-      <c r="AL40" s="53"/>
-      <c r="AM40" s="53"/>
-      <c r="AN40" s="53"/>
-      <c r="AO40" s="53"/>
-      <c r="AP40" s="53"/>
-      <c r="AT40" s="53" t="s">
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AT40" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AU40" s="53"/>
-      <c r="AV40" s="53"/>
-      <c r="AW40" s="53"/>
-      <c r="AX40" s="53"/>
-      <c r="AY40" s="53"/>
-      <c r="BE40" s="53" t="s">
+      <c r="AU40" s="59"/>
+      <c r="AV40" s="59"/>
+      <c r="AW40" s="59"/>
+      <c r="AX40" s="59"/>
+      <c r="AY40" s="59"/>
+      <c r="BE40" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BF40" s="53"/>
-      <c r="BG40" s="53"/>
-      <c r="BH40" s="53"/>
-      <c r="BI40" s="53"/>
-      <c r="BJ40" s="53"/>
-      <c r="BT40" s="53" t="s">
+      <c r="BF40" s="59"/>
+      <c r="BG40" s="59"/>
+      <c r="BH40" s="59"/>
+      <c r="BI40" s="59"/>
+      <c r="BJ40" s="59"/>
+      <c r="BT40" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BU40" s="53"/>
-      <c r="BV40" s="53"/>
-      <c r="BW40" s="53"/>
-      <c r="BX40" s="53"/>
-      <c r="BY40" s="53"/>
-      <c r="CA40" s="53" t="s">
+      <c r="BU40" s="59"/>
+      <c r="BV40" s="59"/>
+      <c r="BW40" s="59"/>
+      <c r="BX40" s="59"/>
+      <c r="BY40" s="59"/>
+      <c r="CA40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="CB40" s="53"/>
-      <c r="CC40" s="53"/>
-      <c r="CD40" s="53"/>
-      <c r="CE40" s="53"/>
-      <c r="CF40" s="53"/>
-      <c r="CG40" s="53"/>
-      <c r="CH40" s="53"/>
-      <c r="CJ40" s="53" t="s">
+      <c r="CB40" s="59"/>
+      <c r="CC40" s="59"/>
+      <c r="CD40" s="59"/>
+      <c r="CE40" s="59"/>
+      <c r="CF40" s="59"/>
+      <c r="CG40" s="59"/>
+      <c r="CH40" s="59"/>
+      <c r="CJ40" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="CK40" s="53"/>
+      <c r="CK40" s="59"/>
       <c r="CL40" s="29"/>
       <c r="CM40" s="29"/>
       <c r="CN40" s="29"/>
@@ -24595,7 +24595,7 @@
       <c r="CO41" s="28"/>
     </row>
     <row r="42" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -24620,7 +24620,7 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="55" t="s">
+      <c r="U42" s="61" t="s">
         <v>4</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -24798,7 +24798,7 @@
       <c r="CO42" s="31"/>
     </row>
     <row r="43" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -24821,7 +24821,7 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="55"/>
+      <c r="U43" s="61"/>
       <c r="V43" s="1" t="s">
         <v>1</v>
       </c>
@@ -24996,7 +24996,7 @@
       <c r="CO43" s="31"/>
     </row>
     <row r="44" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
@@ -25020,7 +25020,7 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="55"/>
+      <c r="U44" s="61"/>
       <c r="V44" s="1" t="s">
         <v>27</v>
       </c>
@@ -25195,7 +25195,7 @@
       <c r="CO44" s="31"/>
     </row>
     <row r="45" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -25220,7 +25220,7 @@
         <f>S4</f>
         <v>28.1</v>
       </c>
-      <c r="U45" s="55"/>
+      <c r="U45" s="61"/>
       <c r="V45" s="1" t="s">
         <v>26</v>
       </c>
@@ -25395,7 +25395,7 @@
       <c r="CO45" s="31"/>
     </row>
     <row r="46" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -25419,7 +25419,7 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="55"/>
+      <c r="U46" s="61"/>
       <c r="V46" s="1" t="s">
         <v>29</v>
       </c>
@@ -25594,7 +25594,7 @@
       <c r="CO46" s="31"/>
     </row>
     <row r="47" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -25616,7 +25616,7 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="55"/>
+      <c r="U47" s="61"/>
       <c r="V47" s="1" t="s">
         <v>19</v>
       </c>
@@ -25792,7 +25792,7 @@
       <c r="CO47" s="40"/>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
@@ -25814,7 +25814,7 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="55"/>
+      <c r="U48" s="61"/>
       <c r="V48" s="1" t="s">
         <v>17</v>
       </c>
@@ -25990,7 +25990,7 @@
       <c r="CO48" s="40"/>
     </row>
     <row r="49" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
@@ -26012,7 +26012,7 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="55"/>
+      <c r="U49" s="61"/>
       <c r="V49" s="1" t="s">
         <v>18</v>
       </c>
@@ -26189,18 +26189,18 @@
     </row>
     <row r="50" spans="1:93" ht="19" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="L50" s="53" t="s">
+      <c r="L50" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="W50" s="53" t="s">
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="W50" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="X50" s="53"/>
+      <c r="X50" s="59"/>
       <c r="Z50" s="41" t="s">
         <v>12</v>
       </c>
@@ -26213,53 +26213,53 @@
       <c r="AE50" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AI50" s="53" t="s">
+      <c r="AI50" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="AJ50" s="53"/>
-      <c r="AK50" s="53"/>
-      <c r="AL50" s="53"/>
-      <c r="AM50" s="53"/>
-      <c r="AN50" s="53"/>
-      <c r="AO50" s="53"/>
-      <c r="AP50" s="53"/>
-      <c r="AT50" s="53" t="s">
+      <c r="AJ50" s="59"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="59"/>
+      <c r="AP50" s="59"/>
+      <c r="AT50" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AU50" s="53"/>
-      <c r="AV50" s="53"/>
-      <c r="AW50" s="53"/>
-      <c r="AX50" s="53"/>
-      <c r="AY50" s="53"/>
+      <c r="AU50" s="59"/>
+      <c r="AV50" s="59"/>
+      <c r="AW50" s="59"/>
+      <c r="AX50" s="59"/>
+      <c r="AY50" s="59"/>
       <c r="BB50" s="8"/>
       <c r="BC50" s="8"/>
       <c r="BD50" s="8"/>
-      <c r="BE50" s="53" t="s">
+      <c r="BE50" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="BF50" s="53"/>
-      <c r="BG50" s="53"/>
-      <c r="BH50" s="53"/>
-      <c r="BI50" s="53"/>
-      <c r="BJ50" s="53"/>
-      <c r="BT50" s="56" t="s">
+      <c r="BF50" s="59"/>
+      <c r="BG50" s="59"/>
+      <c r="BH50" s="59"/>
+      <c r="BI50" s="59"/>
+      <c r="BJ50" s="59"/>
+      <c r="BT50" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="BU50" s="56"/>
-      <c r="BV50" s="56"/>
-      <c r="BW50" s="56"/>
-      <c r="BX50" s="56"/>
-      <c r="BY50" s="56"/>
-      <c r="CA50" s="53" t="s">
+      <c r="BU50" s="62"/>
+      <c r="BV50" s="62"/>
+      <c r="BW50" s="62"/>
+      <c r="BX50" s="62"/>
+      <c r="BY50" s="62"/>
+      <c r="CA50" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="CB50" s="53"/>
-      <c r="CC50" s="53"/>
-      <c r="CD50" s="53"/>
-      <c r="CE50" s="53"/>
-      <c r="CF50" s="53"/>
-      <c r="CG50" s="53"/>
-      <c r="CH50" s="53"/>
+      <c r="CB50" s="59"/>
+      <c r="CC50" s="59"/>
+      <c r="CD50" s="59"/>
+      <c r="CE50" s="59"/>
+      <c r="CF50" s="59"/>
+      <c r="CG50" s="59"/>
+      <c r="CH50" s="59"/>
       <c r="CJ50" s="8" t="s">
         <v>83</v>
       </c>
@@ -26271,7 +26271,7 @@
     </row>
     <row r="51" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="J51" s="55" t="s">
+      <c r="J51" s="61" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -26328,7 +26328,7 @@
     </row>
     <row r="52" spans="1:93" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="J52" s="55"/>
+      <c r="J52" s="61"/>
       <c r="K52" s="37" t="s">
         <v>81</v>
       </c>
@@ -26358,7 +26358,7 @@
     </row>
     <row r="53" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="J53" s="55"/>
+      <c r="J53" s="61"/>
       <c r="K53" s="1" t="s">
         <v>33</v>
       </c>
@@ -26392,14 +26392,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L54" s="57" t="s">
+      <c r="L54" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.2">
       <c r="L55" s="6">
@@ -26428,58 +26428,58 @@
       </c>
     </row>
     <row r="56" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="L56" s="53" t="s">
+      <c r="L56" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-      <c r="Z60" s="54" t="s">
+      <c r="Z60" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AI60" s="53" t="s">
+      <c r="AA60" s="66"/>
+      <c r="AB60" s="66"/>
+      <c r="AI60" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AJ60" s="53"/>
-      <c r="AK60" s="53"/>
-      <c r="AL60" s="53"/>
-      <c r="AM60" s="53"/>
-      <c r="AN60" s="53"/>
-      <c r="AT60" s="53" t="s">
+      <c r="AJ60" s="59"/>
+      <c r="AK60" s="59"/>
+      <c r="AL60" s="59"/>
+      <c r="AM60" s="59"/>
+      <c r="AN60" s="59"/>
+      <c r="AT60" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AU60" s="53"/>
-      <c r="AV60" s="53"/>
-      <c r="AW60" s="53"/>
-      <c r="AX60" s="53"/>
-      <c r="AY60" s="53"/>
-      <c r="AZ60" s="53"/>
-      <c r="BA60" s="53"/>
-      <c r="BE60" s="53" t="s">
+      <c r="AU60" s="59"/>
+      <c r="AV60" s="59"/>
+      <c r="AW60" s="59"/>
+      <c r="AX60" s="59"/>
+      <c r="AY60" s="59"/>
+      <c r="AZ60" s="59"/>
+      <c r="BA60" s="59"/>
+      <c r="BE60" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BF60" s="53"/>
-      <c r="BG60" s="53"/>
-      <c r="BH60" s="53"/>
-      <c r="BI60" s="53"/>
-      <c r="BJ60" s="53"/>
-      <c r="BK60" s="53"/>
-      <c r="BL60" s="53"/>
-      <c r="BT60" s="53" t="s">
+      <c r="BF60" s="59"/>
+      <c r="BG60" s="59"/>
+      <c r="BH60" s="59"/>
+      <c r="BI60" s="59"/>
+      <c r="BJ60" s="59"/>
+      <c r="BK60" s="59"/>
+      <c r="BL60" s="59"/>
+      <c r="BT60" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BU60" s="53"/>
-      <c r="BV60" s="53"/>
-      <c r="BW60" s="53"/>
-      <c r="BX60" s="53"/>
-      <c r="BY60" s="53"/>
+      <c r="BU60" s="59"/>
+      <c r="BV60" s="59"/>
+      <c r="BW60" s="59"/>
+      <c r="BX60" s="59"/>
+      <c r="BY60" s="59"/>
     </row>
     <row r="61" spans="1:93" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -26580,7 +26580,7 @@
       </c>
     </row>
     <row r="62" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -26747,7 +26747,7 @@
       </c>
     </row>
     <row r="63" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
@@ -26911,7 +26911,7 @@
       </c>
     </row>
     <row r="64" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
@@ -27075,7 +27075,7 @@
       </c>
     </row>
     <row r="65" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
@@ -27239,7 +27239,7 @@
       </c>
     </row>
     <row r="66" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -27403,7 +27403,7 @@
       </c>
     </row>
     <row r="67" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A67" s="55"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="1" t="s">
         <v>16</v>
       </c>
@@ -27567,57 +27567,57 @@
       </c>
     </row>
     <row r="68" spans="1:78" ht="18" x14ac:dyDescent="0.25">
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="57" t="s">
+      <c r="Z68" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="57"/>
-      <c r="AB68" s="57"/>
+      <c r="AA68" s="64"/>
+      <c r="AB68" s="64"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AI68" s="53" t="s">
+      <c r="AI68" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AJ68" s="53"/>
-      <c r="AK68" s="53"/>
-      <c r="AL68" s="53"/>
-      <c r="AM68" s="53"/>
-      <c r="AN68" s="53"/>
-      <c r="AT68" s="59" t="s">
+      <c r="AJ68" s="59"/>
+      <c r="AK68" s="59"/>
+      <c r="AL68" s="59"/>
+      <c r="AM68" s="59"/>
+      <c r="AN68" s="59"/>
+      <c r="AT68" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="AU68" s="59"/>
-      <c r="AV68" s="59"/>
-      <c r="AW68" s="59"/>
-      <c r="AX68" s="59"/>
-      <c r="AY68" s="59"/>
-      <c r="AZ68" s="59"/>
-      <c r="BA68" s="59"/>
+      <c r="AU68" s="65"/>
+      <c r="AV68" s="65"/>
+      <c r="AW68" s="65"/>
+      <c r="AX68" s="65"/>
+      <c r="AY68" s="65"/>
+      <c r="AZ68" s="65"/>
+      <c r="BA68" s="65"/>
       <c r="BB68" s="25"/>
       <c r="BC68" s="25"/>
       <c r="BD68" s="25"/>
-      <c r="BE68" s="56" t="s">
+      <c r="BE68" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="BF68" s="56"/>
-      <c r="BG68" s="56"/>
-      <c r="BH68" s="56"/>
-      <c r="BI68" s="56"/>
-      <c r="BJ68" s="56"/>
-      <c r="BK68" s="56"/>
-      <c r="BL68" s="56"/>
+      <c r="BF68" s="62"/>
+      <c r="BG68" s="62"/>
+      <c r="BH68" s="62"/>
+      <c r="BI68" s="62"/>
+      <c r="BJ68" s="62"/>
+      <c r="BK68" s="62"/>
+      <c r="BL68" s="62"/>
       <c r="BM68" s="26"/>
       <c r="BN68" s="26"/>
       <c r="BO68" s="30" t="s">
@@ -27629,14 +27629,14 @@
       <c r="BQ68" s="26"/>
       <c r="BR68" s="26"/>
       <c r="BS68" s="26"/>
-      <c r="BT68" s="56" t="s">
+      <c r="BT68" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="BU68" s="56"/>
-      <c r="BV68" s="56"/>
-      <c r="BW68" s="56"/>
-      <c r="BX68" s="56"/>
-      <c r="BY68" s="56"/>
+      <c r="BU68" s="62"/>
+      <c r="BV68" s="62"/>
+      <c r="BW68" s="62"/>
+      <c r="BX68" s="62"/>
+      <c r="BY68" s="62"/>
       <c r="BZ68" s="26"/>
     </row>
     <row r="69" spans="1:78" x14ac:dyDescent="0.2">
@@ -27718,16 +27718,16 @@
       <c r="BZ69" s="26"/>
     </row>
     <row r="70" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
@@ -27789,33 +27789,33 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="54" t="s">
+      <c r="Z73" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="54"/>
-      <c r="AI73" s="58" t="s">
+      <c r="AA73" s="66"/>
+      <c r="AI73" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="58"/>
+      <c r="AJ73" s="67"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="58"/>
-      <c r="AM73" s="58"/>
+      <c r="AL73" s="67"/>
+      <c r="AM73" s="67"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
       <c r="AQ73" s="31"/>
       <c r="AR73" s="31"/>
       <c r="AS73" s="31"/>
-      <c r="AT73" s="53" t="s">
+      <c r="AT73" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AU73" s="53"/>
-      <c r="AV73" s="53"/>
-      <c r="AW73" s="53"/>
-      <c r="AX73" s="53"/>
-      <c r="AY73" s="53"/>
-      <c r="AZ73" s="53"/>
-      <c r="BA73" s="53"/>
+      <c r="AU73" s="59"/>
+      <c r="AV73" s="59"/>
+      <c r="AW73" s="59"/>
+      <c r="AX73" s="59"/>
+      <c r="AY73" s="59"/>
+      <c r="AZ73" s="59"/>
+      <c r="BA73" s="59"/>
     </row>
     <row r="74" spans="1:78" ht="87" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
@@ -27883,7 +27883,7 @@
       </c>
     </row>
     <row r="75" spans="1:78" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -27993,7 +27993,7 @@
       </c>
     </row>
     <row r="76" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A76" s="55"/>
+      <c r="A76" s="61"/>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
@@ -28101,16 +28101,16 @@
     </row>
     <row r="77" spans="1:78" ht="18" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="53" t="s">
+      <c r="C77" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
       <c r="N77" s="40"/>
@@ -28132,29 +28132,29 @@
       <c r="AD77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="60" t="s">
+      <c r="AI77" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="60"/>
+      <c r="AJ77" s="63"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="60"/>
-      <c r="AM77" s="60"/>
+      <c r="AL77" s="63"/>
+      <c r="AM77" s="63"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="60" t="s">
+      <c r="AT77" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="60"/>
-      <c r="AV77" s="60"/>
-      <c r="AW77" s="60"/>
-      <c r="AX77" s="60"/>
-      <c r="AY77" s="60"/>
-      <c r="AZ77" s="60"/>
-      <c r="BA77" s="60"/>
+      <c r="AU77" s="63"/>
+      <c r="AV77" s="63"/>
+      <c r="AW77" s="63"/>
+      <c r="AX77" s="63"/>
+      <c r="AY77" s="63"/>
+      <c r="AZ77" s="63"/>
+      <c r="BA77" s="63"/>
     </row>
     <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
@@ -28208,16 +28208,16 @@
       <c r="AA78" s="44"/>
     </row>
     <row r="79" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
     </row>
     <row r="80" spans="1:78" x14ac:dyDescent="0.2">
       <c r="C80" s="6">
@@ -28254,54 +28254,54 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="AI81" s="53" t="s">
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="AI81" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AJ81" s="53"/>
-      <c r="AK81" s="53"/>
-      <c r="AL81" s="53"/>
-      <c r="AM81" s="53"/>
-      <c r="AN81" s="53"/>
-      <c r="AO81" s="53"/>
-      <c r="AP81" s="53"/>
-      <c r="AT81" s="53" t="s">
+      <c r="AJ81" s="59"/>
+      <c r="AK81" s="59"/>
+      <c r="AL81" s="59"/>
+      <c r="AM81" s="59"/>
+      <c r="AN81" s="59"/>
+      <c r="AO81" s="59"/>
+      <c r="AP81" s="59"/>
+      <c r="AT81" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AU81" s="53"/>
-      <c r="AV81" s="53"/>
-      <c r="AW81" s="53"/>
-      <c r="AX81" s="53"/>
-      <c r="AY81" s="53"/>
-      <c r="AZ81" s="53"/>
-      <c r="BA81" s="53"/>
-      <c r="BE81" s="53" t="s">
+      <c r="AU81" s="59"/>
+      <c r="AV81" s="59"/>
+      <c r="AW81" s="59"/>
+      <c r="AX81" s="59"/>
+      <c r="AY81" s="59"/>
+      <c r="AZ81" s="59"/>
+      <c r="BA81" s="59"/>
+      <c r="BE81" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BF81" s="53"/>
-      <c r="BG81" s="53"/>
-      <c r="BH81" s="53"/>
-      <c r="BI81" s="53"/>
-      <c r="BJ81" s="53"/>
-      <c r="BK81" s="53"/>
-      <c r="BL81" s="53"/>
-      <c r="BT81" s="53" t="s">
+      <c r="BF81" s="59"/>
+      <c r="BG81" s="59"/>
+      <c r="BH81" s="59"/>
+      <c r="BI81" s="59"/>
+      <c r="BJ81" s="59"/>
+      <c r="BK81" s="59"/>
+      <c r="BL81" s="59"/>
+      <c r="BT81" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BU81" s="53"/>
-      <c r="BV81" s="53"/>
-      <c r="BW81" s="53"/>
-      <c r="BX81" s="53"/>
-      <c r="BY81" s="53"/>
+      <c r="BU81" s="59"/>
+      <c r="BV81" s="59"/>
+      <c r="BW81" s="59"/>
+      <c r="BX81" s="59"/>
+      <c r="BY81" s="59"/>
     </row>
     <row r="82" spans="1:93" ht="114" x14ac:dyDescent="0.2">
       <c r="AI82" s="2" t="s">
@@ -28396,7 +28396,7 @@
       </c>
     </row>
     <row r="83" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="55" t="s">
+      <c r="A83" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -28559,7 +28559,7 @@
       </c>
     </row>
     <row r="84" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
@@ -28719,7 +28719,7 @@
       </c>
     </row>
     <row r="85" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
+      <c r="A85" s="61"/>
       <c r="B85" s="1" t="s">
         <v>27</v>
       </c>
@@ -28879,7 +28879,7 @@
       </c>
     </row>
     <row r="86" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
@@ -29039,7 +29039,7 @@
       </c>
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="1" t="s">
         <v>29</v>
       </c>
@@ -29199,7 +29199,7 @@
       </c>
     </row>
     <row r="88" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="1" t="s">
         <v>19</v>
       </c>
@@ -29359,7 +29359,7 @@
       </c>
     </row>
     <row r="89" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
@@ -29519,7 +29519,7 @@
       </c>
     </row>
     <row r="90" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
@@ -29679,53 +29679,53 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19" x14ac:dyDescent="0.2">
-      <c r="L91" s="61" t="s">
+      <c r="L91" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="61"/>
-      <c r="N91" s="61"/>
-      <c r="O91" s="61"/>
-      <c r="P91" s="61"/>
-      <c r="Q91" s="61"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AI91" s="53" t="s">
+      <c r="AI91" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AJ91" s="53"/>
-      <c r="AK91" s="53"/>
-      <c r="AL91" s="53"/>
-      <c r="AM91" s="53"/>
-      <c r="AN91" s="53"/>
-      <c r="AO91" s="53"/>
-      <c r="AP91" s="53"/>
+      <c r="AJ91" s="59"/>
+      <c r="AK91" s="59"/>
+      <c r="AL91" s="59"/>
+      <c r="AM91" s="59"/>
+      <c r="AN91" s="59"/>
+      <c r="AO91" s="59"/>
+      <c r="AP91" s="59"/>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="8"/>
       <c r="AS91" s="8"/>
-      <c r="AT91" s="53" t="s">
+      <c r="AT91" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AU91" s="53"/>
-      <c r="AV91" s="53"/>
-      <c r="AW91" s="53"/>
-      <c r="AX91" s="53"/>
-      <c r="AY91" s="53"/>
-      <c r="AZ91" s="53"/>
-      <c r="BA91" s="53"/>
+      <c r="AU91" s="59"/>
+      <c r="AV91" s="59"/>
+      <c r="AW91" s="59"/>
+      <c r="AX91" s="59"/>
+      <c r="AY91" s="59"/>
+      <c r="AZ91" s="59"/>
+      <c r="BA91" s="59"/>
       <c r="BB91" s="8"/>
       <c r="BC91" s="8"/>
       <c r="BD91" s="8"/>
-      <c r="BE91" s="53" t="s">
+      <c r="BE91" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="BF91" s="53"/>
-      <c r="BG91" s="53"/>
-      <c r="BH91" s="53"/>
-      <c r="BI91" s="53"/>
-      <c r="BJ91" s="53"/>
-      <c r="BK91" s="53"/>
-      <c r="BL91" s="53"/>
+      <c r="BF91" s="59"/>
+      <c r="BG91" s="59"/>
+      <c r="BH91" s="59"/>
+      <c r="BI91" s="59"/>
+      <c r="BJ91" s="59"/>
+      <c r="BK91" s="59"/>
+      <c r="BL91" s="59"/>
       <c r="BM91" s="8"/>
       <c r="BN91" s="8"/>
       <c r="BO91" s="30" t="s">
@@ -29737,14 +29737,14 @@
       <c r="BQ91" s="8"/>
       <c r="BR91" s="8"/>
       <c r="BS91" s="8"/>
-      <c r="BT91" s="56" t="s">
+      <c r="BT91" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="BU91" s="56"/>
-      <c r="BV91" s="56"/>
-      <c r="BW91" s="56"/>
-      <c r="BX91" s="56"/>
-      <c r="BY91" s="56"/>
+      <c r="BU91" s="62"/>
+      <c r="BV91" s="62"/>
+      <c r="BW91" s="62"/>
+      <c r="BX91" s="62"/>
+      <c r="BY91" s="62"/>
       <c r="BZ91" s="8"/>
       <c r="CB91" s="8"/>
       <c r="CC91" s="8"/>
@@ -29754,7 +29754,7 @@
       <c r="CO91" s="8"/>
     </row>
     <row r="92" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J92" s="55" t="s">
+      <c r="J92" s="61" t="s">
         <v>30</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -29781,7 +29781,7 @@
       </c>
     </row>
     <row r="93" spans="1:93" ht="17" x14ac:dyDescent="0.2">
-      <c r="J93" s="55"/>
+      <c r="J93" s="61"/>
       <c r="K93" s="37" t="s">
         <v>81</v>
       </c>
@@ -29805,7 +29805,7 @@
       </c>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="J94" s="55"/>
+      <c r="J94" s="61"/>
       <c r="K94" s="1" t="s">
         <v>33</v>
       </c>
@@ -29839,14 +29839,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L95" s="61" t="s">
+      <c r="L95" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="61"/>
-      <c r="N95" s="61"/>
-      <c r="O95" s="61"/>
-      <c r="P95" s="61"/>
-      <c r="Q95" s="61"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="60"/>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="60"/>
     </row>
     <row r="98" spans="1:40" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="27" t="s">
@@ -29862,17 +29862,17 @@
       <c r="I98" s="27"/>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="41"/>
@@ -29886,7 +29886,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -29911,7 +29911,7 @@
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A103" s="55"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
@@ -29933,7 +29933,7 @@
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A104" s="55"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="1" t="s">
         <v>27</v>
       </c>
@@ -29954,7 +29954,7 @@
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A105" s="55"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="1" t="s">
         <v>26</v>
       </c>
@@ -29984,7 +29984,7 @@
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="1" t="s">
         <v>29</v>
       </c>
@@ -30006,7 +30006,7 @@
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="1" t="s">
         <v>19</v>
       </c>
@@ -30028,7 +30028,7 @@
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A108" s="55"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
@@ -30049,7 +30049,7 @@
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A109" s="55"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="1" t="s">
         <v>18</v>
       </c>
@@ -30086,17 +30086,17 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="59"/>
       <c r="AL112" s="18"/>
       <c r="AM112" s="18"/>
       <c r="AN112" s="18"/>
@@ -30143,7 +30143,7 @@
       <c r="AN113" s="18"/>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -30198,7 +30198,7 @@
       <c r="AQ114" s="18"/>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A115" s="55"/>
+      <c r="A115" s="61"/>
       <c r="B115" s="1" t="s">
         <v>24</v>
       </c>
@@ -30249,7 +30249,7 @@
       <c r="AQ115" s="18"/>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
+      <c r="A116" s="61"/>
       <c r="B116" s="1" t="s">
         <v>25</v>
       </c>
@@ -30309,7 +30309,7 @@
       <c r="AQ116" s="18"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A117" s="55"/>
+      <c r="A117" s="61"/>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
@@ -30360,7 +30360,7 @@
       <c r="AQ117" s="18"/>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A118" s="55"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="1" t="s">
         <v>15</v>
       </c>
@@ -30411,7 +30411,7 @@
       <c r="AQ118" s="18"/>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A119" s="55"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="1" t="s">
         <v>16</v>
       </c>
@@ -30462,21 +30462,21 @@
       <c r="AQ119" s="18"/>
     </row>
     <row r="120" spans="1:43" ht="19" x14ac:dyDescent="0.2">
-      <c r="C120" s="53" t="s">
+      <c r="C120" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="G120" s="61" t="s">
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+      <c r="G120" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="61"/>
-      <c r="I120" s="61"/>
-      <c r="K120" s="61" t="s">
+      <c r="H120" s="60"/>
+      <c r="I120" s="60"/>
+      <c r="K120" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="61"/>
-      <c r="M120" s="61"/>
+      <c r="L120" s="60"/>
+      <c r="M120" s="60"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -30500,7 +30500,7 @@
       </c>
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -30520,7 +30520,7 @@
       </c>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
+      <c r="A126" s="61"/>
       <c r="B126" s="1" t="s">
         <v>24</v>
       </c>
@@ -30537,7 +30537,7 @@
       </c>
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A127" s="55"/>
+      <c r="A127" s="61"/>
       <c r="B127" s="1" t="s">
         <v>25</v>
       </c>
@@ -30554,7 +30554,7 @@
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A128" s="55"/>
+      <c r="A128" s="61"/>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
@@ -30571,7 +30571,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="55"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
@@ -30588,7 +30588,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="1" t="s">
         <v>16</v>
       </c>
@@ -30621,14 +30621,14 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C135" s="53" t="s">
+      <c r="C135" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="53"/>
-      <c r="H135" s="53"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="59"/>
     </row>
     <row r="136" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
@@ -30651,7 +30651,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -30691,7 +30691,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="55"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="1" t="s">
         <v>24</v>
       </c>
@@ -30729,7 +30729,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="55"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="1" t="s">
         <v>25</v>
       </c>
@@ -30767,7 +30767,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="55"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
@@ -30805,7 +30805,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="55"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
@@ -30843,7 +30843,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="55"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="1" t="s">
         <v>16</v>
       </c>
@@ -30881,14 +30881,14 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C143" s="53" t="s">
+      <c r="C143" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D143" s="53"/>
-      <c r="E143" s="53"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="53"/>
-      <c r="H143" s="53"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="59"/>
       <c r="J143" s="33" t="s">
         <v>79</v>
       </c>
@@ -30900,65 +30900,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -30971,6 +30912,65 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="17" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -30983,8 +30983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018262C-ADF6-FA4F-AD02-C6E8C0BF89C2}">
   <dimension ref="A1:GE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BV17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DE31" sqref="DE31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CL38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CU46" sqref="CU46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30995,7 +30995,7 @@
     <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="7" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="92" width="5.33203125" customWidth="1"/>
-    <col min="93" max="93" width="5.33203125" style="65" customWidth="1"/>
+    <col min="93" max="93" width="5.33203125" style="55" customWidth="1"/>
     <col min="94" max="97" width="5.33203125" customWidth="1"/>
     <col min="98" max="98" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="99" max="115" width="5.33203125" customWidth="1"/>
@@ -31003,120 +31003,120 @@
     <col min="117" max="129" width="5.33203125" customWidth="1"/>
     <col min="130" max="130" width="6" bestFit="1" customWidth="1"/>
     <col min="131" max="152" width="5.33203125" customWidth="1"/>
-    <col min="153" max="153" width="5.33203125" style="65" customWidth="1"/>
+    <col min="153" max="153" width="5.33203125" style="55" customWidth="1"/>
     <col min="154" max="158" width="5.33203125" customWidth="1"/>
     <col min="159" max="159" width="4.83203125" customWidth="1"/>
     <col min="160" max="908" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:187" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="CQ1" s="64" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="CQ1" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="CR1" s="64"/>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64"/>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64"/>
-      <c r="CY1" s="64"/>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="64"/>
-      <c r="DB1" s="64"/>
-      <c r="DC1" s="64"/>
-      <c r="DD1" s="64"/>
-      <c r="DE1" s="64"/>
-      <c r="DF1" s="64"/>
-      <c r="DG1" s="64"/>
-      <c r="DH1" s="64"/>
-      <c r="DI1" s="64"/>
-      <c r="DJ1" s="64"/>
-      <c r="DK1" s="64"/>
-      <c r="DL1" s="64"/>
-      <c r="DM1" s="64"/>
-      <c r="DN1" s="64"/>
-      <c r="DO1" s="64"/>
-      <c r="DP1" s="64"/>
-      <c r="DQ1" s="64"/>
-      <c r="DR1" s="64"/>
-      <c r="DS1" s="64"/>
-      <c r="DT1" s="64"/>
-      <c r="DU1" s="64"/>
-      <c r="DV1" s="64"/>
-      <c r="DW1" s="64"/>
-      <c r="EY1" s="64" t="s">
+      <c r="CR1" s="68"/>
+      <c r="CS1" s="68"/>
+      <c r="CT1" s="68"/>
+      <c r="CU1" s="68"/>
+      <c r="CV1" s="68"/>
+      <c r="CW1" s="68"/>
+      <c r="CX1" s="68"/>
+      <c r="CY1" s="68"/>
+      <c r="CZ1" s="68"/>
+      <c r="DA1" s="68"/>
+      <c r="DB1" s="68"/>
+      <c r="DC1" s="68"/>
+      <c r="DD1" s="68"/>
+      <c r="DE1" s="68"/>
+      <c r="DF1" s="68"/>
+      <c r="DG1" s="68"/>
+      <c r="DH1" s="68"/>
+      <c r="DI1" s="68"/>
+      <c r="DJ1" s="68"/>
+      <c r="DK1" s="68"/>
+      <c r="DL1" s="68"/>
+      <c r="DM1" s="68"/>
+      <c r="DN1" s="68"/>
+      <c r="DO1" s="68"/>
+      <c r="DP1" s="68"/>
+      <c r="DQ1" s="68"/>
+      <c r="DR1" s="68"/>
+      <c r="DS1" s="68"/>
+      <c r="DT1" s="68"/>
+      <c r="DU1" s="68"/>
+      <c r="DV1" s="68"/>
+      <c r="DW1" s="68"/>
+      <c r="EY1" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="EZ1" s="64"/>
-      <c r="FA1" s="64"/>
-      <c r="FB1" s="64"/>
-      <c r="FC1" s="64"/>
-      <c r="FD1" s="64"/>
-      <c r="FE1" s="64"/>
-      <c r="FF1" s="64"/>
-      <c r="FG1" s="64"/>
-      <c r="FH1" s="64"/>
-      <c r="FI1" s="64"/>
-      <c r="FJ1" s="64"/>
-      <c r="FK1" s="64"/>
-      <c r="FL1" s="64"/>
-      <c r="FM1" s="64"/>
-      <c r="FN1" s="64"/>
-      <c r="FO1" s="64"/>
-      <c r="FP1" s="64"/>
-      <c r="FQ1" s="64"/>
-      <c r="FR1" s="64"/>
-      <c r="FS1" s="64"/>
-      <c r="FT1" s="64"/>
-      <c r="FU1" s="64"/>
-      <c r="FV1" s="64"/>
-      <c r="FW1" s="64"/>
-      <c r="FX1" s="64"/>
-      <c r="FY1" s="64"/>
-      <c r="FZ1" s="64"/>
-      <c r="GA1" s="64"/>
-      <c r="GB1" s="64"/>
-      <c r="GC1" s="64"/>
-      <c r="GD1" s="64"/>
-      <c r="GE1" s="64"/>
+      <c r="EZ1" s="68"/>
+      <c r="FA1" s="68"/>
+      <c r="FB1" s="68"/>
+      <c r="FC1" s="68"/>
+      <c r="FD1" s="68"/>
+      <c r="FE1" s="68"/>
+      <c r="FF1" s="68"/>
+      <c r="FG1" s="68"/>
+      <c r="FH1" s="68"/>
+      <c r="FI1" s="68"/>
+      <c r="FJ1" s="68"/>
+      <c r="FK1" s="68"/>
+      <c r="FL1" s="68"/>
+      <c r="FM1" s="68"/>
+      <c r="FN1" s="68"/>
+      <c r="FO1" s="68"/>
+      <c r="FP1" s="68"/>
+      <c r="FQ1" s="68"/>
+      <c r="FR1" s="68"/>
+      <c r="FS1" s="68"/>
+      <c r="FT1" s="68"/>
+      <c r="FU1" s="68"/>
+      <c r="FV1" s="68"/>
+      <c r="FW1" s="68"/>
+      <c r="FX1" s="68"/>
+      <c r="FY1" s="68"/>
+      <c r="FZ1" s="68"/>
+      <c r="GA1" s="68"/>
+      <c r="GB1" s="68"/>
+      <c r="GC1" s="68"/>
+      <c r="GD1" s="68"/>
+      <c r="GE1" s="68"/>
     </row>
     <row r="3" spans="1:187" x14ac:dyDescent="0.2">
       <c r="EJ3" s="47">
@@ -31236,7 +31236,7 @@
       <c r="AF8">
         <v>97</v>
       </c>
-      <c r="EM8" s="62">
+      <c r="EM8" s="53">
         <f ca="1">DV95</f>
         <v>77.600000000000009</v>
       </c>
@@ -31255,7 +31255,7 @@
       </c>
     </row>
     <row r="10" spans="1:187" x14ac:dyDescent="0.2">
-      <c r="AC10" s="62">
+      <c r="AC10" s="53">
         <f>L95</f>
         <v>77.599999999999994</v>
       </c>
@@ -31549,11 +31549,11 @@
     </row>
     <row r="29" spans="1:177" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="N29" s="50"/>
@@ -31582,7 +31582,7 @@
       <c r="G30" s="13"/>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
-      <c r="P30" s="63"/>
+      <c r="P30" s="54"/>
       <c r="Q30" s="50"/>
       <c r="R30" s="50"/>
       <c r="S30" s="50"/>
@@ -31592,7 +31592,7 @@
       <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -31621,7 +31621,7 @@
       <c r="W31" s="31"/>
     </row>
     <row r="32" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -31648,7 +31648,7 @@
       <c r="W32" s="31"/>
     </row>
     <row r="33" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
@@ -31675,7 +31675,7 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -31702,7 +31702,7 @@
       <c r="W34" s="31"/>
     </row>
     <row r="35" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
@@ -31756,7 +31756,7 @@
       <c r="CN35" s="31"/>
     </row>
     <row r="36" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
@@ -31810,7 +31810,7 @@
       <c r="CN36" s="31"/>
     </row>
     <row r="37" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -31854,7 +31854,7 @@
       <c r="CN37" s="31"/>
     </row>
     <row r="38" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
@@ -31898,11 +31898,11 @@
       <c r="CN38" s="31"/>
     </row>
     <row r="39" spans="1:179" ht="18" x14ac:dyDescent="0.25">
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="BM39" s="31"/>
@@ -31961,8 +31961,8 @@
       <c r="CL40" s="50"/>
       <c r="CM40" s="50"/>
       <c r="CN40" s="50"/>
-      <c r="CO40" s="66"/>
-      <c r="EW40" s="66"/>
+      <c r="CO40" s="56"/>
+      <c r="EW40" s="56"/>
     </row>
     <row r="41" spans="1:179" x14ac:dyDescent="0.2">
       <c r="BM41" s="29"/>
@@ -31992,138 +31992,138 @@
       <c r="CL41" s="29"/>
       <c r="CM41" s="29"/>
       <c r="CN41" s="29"/>
-      <c r="CO41" s="67"/>
-      <c r="EW41" s="67"/>
+      <c r="CO41" s="57"/>
+      <c r="EW41" s="57"/>
     </row>
     <row r="43" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="L43" s="53" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="L43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="W43" s="53" t="s">
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="W43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="X43" s="53"/>
+      <c r="X43" s="59"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
-      <c r="AI43" s="53" t="s">
+      <c r="AI43" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
-      <c r="AN43" s="53"/>
-      <c r="AO43" s="53"/>
-      <c r="AP43" s="53"/>
-      <c r="AT43" s="53" t="s">
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AT43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AU43" s="53"/>
-      <c r="AV43" s="53"/>
-      <c r="AW43" s="53"/>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="BE43" s="53" t="s">
+      <c r="AU43" s="59"/>
+      <c r="AV43" s="59"/>
+      <c r="AW43" s="59"/>
+      <c r="AX43" s="59"/>
+      <c r="AY43" s="59"/>
+      <c r="BE43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BF43" s="53"/>
-      <c r="BG43" s="53"/>
-      <c r="BH43" s="53"/>
-      <c r="BI43" s="53"/>
-      <c r="BJ43" s="53"/>
-      <c r="BT43" s="53" t="s">
+      <c r="BF43" s="59"/>
+      <c r="BG43" s="59"/>
+      <c r="BH43" s="59"/>
+      <c r="BI43" s="59"/>
+      <c r="BJ43" s="59"/>
+      <c r="BT43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BU43" s="53"/>
-      <c r="BV43" s="53"/>
-      <c r="BW43" s="53"/>
-      <c r="BX43" s="53"/>
-      <c r="BY43" s="53"/>
-      <c r="CA43" s="53" t="s">
+      <c r="BU43" s="59"/>
+      <c r="BV43" s="59"/>
+      <c r="BW43" s="59"/>
+      <c r="BX43" s="59"/>
+      <c r="BY43" s="59"/>
+      <c r="CA43" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="CB43" s="53"/>
-      <c r="CC43" s="53"/>
-      <c r="CD43" s="53"/>
-      <c r="CE43" s="53"/>
-      <c r="CF43" s="53"/>
-      <c r="CG43" s="53"/>
-      <c r="CH43" s="53"/>
-      <c r="CJ43" s="53" t="s">
+      <c r="CB43" s="59"/>
+      <c r="CC43" s="59"/>
+      <c r="CD43" s="59"/>
+      <c r="CE43" s="59"/>
+      <c r="CF43" s="59"/>
+      <c r="CG43" s="59"/>
+      <c r="CH43" s="59"/>
+      <c r="CJ43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="CK43" s="53"/>
+      <c r="CK43" s="59"/>
       <c r="CL43" s="29"/>
       <c r="CM43" s="29"/>
       <c r="CN43" s="29"/>
-      <c r="CO43" s="67"/>
-      <c r="CU43" s="53" t="s">
+      <c r="CO43" s="57"/>
+      <c r="CU43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="CV43" s="53"/>
-      <c r="DM43" s="53" t="s">
+      <c r="CV43" s="59"/>
+      <c r="DM43" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="DN43" s="53"/>
-      <c r="DO43" s="53"/>
-      <c r="DP43" s="53"/>
-      <c r="DQ43" s="53"/>
-      <c r="DR43" s="53"/>
-      <c r="DS43" s="53"/>
-      <c r="DT43" s="53"/>
-      <c r="DV43" s="53" t="s">
+      <c r="DN43" s="59"/>
+      <c r="DO43" s="59"/>
+      <c r="DP43" s="59"/>
+      <c r="DQ43" s="59"/>
+      <c r="DR43" s="59"/>
+      <c r="DS43" s="59"/>
+      <c r="DT43" s="59"/>
+      <c r="DV43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="DW43" s="53"/>
-      <c r="DX43" s="53"/>
-      <c r="DY43" s="53"/>
-      <c r="DZ43" s="53"/>
-      <c r="EA43" s="53"/>
-      <c r="EC43" s="53" t="s">
+      <c r="DW43" s="59"/>
+      <c r="DX43" s="59"/>
+      <c r="DY43" s="59"/>
+      <c r="DZ43" s="59"/>
+      <c r="EA43" s="59"/>
+      <c r="EC43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="ED43" s="53"/>
-      <c r="EW43" s="67"/>
-      <c r="FD43" s="53" t="s">
+      <c r="ED43" s="59"/>
+      <c r="EW43" s="57"/>
+      <c r="FD43" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="FE43" s="53"/>
-      <c r="FF43" s="53"/>
-      <c r="FG43" s="53"/>
-      <c r="FH43" s="53"/>
-      <c r="FI43" s="53"/>
-      <c r="FJ43" s="53"/>
-      <c r="FK43" s="53"/>
-      <c r="FM43" s="53" t="s">
+      <c r="FE43" s="59"/>
+      <c r="FF43" s="59"/>
+      <c r="FG43" s="59"/>
+      <c r="FH43" s="59"/>
+      <c r="FI43" s="59"/>
+      <c r="FJ43" s="59"/>
+      <c r="FK43" s="59"/>
+      <c r="FM43" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="FN43" s="53"/>
-      <c r="FO43" s="53"/>
-      <c r="FP43" s="53"/>
-      <c r="FQ43" s="53"/>
-      <c r="FR43" s="53"/>
-      <c r="FT43" s="53" t="s">
+      <c r="FN43" s="59"/>
+      <c r="FO43" s="59"/>
+      <c r="FP43" s="59"/>
+      <c r="FQ43" s="59"/>
+      <c r="FR43" s="59"/>
+      <c r="FT43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="FU43" s="53"/>
+      <c r="FU43" s="59"/>
     </row>
     <row r="44" spans="1:179" ht="114" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
@@ -32286,7 +32286,7 @@
       <c r="CL44" s="28"/>
       <c r="CM44" s="28"/>
       <c r="CN44" s="28"/>
-      <c r="CO44" s="68"/>
+      <c r="CO44" s="58"/>
       <c r="CT44" s="28"/>
       <c r="CU44" s="2" t="s">
         <v>102</v>
@@ -32342,7 +32342,7 @@
       <c r="ED44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="EW44" s="68"/>
+      <c r="EW44" s="58"/>
       <c r="FD44" s="2" t="s">
         <v>23</v>
       </c>
@@ -32393,7 +32393,7 @@
       </c>
     </row>
     <row r="45" spans="1:179" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -32417,7 +32417,7 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="55" t="s">
+      <c r="U45" s="61" t="s">
         <v>4</v>
       </c>
       <c r="V45" s="1" t="s">
@@ -32593,7 +32593,7 @@
       <c r="CL45" s="31"/>
       <c r="CM45" s="31"/>
       <c r="CN45" s="31"/>
-      <c r="CS45" s="55" t="s">
+      <c r="CS45" s="61" t="s">
         <v>4</v>
       </c>
       <c r="CT45" s="1" t="s">
@@ -32609,7 +32609,7 @@
         <f>SUM(CU45:CV45)</f>
         <v>97</v>
       </c>
-      <c r="DK45" s="55" t="s">
+      <c r="DK45" s="61" t="s">
         <v>4</v>
       </c>
       <c r="DL45" s="1" t="s">
@@ -32651,7 +32651,7 @@
         <f>SUM(EC45:ED45)</f>
         <v>97</v>
       </c>
-      <c r="FB45" s="55" t="s">
+      <c r="FB45" s="61" t="s">
         <v>4</v>
       </c>
       <c r="FC45" s="1" t="s">
@@ -32695,7 +32695,7 @@
       </c>
     </row>
     <row r="46" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
@@ -32717,7 +32717,7 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="55"/>
+      <c r="U46" s="61"/>
       <c r="V46" s="1" t="s">
         <v>1</v>
       </c>
@@ -32890,7 +32890,7 @@
       <c r="CL46" s="31"/>
       <c r="CM46" s="31"/>
       <c r="CN46" s="31"/>
-      <c r="CS46" s="55"/>
+      <c r="CS46" s="61"/>
       <c r="CT46" s="1" t="s">
         <v>1</v>
       </c>
@@ -32904,7 +32904,7 @@
         <f t="shared" ref="CX46:CX52" si="5">SUM(CU46:CV46)</f>
         <v>87</v>
       </c>
-      <c r="DK46" s="55"/>
+      <c r="DK46" s="61"/>
       <c r="DL46" s="1" t="s">
         <v>1</v>
       </c>
@@ -32944,7 +32944,7 @@
         <f t="shared" ref="EF46:EF52" si="8">SUM(EC46:ED46)</f>
         <v>87</v>
       </c>
-      <c r="FB46" s="55"/>
+      <c r="FB46" s="61"/>
       <c r="FC46" s="1" t="s">
         <v>1</v>
       </c>
@@ -32986,7 +32986,7 @@
       </c>
     </row>
     <row r="47" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -33009,7 +33009,7 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="55"/>
+      <c r="U47" s="61"/>
       <c r="V47" s="1" t="s">
         <v>27</v>
       </c>
@@ -33171,17 +33171,17 @@
         <v>0</v>
       </c>
       <c r="CJ47" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z47),COLUMN($Z47))),0)</f>
+        <f t="shared" ref="CJ47:CK52" ca="1" si="10">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z47),COLUMN($Z47))),0)</f>
         <v>0</v>
       </c>
       <c r="CK47" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z47),COLUMN($Z47))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CL47" s="31"/>
       <c r="CM47" s="31"/>
       <c r="CN47" s="31"/>
-      <c r="CS47" s="55"/>
+      <c r="CS47" s="61"/>
       <c r="CT47" s="1" t="s">
         <v>27</v>
       </c>
@@ -33195,7 +33195,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK47" s="55"/>
+      <c r="DK47" s="61"/>
       <c r="DL47" s="1" t="s">
         <v>27</v>
       </c>
@@ -33235,7 +33235,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="FB47" s="55"/>
+      <c r="FB47" s="61"/>
       <c r="FC47" s="1" t="s">
         <v>27</v>
       </c>
@@ -33277,7 +33277,7 @@
       </c>
     </row>
     <row r="48" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
@@ -33300,7 +33300,7 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="55"/>
+      <c r="U48" s="61"/>
       <c r="V48" s="1" t="s">
         <v>26</v>
       </c>
@@ -33462,17 +33462,17 @@
         <v>0</v>
       </c>
       <c r="CJ48" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z48),COLUMN($Z48))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CK48" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z48),COLUMN($Z48))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CL48" s="31"/>
       <c r="CM48" s="31"/>
       <c r="CN48" s="31"/>
-      <c r="CS48" s="55"/>
+      <c r="CS48" s="61"/>
       <c r="CT48" s="1" t="s">
         <v>26</v>
       </c>
@@ -33486,7 +33486,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK48" s="55"/>
+      <c r="DK48" s="61"/>
       <c r="DL48" s="1" t="s">
         <v>26</v>
       </c>
@@ -33526,7 +33526,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="FB48" s="55"/>
+      <c r="FB48" s="61"/>
       <c r="FC48" s="1" t="s">
         <v>26</v>
       </c>
@@ -33568,7 +33568,7 @@
       </c>
     </row>
     <row r="49" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
@@ -33591,7 +33591,7 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="55"/>
+      <c r="U49" s="61"/>
       <c r="V49" s="1" t="s">
         <v>29</v>
       </c>
@@ -33753,17 +33753,17 @@
         <v>0</v>
       </c>
       <c r="CJ49" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z49),COLUMN($Z49))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CK49" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z49),COLUMN($Z49))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CL49" s="31"/>
       <c r="CM49" s="31"/>
       <c r="CN49" s="31"/>
-      <c r="CS49" s="55"/>
+      <c r="CS49" s="61"/>
       <c r="CT49" s="1" t="s">
         <v>29</v>
       </c>
@@ -33777,7 +33777,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK49" s="55"/>
+      <c r="DK49" s="61"/>
       <c r="DL49" s="1" t="s">
         <v>29</v>
       </c>
@@ -33817,7 +33817,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="FB49" s="55"/>
+      <c r="FB49" s="61"/>
       <c r="FC49" s="1" t="s">
         <v>29</v>
       </c>
@@ -33859,7 +33859,7 @@
       </c>
     </row>
     <row r="50" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
@@ -33882,7 +33882,7 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-      <c r="U50" s="55"/>
+      <c r="U50" s="61"/>
       <c r="V50" s="1" t="s">
         <v>19</v>
       </c>
@@ -34044,18 +34044,18 @@
         <v>0</v>
       </c>
       <c r="CJ50" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z50),COLUMN($Z50))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CK50" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z50),COLUMN($Z50))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CL50" s="31"/>
       <c r="CM50" s="31"/>
       <c r="CN50" s="31"/>
-      <c r="CO50" s="66"/>
-      <c r="CS50" s="55"/>
+      <c r="CO50" s="56"/>
+      <c r="CS50" s="61"/>
       <c r="CT50" s="1" t="s">
         <v>19</v>
       </c>
@@ -34069,7 +34069,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK50" s="55"/>
+      <c r="DK50" s="61"/>
       <c r="DL50" s="1" t="s">
         <v>19</v>
       </c>
@@ -34109,8 +34109,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="EW50" s="66"/>
-      <c r="FB50" s="55"/>
+      <c r="EW50" s="56"/>
+      <c r="FB50" s="61"/>
       <c r="FC50" s="1" t="s">
         <v>19</v>
       </c>
@@ -34152,7 +34152,7 @@
       </c>
     </row>
     <row r="51" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
@@ -34175,7 +34175,7 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-      <c r="U51" s="55"/>
+      <c r="U51" s="61"/>
       <c r="V51" s="1" t="s">
         <v>17</v>
       </c>
@@ -34337,18 +34337,18 @@
         <v>0</v>
       </c>
       <c r="CJ51" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z51),COLUMN($Z51))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CK51" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z51),COLUMN($Z51))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CL51" s="31"/>
       <c r="CM51" s="31"/>
       <c r="CN51" s="31"/>
-      <c r="CO51" s="66"/>
-      <c r="CS51" s="55"/>
+      <c r="CO51" s="56"/>
+      <c r="CS51" s="61"/>
       <c r="CT51" s="1" t="s">
         <v>17</v>
       </c>
@@ -34362,7 +34362,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK51" s="55"/>
+      <c r="DK51" s="61"/>
       <c r="DL51" s="1" t="s">
         <v>17</v>
       </c>
@@ -34402,8 +34402,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="EW51" s="66"/>
-      <c r="FB51" s="55"/>
+      <c r="EW51" s="56"/>
+      <c r="FB51" s="61"/>
       <c r="FC51" s="1" t="s">
         <v>17</v>
       </c>
@@ -34445,7 +34445,7 @@
       </c>
     </row>
     <row r="52" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="1" t="s">
         <v>18</v>
       </c>
@@ -34468,7 +34468,7 @@
         <f>I7</f>
         <v>5.9</v>
       </c>
-      <c r="U52" s="55"/>
+      <c r="U52" s="61"/>
       <c r="V52" s="1" t="s">
         <v>18</v>
       </c>
@@ -34630,18 +34630,18 @@
         <v>0</v>
       </c>
       <c r="CJ52" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z52),COLUMN($Z52))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CK52" s="50">
-        <f ca="1">IF((ROW()-ROW($CA$45))=(COLUMN()-COLUMN($CA$45)),INDIRECT(ADDRESS(ROW($Z52),COLUMN($Z52))),0)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="CL52" s="31"/>
       <c r="CM52" s="31"/>
       <c r="CN52" s="31"/>
-      <c r="CO52" s="66"/>
-      <c r="CS52" s="55"/>
+      <c r="CO52" s="56"/>
+      <c r="CS52" s="61"/>
       <c r="CT52" s="1" t="s">
         <v>18</v>
       </c>
@@ -34655,7 +34655,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK52" s="55"/>
+      <c r="DK52" s="61"/>
       <c r="DL52" s="1" t="s">
         <v>18</v>
       </c>
@@ -34695,8 +34695,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="EW52" s="66"/>
-      <c r="FB52" s="55"/>
+      <c r="EW52" s="56"/>
+      <c r="FB52" s="61"/>
       <c r="FC52" s="1" t="s">
         <v>18</v>
       </c>
@@ -34739,18 +34739,18 @@
     </row>
     <row r="53" spans="1:180" ht="19" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="L53" s="53" t="s">
+      <c r="L53" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="W53" s="53" t="s">
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="W53" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="X53" s="53"/>
+      <c r="X53" s="59"/>
       <c r="Z53" s="46" t="s">
         <v>12</v>
       </c>
@@ -34763,53 +34763,53 @@
       <c r="AE53" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AI53" s="53" t="s">
+      <c r="AI53" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="AJ53" s="53"/>
-      <c r="AK53" s="53"/>
-      <c r="AL53" s="53"/>
-      <c r="AM53" s="53"/>
-      <c r="AN53" s="53"/>
-      <c r="AO53" s="53"/>
-      <c r="AP53" s="53"/>
-      <c r="AT53" s="53" t="s">
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="59"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="59"/>
+      <c r="AN53" s="59"/>
+      <c r="AO53" s="59"/>
+      <c r="AP53" s="59"/>
+      <c r="AT53" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AU53" s="53"/>
-      <c r="AV53" s="53"/>
-      <c r="AW53" s="53"/>
-      <c r="AX53" s="53"/>
-      <c r="AY53" s="53"/>
+      <c r="AU53" s="59"/>
+      <c r="AV53" s="59"/>
+      <c r="AW53" s="59"/>
+      <c r="AX53" s="59"/>
+      <c r="AY53" s="59"/>
       <c r="BB53" s="8"/>
       <c r="BC53" s="8"/>
       <c r="BD53" s="8"/>
-      <c r="BE53" s="53" t="s">
+      <c r="BE53" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="BF53" s="53"/>
-      <c r="BG53" s="53"/>
-      <c r="BH53" s="53"/>
-      <c r="BI53" s="53"/>
-      <c r="BJ53" s="53"/>
-      <c r="BT53" s="56" t="s">
+      <c r="BF53" s="59"/>
+      <c r="BG53" s="59"/>
+      <c r="BH53" s="59"/>
+      <c r="BI53" s="59"/>
+      <c r="BJ53" s="59"/>
+      <c r="BT53" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="BU53" s="56"/>
-      <c r="BV53" s="56"/>
-      <c r="BW53" s="56"/>
-      <c r="BX53" s="56"/>
-      <c r="BY53" s="56"/>
-      <c r="CA53" s="53" t="s">
+      <c r="BU53" s="62"/>
+      <c r="BV53" s="62"/>
+      <c r="BW53" s="62"/>
+      <c r="BX53" s="62"/>
+      <c r="BY53" s="62"/>
+      <c r="CA53" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="CB53" s="53"/>
-      <c r="CC53" s="53"/>
-      <c r="CD53" s="53"/>
-      <c r="CE53" s="53"/>
-      <c r="CF53" s="53"/>
-      <c r="CG53" s="53"/>
-      <c r="CH53" s="53"/>
+      <c r="CB53" s="59"/>
+      <c r="CC53" s="59"/>
+      <c r="CD53" s="59"/>
+      <c r="CE53" s="59"/>
+      <c r="CF53" s="59"/>
+      <c r="CG53" s="59"/>
+      <c r="CH53" s="59"/>
       <c r="CJ53" s="8" t="s">
         <v>83</v>
       </c>
@@ -34817,27 +34817,27 @@
       <c r="CL53" s="8"/>
       <c r="CM53" s="8"/>
       <c r="CN53" s="8"/>
-      <c r="CO53" s="67"/>
-      <c r="CU53" s="53" t="s">
+      <c r="CO53" s="57"/>
+      <c r="CU53" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="CV53" s="53"/>
+      <c r="CV53" s="59"/>
       <c r="CX53" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="DV53" s="53" t="s">
+      <c r="DV53" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="DW53" s="53"/>
-      <c r="DX53" s="53"/>
-      <c r="DY53" s="53"/>
-      <c r="DZ53" s="53"/>
-      <c r="EA53" s="53"/>
+      <c r="DW53" s="59"/>
+      <c r="DX53" s="59"/>
+      <c r="DY53" s="59"/>
+      <c r="DZ53" s="59"/>
+      <c r="EA53" s="59"/>
       <c r="EB53" s="8"/>
-      <c r="EC53" s="53" t="s">
+      <c r="EC53" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="ED53" s="53"/>
+      <c r="ED53" s="59"/>
       <c r="EF53" s="46" t="s">
         <v>119</v>
       </c>
@@ -34857,20 +34857,20 @@
       <c r="ET53" s="8"/>
       <c r="EU53" s="8"/>
       <c r="EV53" s="8"/>
-      <c r="EW53" s="67"/>
-      <c r="FM53" s="53" t="s">
+      <c r="EW53" s="57"/>
+      <c r="FM53" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="FN53" s="53"/>
-      <c r="FO53" s="53"/>
-      <c r="FP53" s="53"/>
-      <c r="FQ53" s="53"/>
-      <c r="FR53" s="53"/>
+      <c r="FN53" s="59"/>
+      <c r="FO53" s="59"/>
+      <c r="FP53" s="59"/>
+      <c r="FQ53" s="59"/>
+      <c r="FR53" s="59"/>
       <c r="FS53" s="8"/>
-      <c r="FT53" s="53" t="s">
+      <c r="FT53" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="FU53" s="53"/>
+      <c r="FU53" s="59"/>
       <c r="FW53" s="46" t="s">
         <v>133</v>
       </c>
@@ -34878,7 +34878,7 @@
     </row>
     <row r="54" spans="1:180" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="J54" s="55" t="s">
+      <c r="J54" s="61" t="s">
         <v>30</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -34909,33 +34909,33 @@
       <c r="Z54" s="46"/>
       <c r="AB54" s="46"/>
       <c r="BT54" s="7">
-        <f t="shared" ref="BT54:BY54" ca="1" si="10">SUM(BT45:BT52)</f>
+        <f t="shared" ref="BT54:BY54" ca="1" si="11">SUM(BT45:BT52)</f>
         <v>1</v>
       </c>
       <c r="BU54" s="7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="BV54" s="7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="BW54" s="7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="BX54" s="7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="BY54" s="7">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:180" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="61"/>
       <c r="K55" s="37" t="s">
         <v>81</v>
       </c>
@@ -34965,7 +34965,7 @@
     </row>
     <row r="56" spans="1:180" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="J56" s="55"/>
+      <c r="J56" s="61"/>
       <c r="K56" s="1" t="s">
         <v>33</v>
       </c>
@@ -34999,94 +34999,94 @@
       <c r="AA56" s="15"/>
     </row>
     <row r="57" spans="1:180" ht="20" x14ac:dyDescent="0.25">
-      <c r="L57" s="57" t="s">
+      <c r="L57" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
-      <c r="Q57" s="57"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
     </row>
     <row r="58" spans="1:180" x14ac:dyDescent="0.2">
       <c r="L58" s="6">
-        <f t="shared" ref="L58:Q58" si="11">SUM(L54:L56)</f>
+        <f t="shared" ref="L58:Q58" si="12">SUM(L54:L56)</f>
         <v>22.4</v>
       </c>
       <c r="M58" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>78.2</v>
       </c>
       <c r="N58" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.6</v>
       </c>
       <c r="O58" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25.2</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.9</v>
       </c>
     </row>
     <row r="59" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="L59" s="53" t="s">
+      <c r="L59" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
     </row>
     <row r="63" spans="1:180" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
-      <c r="Z63" s="54" t="s">
+      <c r="Z63" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AI63" s="53" t="s">
+      <c r="AA63" s="66"/>
+      <c r="AB63" s="66"/>
+      <c r="AI63" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AT63" s="53" t="s">
+      <c r="AJ63" s="59"/>
+      <c r="AK63" s="59"/>
+      <c r="AL63" s="59"/>
+      <c r="AM63" s="59"/>
+      <c r="AN63" s="59"/>
+      <c r="AT63" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AU63" s="53"/>
-      <c r="AV63" s="53"/>
-      <c r="AW63" s="53"/>
-      <c r="AX63" s="53"/>
-      <c r="AY63" s="53"/>
-      <c r="AZ63" s="53"/>
-      <c r="BA63" s="53"/>
-      <c r="BE63" s="53" t="s">
+      <c r="AU63" s="59"/>
+      <c r="AV63" s="59"/>
+      <c r="AW63" s="59"/>
+      <c r="AX63" s="59"/>
+      <c r="AY63" s="59"/>
+      <c r="AZ63" s="59"/>
+      <c r="BA63" s="59"/>
+      <c r="BE63" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BF63" s="53"/>
-      <c r="BG63" s="53"/>
-      <c r="BH63" s="53"/>
-      <c r="BI63" s="53"/>
-      <c r="BJ63" s="53"/>
-      <c r="BK63" s="53"/>
-      <c r="BL63" s="53"/>
-      <c r="BT63" s="53" t="s">
+      <c r="BF63" s="59"/>
+      <c r="BG63" s="59"/>
+      <c r="BH63" s="59"/>
+      <c r="BI63" s="59"/>
+      <c r="BJ63" s="59"/>
+      <c r="BK63" s="59"/>
+      <c r="BL63" s="59"/>
+      <c r="BT63" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BU63" s="53"/>
-      <c r="BV63" s="53"/>
-      <c r="BW63" s="53"/>
-      <c r="BX63" s="53"/>
-      <c r="BY63" s="53"/>
+      <c r="BU63" s="59"/>
+      <c r="BV63" s="59"/>
+      <c r="BW63" s="59"/>
+      <c r="BX63" s="59"/>
+      <c r="BY63" s="59"/>
     </row>
     <row r="64" spans="1:180" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
@@ -35187,7 +35187,7 @@
       </c>
     </row>
     <row r="65" spans="1:178" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -35230,31 +35230,31 @@
         <v>0</v>
       </c>
       <c r="AD65" s="6">
-        <f t="shared" ref="AD65:AD70" si="12">SUM(Z65:AB65)</f>
+        <f t="shared" ref="AD65:AD70" si="13">SUM(Z65:AB65)</f>
         <v>100</v>
       </c>
       <c r="AI65" s="6">
-        <f t="shared" ref="AI65:AN70" ca="1" si="13">IF((ROW()-ROW($AI$65))=(COLUMN()-COLUMN($AI$65)),INDIRECT(ADDRESS(ROW($AD65),COLUMN($AD65))),0)</f>
+        <f t="shared" ref="AI65:AN70" ca="1" si="14">IF((ROW()-ROW($AI$65))=(COLUMN()-COLUMN($AI$65)),INDIRECT(ADDRESS(ROW($AD65),COLUMN($AD65))),0)</f>
         <v>100</v>
       </c>
       <c r="AJ65" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AK65" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AL65" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AM65" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AN65" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AT65" s="6">
@@ -35326,31 +35326,31 @@
         <v>99.999999999999986</v>
       </c>
       <c r="BP65" s="7">
-        <f t="shared" ref="BP65:BP70" ca="1" si="14">BO65-AD65</f>
+        <f t="shared" ref="BP65:BP70" ca="1" si="15">BO65-AD65</f>
         <v>0</v>
       </c>
       <c r="BT65" s="6">
-        <f t="shared" ref="BT65:BY70" ca="1" si="15">IF((ROW()-ROW($BT$65))=(COLUMN()-COLUMN($BT$65)),INDIRECT(ADDRESS(ROW(L$58),COLUMN(L$58))),0)</f>
+        <f t="shared" ref="BT65:BY70" ca="1" si="16">IF((ROW()-ROW($BT$65))=(COLUMN()-COLUMN($BT$65)),INDIRECT(ADDRESS(ROW(L$58),COLUMN(L$58))),0)</f>
         <v>22.4</v>
       </c>
       <c r="BU65" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BV65" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BW65" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BX65" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BY65" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="CX65" s="6">
@@ -35362,26 +35362,26 @@
         <v>99.999999999999986</v>
       </c>
       <c r="DC65" s="6">
-        <f t="shared" ref="DC65:DG70" ca="1" si="16">IF((ROW()-ROW($DB$65))=(COLUMN()-COLUMN($DB$65)),INDIRECT("CX"&amp;ROW()),0)</f>
+        <f t="shared" ref="DC65:DG70" ca="1" si="17">IF((ROW()-ROW($DB$65))=(COLUMN()-COLUMN($DB$65)),INDIRECT("CX"&amp;ROW()),0)</f>
         <v>0</v>
       </c>
       <c r="DD65" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DE65" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DF65" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DG65" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="DK65" s="55" t="s">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="DK65" s="61" t="s">
         <v>3</v>
       </c>
       <c r="DL65" s="1" t="s">
@@ -35419,7 +35419,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB65" s="55" t="s">
+      <c r="FB65" s="61" t="s">
         <v>3</v>
       </c>
       <c r="FC65" s="1" t="s">
@@ -35459,7 +35459,7 @@
       </c>
     </row>
     <row r="66" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
@@ -35498,31 +35498,31 @@
         <v>0</v>
       </c>
       <c r="AD66" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="AI66" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>87</v>
       </c>
       <c r="AK66" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AL66" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AM66" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AN66" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AT66" s="6">
@@ -35594,31 +35594,31 @@
         <v>87</v>
       </c>
       <c r="BP66" s="7">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BT66" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BU66" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>78.2</v>
       </c>
       <c r="BV66" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BW66" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BX66" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BY66" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="CX66" s="6">
@@ -35626,30 +35626,30 @@
         <v>87</v>
       </c>
       <c r="DB66" s="6">
-        <f t="shared" ref="DB66:DB70" ca="1" si="17">IF((ROW()-ROW($DB$65))=(COLUMN()-COLUMN($DB$65)),INDIRECT("CX"&amp;ROW()),0)</f>
+        <f t="shared" ref="DB66:DB70" ca="1" si="18">IF((ROW()-ROW($DB$65))=(COLUMN()-COLUMN($DB$65)),INDIRECT("CX"&amp;ROW()),0)</f>
         <v>0</v>
       </c>
       <c r="DC66" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>87</v>
       </c>
       <c r="DD66" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DE66" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DF66" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DG66" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="DK66" s="55"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="DK66" s="61"/>
       <c r="DL66" s="1" t="s">
         <v>24</v>
       </c>
@@ -35685,7 +35685,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB66" s="55"/>
+      <c r="FB66" s="61"/>
       <c r="FC66" s="1" t="s">
         <v>24</v>
       </c>
@@ -35723,7 +35723,7 @@
       </c>
     </row>
     <row r="67" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A67" s="55"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="1" t="s">
         <v>25</v>
       </c>
@@ -35762,31 +35762,31 @@
         <v>0</v>
       </c>
       <c r="AD67" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17.8</v>
       </c>
       <c r="AI67" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AK67" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>17.8</v>
       </c>
       <c r="AL67" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AM67" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AN67" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AT67" s="6">
@@ -35858,31 +35858,31 @@
         <v>17.8</v>
       </c>
       <c r="BP67" s="7">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BT67" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BU67" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BV67" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>12.6</v>
       </c>
       <c r="BW67" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BX67" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BY67" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="CX67" s="6">
@@ -35890,30 +35890,30 @@
         <v>17.8</v>
       </c>
       <c r="DB67" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="DC67" s="6">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DC67" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
       <c r="DD67" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>17.8</v>
       </c>
       <c r="DE67" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DF67" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DG67" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="DK67" s="55"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="DK67" s="61"/>
       <c r="DL67" s="1" t="s">
         <v>25</v>
       </c>
@@ -35949,7 +35949,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB67" s="55"/>
+      <c r="FB67" s="61"/>
       <c r="FC67" s="1" t="s">
         <v>25</v>
       </c>
@@ -35987,7 +35987,7 @@
       </c>
     </row>
     <row r="68" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
@@ -36027,31 +36027,31 @@
         <v>0</v>
       </c>
       <c r="AD68" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.4</v>
       </c>
       <c r="AI68" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AK68" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AL68" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>44.4</v>
       </c>
       <c r="AM68" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AN68" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AT68" s="6">
@@ -36123,31 +36123,31 @@
         <v>44.4</v>
       </c>
       <c r="BP68" s="7">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BT68" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BU68" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BV68" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BW68" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>25.2</v>
       </c>
       <c r="BX68" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BY68" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="CX68" s="6">
@@ -36155,30 +36155,30 @@
         <v>44.4</v>
       </c>
       <c r="DB68" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="DC68" s="6">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DC68" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
       <c r="DD68" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DE68" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>44.4</v>
       </c>
       <c r="DF68" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DG68" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="DK68" s="55"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="DK68" s="61"/>
       <c r="DL68" s="1" t="s">
         <v>0</v>
       </c>
@@ -36214,7 +36214,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB68" s="55"/>
+      <c r="FB68" s="61"/>
       <c r="FC68" s="1" t="s">
         <v>0</v>
       </c>
@@ -36252,7 +36252,7 @@
       </c>
     </row>
     <row r="69" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -36292,31 +36292,31 @@
         <v>0</v>
       </c>
       <c r="AD69" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19.899999999999999</v>
       </c>
       <c r="AI69" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AK69" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AL69" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AM69" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>19.899999999999999</v>
       </c>
       <c r="AN69" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AT69" s="6">
@@ -36388,31 +36388,31 @@
         <v>19.899999999999995</v>
       </c>
       <c r="BP69" s="7">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BT69" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BU69" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BV69" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BW69" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BX69" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0.4</v>
       </c>
       <c r="BY69" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="CX69" s="6">
@@ -36420,30 +36420,30 @@
         <v>19.899999999999995</v>
       </c>
       <c r="DB69" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="DC69" s="6">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DC69" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
       <c r="DD69" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DE69" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DF69" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>19.899999999999995</v>
       </c>
       <c r="DG69" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="DK69" s="55"/>
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="DK69" s="61"/>
       <c r="DL69" s="1" t="s">
         <v>15</v>
       </c>
@@ -36479,7 +36479,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB69" s="55"/>
+      <c r="FB69" s="61"/>
       <c r="FC69" s="1" t="s">
         <v>15</v>
       </c>
@@ -36517,7 +36517,7 @@
       </c>
     </row>
     <row r="70" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="1" t="s">
         <v>16</v>
       </c>
@@ -36556,31 +36556,31 @@
         <v>0</v>
       </c>
       <c r="AD70" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28.1</v>
       </c>
       <c r="AI70" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AK70" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AL70" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AM70" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="AN70" s="6">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>28.1</v>
       </c>
       <c r="AT70" s="6">
@@ -36652,31 +36652,31 @@
         <v>28.1</v>
       </c>
       <c r="BP70" s="7">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="BT70" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BU70" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BV70" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BW70" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BX70" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="BY70" s="6">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v>5.9</v>
       </c>
       <c r="CX70" s="6">
@@ -36684,30 +36684,30 @@
         <v>28.1</v>
       </c>
       <c r="DB70" s="6">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="DC70" s="6">
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DC70" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
       <c r="DD70" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DE70" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DF70" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="DG70" s="6">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>28.1</v>
       </c>
-      <c r="DK70" s="55"/>
+      <c r="DK70" s="61"/>
       <c r="DL70" s="1" t="s">
         <v>16</v>
       </c>
@@ -36743,7 +36743,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB70" s="55"/>
+      <c r="FB70" s="61"/>
       <c r="FC70" s="1" t="s">
         <v>16</v>
       </c>
@@ -36781,57 +36781,57 @@
       </c>
     </row>
     <row r="71" spans="1:178" ht="20" x14ac:dyDescent="0.25">
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
       <c r="X71" s="15"/>
       <c r="Y71" s="15"/>
-      <c r="Z71" s="57" t="s">
+      <c r="Z71" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AA71" s="57"/>
-      <c r="AB71" s="57"/>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
       <c r="AD71" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AI71" s="53" t="s">
+      <c r="AI71" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AJ71" s="53"/>
-      <c r="AK71" s="53"/>
-      <c r="AL71" s="53"/>
-      <c r="AM71" s="53"/>
-      <c r="AN71" s="53"/>
-      <c r="AT71" s="59" t="s">
+      <c r="AJ71" s="59"/>
+      <c r="AK71" s="59"/>
+      <c r="AL71" s="59"/>
+      <c r="AM71" s="59"/>
+      <c r="AN71" s="59"/>
+      <c r="AT71" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="AU71" s="59"/>
-      <c r="AV71" s="59"/>
-      <c r="AW71" s="59"/>
-      <c r="AX71" s="59"/>
-      <c r="AY71" s="59"/>
-      <c r="AZ71" s="59"/>
-      <c r="BA71" s="59"/>
+      <c r="AU71" s="65"/>
+      <c r="AV71" s="65"/>
+      <c r="AW71" s="65"/>
+      <c r="AX71" s="65"/>
+      <c r="AY71" s="65"/>
+      <c r="AZ71" s="65"/>
+      <c r="BA71" s="65"/>
       <c r="BB71" s="25"/>
       <c r="BC71" s="25"/>
       <c r="BD71" s="25"/>
-      <c r="BE71" s="56" t="s">
+      <c r="BE71" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="BF71" s="56"/>
-      <c r="BG71" s="56"/>
-      <c r="BH71" s="56"/>
-      <c r="BI71" s="56"/>
-      <c r="BJ71" s="56"/>
-      <c r="BK71" s="56"/>
-      <c r="BL71" s="56"/>
+      <c r="BF71" s="62"/>
+      <c r="BG71" s="62"/>
+      <c r="BH71" s="62"/>
+      <c r="BI71" s="62"/>
+      <c r="BJ71" s="62"/>
+      <c r="BK71" s="62"/>
+      <c r="BL71" s="62"/>
       <c r="BM71" s="26"/>
       <c r="BN71" s="26"/>
       <c r="BO71" s="30" t="s">
@@ -36843,41 +36843,41 @@
       <c r="BQ71" s="26"/>
       <c r="BR71" s="26"/>
       <c r="BS71" s="26"/>
-      <c r="BT71" s="56" t="s">
+      <c r="BT71" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="BU71" s="56"/>
-      <c r="BV71" s="56"/>
-      <c r="BW71" s="56"/>
-      <c r="BX71" s="56"/>
-      <c r="BY71" s="56"/>
+      <c r="BU71" s="62"/>
+      <c r="BV71" s="62"/>
+      <c r="BW71" s="62"/>
+      <c r="BX71" s="62"/>
+      <c r="BY71" s="62"/>
       <c r="BZ71" s="26"/>
       <c r="CX71" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="DB71" s="53" t="s">
+      <c r="DB71" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="DC71" s="53"/>
-      <c r="DD71" s="53"/>
-      <c r="DE71" s="53"/>
-      <c r="DF71" s="53"/>
-      <c r="DG71" s="53"/>
+      <c r="DC71" s="59"/>
+      <c r="DD71" s="59"/>
+      <c r="DE71" s="59"/>
+      <c r="DF71" s="59"/>
+      <c r="DG71" s="59"/>
       <c r="DH71" s="8"/>
       <c r="DI71" s="8"/>
       <c r="DJ71" s="8"/>
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
-      <c r="DM71" s="53" t="s">
+      <c r="DM71" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="DN71" s="53"/>
-      <c r="DO71" s="53"/>
-      <c r="DP71" s="53"/>
-      <c r="DQ71" s="53"/>
-      <c r="DR71" s="53"/>
-      <c r="DS71" s="53"/>
-      <c r="DT71" s="53"/>
+      <c r="DN71" s="59"/>
+      <c r="DO71" s="59"/>
+      <c r="DP71" s="59"/>
+      <c r="DQ71" s="59"/>
+      <c r="DR71" s="59"/>
+      <c r="DS71" s="59"/>
+      <c r="DT71" s="59"/>
       <c r="DU71" s="8"/>
       <c r="DV71" s="8"/>
       <c r="DW71" s="8"/>
@@ -36891,16 +36891,16 @@
       <c r="EE71" s="8"/>
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
-      <c r="FD71" s="53" t="s">
+      <c r="FD71" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="FE71" s="53"/>
-      <c r="FF71" s="53"/>
-      <c r="FG71" s="53"/>
-      <c r="FH71" s="53"/>
-      <c r="FI71" s="53"/>
-      <c r="FJ71" s="53"/>
-      <c r="FK71" s="53"/>
+      <c r="FE71" s="59"/>
+      <c r="FF71" s="59"/>
+      <c r="FG71" s="59"/>
+      <c r="FH71" s="59"/>
+      <c r="FI71" s="59"/>
+      <c r="FJ71" s="59"/>
+      <c r="FK71" s="59"/>
       <c r="FL71" s="8"/>
       <c r="FM71" s="8"/>
       <c r="FN71" s="8"/>
@@ -36919,31 +36919,31 @@
         <v>97</v>
       </c>
       <c r="D72" s="20">
-        <f t="shared" ref="D72:J72" si="18">SUM(D65:D70)</f>
+        <f t="shared" ref="D72:J72" si="19">SUM(D65:D70)</f>
         <v>87</v>
       </c>
       <c r="E72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22.4</v>
       </c>
       <c r="F72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>78.199999999999989</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12.6</v>
       </c>
       <c r="H72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J72" s="20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X72" s="15"/>
@@ -36992,16 +36992,16 @@
       <c r="BZ72" s="26"/>
     </row>
     <row r="73" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
@@ -37063,44 +37063,44 @@
       <c r="W76" s="15"/>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
-      <c r="Z76" s="54" t="s">
+      <c r="Z76" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
-      <c r="AI76" s="58" t="s">
+      <c r="AA76" s="66"/>
+      <c r="AB76" s="66"/>
+      <c r="AI76" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AJ76" s="58"/>
+      <c r="AJ76" s="67"/>
       <c r="AK76" s="31"/>
-      <c r="AL76" s="58"/>
-      <c r="AM76" s="58"/>
+      <c r="AL76" s="67"/>
+      <c r="AM76" s="67"/>
       <c r="AN76" s="31"/>
       <c r="AO76" s="31"/>
       <c r="AP76" s="31"/>
       <c r="AQ76" s="31"/>
       <c r="AR76" s="31"/>
       <c r="AS76" s="31"/>
-      <c r="AT76" s="53" t="s">
+      <c r="AT76" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AU76" s="53"/>
-      <c r="AV76" s="53"/>
-      <c r="AW76" s="53"/>
-      <c r="AX76" s="53"/>
-      <c r="AY76" s="53"/>
-      <c r="AZ76" s="53"/>
-      <c r="BA76" s="53"/>
-      <c r="BE76" s="53" t="s">
+      <c r="AU76" s="59"/>
+      <c r="AV76" s="59"/>
+      <c r="AW76" s="59"/>
+      <c r="AX76" s="59"/>
+      <c r="AY76" s="59"/>
+      <c r="AZ76" s="59"/>
+      <c r="BA76" s="59"/>
+      <c r="BE76" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BF76" s="53"/>
-      <c r="BG76" s="53"/>
-      <c r="BH76" s="53"/>
-      <c r="BI76" s="53"/>
-      <c r="BJ76" s="53"/>
-      <c r="BK76" s="53"/>
-      <c r="BL76" s="53"/>
+      <c r="BF76" s="59"/>
+      <c r="BG76" s="59"/>
+      <c r="BH76" s="59"/>
+      <c r="BI76" s="59"/>
+      <c r="BJ76" s="59"/>
+      <c r="BK76" s="59"/>
+      <c r="BL76" s="59"/>
     </row>
     <row r="77" spans="1:178" ht="71" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
@@ -37200,7 +37200,7 @@
       </c>
     </row>
     <row r="78" spans="1:178" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="61" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -37341,7 +37341,7 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="DK78" s="55" t="s">
+      <c r="DK78" s="61" t="s">
         <v>84</v>
       </c>
       <c r="DL78" s="1" t="s">
@@ -37379,7 +37379,7 @@
         <f ca="1"/>
         <v>5.9</v>
       </c>
-      <c r="FB78" s="55" t="s">
+      <c r="FB78" s="61" t="s">
         <v>84</v>
       </c>
       <c r="FC78" s="47" t="s">
@@ -37412,7 +37412,7 @@
       </c>
     </row>
     <row r="79" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
+      <c r="A79" s="61"/>
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
@@ -37549,7 +37549,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DK79" s="55"/>
+      <c r="DK79" s="61"/>
       <c r="DL79" s="1" t="s">
         <v>58</v>
       </c>
@@ -37585,7 +37585,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB79" s="55"/>
+      <c r="FB79" s="61"/>
       <c r="FC79" s="47" t="s">
         <v>21</v>
       </c>
@@ -37616,16 +37616,16 @@
     </row>
     <row r="80" spans="1:178" ht="20" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="C80" s="53" t="s">
+      <c r="C80" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
       <c r="L80" s="50"/>
       <c r="M80" s="50"/>
       <c r="N80" s="50"/>
@@ -37647,94 +37647,94 @@
       <c r="AD80" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="AI80" s="60" t="s">
+      <c r="AI80" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AJ80" s="60"/>
+      <c r="AJ80" s="63"/>
       <c r="AK80" s="29"/>
-      <c r="AL80" s="60"/>
-      <c r="AM80" s="60"/>
+      <c r="AL80" s="63"/>
+      <c r="AM80" s="63"/>
       <c r="AN80" s="29"/>
       <c r="AO80" s="31"/>
       <c r="AP80" s="31"/>
       <c r="AQ80" s="31"/>
       <c r="AR80" s="31"/>
       <c r="AS80" s="31"/>
-      <c r="AT80" s="60" t="s">
+      <c r="AT80" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AU80" s="60"/>
-      <c r="AV80" s="60"/>
-      <c r="AW80" s="60"/>
-      <c r="AX80" s="60"/>
-      <c r="AY80" s="60"/>
-      <c r="AZ80" s="60"/>
-      <c r="BA80" s="60"/>
-      <c r="BE80" s="60" t="s">
+      <c r="AU80" s="63"/>
+      <c r="AV80" s="63"/>
+      <c r="AW80" s="63"/>
+      <c r="AX80" s="63"/>
+      <c r="AY80" s="63"/>
+      <c r="AZ80" s="63"/>
+      <c r="BA80" s="63"/>
+      <c r="BE80" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="BF80" s="60"/>
-      <c r="BG80" s="60"/>
-      <c r="BH80" s="60"/>
-      <c r="BI80" s="60"/>
-      <c r="BJ80" s="60"/>
-      <c r="BK80" s="60"/>
-      <c r="BL80" s="60"/>
+      <c r="BF80" s="63"/>
+      <c r="BG80" s="63"/>
+      <c r="BH80" s="63"/>
+      <c r="BI80" s="63"/>
+      <c r="BJ80" s="63"/>
+      <c r="BK80" s="63"/>
+      <c r="BL80" s="63"/>
       <c r="DL80" s="1"/>
-      <c r="DM80" s="53" t="s">
+      <c r="DM80" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="DN80" s="53"/>
-      <c r="DO80" s="53"/>
-      <c r="DP80" s="53"/>
-      <c r="DQ80" s="53"/>
-      <c r="DR80" s="53"/>
-      <c r="DS80" s="53"/>
-      <c r="DT80" s="53"/>
+      <c r="DN80" s="59"/>
+      <c r="DO80" s="59"/>
+      <c r="DP80" s="59"/>
+      <c r="DQ80" s="59"/>
+      <c r="DR80" s="59"/>
+      <c r="DS80" s="59"/>
+      <c r="DT80" s="59"/>
       <c r="FC80" s="1"/>
-      <c r="FD80" s="53" t="s">
+      <c r="FD80" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="FE80" s="53"/>
-      <c r="FF80" s="53"/>
-      <c r="FG80" s="53"/>
-      <c r="FH80" s="53"/>
-      <c r="FI80" s="53"/>
-      <c r="FJ80" s="53"/>
-      <c r="FK80" s="53"/>
+      <c r="FE80" s="59"/>
+      <c r="FF80" s="59"/>
+      <c r="FG80" s="59"/>
+      <c r="FH80" s="59"/>
+      <c r="FI80" s="59"/>
+      <c r="FJ80" s="59"/>
+      <c r="FK80" s="59"/>
     </row>
     <row r="81" spans="1:174" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="6">
-        <f>SUM(C78:C79)</f>
+        <f t="shared" ref="C81:J81" si="20">SUM(C78:C79)</f>
         <v>0</v>
       </c>
       <c r="D81" s="6">
-        <f>SUM(D78:D79)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E81" s="6">
-        <f>SUM(E78:E79)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f>SUM(F78:F79)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G81" s="6">
-        <f>SUM(G78:G79)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H81" s="6">
-        <f>SUM(H78:H79)</f>
+        <f t="shared" si="20"/>
         <v>25.2</v>
       </c>
       <c r="I81" s="6">
-        <f>SUM(I78:I79)</f>
+        <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
       <c r="J81" s="6">
-        <f>SUM(J78:J79)</f>
+        <f t="shared" si="20"/>
         <v>5.9</v>
       </c>
       <c r="L81" s="50"/>
@@ -37755,16 +37755,16 @@
       <c r="AA81" s="49"/>
     </row>
     <row r="82" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
     </row>
     <row r="83" spans="1:174" x14ac:dyDescent="0.2">
       <c r="C83" s="6">
@@ -37772,99 +37772,99 @@
         <v>97</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" ref="D83:J83" si="19">D72+D81</f>
+        <f t="shared" ref="D83:J83" si="21">D72+D81</f>
         <v>87</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22.4</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>78.199999999999989</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12.6</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>25.2</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.9</v>
       </c>
     </row>
     <row r="84" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="61" t="s">
+      <c r="C84" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="AI84" s="53" t="s">
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="AI84" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AJ84" s="53"/>
-      <c r="AK84" s="53"/>
-      <c r="AL84" s="53"/>
-      <c r="AM84" s="53"/>
-      <c r="AN84" s="53"/>
-      <c r="AO84" s="53"/>
-      <c r="AP84" s="53"/>
-      <c r="AT84" s="53" t="s">
+      <c r="AJ84" s="59"/>
+      <c r="AK84" s="59"/>
+      <c r="AL84" s="59"/>
+      <c r="AM84" s="59"/>
+      <c r="AN84" s="59"/>
+      <c r="AO84" s="59"/>
+      <c r="AP84" s="59"/>
+      <c r="AT84" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AU84" s="53"/>
-      <c r="AV84" s="53"/>
-      <c r="AW84" s="53"/>
-      <c r="AX84" s="53"/>
-      <c r="AY84" s="53"/>
-      <c r="AZ84" s="53"/>
-      <c r="BA84" s="53"/>
-      <c r="BE84" s="53" t="s">
+      <c r="AU84" s="59"/>
+      <c r="AV84" s="59"/>
+      <c r="AW84" s="59"/>
+      <c r="AX84" s="59"/>
+      <c r="AY84" s="59"/>
+      <c r="AZ84" s="59"/>
+      <c r="BA84" s="59"/>
+      <c r="BE84" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BF84" s="53"/>
-      <c r="BG84" s="53"/>
-      <c r="BH84" s="53"/>
-      <c r="BI84" s="53"/>
-      <c r="BJ84" s="53"/>
-      <c r="BK84" s="53"/>
-      <c r="BL84" s="53"/>
-      <c r="BT84" s="53" t="s">
+      <c r="BF84" s="59"/>
+      <c r="BG84" s="59"/>
+      <c r="BH84" s="59"/>
+      <c r="BI84" s="59"/>
+      <c r="BJ84" s="59"/>
+      <c r="BK84" s="59"/>
+      <c r="BL84" s="59"/>
+      <c r="BT84" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BU84" s="53"/>
-      <c r="BV84" s="53"/>
-      <c r="BW84" s="53"/>
-      <c r="BX84" s="53"/>
-      <c r="BY84" s="53"/>
-      <c r="DV84" s="53" t="s">
+      <c r="BU84" s="59"/>
+      <c r="BV84" s="59"/>
+      <c r="BW84" s="59"/>
+      <c r="BX84" s="59"/>
+      <c r="BY84" s="59"/>
+      <c r="DV84" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="DW84" s="53"/>
-      <c r="DX84" s="53"/>
-      <c r="DY84" s="53"/>
-      <c r="DZ84" s="53"/>
-      <c r="EA84" s="53"/>
-      <c r="FM84" s="53" t="s">
+      <c r="DW84" s="59"/>
+      <c r="DX84" s="59"/>
+      <c r="DY84" s="59"/>
+      <c r="DZ84" s="59"/>
+      <c r="EA84" s="59"/>
+      <c r="FM84" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="FN84" s="53"/>
-      <c r="FO84" s="53"/>
-      <c r="FP84" s="53"/>
-      <c r="FQ84" s="53"/>
-      <c r="FR84" s="53"/>
+      <c r="FN84" s="59"/>
+      <c r="FO84" s="59"/>
+      <c r="FP84" s="59"/>
+      <c r="FQ84" s="59"/>
+      <c r="FR84" s="59"/>
     </row>
     <row r="85" spans="1:174" ht="114" x14ac:dyDescent="0.2">
       <c r="AI85" s="2" t="s">
@@ -37995,7 +37995,7 @@
       </c>
     </row>
     <row r="86" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -38021,7 +38021,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="6">
-        <f t="shared" ref="Z86:Z93" si="20">SUM(L86:Q86)</f>
+        <f t="shared" ref="Z86:Z93" si="22">SUM(L86:Q86)</f>
         <v>97</v>
       </c>
       <c r="AI86" s="6">
@@ -38125,7 +38125,7 @@
         <v>97</v>
       </c>
       <c r="BP86" s="7">
-        <f t="shared" ref="BP86:BP93" ca="1" si="21">BO86-AB45</f>
+        <f t="shared" ref="BP86:BP93" ca="1" si="23">BO86-AB45</f>
         <v>0</v>
       </c>
       <c r="BT86" s="6">
@@ -38153,7 +38153,7 @@
         <v>0</v>
       </c>
       <c r="CA86" s="7">
-        <f t="shared" ref="CA86:CA93" ca="1" si="22">SUM(BT86:BY86)</f>
+        <f t="shared" ref="CA86:CA93" ca="1" si="24">SUM(BT86:BY86)</f>
         <v>0</v>
       </c>
       <c r="CX86" s="6">
@@ -38165,34 +38165,34 @@
         <v>97</v>
       </c>
       <c r="DC86" s="6">
-        <f t="shared" ref="DC86:DI93" ca="1" si="23">IF((ROW()-ROW($DB$86))=(COLUMN()-COLUMN($DB$86)),INDIRECT("CX"&amp;ROW()),0)</f>
+        <f t="shared" ref="DC86:DI93" ca="1" si="25">IF((ROW()-ROW($DB$86))=(COLUMN()-COLUMN($DB$86)),INDIRECT("CX"&amp;ROW()),0)</f>
         <v>0</v>
       </c>
       <c r="DD86" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE86" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF86" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG86" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH86" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI86" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK86" s="55" t="s">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK86" s="61" t="s">
         <v>4</v>
       </c>
       <c r="DL86" s="1" t="s">
@@ -38222,7 +38222,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB86" s="55" t="s">
+      <c r="FB86" s="61" t="s">
         <v>4</v>
       </c>
       <c r="FC86" s="1" t="s">
@@ -38254,7 +38254,7 @@
       </c>
     </row>
     <row r="87" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
@@ -38277,7 +38277,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>87</v>
       </c>
       <c r="AI87" s="6">
@@ -38381,7 +38381,7 @@
         <v>87</v>
       </c>
       <c r="BP87" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT87" s="6">
@@ -38409,7 +38409,7 @@
         <v>0</v>
       </c>
       <c r="CA87" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="CX87" s="6">
@@ -38417,38 +38417,38 @@
         <v>87</v>
       </c>
       <c r="DB87" s="6">
-        <f t="shared" ref="DB87:DB93" ca="1" si="24">IF((ROW()-ROW($DB$86))=(COLUMN()-COLUMN($DB$86)),INDIRECT("CX"&amp;ROW()),0)</f>
+        <f t="shared" ref="DB87:DB93" ca="1" si="26">IF((ROW()-ROW($DB$86))=(COLUMN()-COLUMN($DB$86)),INDIRECT("CX"&amp;ROW()),0)</f>
         <v>0</v>
       </c>
       <c r="DC87" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>87</v>
       </c>
       <c r="DD87" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE87" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF87" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG87" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH87" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI87" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK87" s="55"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK87" s="61"/>
       <c r="DL87" s="1" t="s">
         <v>1</v>
       </c>
@@ -38476,7 +38476,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB87" s="55"/>
+      <c r="FB87" s="61"/>
       <c r="FC87" s="1" t="s">
         <v>1</v>
       </c>
@@ -38506,7 +38506,7 @@
       </c>
     </row>
     <row r="88" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="1" t="s">
         <v>27</v>
       </c>
@@ -38529,7 +38529,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI88" s="6">
@@ -38633,7 +38633,7 @@
         <v>22.4</v>
       </c>
       <c r="BP88" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT88" s="6">
@@ -38661,7 +38661,7 @@
         <v>0</v>
       </c>
       <c r="CA88" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1</v>
       </c>
       <c r="CX88" s="6">
@@ -38669,38 +38669,38 @@
         <v>22.4</v>
       </c>
       <c r="DB88" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DC88" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DD88" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>22.4</v>
       </c>
       <c r="DE88" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF88" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG88" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH88" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI88" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK88" s="55"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK88" s="61"/>
       <c r="DL88" s="1" t="s">
         <v>27</v>
       </c>
@@ -38728,7 +38728,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB88" s="55"/>
+      <c r="FB88" s="61"/>
       <c r="FC88" s="1" t="s">
         <v>27</v>
       </c>
@@ -38758,7 +38758,7 @@
       </c>
     </row>
     <row r="89" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="1" t="s">
         <v>26</v>
       </c>
@@ -38781,7 +38781,7 @@
         <v>28.1</v>
       </c>
       <c r="Z89" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI89" s="6">
@@ -38885,7 +38885,7 @@
         <v>78.2</v>
       </c>
       <c r="BP89" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT89" s="6">
@@ -38913,7 +38913,7 @@
         <v>0</v>
       </c>
       <c r="CA89" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1</v>
       </c>
       <c r="CX89" s="6">
@@ -38921,38 +38921,38 @@
         <v>78.2</v>
       </c>
       <c r="DB89" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DC89" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DD89" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE89" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>78.2</v>
       </c>
       <c r="DF89" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG89" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH89" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI89" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK89" s="55"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK89" s="61"/>
       <c r="DL89" s="1" t="s">
         <v>26</v>
       </c>
@@ -38980,7 +38980,7 @@
         <f ca="1"/>
         <v>28.1</v>
       </c>
-      <c r="FB89" s="55"/>
+      <c r="FB89" s="61"/>
       <c r="FC89" s="1" t="s">
         <v>26</v>
       </c>
@@ -39010,7 +39010,7 @@
       </c>
     </row>
     <row r="90" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="1" t="s">
         <v>29</v>
       </c>
@@ -39033,7 +39033,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AI90" s="6">
@@ -39137,7 +39137,7 @@
         <v>12.600000000000001</v>
       </c>
       <c r="BP90" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT90" s="6">
@@ -39165,7 +39165,7 @@
         <v>0</v>
       </c>
       <c r="CA90" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="CX90" s="6">
@@ -39173,38 +39173,38 @@
         <v>12.600000000000001</v>
       </c>
       <c r="DB90" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DC90" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DD90" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE90" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF90" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>12.600000000000001</v>
       </c>
       <c r="DG90" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH90" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI90" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK90" s="55"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK90" s="61"/>
       <c r="DL90" s="1" t="s">
         <v>29</v>
       </c>
@@ -39232,7 +39232,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB90" s="55"/>
+      <c r="FB90" s="61"/>
       <c r="FC90" s="1" t="s">
         <v>29</v>
       </c>
@@ -39262,7 +39262,7 @@
       </c>
     </row>
     <row r="91" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
       </c>
@@ -39285,7 +39285,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-25.2</v>
       </c>
       <c r="AI91" s="6">
@@ -39389,7 +39389,7 @@
         <v>25.200000000000003</v>
       </c>
       <c r="BP91" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT91" s="6">
@@ -39417,7 +39417,7 @@
         <v>0</v>
       </c>
       <c r="CA91" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="CX91" s="6">
@@ -39425,38 +39425,38 @@
         <v>25.200000000000003</v>
       </c>
       <c r="DB91" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DC91" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DD91" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE91" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF91" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG91" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>25.200000000000003</v>
       </c>
       <c r="DH91" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI91" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK91" s="55"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK91" s="61"/>
       <c r="DL91" s="1" t="s">
         <v>19</v>
       </c>
@@ -39484,7 +39484,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB91" s="55"/>
+      <c r="FB91" s="61"/>
       <c r="FC91" s="1" t="s">
         <v>19</v>
       </c>
@@ -39514,7 +39514,7 @@
       </c>
     </row>
     <row r="92" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="1" t="s">
         <v>17</v>
       </c>
@@ -39537,7 +39537,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.4</v>
       </c>
       <c r="AI92" s="6">
@@ -39641,7 +39641,7 @@
         <v>0.4</v>
       </c>
       <c r="BP92" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT92" s="6">
@@ -39669,7 +39669,7 @@
         <v>0</v>
       </c>
       <c r="CA92" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1</v>
       </c>
       <c r="CX92" s="6">
@@ -39677,38 +39677,38 @@
         <v>0.4</v>
       </c>
       <c r="DB92" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DC92" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DD92" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE92" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF92" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG92" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH92" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.4</v>
       </c>
       <c r="DI92" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="DK92" s="55"/>
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="DK92" s="61"/>
       <c r="DL92" s="1" t="s">
         <v>17</v>
       </c>
@@ -39736,7 +39736,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB92" s="55"/>
+      <c r="FB92" s="61"/>
       <c r="FC92" s="1" t="s">
         <v>17</v>
       </c>
@@ -39766,7 +39766,7 @@
       </c>
     </row>
     <row r="93" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A93" s="55"/>
+      <c r="A93" s="61"/>
       <c r="B93" s="1" t="s">
         <v>18</v>
       </c>
@@ -39789,7 +39789,7 @@
         <v>-5.9</v>
       </c>
       <c r="Z93" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-5.9</v>
       </c>
       <c r="AI93" s="6">
@@ -39893,7 +39893,7 @@
         <v>5.9</v>
       </c>
       <c r="BP93" s="7">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="BT93" s="6">
@@ -39921,7 +39921,7 @@
         <v>1</v>
       </c>
       <c r="CA93" s="7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1</v>
       </c>
       <c r="CX93" s="6">
@@ -39929,38 +39929,38 @@
         <v>5.9</v>
       </c>
       <c r="DB93" s="6">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DC93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DD93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DE93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DF93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DG93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DH93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="DI93" s="6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="25"/>
         <v>5.9</v>
       </c>
-      <c r="DK93" s="55"/>
+      <c r="DK93" s="61"/>
       <c r="DL93" s="1" t="s">
         <v>18</v>
       </c>
@@ -39988,7 +39988,7 @@
         <f ca="1"/>
         <v>-5.9</v>
       </c>
-      <c r="FB93" s="55"/>
+      <c r="FB93" s="61"/>
       <c r="FC93" s="1" t="s">
         <v>18</v>
       </c>
@@ -40018,53 +40018,53 @@
       </c>
     </row>
     <row r="94" spans="1:174" ht="19" x14ac:dyDescent="0.2">
-      <c r="L94" s="61" t="s">
+      <c r="L94" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M94" s="61"/>
-      <c r="N94" s="61"/>
-      <c r="O94" s="61"/>
-      <c r="P94" s="61"/>
-      <c r="Q94" s="61"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="60"/>
       <c r="Z94" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AI94" s="53" t="s">
+      <c r="AI94" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="AJ94" s="53"/>
-      <c r="AK94" s="53"/>
-      <c r="AL94" s="53"/>
-      <c r="AM94" s="53"/>
-      <c r="AN94" s="53"/>
-      <c r="AO94" s="53"/>
-      <c r="AP94" s="53"/>
+      <c r="AJ94" s="59"/>
+      <c r="AK94" s="59"/>
+      <c r="AL94" s="59"/>
+      <c r="AM94" s="59"/>
+      <c r="AN94" s="59"/>
+      <c r="AO94" s="59"/>
+      <c r="AP94" s="59"/>
       <c r="AQ94" s="8"/>
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
-      <c r="AT94" s="53" t="s">
+      <c r="AT94" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AU94" s="53"/>
-      <c r="AV94" s="53"/>
-      <c r="AW94" s="53"/>
-      <c r="AX94" s="53"/>
-      <c r="AY94" s="53"/>
-      <c r="AZ94" s="53"/>
-      <c r="BA94" s="53"/>
+      <c r="AU94" s="59"/>
+      <c r="AV94" s="59"/>
+      <c r="AW94" s="59"/>
+      <c r="AX94" s="59"/>
+      <c r="AY94" s="59"/>
+      <c r="AZ94" s="59"/>
+      <c r="BA94" s="59"/>
       <c r="BB94" s="8"/>
       <c r="BC94" s="8"/>
       <c r="BD94" s="8"/>
-      <c r="BE94" s="53" t="s">
+      <c r="BE94" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="BF94" s="53"/>
-      <c r="BG94" s="53"/>
-      <c r="BH94" s="53"/>
-      <c r="BI94" s="53"/>
-      <c r="BJ94" s="53"/>
-      <c r="BK94" s="53"/>
-      <c r="BL94" s="53"/>
+      <c r="BF94" s="59"/>
+      <c r="BG94" s="59"/>
+      <c r="BH94" s="59"/>
+      <c r="BI94" s="59"/>
+      <c r="BJ94" s="59"/>
+      <c r="BK94" s="59"/>
+      <c r="BL94" s="59"/>
       <c r="BM94" s="8"/>
       <c r="BN94" s="8"/>
       <c r="BO94" s="30" t="s">
@@ -40076,55 +40076,55 @@
       <c r="BQ94" s="8"/>
       <c r="BR94" s="8"/>
       <c r="BS94" s="8"/>
-      <c r="BT94" s="56" t="s">
+      <c r="BT94" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="BU94" s="56"/>
-      <c r="BV94" s="56"/>
-      <c r="BW94" s="56"/>
-      <c r="BX94" s="56"/>
-      <c r="BY94" s="56"/>
+      <c r="BU94" s="62"/>
+      <c r="BV94" s="62"/>
+      <c r="BW94" s="62"/>
+      <c r="BX94" s="62"/>
+      <c r="BY94" s="62"/>
       <c r="BZ94" s="8"/>
       <c r="CB94" s="8"/>
       <c r="CC94" s="8"/>
       <c r="CD94" s="8"/>
       <c r="CM94" s="8"/>
       <c r="CN94" s="8"/>
-      <c r="CO94" s="67"/>
+      <c r="CO94" s="57"/>
       <c r="CX94" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="DB94" s="53" t="s">
+      <c r="DB94" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="DC94" s="53"/>
-      <c r="DD94" s="53"/>
-      <c r="DE94" s="53"/>
-      <c r="DF94" s="53"/>
-      <c r="DG94" s="53"/>
-      <c r="DH94" s="53"/>
-      <c r="DI94" s="53"/>
+      <c r="DC94" s="59"/>
+      <c r="DD94" s="59"/>
+      <c r="DE94" s="59"/>
+      <c r="DF94" s="59"/>
+      <c r="DG94" s="59"/>
+      <c r="DH94" s="59"/>
+      <c r="DI94" s="59"/>
       <c r="DJ94" s="8"/>
-      <c r="DV94" s="61" t="s">
+      <c r="DV94" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="DW94" s="61"/>
-      <c r="DX94" s="61"/>
-      <c r="DY94" s="61"/>
-      <c r="DZ94" s="61"/>
-      <c r="EA94" s="61"/>
-      <c r="EW94" s="67"/>
-      <c r="FM94" s="61" t="s">
+      <c r="DW94" s="60"/>
+      <c r="DX94" s="60"/>
+      <c r="DY94" s="60"/>
+      <c r="DZ94" s="60"/>
+      <c r="EA94" s="60"/>
+      <c r="EW94" s="57"/>
+      <c r="FM94" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="FN94" s="61"/>
-      <c r="FO94" s="61"/>
-      <c r="FP94" s="61"/>
-      <c r="FQ94" s="61"/>
-      <c r="FR94" s="61"/>
+      <c r="FN94" s="60"/>
+      <c r="FO94" s="60"/>
+      <c r="FP94" s="60"/>
+      <c r="FQ94" s="60"/>
+      <c r="FR94" s="60"/>
     </row>
     <row r="95" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J95" s="55" t="s">
+      <c r="J95" s="61" t="s">
         <v>30</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -40149,7 +40149,7 @@
       <c r="Q95" s="16">
         <v>28.1</v>
       </c>
-      <c r="DT95" s="55" t="s">
+      <c r="DT95" s="61" t="s">
         <v>30</v>
       </c>
       <c r="DU95" s="1" t="s">
@@ -40179,7 +40179,7 @@
         <f ca="1"/>
         <v>28.1</v>
       </c>
-      <c r="FK95" s="55" t="s">
+      <c r="FK95" s="61" t="s">
         <v>30</v>
       </c>
       <c r="FL95" s="1" t="s">
@@ -40211,7 +40211,7 @@
       </c>
     </row>
     <row r="96" spans="1:174" ht="17" x14ac:dyDescent="0.2">
-      <c r="J96" s="55"/>
+      <c r="J96" s="61"/>
       <c r="K96" s="37" t="s">
         <v>81</v>
       </c>
@@ -40233,7 +40233,7 @@
       <c r="Q96" s="6">
         <v>0</v>
       </c>
-      <c r="DT96" s="55"/>
+      <c r="DT96" s="61"/>
       <c r="DU96" s="37" t="s">
         <v>81</v>
       </c>
@@ -40261,7 +40261,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FK96" s="55"/>
+      <c r="FK96" s="61"/>
       <c r="FL96" s="37" t="s">
         <v>81</v>
       </c>
@@ -40291,7 +40291,7 @@
       </c>
     </row>
     <row r="97" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="J97" s="55"/>
+      <c r="J97" s="61"/>
       <c r="K97" s="1" t="s">
         <v>33</v>
       </c>
@@ -40323,7 +40323,7 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
       <c r="AA97" s="17"/>
-      <c r="DT97" s="55"/>
+      <c r="DT97" s="61"/>
       <c r="DU97" s="1" t="s">
         <v>33</v>
       </c>
@@ -40351,7 +40351,7 @@
         <f ca="1"/>
         <v>-5.9</v>
       </c>
-      <c r="FK97" s="55"/>
+      <c r="FK97" s="61"/>
       <c r="FL97" s="1" t="s">
         <v>33</v>
       </c>
@@ -40381,30 +40381,30 @@
       </c>
     </row>
     <row r="98" spans="1:174" ht="20" x14ac:dyDescent="0.25">
-      <c r="L98" s="61" t="s">
+      <c r="L98" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M98" s="61"/>
-      <c r="N98" s="61"/>
-      <c r="O98" s="61"/>
-      <c r="P98" s="61"/>
-      <c r="Q98" s="61"/>
-      <c r="DV98" s="61" t="s">
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="60"/>
+      <c r="DV98" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="DW98" s="61"/>
-      <c r="DX98" s="61"/>
-      <c r="DY98" s="61"/>
-      <c r="DZ98" s="61"/>
-      <c r="EA98" s="61"/>
-      <c r="FM98" s="61" t="s">
+      <c r="DW98" s="60"/>
+      <c r="DX98" s="60"/>
+      <c r="DY98" s="60"/>
+      <c r="DZ98" s="60"/>
+      <c r="EA98" s="60"/>
+      <c r="FM98" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="FN98" s="61"/>
-      <c r="FO98" s="61"/>
-      <c r="FP98" s="61"/>
-      <c r="FQ98" s="61"/>
-      <c r="FR98" s="61"/>
+      <c r="FN98" s="60"/>
+      <c r="FO98" s="60"/>
+      <c r="FP98" s="60"/>
+      <c r="FQ98" s="60"/>
+      <c r="FR98" s="60"/>
     </row>
     <row r="101" spans="1:174" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="27" t="s">
@@ -40420,17 +40420,17 @@
       <c r="I101" s="27"/>
     </row>
     <row r="103" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="53"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
     </row>
     <row r="104" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A104" s="46"/>
@@ -40444,7 +40444,7 @@
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -40455,12 +40455,12 @@
         <v>0</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" ref="E105:E112" si="25">Z86</f>
+        <f t="shared" ref="E105:E112" si="27">Z86</f>
         <v>97</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="4">
-        <f t="shared" ref="G105:G112" si="26">Z45</f>
+        <f t="shared" ref="G105:G112" si="28">Z45</f>
         <v>97</v>
       </c>
       <c r="I105" s="7">
@@ -40469,7 +40469,7 @@
       </c>
     </row>
     <row r="106" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
@@ -40477,21 +40477,21 @@
         <v>0</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>87</v>
       </c>
       <c r="F106" s="50"/>
       <c r="G106" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>87</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" ref="I106:I112" si="27">C106+E106-G106</f>
+        <f t="shared" ref="I106:I112" si="29">C106+E106-G106</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="1" t="s">
         <v>27</v>
       </c>
@@ -40499,20 +40499,20 @@
         <v>0</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A108" s="55"/>
+      <c r="A108" s="61"/>
       <c r="B108" s="1" t="s">
         <v>26</v>
       </c>
@@ -40523,26 +40523,26 @@
         <v>56</v>
       </c>
       <c r="E108" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F108" s="46" t="s">
         <v>9</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H108" s="47" t="s">
         <v>10</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A109" s="55"/>
+      <c r="A109" s="61"/>
       <c r="B109" s="1" t="s">
         <v>29</v>
       </c>
@@ -40550,21 +40550,21 @@
         <v>0</v>
       </c>
       <c r="E109" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F109" s="50"/>
       <c r="G109" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A110" s="55"/>
+      <c r="A110" s="61"/>
       <c r="B110" s="1" t="s">
         <v>19</v>
       </c>
@@ -40572,21 +40572,21 @@
         <v>25.2</v>
       </c>
       <c r="E110" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-25.2</v>
       </c>
       <c r="F110" s="50"/>
       <c r="G110" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I110" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A111" s="55"/>
+      <c r="A111" s="61"/>
       <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
@@ -40594,20 +40594,20 @@
         <v>0.4</v>
       </c>
       <c r="E111" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.4</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I111" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A112" s="55"/>
+      <c r="A112" s="61"/>
       <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
@@ -40615,16 +40615,16 @@
         <v>5.9</v>
       </c>
       <c r="E112" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-5.9</v>
       </c>
       <c r="F112" s="50"/>
       <c r="G112" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I112" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -40644,17 +40644,17 @@
       </c>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="53"/>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="53"/>
-      <c r="H115" s="53"/>
-      <c r="I115" s="53"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="59"/>
+      <c r="I115" s="59"/>
       <c r="AL115" s="18"/>
       <c r="AM115" s="18"/>
       <c r="AN115" s="18"/>
@@ -40701,7 +40701,7 @@
       <c r="AN116" s="18"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A117" s="55" t="s">
+      <c r="A117" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -40712,11 +40712,11 @@
         <v>100</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" ref="D117:E122" si="28">AA65</f>
+        <f t="shared" ref="D117:E122" si="30">AA65</f>
         <v>0</v>
       </c>
       <c r="E117" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G117" s="6">
@@ -40744,11 +40744,11 @@
         <v>0</v>
       </c>
       <c r="P117" s="7">
-        <f t="shared" ref="P117:Q122" si="29">D117-H117-L117</f>
+        <f t="shared" ref="P117:Q122" si="31">D117-H117-L117</f>
         <v>0</v>
       </c>
       <c r="Q117" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO117" s="18"/>
@@ -40756,20 +40756,20 @@
       <c r="AQ117" s="18"/>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A118" s="55"/>
+      <c r="A118" s="61"/>
       <c r="B118" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" ref="C118:C122" si="30">Z66</f>
+        <f t="shared" ref="C118:C122" si="32">Z66</f>
         <v>87</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G118" s="6">
@@ -40791,15 +40791,15 @@
         <v>0</v>
       </c>
       <c r="O118" s="7">
-        <f t="shared" ref="O118:O122" si="31">C118-G118-K118</f>
+        <f t="shared" ref="O118:O122" si="33">C118-G118-K118</f>
         <v>0</v>
       </c>
       <c r="P118" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q118" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO118" s="18"/>
@@ -40807,20 +40807,20 @@
       <c r="AQ118" s="18"/>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A119" s="55"/>
+      <c r="A119" s="61"/>
       <c r="B119" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C119" s="6">
+        <f t="shared" si="32"/>
+        <v>17.8</v>
+      </c>
+      <c r="D119" s="6">
         <f t="shared" si="30"/>
-        <v>17.8</v>
-      </c>
-      <c r="D119" s="6">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F119" s="46" t="s">
@@ -40851,15 +40851,15 @@
         <v>10</v>
       </c>
       <c r="O119" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P119" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P119" s="7">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="Q119" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO119" s="18"/>
@@ -40867,20 +40867,20 @@
       <c r="AQ119" s="18"/>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A120" s="55"/>
+      <c r="A120" s="61"/>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="6">
+        <f t="shared" si="32"/>
+        <v>44.4</v>
+      </c>
+      <c r="D120" s="6">
         <f t="shared" si="30"/>
-        <v>44.4</v>
-      </c>
-      <c r="D120" s="6">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E120" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G120" s="6">
@@ -40902,15 +40902,15 @@
         <v>0</v>
       </c>
       <c r="O120" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P120" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P120" s="7">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="Q120" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO120" s="18"/>
@@ -40918,20 +40918,20 @@
       <c r="AQ120" s="18"/>
     </row>
     <row r="121" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A121" s="55"/>
+      <c r="A121" s="61"/>
       <c r="B121" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="6">
+        <f t="shared" si="32"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D121" s="6">
         <f t="shared" si="30"/>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D121" s="6">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E121" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G121" s="6">
@@ -40953,15 +40953,15 @@
         <v>0.4</v>
       </c>
       <c r="O121" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P121" s="7">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="Q121" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO121" s="18"/>
@@ -40969,20 +40969,20 @@
       <c r="AQ121" s="18"/>
     </row>
     <row r="122" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A122" s="55"/>
+      <c r="A122" s="61"/>
       <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="6">
+        <f t="shared" si="32"/>
+        <v>28.1</v>
+      </c>
+      <c r="D122" s="6">
         <f t="shared" si="30"/>
-        <v>28.1</v>
-      </c>
-      <c r="D122" s="6">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E122" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G122" s="6">
@@ -41004,15 +41004,15 @@
         <v>5.9</v>
       </c>
       <c r="O122" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="7">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P122" s="7">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
       <c r="Q122" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AO122" s="18"/>
@@ -41020,21 +41020,21 @@
       <c r="AQ122" s="18"/>
     </row>
     <row r="123" spans="1:43" ht="19" x14ac:dyDescent="0.2">
-      <c r="C123" s="53" t="s">
+      <c r="C123" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="53"/>
-      <c r="E123" s="53"/>
-      <c r="G123" s="61" t="s">
+      <c r="D123" s="59"/>
+      <c r="E123" s="59"/>
+      <c r="G123" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H123" s="61"/>
-      <c r="I123" s="61"/>
-      <c r="K123" s="61" t="s">
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="K123" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L123" s="61"/>
-      <c r="M123" s="61"/>
+      <c r="L123" s="60"/>
+      <c r="M123" s="60"/>
       <c r="N123" s="17"/>
       <c r="O123" s="17" t="s">
         <v>41</v>
@@ -41058,14 +41058,14 @@
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A128" s="55" t="s">
+      <c r="A128" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="6">
-        <f t="shared" ref="C128:C133" si="32">AD65</f>
+        <f t="shared" ref="C128:C133" si="34">AD65</f>
         <v>100</v>
       </c>
       <c r="D128" s="6">
@@ -41078,87 +41078,87 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="55"/>
+      <c r="A129" s="61"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C129" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>87</v>
       </c>
       <c r="D129" s="6">
         <v>78.2</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" ref="F129:F133" si="33">C129/D129</f>
+        <f t="shared" ref="F129:F133" si="35">C129/D129</f>
         <v>1.1125319693094629</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
+      <c r="A130" s="61"/>
       <c r="B130" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C130" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17.8</v>
       </c>
       <c r="D130" s="6">
         <v>12.6</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.4126984126984128</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="55"/>
+      <c r="A131" s="61"/>
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C131" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>44.4</v>
       </c>
       <c r="D131" s="6">
         <v>25.2</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.7619047619047619</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
+      <c r="A132" s="61"/>
       <c r="B132" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C132" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>19.899999999999999</v>
       </c>
       <c r="D132" s="6">
         <v>0.4</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>49.749999999999993</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="55"/>
+      <c r="A133" s="61"/>
       <c r="B133" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>28.1</v>
       </c>
       <c r="D133" s="6">
         <v>5.9</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.7627118644067794</v>
       </c>
     </row>
@@ -41179,14 +41179,14 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C138" s="53" t="s">
+      <c r="C138" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="53"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="53"/>
-      <c r="H138" s="53"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="59"/>
     </row>
     <row r="139" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
@@ -41209,34 +41209,34 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="55" t="s">
+      <c r="A140" s="61" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C140" s="6">
-        <f t="shared" ref="C140:H145" ca="1" si="34">IF((ROW()-ROW($C$140))=(COLUMN()-COLUMN($C$140)),INDIRECT(ADDRESS(ROW(L$58),COLUMN(L$58))),0)</f>
+        <f t="shared" ref="C140:H145" ca="1" si="36">IF((ROW()-ROW($C$140))=(COLUMN()-COLUMN($C$140)),INDIRECT(ADDRESS(ROW(L$58),COLUMN(L$58))),0)</f>
         <v>22.4</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="H140" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="J140" s="6">
@@ -41244,37 +41244,37 @@
         <v>100</v>
       </c>
       <c r="L140" s="7">
-        <f t="shared" ref="L140:L145" ca="1" si="35">J140-AD65</f>
+        <f t="shared" ref="L140:L145" ca="1" si="37">J140-AD65</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="55"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C141" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>78.2</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="H141" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="J141" s="6">
@@ -41282,37 +41282,37 @@
         <v>87</v>
       </c>
       <c r="L141" s="7">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="55"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C142" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>12.6</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="H142" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="J142" s="6">
@@ -41320,37 +41320,37 @@
         <v>17.8</v>
       </c>
       <c r="L142" s="7">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="55"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C143" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="D143" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="E143" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="F143" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>25.2</v>
       </c>
       <c r="G143" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="H143" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="J143" s="6">
@@ -41358,37 +41358,37 @@
         <v>44.4</v>
       </c>
       <c r="L143" s="7">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="55"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C144" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="D144" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="E144" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="F144" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="G144" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.4</v>
       </c>
       <c r="H144" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="J144" s="6">
@@ -41396,37 +41396,37 @@
         <v>19.899999999999999</v>
       </c>
       <c r="L144" s="7">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="55"/>
+      <c r="A145" s="61"/>
       <c r="B145" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C145" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="D145" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="E145" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="F145" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="G145" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="H145" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.9</v>
       </c>
       <c r="J145" s="6">
@@ -41434,19 +41434,19 @@
         <v>28.1</v>
       </c>
       <c r="L145" s="7">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C146" s="53" t="s">
+      <c r="C146" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
-      <c r="H146" s="53"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="59"/>
       <c r="J146" s="33" t="s">
         <v>79</v>
       </c>
@@ -41458,40 +41458,54 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="FK95:FK97"/>
-    <mergeCell ref="FM98:FR98"/>
-    <mergeCell ref="FM84:FR84"/>
-    <mergeCell ref="DV84:EA84"/>
-    <mergeCell ref="DK86:DK93"/>
-    <mergeCell ref="DV94:EA94"/>
-    <mergeCell ref="DT95:DT97"/>
-    <mergeCell ref="DV98:EA98"/>
-    <mergeCell ref="FB65:FB70"/>
-    <mergeCell ref="FD71:FK71"/>
-    <mergeCell ref="FB78:FB79"/>
-    <mergeCell ref="FD80:FK80"/>
-    <mergeCell ref="FB86:FB93"/>
-    <mergeCell ref="FM94:FR94"/>
-    <mergeCell ref="EY1:GE1"/>
-    <mergeCell ref="FD43:FK43"/>
-    <mergeCell ref="FM43:FR43"/>
-    <mergeCell ref="FT43:FU43"/>
-    <mergeCell ref="FB45:FB52"/>
-    <mergeCell ref="FM53:FR53"/>
-    <mergeCell ref="FT53:FU53"/>
-    <mergeCell ref="EC43:ED43"/>
-    <mergeCell ref="EC53:ED53"/>
-    <mergeCell ref="DK78:DK79"/>
-    <mergeCell ref="DM80:DT80"/>
-    <mergeCell ref="BE80:BL80"/>
-    <mergeCell ref="BE76:BL76"/>
-    <mergeCell ref="DB94:DI94"/>
-    <mergeCell ref="DM71:DT71"/>
-    <mergeCell ref="DV53:EA53"/>
-    <mergeCell ref="DV43:EA43"/>
-    <mergeCell ref="DK45:DK52"/>
-    <mergeCell ref="DK65:DK70"/>
-    <mergeCell ref="DM43:DT43"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="U45:U52"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AT53:AY53"/>
+    <mergeCell ref="AI43:AP43"/>
+    <mergeCell ref="AT43:AY43"/>
+    <mergeCell ref="BE43:BJ43"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AI63:AN63"/>
+    <mergeCell ref="AT63:BA63"/>
+    <mergeCell ref="BE63:BL63"/>
+    <mergeCell ref="BT63:BY63"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="BE53:BJ53"/>
+    <mergeCell ref="BT53:BY53"/>
+    <mergeCell ref="CA53:CH53"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AT76:BA76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="AI71:AN71"/>
+    <mergeCell ref="AT71:BA71"/>
+    <mergeCell ref="AI94:AP94"/>
+    <mergeCell ref="AT94:BA94"/>
+    <mergeCell ref="BE94:BL94"/>
+    <mergeCell ref="BT94:BY94"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AT80:BA80"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="AI84:AP84"/>
+    <mergeCell ref="AT84:BA84"/>
     <mergeCell ref="C146:H146"/>
     <mergeCell ref="Z76:AB76"/>
     <mergeCell ref="A1:AI1"/>
@@ -41516,59 +41530,45 @@
     <mergeCell ref="BT84:BY84"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="L94:Q94"/>
-    <mergeCell ref="AI94:AP94"/>
-    <mergeCell ref="AT94:BA94"/>
-    <mergeCell ref="BE94:BL94"/>
-    <mergeCell ref="BT94:BY94"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AT80:BA80"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="AI84:AP84"/>
-    <mergeCell ref="AT84:BA84"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AL76:AM76"/>
-    <mergeCell ref="AT76:BA76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="AI71:AN71"/>
-    <mergeCell ref="AT71:BA71"/>
+    <mergeCell ref="BE80:BL80"/>
+    <mergeCell ref="BE76:BL76"/>
+    <mergeCell ref="DB94:DI94"/>
+    <mergeCell ref="DM71:DT71"/>
+    <mergeCell ref="DV53:EA53"/>
+    <mergeCell ref="DV43:EA43"/>
+    <mergeCell ref="DK45:DK52"/>
+    <mergeCell ref="DK65:DK70"/>
+    <mergeCell ref="DM43:DT43"/>
     <mergeCell ref="BE71:BL71"/>
     <mergeCell ref="BT71:BY71"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AI63:AN63"/>
-    <mergeCell ref="AT63:BA63"/>
-    <mergeCell ref="BE63:BL63"/>
-    <mergeCell ref="BT63:BY63"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="BE53:BJ53"/>
-    <mergeCell ref="BT53:BY53"/>
-    <mergeCell ref="CA53:CH53"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="U45:U52"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AT53:AY53"/>
-    <mergeCell ref="AI43:AP43"/>
-    <mergeCell ref="AT43:AY43"/>
-    <mergeCell ref="BE43:BJ43"/>
     <mergeCell ref="BT43:BY43"/>
     <mergeCell ref="CA43:CH43"/>
     <mergeCell ref="CJ43:CK43"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="EY1:GE1"/>
+    <mergeCell ref="FD43:FK43"/>
+    <mergeCell ref="FM43:FR43"/>
+    <mergeCell ref="FT43:FU43"/>
+    <mergeCell ref="FB45:FB52"/>
+    <mergeCell ref="FM53:FR53"/>
+    <mergeCell ref="FT53:FU53"/>
+    <mergeCell ref="EC43:ED43"/>
+    <mergeCell ref="EC53:ED53"/>
+    <mergeCell ref="FK95:FK97"/>
+    <mergeCell ref="FM98:FR98"/>
+    <mergeCell ref="FM84:FR84"/>
+    <mergeCell ref="DV84:EA84"/>
+    <mergeCell ref="DK86:DK93"/>
+    <mergeCell ref="DV94:EA94"/>
+    <mergeCell ref="DT95:DT97"/>
+    <mergeCell ref="DV98:EA98"/>
+    <mergeCell ref="FB65:FB70"/>
+    <mergeCell ref="FD71:FK71"/>
+    <mergeCell ref="FB78:FB79"/>
+    <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="FB86:FB93"/>
+    <mergeCell ref="FM94:FR94"/>
+    <mergeCell ref="DK78:DK79"/>
+    <mergeCell ref="DM80:DT80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E28F15-70C0-CF4F-A172-E1B31A5CB28E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47888087-2F69-5B43-9597-612A6F677A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Meta" sheetId="10" r:id="rId1"/>
     <sheet name="PSUT" sheetId="8" r:id="rId2"/>
     <sheet name="Rev Upstream swim Rev" sheetId="12" r:id="rId3"/>
-    <sheet name="RawECCData" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -710,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="120">
   <si>
     <t>Buildings</t>
   </si>
@@ -2187,73 +2186,10 @@
     </r>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Ledger.side</t>
-  </si>
-  <si>
-    <t>Flow.aggregation.point</t>
-  </si>
-  <si>
-    <t>Energy.type</t>
-  </si>
-  <si>
-    <t>Last.stage</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Total primary energy supply</t>
-  </si>
-  <si>
     <t>Resources - Rens</t>
   </si>
   <si>
-    <t>ktoe</t>
-  </si>
-  <si>
-    <t>Transformation processes</t>
-  </si>
-  <si>
-    <t>Gm3-K</t>
-  </si>
-  <si>
-    <t>Energy industry own use</t>
-  </si>
-  <si>
-    <t>Consumption</t>
-  </si>
-  <si>
-    <t>Commercial and public services</t>
-  </si>
-  <si>
     <t>Transport</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>E.dot</t>
   </si>
   <si>
     <t>This workbook investigates use of a direct (reversing) method to determine the effect of a change in resources available to an ECC.</t>
@@ -3487,7 +3423,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3496,20 +3432,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -23757,32 +23693,32 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -23798,7 +23734,7 @@
   </sheetPr>
   <dimension ref="A1:CO144"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="J17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
@@ -23981,11 +23917,11 @@
     </row>
     <row r="26" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -24254,11 +24190,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -24476,7 +24412,7 @@
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>58</v>
@@ -24584,7 +24520,7 @@
         <v>18</v>
       </c>
       <c r="CJ41" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="CK41" s="2" t="s">
         <v>58</v>
@@ -26392,14 +26328,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L54" s="64" t="s">
+      <c r="L54" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="63"/>
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.2">
       <c r="L55" s="6">
@@ -26439,11 +26375,11 @@
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-      <c r="Z60" s="66" t="s">
+      <c r="Z60" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="66"/>
-      <c r="AB60" s="66"/>
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="60"/>
       <c r="AI60" s="59" t="s">
         <v>3</v>
       </c>
@@ -27579,11 +27515,11 @@
       <c r="J68" s="59"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="64" t="s">
+      <c r="Z68" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="64"/>
-      <c r="AB68" s="64"/>
+      <c r="AA68" s="63"/>
+      <c r="AB68" s="63"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -27789,17 +27725,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="66" t="s">
+      <c r="Z73" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="66"/>
-      <c r="AI73" s="67" t="s">
+      <c r="AA73" s="60"/>
+      <c r="AI73" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="67"/>
+      <c r="AJ73" s="64"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="67"/>
-      <c r="AM73" s="67"/>
+      <c r="AL73" s="64"/>
+      <c r="AM73" s="64"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -28132,29 +28068,29 @@
       <c r="AD77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="63" t="s">
+      <c r="AI77" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="63"/>
+      <c r="AJ77" s="66"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="63"/>
-      <c r="AM77" s="63"/>
+      <c r="AL77" s="66"/>
+      <c r="AM77" s="66"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="63" t="s">
+      <c r="AT77" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="63"/>
-      <c r="AV77" s="63"/>
-      <c r="AW77" s="63"/>
-      <c r="AX77" s="63"/>
-      <c r="AY77" s="63"/>
-      <c r="AZ77" s="63"/>
-      <c r="BA77" s="63"/>
+      <c r="AU77" s="66"/>
+      <c r="AV77" s="66"/>
+      <c r="AW77" s="66"/>
+      <c r="AX77" s="66"/>
+      <c r="AY77" s="66"/>
+      <c r="AZ77" s="66"/>
+      <c r="BA77" s="66"/>
     </row>
     <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
@@ -28254,16 +28190,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
       <c r="AI81" s="59" t="s">
         <v>4</v>
       </c>
@@ -29679,14 +29615,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19" x14ac:dyDescent="0.2">
-      <c r="L91" s="60" t="s">
+      <c r="L91" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="60"/>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
+      <c r="Q91" s="67"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -29839,14 +29775,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L95" s="60" t="s">
+      <c r="L95" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="60"/>
-      <c r="N95" s="60"/>
-      <c r="O95" s="60"/>
-      <c r="P95" s="60"/>
-      <c r="Q95" s="60"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
     </row>
     <row r="98" spans="1:40" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="27" t="s">
@@ -30467,16 +30403,16 @@
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
-      <c r="G120" s="60" t="s">
+      <c r="G120" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="60"/>
-      <c r="I120" s="60"/>
-      <c r="K120" s="60" t="s">
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
+      <c r="K120" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="60"/>
-      <c r="M120" s="60"/>
+      <c r="L120" s="67"/>
+      <c r="M120" s="67"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -30900,6 +30836,65 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -30912,65 +30907,6 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="17" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -30983,8 +30919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018262C-ADF6-FA4F-AD02-C6E8C0BF89C2}">
   <dimension ref="A1:GE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CU46" sqref="CU46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31011,7 +30947,7 @@
   <sheetData>
     <row r="1" spans="1:187" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -31048,7 +30984,7 @@
       <c r="AH1" s="68"/>
       <c r="AI1" s="68"/>
       <c r="CQ1" s="68" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="CR1" s="68"/>
       <c r="CS1" s="68"/>
@@ -31083,7 +31019,7 @@
       <c r="DV1" s="68"/>
       <c r="DW1" s="68"/>
       <c r="EY1" s="68" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="EZ1" s="68"/>
       <c r="FA1" s="68"/>
@@ -31549,11 +31485,11 @@
     </row>
     <row r="29" spans="1:177" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="N29" s="50"/>
@@ -31898,11 +31834,11 @@
       <c r="CN38" s="31"/>
     </row>
     <row r="39" spans="1:179" ht="18" x14ac:dyDescent="0.25">
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="BM39" s="31"/>
@@ -32170,7 +32106,7 @@
       </c>
       <c r="V44" s="28"/>
       <c r="W44" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="X44" s="2" t="s">
         <v>21</v>
@@ -32278,7 +32214,7 @@
         <v>18</v>
       </c>
       <c r="CJ44" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="CK44" s="2" t="s">
         <v>58</v>
@@ -32289,7 +32225,7 @@
       <c r="CO44" s="58"/>
       <c r="CT44" s="28"/>
       <c r="CU44" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="CV44" s="2" t="s">
         <v>21</v>
@@ -32337,7 +32273,7 @@
         <v>16</v>
       </c>
       <c r="EC44" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="ED44" s="2" t="s">
         <v>21</v>
@@ -32386,7 +32322,7 @@
         <v>16</v>
       </c>
       <c r="FT44" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="FU44" s="2" t="s">
         <v>58</v>
@@ -34819,14 +34755,14 @@
       <c r="CN53" s="8"/>
       <c r="CO53" s="57"/>
       <c r="CU53" s="59" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="CV53" s="59"/>
       <c r="CX53" s="46" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="DV53" s="59" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="DW53" s="59"/>
       <c r="DX53" s="59"/>
@@ -34835,11 +34771,11 @@
       <c r="EA53" s="59"/>
       <c r="EB53" s="8"/>
       <c r="EC53" s="59" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="ED53" s="59"/>
       <c r="EF53" s="46" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="EG53" s="8"/>
       <c r="EH53" s="8"/>
@@ -34859,7 +34795,7 @@
       <c r="EV53" s="8"/>
       <c r="EW53" s="57"/>
       <c r="FM53" s="59" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="FN53" s="59"/>
       <c r="FO53" s="59"/>
@@ -34868,11 +34804,11 @@
       <c r="FR53" s="59"/>
       <c r="FS53" s="8"/>
       <c r="FT53" s="59" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="FU53" s="59"/>
       <c r="FW53" s="46" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="FX53" s="8"/>
     </row>
@@ -34999,14 +34935,14 @@
       <c r="AA56" s="15"/>
     </row>
     <row r="57" spans="1:180" ht="20" x14ac:dyDescent="0.25">
-      <c r="L57" s="64" t="s">
+      <c r="L57" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="M57" s="64"/>
-      <c r="N57" s="64"/>
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
     </row>
     <row r="58" spans="1:180" x14ac:dyDescent="0.2">
       <c r="L58" s="6">
@@ -35046,11 +34982,11 @@
     </row>
     <row r="63" spans="1:180" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
-      <c r="Z63" s="66" t="s">
+      <c r="Z63" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
+      <c r="AA63" s="60"/>
+      <c r="AB63" s="60"/>
       <c r="AI63" s="59" t="s">
         <v>3</v>
       </c>
@@ -36793,11 +36729,11 @@
       <c r="J71" s="59"/>
       <c r="X71" s="15"/>
       <c r="Y71" s="15"/>
-      <c r="Z71" s="64" t="s">
+      <c r="Z71" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="64"/>
+      <c r="AA71" s="63"/>
+      <c r="AB71" s="63"/>
       <c r="AD71" s="34" t="s">
         <v>71</v>
       </c>
@@ -36853,10 +36789,10 @@
       <c r="BY71" s="62"/>
       <c r="BZ71" s="26"/>
       <c r="CX71" s="46" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="DB71" s="59" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="DC71" s="59"/>
       <c r="DD71" s="59"/>
@@ -36869,7 +36805,7 @@
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
       <c r="DM71" s="59" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="DN71" s="59"/>
       <c r="DO71" s="59"/>
@@ -36892,7 +36828,7 @@
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
       <c r="FD71" s="59" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="FE71" s="59"/>
       <c r="FF71" s="59"/>
@@ -37063,18 +36999,18 @@
       <c r="W76" s="15"/>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
-      <c r="Z76" s="66" t="s">
+      <c r="Z76" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AA76" s="66"/>
-      <c r="AB76" s="66"/>
-      <c r="AI76" s="67" t="s">
+      <c r="AA76" s="60"/>
+      <c r="AB76" s="60"/>
+      <c r="AI76" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AJ76" s="67"/>
+      <c r="AJ76" s="64"/>
       <c r="AK76" s="31"/>
-      <c r="AL76" s="67"/>
-      <c r="AM76" s="67"/>
+      <c r="AL76" s="64"/>
+      <c r="AM76" s="64"/>
       <c r="AN76" s="31"/>
       <c r="AO76" s="31"/>
       <c r="AP76" s="31"/>
@@ -37136,7 +37072,7 @@
         <v>33</v>
       </c>
       <c r="AI77" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AJ77" s="2" t="s">
         <v>58</v>
@@ -37204,7 +37140,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -37345,7 +37281,7 @@
         <v>84</v>
       </c>
       <c r="DL78" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="DM78" s="6">
         <f t="array" aca="1" ref="DM78:DT79" ca="1">MMULT(BE78:BL79, DB86:DI93)</f>
@@ -37383,7 +37319,7 @@
         <v>84</v>
       </c>
       <c r="FC78" s="47" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="FD78" s="6">
         <f t="array" ref="FD78:FK79">TRANSPOSE(EC45:ED52)</f>
@@ -37647,42 +37583,42 @@
       <c r="AD80" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="AI80" s="63" t="s">
+      <c r="AI80" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AJ80" s="63"/>
+      <c r="AJ80" s="66"/>
       <c r="AK80" s="29"/>
-      <c r="AL80" s="63"/>
-      <c r="AM80" s="63"/>
+      <c r="AL80" s="66"/>
+      <c r="AM80" s="66"/>
       <c r="AN80" s="29"/>
       <c r="AO80" s="31"/>
       <c r="AP80" s="31"/>
       <c r="AQ80" s="31"/>
       <c r="AR80" s="31"/>
       <c r="AS80" s="31"/>
-      <c r="AT80" s="63" t="s">
+      <c r="AT80" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="AU80" s="63"/>
-      <c r="AV80" s="63"/>
-      <c r="AW80" s="63"/>
-      <c r="AX80" s="63"/>
-      <c r="AY80" s="63"/>
-      <c r="AZ80" s="63"/>
-      <c r="BA80" s="63"/>
-      <c r="BE80" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF80" s="63"/>
-      <c r="BG80" s="63"/>
-      <c r="BH80" s="63"/>
-      <c r="BI80" s="63"/>
-      <c r="BJ80" s="63"/>
-      <c r="BK80" s="63"/>
-      <c r="BL80" s="63"/>
+      <c r="AU80" s="66"/>
+      <c r="AV80" s="66"/>
+      <c r="AW80" s="66"/>
+      <c r="AX80" s="66"/>
+      <c r="AY80" s="66"/>
+      <c r="AZ80" s="66"/>
+      <c r="BA80" s="66"/>
+      <c r="BE80" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF80" s="66"/>
+      <c r="BG80" s="66"/>
+      <c r="BH80" s="66"/>
+      <c r="BI80" s="66"/>
+      <c r="BJ80" s="66"/>
+      <c r="BK80" s="66"/>
+      <c r="BL80" s="66"/>
       <c r="DL80" s="1"/>
       <c r="DM80" s="59" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="DN80" s="59"/>
       <c r="DO80" s="59"/>
@@ -37693,7 +37629,7 @@
       <c r="DT80" s="59"/>
       <c r="FC80" s="1"/>
       <c r="FD80" s="59" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="FE80" s="59"/>
       <c r="FF80" s="59"/>
@@ -37801,16 +37737,16 @@
       </c>
     </row>
     <row r="84" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="60" t="s">
+      <c r="C84" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
       <c r="AI84" s="59" t="s">
         <v>4</v>
       </c>
@@ -40018,14 +39954,14 @@
       </c>
     </row>
     <row r="94" spans="1:174" ht="19" x14ac:dyDescent="0.2">
-      <c r="L94" s="60" t="s">
+      <c r="L94" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M94" s="60"/>
-      <c r="N94" s="60"/>
-      <c r="O94" s="60"/>
-      <c r="P94" s="60"/>
-      <c r="Q94" s="60"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
+      <c r="Q94" s="67"/>
       <c r="Z94" s="46" t="s">
         <v>11</v>
       </c>
@@ -40092,10 +40028,10 @@
       <c r="CN94" s="8"/>
       <c r="CO94" s="57"/>
       <c r="CX94" s="46" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="DB94" s="59" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="DC94" s="59"/>
       <c r="DD94" s="59"/>
@@ -40105,23 +40041,23 @@
       <c r="DH94" s="59"/>
       <c r="DI94" s="59"/>
       <c r="DJ94" s="8"/>
-      <c r="DV94" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW94" s="60"/>
-      <c r="DX94" s="60"/>
-      <c r="DY94" s="60"/>
-      <c r="DZ94" s="60"/>
-      <c r="EA94" s="60"/>
+      <c r="DV94" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="DW94" s="67"/>
+      <c r="DX94" s="67"/>
+      <c r="DY94" s="67"/>
+      <c r="DZ94" s="67"/>
+      <c r="EA94" s="67"/>
       <c r="EW94" s="57"/>
-      <c r="FM94" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="FN94" s="60"/>
-      <c r="FO94" s="60"/>
-      <c r="FP94" s="60"/>
-      <c r="FQ94" s="60"/>
-      <c r="FR94" s="60"/>
+      <c r="FM94" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="FN94" s="67"/>
+      <c r="FO94" s="67"/>
+      <c r="FP94" s="67"/>
+      <c r="FQ94" s="67"/>
+      <c r="FR94" s="67"/>
     </row>
     <row r="95" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="61" t="s">
@@ -40381,30 +40317,30 @@
       </c>
     </row>
     <row r="98" spans="1:174" ht="20" x14ac:dyDescent="0.25">
-      <c r="L98" s="60" t="s">
+      <c r="L98" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="M98" s="60"/>
-      <c r="N98" s="60"/>
-      <c r="O98" s="60"/>
-      <c r="P98" s="60"/>
-      <c r="Q98" s="60"/>
-      <c r="DV98" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="DW98" s="60"/>
-      <c r="DX98" s="60"/>
-      <c r="DY98" s="60"/>
-      <c r="DZ98" s="60"/>
-      <c r="EA98" s="60"/>
-      <c r="FM98" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="FN98" s="60"/>
-      <c r="FO98" s="60"/>
-      <c r="FP98" s="60"/>
-      <c r="FQ98" s="60"/>
-      <c r="FR98" s="60"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="67"/>
+      <c r="Q98" s="67"/>
+      <c r="DV98" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="DW98" s="67"/>
+      <c r="DX98" s="67"/>
+      <c r="DY98" s="67"/>
+      <c r="DZ98" s="67"/>
+      <c r="EA98" s="67"/>
+      <c r="FM98" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="FN98" s="67"/>
+      <c r="FO98" s="67"/>
+      <c r="FP98" s="67"/>
+      <c r="FQ98" s="67"/>
+      <c r="FR98" s="67"/>
     </row>
     <row r="101" spans="1:174" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="27" t="s">
@@ -41025,16 +40961,16 @@
       </c>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
-      <c r="G123" s="60" t="s">
+      <c r="G123" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H123" s="60"/>
-      <c r="I123" s="60"/>
-      <c r="K123" s="60" t="s">
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="K123" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="L123" s="60"/>
-      <c r="M123" s="60"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="67"/>
       <c r="N123" s="17"/>
       <c r="O123" s="17" t="s">
         <v>41</v>
@@ -41458,54 +41394,44 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="U45:U52"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AT53:AY53"/>
-    <mergeCell ref="AI43:AP43"/>
-    <mergeCell ref="AT43:AY43"/>
-    <mergeCell ref="BE43:BJ43"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AI63:AN63"/>
-    <mergeCell ref="AT63:BA63"/>
-    <mergeCell ref="BE63:BL63"/>
-    <mergeCell ref="BT63:BY63"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="BE53:BJ53"/>
-    <mergeCell ref="BT53:BY53"/>
-    <mergeCell ref="CA53:CH53"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AL76:AM76"/>
-    <mergeCell ref="AT76:BA76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="AI71:AN71"/>
-    <mergeCell ref="AT71:BA71"/>
-    <mergeCell ref="AI94:AP94"/>
-    <mergeCell ref="AT94:BA94"/>
-    <mergeCell ref="BE94:BL94"/>
-    <mergeCell ref="BT94:BY94"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AT80:BA80"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="AI84:AP84"/>
-    <mergeCell ref="AT84:BA84"/>
+    <mergeCell ref="FK95:FK97"/>
+    <mergeCell ref="FM98:FR98"/>
+    <mergeCell ref="FM84:FR84"/>
+    <mergeCell ref="DV84:EA84"/>
+    <mergeCell ref="DK86:DK93"/>
+    <mergeCell ref="DV94:EA94"/>
+    <mergeCell ref="DT95:DT97"/>
+    <mergeCell ref="DV98:EA98"/>
+    <mergeCell ref="FB65:FB70"/>
+    <mergeCell ref="FD71:FK71"/>
+    <mergeCell ref="FB78:FB79"/>
+    <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="FB86:FB93"/>
+    <mergeCell ref="FM94:FR94"/>
+    <mergeCell ref="DK78:DK79"/>
+    <mergeCell ref="DM80:DT80"/>
+    <mergeCell ref="EY1:GE1"/>
+    <mergeCell ref="FD43:FK43"/>
+    <mergeCell ref="FM43:FR43"/>
+    <mergeCell ref="FT43:FU43"/>
+    <mergeCell ref="FB45:FB52"/>
+    <mergeCell ref="FM53:FR53"/>
+    <mergeCell ref="FT53:FU53"/>
+    <mergeCell ref="EC43:ED43"/>
+    <mergeCell ref="EC53:ED53"/>
+    <mergeCell ref="BE76:BL76"/>
+    <mergeCell ref="DB94:DI94"/>
+    <mergeCell ref="DM71:DT71"/>
+    <mergeCell ref="DV53:EA53"/>
+    <mergeCell ref="DV43:EA43"/>
+    <mergeCell ref="DK45:DK52"/>
+    <mergeCell ref="DK65:DK70"/>
+    <mergeCell ref="DM43:DT43"/>
+    <mergeCell ref="BE71:BL71"/>
+    <mergeCell ref="BT71:BY71"/>
+    <mergeCell ref="BT43:BY43"/>
+    <mergeCell ref="CA43:CH43"/>
+    <mergeCell ref="CJ43:CK43"/>
     <mergeCell ref="C146:H146"/>
     <mergeCell ref="Z76:AB76"/>
     <mergeCell ref="A1:AI1"/>
@@ -41530,760 +41456,59 @@
     <mergeCell ref="BT84:BY84"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="BE94:BL94"/>
+    <mergeCell ref="BT94:BY94"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AT80:BA80"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="AI84:AP84"/>
+    <mergeCell ref="AT84:BA84"/>
     <mergeCell ref="BE80:BL80"/>
-    <mergeCell ref="BE76:BL76"/>
-    <mergeCell ref="DB94:DI94"/>
-    <mergeCell ref="DM71:DT71"/>
-    <mergeCell ref="DV53:EA53"/>
-    <mergeCell ref="DV43:EA43"/>
-    <mergeCell ref="DK45:DK52"/>
-    <mergeCell ref="DK65:DK70"/>
-    <mergeCell ref="DM43:DT43"/>
-    <mergeCell ref="BE71:BL71"/>
-    <mergeCell ref="BT71:BY71"/>
-    <mergeCell ref="BT43:BY43"/>
-    <mergeCell ref="CA43:CH43"/>
-    <mergeCell ref="CJ43:CK43"/>
-    <mergeCell ref="EY1:GE1"/>
-    <mergeCell ref="FD43:FK43"/>
-    <mergeCell ref="FM43:FR43"/>
-    <mergeCell ref="FT43:FU43"/>
-    <mergeCell ref="FB45:FB52"/>
-    <mergeCell ref="FM53:FR53"/>
-    <mergeCell ref="FT53:FU53"/>
-    <mergeCell ref="EC43:ED43"/>
-    <mergeCell ref="EC53:ED53"/>
-    <mergeCell ref="FK95:FK97"/>
-    <mergeCell ref="FM98:FR98"/>
-    <mergeCell ref="FM84:FR84"/>
-    <mergeCell ref="DV84:EA84"/>
-    <mergeCell ref="DK86:DK93"/>
-    <mergeCell ref="DV94:EA94"/>
-    <mergeCell ref="DT95:DT97"/>
-    <mergeCell ref="DV98:EA98"/>
-    <mergeCell ref="FB65:FB70"/>
-    <mergeCell ref="FD71:FK71"/>
-    <mergeCell ref="FB78:FB79"/>
-    <mergeCell ref="FD80:FK80"/>
-    <mergeCell ref="FB86:FB93"/>
-    <mergeCell ref="FM94:FR94"/>
-    <mergeCell ref="DK78:DK79"/>
-    <mergeCell ref="DM80:DT80"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AT76:BA76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="AI71:AN71"/>
+    <mergeCell ref="AT71:BA71"/>
+    <mergeCell ref="AI94:AP94"/>
+    <mergeCell ref="AT94:BA94"/>
+    <mergeCell ref="BT63:BY63"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="BE53:BJ53"/>
+    <mergeCell ref="BT53:BY53"/>
+    <mergeCell ref="CA53:CH53"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AT53:AY53"/>
+    <mergeCell ref="AI43:AP43"/>
+    <mergeCell ref="AT43:AY43"/>
+    <mergeCell ref="BE43:BJ43"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AI63:AN63"/>
+    <mergeCell ref="AT63:BA63"/>
+    <mergeCell ref="BE63:BL63"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="U45:U52"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="W53:X53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DB1CE6-E3EC-7B4E-8832-2A8872C682BA}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <f>-PSUT!L42</f>
-        <v>-97</v>
-      </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11">
-        <v>2000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <v>2000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13">
-        <v>2000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15">
-        <v>2000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16">
-        <v>2000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="e">
-        <f>-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18">
-        <v>2000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19">
-        <v>2000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21">
-        <v>2000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47888087-2F69-5B43-9597-612A6F677A56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB265538-2F99-6D47-9D11-30244EBEA459}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="171">
   <si>
     <t>Buildings</t>
   </si>
@@ -2204,114 +2204,7 @@
     <t>1. Reverse the ECC</t>
   </si>
   <si>
-    <t>Y'</t>
-  </si>
-  <si>
-    <t>y'</t>
-  </si>
-  <si>
-    <t>g' = L_ixp * y'</t>
-  </si>
-  <si>
-    <t>q' = L_pxp * y'</t>
-  </si>
-  <si>
-    <t>g_hat'</t>
-  </si>
-  <si>
-    <t>q_hat'</t>
-  </si>
-  <si>
-    <t>V' = D * q_hat'</t>
-  </si>
-  <si>
-    <r>
-      <t>U' = Z * g_hat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>R * q_hat_inv</t>
-  </si>
-  <si>
-    <t>R' = (R * q_hat_inv) * q_hat'</t>
-  </si>
-  <si>
     <t>3. Reverse the ECC</t>
-  </si>
-  <si>
-    <r>
-      <t>U'' = V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V'' = U'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y'' = R'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R'' = Y'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>T</t>
-    </r>
   </si>
   <si>
     <t>y''</t>
@@ -2457,6 +2350,15 @@
     </r>
   </si>
   <si>
+    <t>* do an upstream swim with the new final demand (which is actually new resources)</t>
+  </si>
+  <si>
+    <t>The algorithm is:</t>
+  </si>
+  <si>
+    <t>U_rev</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2466,7 +2368,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>W'</t>
+      <t>U_bar_rev</t>
     </r>
     <r>
       <rPr>
@@ -2487,7 +2389,465 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>V'</t>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>f_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iU_bar_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>V_rev</t>
+  </si>
+  <si>
+    <t>iV_rev</t>
+  </si>
+  <si>
+    <t>R_rev</t>
+  </si>
+  <si>
+    <t>iR_rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iV_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iR_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>Y_rev</t>
+  </si>
+  <si>
+    <t>y_rev</t>
+  </si>
+  <si>
+    <t>q_rev</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iR_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iV_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iR_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iV_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">– </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>r_rev</t>
+  </si>
+  <si>
+    <t>q_rev_hat</t>
+  </si>
+  <si>
+    <r>
+      <t>R_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V_rev_bar = V_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V_rev_bar i</t>
+    </r>
+  </si>
+  <si>
+    <t>g_rev_hat</t>
+  </si>
+  <si>
+    <t>Z_rev=U_rev*g_rev_hat_inv</t>
+  </si>
+  <si>
+    <t>D_rev=V_rev*q_rev_hat_inv</t>
+  </si>
+  <si>
+    <t>r_rev_hat_inv * R_rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V_rev</t>
     </r>
     <r>
       <rPr>
@@ -2517,7 +2877,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>U'</t>
+      <t>U_rev</t>
     </r>
   </si>
   <si>
@@ -2530,7 +2890,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>W_bar'</t>
+      <t>W_rev_bar</t>
     </r>
     <r>
       <rPr>
@@ -2590,21 +2950,958 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>W'</t>
+      <t>W_rev</t>
     </r>
   </si>
   <si>
-    <t>* do an upstream swim with the new final demand (which is actually new resources)</t>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iR_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
   </si>
   <si>
-    <t>The algorithm is:</t>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iR_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + W_revi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>W_rev i</t>
+  </si>
+  <si>
+    <t>V_rev_bar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <t>g_rev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>E,</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>iU_rev_bar_hat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g3_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g3_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iU_rev_bar_hat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>E,</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Z_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C_rev=V_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*g_rev_hat_inv</t>
+    </r>
+  </si>
+  <si>
+    <t>L_ixp_rev = D_rev*L_pxp_rev</t>
+  </si>
+  <si>
+    <t>R_rev * q_rev_hat_inv</t>
+  </si>
+  <si>
+    <t>g2 = L_ixp_rev * y_rev</t>
+  </si>
+  <si>
+    <r>
+      <t>g2_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>q2_rev = L_pxp_rev * y_rev</t>
+  </si>
+  <si>
+    <r>
+      <t>q2_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_rev_hat_inv</t>
+    </r>
+  </si>
+  <si>
+    <t>f_rev_hat</t>
+  </si>
+  <si>
+    <r>
+      <t>q_rev_hat_inv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>y_rev_hat</t>
+  </si>
+  <si>
+    <r>
+      <t>y_rev_hat_inv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y_rev</t>
+    </r>
+  </si>
+  <si>
+    <t>Y_rev'</t>
+  </si>
+  <si>
+    <t>y_rev'</t>
+  </si>
+  <si>
+    <t>g_rev' = L_ixp_rev * y_rev'</t>
+  </si>
+  <si>
+    <t>g_rev_hat'</t>
+  </si>
+  <si>
+    <r>
+      <t>U_rev' = Z_rev * g_rev_hat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>V_rev' = D_rev * q_rev_hat'</t>
+  </si>
+  <si>
+    <t>R_rev' = (R_rev * q_rev_hat_inv) * q_rev_hat'</t>
+  </si>
+  <si>
+    <t>q_rev' = L_pxp_rev * y_rev'</t>
+  </si>
+  <si>
+    <t>q_rev_hat'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_rev'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V_rev'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U_rev'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_rev_bar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W_rev'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U'' = V_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y'' = R_rev'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V'' = U_rev'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R'' = Y_rev'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L_pxp_rev = (I – A_rev)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2887,6 +4184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3272,7 +4575,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3423,7 +4726,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3432,23 +4735,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -12791,334 +14097,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>42572</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Rounded Rectangle 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D075822E-70D0-5B4B-8B24-FE5F62C570A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21983700" y="1625600"/>
-          <a:ext cx="334672" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>42572</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Rounded Rectangle 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC265031-34C2-A74C-9E82-23E679E227AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21983700" y="2108200"/>
-          <a:ext cx="334672" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -23703,7 +24681,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -23713,7 +24691,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -23734,8 +24712,8 @@
   </sheetPr>
   <dimension ref="A1:CO144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BT62" sqref="BT62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23917,11 +24895,11 @@
     </row>
     <row r="26" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -24190,11 +25168,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -26328,14 +27306,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L54" s="63" t="s">
+      <c r="L54" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="64"/>
     </row>
     <row r="55" spans="1:93" x14ac:dyDescent="0.2">
       <c r="L55" s="6">
@@ -26375,11 +27353,11 @@
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-      <c r="Z60" s="60" t="s">
+      <c r="Z60" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
+      <c r="AA60" s="66"/>
+      <c r="AB60" s="66"/>
       <c r="AI60" s="59" t="s">
         <v>3</v>
       </c>
@@ -27515,11 +28493,11 @@
       <c r="J68" s="59"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="63" t="s">
+      <c r="Z68" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="63"/>
-      <c r="AB68" s="63"/>
+      <c r="AA68" s="64"/>
+      <c r="AB68" s="64"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -27725,17 +28703,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="60" t="s">
+      <c r="Z73" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="60"/>
-      <c r="AI73" s="64" t="s">
+      <c r="AA73" s="66"/>
+      <c r="AI73" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="64"/>
+      <c r="AJ73" s="67"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="64"/>
-      <c r="AM73" s="64"/>
+      <c r="AL73" s="67"/>
+      <c r="AM73" s="67"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -28068,29 +29046,29 @@
       <c r="AD77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="66" t="s">
+      <c r="AI77" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="66"/>
+      <c r="AJ77" s="63"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="66"/>
-      <c r="AM77" s="66"/>
+      <c r="AL77" s="63"/>
+      <c r="AM77" s="63"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="66" t="s">
+      <c r="AT77" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="66"/>
-      <c r="AV77" s="66"/>
-      <c r="AW77" s="66"/>
-      <c r="AX77" s="66"/>
-      <c r="AY77" s="66"/>
-      <c r="AZ77" s="66"/>
-      <c r="BA77" s="66"/>
+      <c r="AU77" s="63"/>
+      <c r="AV77" s="63"/>
+      <c r="AW77" s="63"/>
+      <c r="AX77" s="63"/>
+      <c r="AY77" s="63"/>
+      <c r="AZ77" s="63"/>
+      <c r="BA77" s="63"/>
     </row>
     <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
@@ -28190,16 +29168,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="67" t="s">
+      <c r="C81" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
       <c r="AI81" s="59" t="s">
         <v>4</v>
       </c>
@@ -29615,14 +30593,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19" x14ac:dyDescent="0.2">
-      <c r="L91" s="67" t="s">
+      <c r="L91" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="67"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -29775,14 +30753,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L95" s="67" t="s">
+      <c r="L95" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="67"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="67"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="60"/>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="60"/>
     </row>
     <row r="98" spans="1:40" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="27" t="s">
@@ -30403,16 +31381,16 @@
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
-      <c r="G120" s="67" t="s">
+      <c r="G120" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="67"/>
-      <c r="I120" s="67"/>
-      <c r="K120" s="67" t="s">
+      <c r="H120" s="60"/>
+      <c r="I120" s="60"/>
+      <c r="K120" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="67"/>
-      <c r="M120" s="67"/>
+      <c r="L120" s="60"/>
+      <c r="M120" s="60"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -30836,65 +31814,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -30907,6 +31826,65 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="17" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -30919,8 +31897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018262C-ADF6-FA4F-AD02-C6E8C0BF89C2}">
   <dimension ref="A1:GE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE95" sqref="BE95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30984,7 +31962,7 @@
       <c r="AH1" s="68"/>
       <c r="AI1" s="68"/>
       <c r="CQ1" s="68" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="CR1" s="68"/>
       <c r="CS1" s="68"/>
@@ -31019,7 +31997,7 @@
       <c r="DV1" s="68"/>
       <c r="DW1" s="68"/>
       <c r="EY1" s="68" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="EZ1" s="68"/>
       <c r="FA1" s="68"/>
@@ -31485,11 +32463,11 @@
     </row>
     <row r="29" spans="1:177" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="N29" s="50"/>
@@ -31834,11 +32812,11 @@
       <c r="CN38" s="31"/>
     </row>
     <row r="39" spans="1:179" ht="18" x14ac:dyDescent="0.25">
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="BM39" s="31"/>
@@ -34676,7 +35654,7 @@
     <row r="53" spans="1:180" ht="19" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="L53" s="59" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="M53" s="59"/>
       <c r="N53" s="59"/>
@@ -34684,23 +35662,23 @@
       <c r="P53" s="59"/>
       <c r="Q53" s="59"/>
       <c r="W53" s="59" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="X53" s="59"/>
       <c r="Z53" s="46" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="AB53" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD53" s="35" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="AD53" s="69" t="s">
+        <v>115</v>
       </c>
       <c r="AE53" s="36" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AI53" s="59" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AJ53" s="59"/>
       <c r="AK53" s="59"/>
@@ -34710,7 +35688,7 @@
       <c r="AO53" s="59"/>
       <c r="AP53" s="59"/>
       <c r="AT53" s="59" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="AU53" s="59"/>
       <c r="AV53" s="59"/>
@@ -34721,7 +35699,7 @@
       <c r="BC53" s="8"/>
       <c r="BD53" s="8"/>
       <c r="BE53" s="59" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="BF53" s="59"/>
       <c r="BG53" s="59"/>
@@ -34729,7 +35707,7 @@
       <c r="BI53" s="59"/>
       <c r="BJ53" s="59"/>
       <c r="BT53" s="62" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="BU53" s="62"/>
       <c r="BV53" s="62"/>
@@ -34737,7 +35715,7 @@
       <c r="BX53" s="62"/>
       <c r="BY53" s="62"/>
       <c r="CA53" s="59" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="CB53" s="59"/>
       <c r="CC53" s="59"/>
@@ -34747,7 +35725,7 @@
       <c r="CG53" s="59"/>
       <c r="CH53" s="59"/>
       <c r="CJ53" s="8" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="CK53" s="8"/>
       <c r="CL53" s="8"/>
@@ -34755,14 +35733,14 @@
       <c r="CN53" s="8"/>
       <c r="CO53" s="57"/>
       <c r="CU53" s="59" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="CV53" s="59"/>
       <c r="CX53" s="46" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="DV53" s="59" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="DW53" s="59"/>
       <c r="DX53" s="59"/>
@@ -34771,11 +35749,11 @@
       <c r="EA53" s="59"/>
       <c r="EB53" s="8"/>
       <c r="EC53" s="59" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="ED53" s="59"/>
       <c r="EF53" s="46" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="EG53" s="8"/>
       <c r="EH53" s="8"/>
@@ -34795,7 +35773,7 @@
       <c r="EV53" s="8"/>
       <c r="EW53" s="57"/>
       <c r="FM53" s="59" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="FN53" s="59"/>
       <c r="FO53" s="59"/>
@@ -34804,11 +35782,11 @@
       <c r="FR53" s="59"/>
       <c r="FS53" s="8"/>
       <c r="FT53" s="59" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="FU53" s="59"/>
       <c r="FW53" s="46" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="FX53" s="8"/>
     </row>
@@ -34935,14 +35913,14 @@
       <c r="AA56" s="15"/>
     </row>
     <row r="57" spans="1:180" ht="20" x14ac:dyDescent="0.25">
-      <c r="L57" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
+      <c r="L57" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
     </row>
     <row r="58" spans="1:180" x14ac:dyDescent="0.2">
       <c r="L58" s="6">
@@ -34972,7 +35950,7 @@
     </row>
     <row r="59" spans="1:180" x14ac:dyDescent="0.2">
       <c r="L59" s="59" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M59" s="59"/>
       <c r="N59" s="59"/>
@@ -34982,11 +35960,11 @@
     </row>
     <row r="63" spans="1:180" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
-      <c r="Z63" s="60" t="s">
+      <c r="Z63" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
+      <c r="AA63" s="66"/>
+      <c r="AB63" s="66"/>
       <c r="AI63" s="59" t="s">
         <v>3</v>
       </c>
@@ -36718,7 +37696,7 @@
     </row>
     <row r="71" spans="1:178" ht="20" x14ac:dyDescent="0.25">
       <c r="C71" s="59" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
@@ -36729,16 +37707,16 @@
       <c r="J71" s="59"/>
       <c r="X71" s="15"/>
       <c r="Y71" s="15"/>
-      <c r="Z71" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA71" s="63"/>
-      <c r="AB71" s="63"/>
+      <c r="Z71" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="64"/>
       <c r="AD71" s="34" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="AI71" s="59" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="AJ71" s="59"/>
       <c r="AK71" s="59"/>
@@ -36746,7 +37724,7 @@
       <c r="AM71" s="59"/>
       <c r="AN71" s="59"/>
       <c r="AT71" s="65" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="AU71" s="65"/>
       <c r="AV71" s="65"/>
@@ -36759,7 +37737,7 @@
       <c r="BC71" s="25"/>
       <c r="BD71" s="25"/>
       <c r="BE71" s="62" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="BF71" s="62"/>
       <c r="BG71" s="62"/>
@@ -36771,16 +37749,16 @@
       <c r="BM71" s="26"/>
       <c r="BN71" s="26"/>
       <c r="BO71" s="30" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="BP71" s="26" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="BQ71" s="26"/>
       <c r="BR71" s="26"/>
       <c r="BS71" s="26"/>
       <c r="BT71" s="62" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="BU71" s="62"/>
       <c r="BV71" s="62"/>
@@ -36789,10 +37767,10 @@
       <c r="BY71" s="62"/>
       <c r="BZ71" s="26"/>
       <c r="CX71" s="46" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="DB71" s="59" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="DC71" s="59"/>
       <c r="DD71" s="59"/>
@@ -36805,7 +37783,7 @@
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
       <c r="DM71" s="59" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="DN71" s="59"/>
       <c r="DO71" s="59"/>
@@ -36828,7 +37806,7 @@
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
       <c r="FD71" s="59" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="FE71" s="59"/>
       <c r="FF71" s="59"/>
@@ -36929,7 +37907,7 @@
     </row>
     <row r="73" spans="1:178" x14ac:dyDescent="0.2">
       <c r="C73" s="59" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
@@ -36999,18 +37977,18 @@
       <c r="W76" s="15"/>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
-      <c r="Z76" s="60" t="s">
+      <c r="Z76" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="AA76" s="60"/>
-      <c r="AB76" s="60"/>
-      <c r="AI76" s="64" t="s">
+      <c r="AA76" s="66"/>
+      <c r="AB76" s="66"/>
+      <c r="AI76" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AJ76" s="64"/>
+      <c r="AJ76" s="67"/>
       <c r="AK76" s="31"/>
-      <c r="AL76" s="64"/>
-      <c r="AM76" s="64"/>
+      <c r="AL76" s="67"/>
+      <c r="AM76" s="67"/>
       <c r="AN76" s="31"/>
       <c r="AO76" s="31"/>
       <c r="AP76" s="31"/>
@@ -37553,7 +38531,7 @@
     <row r="80" spans="1:178" ht="20" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="59" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
@@ -37577,48 +38555,48 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="29" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="AA80" s="29"/>
       <c r="AD80" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI80" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI80" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AJ80" s="66"/>
+      <c r="AJ80" s="63"/>
       <c r="AK80" s="29"/>
-      <c r="AL80" s="66"/>
-      <c r="AM80" s="66"/>
+      <c r="AL80" s="63"/>
+      <c r="AM80" s="63"/>
       <c r="AN80" s="29"/>
       <c r="AO80" s="31"/>
       <c r="AP80" s="31"/>
       <c r="AQ80" s="31"/>
       <c r="AR80" s="31"/>
       <c r="AS80" s="31"/>
-      <c r="AT80" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU80" s="66"/>
-      <c r="AV80" s="66"/>
-      <c r="AW80" s="66"/>
-      <c r="AX80" s="66"/>
-      <c r="AY80" s="66"/>
-      <c r="AZ80" s="66"/>
-      <c r="BA80" s="66"/>
-      <c r="BE80" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF80" s="66"/>
-      <c r="BG80" s="66"/>
-      <c r="BH80" s="66"/>
-      <c r="BI80" s="66"/>
-      <c r="BJ80" s="66"/>
-      <c r="BK80" s="66"/>
-      <c r="BL80" s="66"/>
+      <c r="AT80" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU80" s="63"/>
+      <c r="AV80" s="63"/>
+      <c r="AW80" s="63"/>
+      <c r="AX80" s="63"/>
+      <c r="AY80" s="63"/>
+      <c r="AZ80" s="63"/>
+      <c r="BA80" s="63"/>
+      <c r="BE80" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF80" s="63"/>
+      <c r="BG80" s="63"/>
+      <c r="BH80" s="63"/>
+      <c r="BI80" s="63"/>
+      <c r="BJ80" s="63"/>
+      <c r="BK80" s="63"/>
+      <c r="BL80" s="63"/>
       <c r="DL80" s="1"/>
       <c r="DM80" s="59" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="DN80" s="59"/>
       <c r="DO80" s="59"/>
@@ -37629,7 +38607,7 @@
       <c r="DT80" s="59"/>
       <c r="FC80" s="1"/>
       <c r="FD80" s="59" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="FE80" s="59"/>
       <c r="FF80" s="59"/>
@@ -37692,7 +38670,7 @@
     </row>
     <row r="82" spans="1:174" x14ac:dyDescent="0.2">
       <c r="C82" s="59" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
@@ -37737,16 +38715,16 @@
       </c>
     </row>
     <row r="84" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
+      <c r="C84" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
       <c r="AI84" s="59" t="s">
         <v>4</v>
       </c>
@@ -39954,19 +40932,19 @@
       </c>
     </row>
     <row r="94" spans="1:174" ht="19" x14ac:dyDescent="0.2">
-      <c r="L94" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="67"/>
-      <c r="P94" s="67"/>
-      <c r="Q94" s="67"/>
+      <c r="L94" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="60"/>
       <c r="Z94" s="46" t="s">
         <v>11</v>
       </c>
       <c r="AI94" s="59" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="AJ94" s="59"/>
       <c r="AK94" s="59"/>
@@ -39979,7 +40957,7 @@
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
       <c r="AT94" s="59" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="AU94" s="59"/>
       <c r="AV94" s="59"/>
@@ -39992,7 +40970,7 @@
       <c r="BC94" s="8"/>
       <c r="BD94" s="8"/>
       <c r="BE94" s="59" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="BF94" s="59"/>
       <c r="BG94" s="59"/>
@@ -40004,16 +40982,16 @@
       <c r="BM94" s="8"/>
       <c r="BN94" s="8"/>
       <c r="BO94" s="30" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="BP94" s="8" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="BQ94" s="8"/>
       <c r="BR94" s="8"/>
       <c r="BS94" s="8"/>
       <c r="BT94" s="62" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="BU94" s="62"/>
       <c r="BV94" s="62"/>
@@ -40028,10 +41006,10 @@
       <c r="CN94" s="8"/>
       <c r="CO94" s="57"/>
       <c r="CX94" s="46" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="DB94" s="59" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="DC94" s="59"/>
       <c r="DD94" s="59"/>
@@ -40041,23 +41019,23 @@
       <c r="DH94" s="59"/>
       <c r="DI94" s="59"/>
       <c r="DJ94" s="8"/>
-      <c r="DV94" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="DW94" s="67"/>
-      <c r="DX94" s="67"/>
-      <c r="DY94" s="67"/>
-      <c r="DZ94" s="67"/>
-      <c r="EA94" s="67"/>
+      <c r="DV94" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="DW94" s="60"/>
+      <c r="DX94" s="60"/>
+      <c r="DY94" s="60"/>
+      <c r="DZ94" s="60"/>
+      <c r="EA94" s="60"/>
       <c r="EW94" s="57"/>
-      <c r="FM94" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="FN94" s="67"/>
-      <c r="FO94" s="67"/>
-      <c r="FP94" s="67"/>
-      <c r="FQ94" s="67"/>
-      <c r="FR94" s="67"/>
+      <c r="FM94" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="FN94" s="60"/>
+      <c r="FO94" s="60"/>
+      <c r="FP94" s="60"/>
+      <c r="FQ94" s="60"/>
+      <c r="FR94" s="60"/>
     </row>
     <row r="95" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="61" t="s">
@@ -40317,30 +41295,30 @@
       </c>
     </row>
     <row r="98" spans="1:174" ht="20" x14ac:dyDescent="0.25">
-      <c r="L98" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="M98" s="67"/>
-      <c r="N98" s="67"/>
-      <c r="O98" s="67"/>
-      <c r="P98" s="67"/>
-      <c r="Q98" s="67"/>
-      <c r="DV98" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="DW98" s="67"/>
-      <c r="DX98" s="67"/>
-      <c r="DY98" s="67"/>
-      <c r="DZ98" s="67"/>
-      <c r="EA98" s="67"/>
-      <c r="FM98" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="FN98" s="67"/>
-      <c r="FO98" s="67"/>
-      <c r="FP98" s="67"/>
-      <c r="FQ98" s="67"/>
-      <c r="FR98" s="67"/>
+      <c r="L98" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="60"/>
+      <c r="Q98" s="60"/>
+      <c r="DV98" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="DW98" s="60"/>
+      <c r="DX98" s="60"/>
+      <c r="DY98" s="60"/>
+      <c r="DZ98" s="60"/>
+      <c r="EA98" s="60"/>
+      <c r="FM98" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="FN98" s="60"/>
+      <c r="FO98" s="60"/>
+      <c r="FP98" s="60"/>
+      <c r="FQ98" s="60"/>
+      <c r="FR98" s="60"/>
     </row>
     <row r="101" spans="1:174" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="27" t="s">
@@ -40566,17 +41544,17 @@
     </row>
     <row r="113" spans="1:43" ht="19" x14ac:dyDescent="0.2">
       <c r="C113" s="47" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E113" s="46" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>57</v>
+        <v>113</v>
+      </c>
+      <c r="I113" s="36" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.2">
@@ -40957,23 +41935,23 @@
     </row>
     <row r="123" spans="1:43" ht="19" x14ac:dyDescent="0.2">
       <c r="C123" s="59" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
-      <c r="G123" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="K123" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="L123" s="67"/>
-      <c r="M123" s="67"/>
+      <c r="G123" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="K123" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="L123" s="60"/>
+      <c r="M123" s="60"/>
       <c r="N123" s="17"/>
       <c r="O123" s="17" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="Q123" s="17"/>
       <c r="AB123" s="46"/>
@@ -41100,13 +42078,13 @@
     </row>
     <row r="134" spans="1:12" ht="20" x14ac:dyDescent="0.25">
       <c r="C134" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D134" s="47" t="s">
-        <v>68</v>
+        <v>135</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="47" x14ac:dyDescent="0.55000000000000004">
@@ -41376,7 +42354,7 @@
     </row>
     <row r="146" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C146" s="59" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
@@ -41384,54 +42362,62 @@
       <c r="G146" s="59"/>
       <c r="H146" s="59"/>
       <c r="J146" s="33" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L147" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="FK95:FK97"/>
-    <mergeCell ref="FM98:FR98"/>
-    <mergeCell ref="FM84:FR84"/>
-    <mergeCell ref="DV84:EA84"/>
-    <mergeCell ref="DK86:DK93"/>
-    <mergeCell ref="DV94:EA94"/>
-    <mergeCell ref="DT95:DT97"/>
-    <mergeCell ref="DV98:EA98"/>
-    <mergeCell ref="FB65:FB70"/>
-    <mergeCell ref="FD71:FK71"/>
-    <mergeCell ref="FB78:FB79"/>
-    <mergeCell ref="FD80:FK80"/>
-    <mergeCell ref="FB86:FB93"/>
-    <mergeCell ref="FM94:FR94"/>
-    <mergeCell ref="DK78:DK79"/>
-    <mergeCell ref="DM80:DT80"/>
-    <mergeCell ref="EY1:GE1"/>
-    <mergeCell ref="FD43:FK43"/>
-    <mergeCell ref="FM43:FR43"/>
-    <mergeCell ref="FT43:FU43"/>
-    <mergeCell ref="FB45:FB52"/>
-    <mergeCell ref="FM53:FR53"/>
-    <mergeCell ref="FT53:FU53"/>
-    <mergeCell ref="EC43:ED43"/>
-    <mergeCell ref="EC53:ED53"/>
-    <mergeCell ref="BE76:BL76"/>
-    <mergeCell ref="DB94:DI94"/>
-    <mergeCell ref="DM71:DT71"/>
-    <mergeCell ref="DV53:EA53"/>
-    <mergeCell ref="DV43:EA43"/>
-    <mergeCell ref="DK45:DK52"/>
-    <mergeCell ref="DK65:DK70"/>
-    <mergeCell ref="DM43:DT43"/>
-    <mergeCell ref="BE71:BL71"/>
-    <mergeCell ref="BT71:BY71"/>
-    <mergeCell ref="BT43:BY43"/>
-    <mergeCell ref="CA43:CH43"/>
-    <mergeCell ref="CJ43:CK43"/>
+    <mergeCell ref="AI43:AP43"/>
+    <mergeCell ref="AT43:AY43"/>
+    <mergeCell ref="BE43:BJ43"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AI63:AN63"/>
+    <mergeCell ref="AT63:BA63"/>
+    <mergeCell ref="BE63:BL63"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="U45:U52"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="BE53:BJ53"/>
+    <mergeCell ref="BT53:BY53"/>
+    <mergeCell ref="CA53:CH53"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AT53:AY53"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AT76:BA76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="AI71:AN71"/>
+    <mergeCell ref="AT71:BA71"/>
+    <mergeCell ref="AI94:AP94"/>
+    <mergeCell ref="AT94:BA94"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AT80:BA80"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="AI84:AP84"/>
+    <mergeCell ref="AT84:BA84"/>
+    <mergeCell ref="BE80:BL80"/>
     <mergeCell ref="C146:H146"/>
     <mergeCell ref="Z76:AB76"/>
     <mergeCell ref="A1:AI1"/>
@@ -41456,55 +42442,47 @@
     <mergeCell ref="BT84:BY84"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="BE76:BL76"/>
+    <mergeCell ref="DB94:DI94"/>
+    <mergeCell ref="DM71:DT71"/>
+    <mergeCell ref="DV53:EA53"/>
+    <mergeCell ref="DV43:EA43"/>
+    <mergeCell ref="DK45:DK52"/>
+    <mergeCell ref="DK65:DK70"/>
+    <mergeCell ref="DM43:DT43"/>
+    <mergeCell ref="BE71:BL71"/>
+    <mergeCell ref="BT71:BY71"/>
+    <mergeCell ref="BT43:BY43"/>
+    <mergeCell ref="CA43:CH43"/>
+    <mergeCell ref="CJ43:CK43"/>
     <mergeCell ref="BE94:BL94"/>
     <mergeCell ref="BT94:BY94"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AT80:BA80"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="AI84:AP84"/>
-    <mergeCell ref="AT84:BA84"/>
-    <mergeCell ref="BE80:BL80"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AL76:AM76"/>
-    <mergeCell ref="AT76:BA76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="AI71:AN71"/>
-    <mergeCell ref="AT71:BA71"/>
-    <mergeCell ref="AI94:AP94"/>
-    <mergeCell ref="AT94:BA94"/>
     <mergeCell ref="BT63:BY63"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="BE53:BJ53"/>
-    <mergeCell ref="BT53:BY53"/>
-    <mergeCell ref="CA53:CH53"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AT53:AY53"/>
-    <mergeCell ref="AI43:AP43"/>
-    <mergeCell ref="AT43:AY43"/>
-    <mergeCell ref="BE43:BJ43"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AI63:AN63"/>
-    <mergeCell ref="AT63:BA63"/>
-    <mergeCell ref="BE63:BL63"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="U45:U52"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="EY1:GE1"/>
+    <mergeCell ref="FD43:FK43"/>
+    <mergeCell ref="FM43:FR43"/>
+    <mergeCell ref="FT43:FU43"/>
+    <mergeCell ref="FB45:FB52"/>
+    <mergeCell ref="FM53:FR53"/>
+    <mergeCell ref="FT53:FU53"/>
+    <mergeCell ref="EC43:ED43"/>
+    <mergeCell ref="EC53:ED53"/>
+    <mergeCell ref="FK95:FK97"/>
+    <mergeCell ref="FM98:FR98"/>
+    <mergeCell ref="FM84:FR84"/>
+    <mergeCell ref="DV84:EA84"/>
+    <mergeCell ref="DK86:DK93"/>
+    <mergeCell ref="DV94:EA94"/>
+    <mergeCell ref="DT95:DT97"/>
+    <mergeCell ref="DV98:EA98"/>
+    <mergeCell ref="FB65:FB70"/>
+    <mergeCell ref="FD71:FK71"/>
+    <mergeCell ref="FB78:FB79"/>
+    <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="FB86:FB93"/>
+    <mergeCell ref="FM94:FR94"/>
+    <mergeCell ref="DK78:DK79"/>
+    <mergeCell ref="DM80:DT80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E5643-9A40-5243-BC06-36C048CEEC92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA3BBD-4910-544E-99FC-A9F2EBB08175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="180">
   <si>
     <t>Buildings</t>
   </si>
@@ -3892,32 +3892,7 @@
     <t>g_rev' = L_ixp_rev * y_rev'</t>
   </si>
   <si>
-    <t>g_rev_hat'</t>
-  </si>
-  <si>
-    <r>
-      <t>U_rev' = Z_rev * g_rev_hat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <t>V_rev' = D_rev * q_rev_hat'</t>
-  </si>
-  <si>
-    <t>R_rev' = (R_rev * q_rev_hat_inv) * q_rev_hat'</t>
-  </si>
-  <si>
     <t>q_rev' = L_pxp_rev * y_rev'</t>
-  </si>
-  <si>
-    <t>q_rev_hat'</t>
   </si>
   <si>
     <r>
@@ -4182,50 +4157,6 @@
   </si>
   <si>
     <r>
-      <t>D_rev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>*q_hat_inv</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Z_rev</t>
     </r>
     <r>
@@ -4279,6 +4210,339 @@
       </rPr>
       <t>f_hat_inv</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>L_pxp_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>q_hat_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L_ixp_rev = D_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L_pxp_rev</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g_rev' = L_ixp_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q_rev'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L_pxp_rev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>g_rev'_hat</t>
+  </si>
+  <si>
+    <t>q_rev'_hat</t>
+  </si>
+  <si>
+    <t>V_rev' = D_rev * q_rev'_hat</t>
+  </si>
+  <si>
+    <t>R_rev' = (R_rev * q_rev_hat_inv) * q_rev'_hat</t>
+  </si>
+  <si>
+    <t>U_rev' = Z_rev * g_rev'_hat</t>
   </si>
 </sst>
 </file>
@@ -36964,8 +37228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018262C-ADF6-FA4F-AD02-C6E8C0BF89C2}">
   <dimension ref="A1:GE147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI86" sqref="AI86:AP93"/>
+    <sheetView showGridLines="0" topLeftCell="BP37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DV54" sqref="DV54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40807,7 +41071,7 @@
         <v>156</v>
       </c>
       <c r="DV53" s="67" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="DW53" s="67"/>
       <c r="DX53" s="67"/>
@@ -40840,7 +41104,7 @@
       <c r="EV53" s="8"/>
       <c r="EW53" s="57"/>
       <c r="FM53" s="67" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="FN53" s="67"/>
       <c r="FO53" s="67"/>
@@ -40849,7 +41113,7 @@
       <c r="FR53" s="67"/>
       <c r="FS53" s="8"/>
       <c r="FT53" s="67" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="FU53" s="67"/>
       <c r="FW53" s="46" t="s">
@@ -42836,7 +43100,7 @@
         <v>157</v>
       </c>
       <c r="DB71" s="67" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DC71" s="67"/>
       <c r="DD71" s="67"/>
@@ -42849,7 +43113,7 @@
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
       <c r="DM71" s="67" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="DN71" s="67"/>
       <c r="DO71" s="67"/>
@@ -42872,7 +43136,7 @@
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
       <c r="FD71" s="67" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="FE71" s="67"/>
       <c r="FF71" s="67"/>
@@ -43662,7 +43926,7 @@
       <c r="BL80" s="74"/>
       <c r="DL80" s="1"/>
       <c r="DM80" s="67" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="DN80" s="67"/>
       <c r="DO80" s="67"/>
@@ -43673,7 +43937,7 @@
       <c r="DT80" s="67"/>
       <c r="FC80" s="1"/>
       <c r="FD80" s="67" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="FE80" s="67"/>
       <c r="FF80" s="67"/>
@@ -46036,7 +46300,7 @@
       <c r="BC94" s="8"/>
       <c r="BD94" s="8"/>
       <c r="BE94" s="67" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="BF94" s="67"/>
       <c r="BG94" s="67"/>
@@ -46072,10 +46336,10 @@
       <c r="CN94" s="8"/>
       <c r="CO94" s="57"/>
       <c r="CX94" s="46" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="DB94" s="67" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="DC94" s="67"/>
       <c r="DD94" s="67"/>
@@ -46086,7 +46350,7 @@
       <c r="DI94" s="67"/>
       <c r="DJ94" s="8"/>
       <c r="DV94" s="75" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="DW94" s="75"/>
       <c r="DX94" s="75"/>
@@ -46370,7 +46634,7 @@
       <c r="P98" s="75"/>
       <c r="Q98" s="75"/>
       <c r="DV98" s="75" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="DW98" s="75"/>
       <c r="DX98" s="75"/>
@@ -47561,10 +47825,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DK144"/>
+  <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BU45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DD83" sqref="DD83:DK90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EO92" sqref="EO92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47918,7 +48182,7 @@
       <c r="G30" s="14"/>
       <c r="CQ30" s="1"/>
       <c r="CR30" s="67" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CS30" s="67"/>
       <c r="CT30" s="67"/>
@@ -50158,7 +50422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A49" s="69"/>
       <c r="B49" s="1" t="s">
         <v>18</v>
@@ -50395,7 +50659,7 @@
         <v>0.20996441281138789</v>
       </c>
     </row>
-    <row r="50" spans="1:115" ht="19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:150" ht="19" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="L50" s="67" t="s">
         <v>2</v>
@@ -50477,17 +50741,17 @@
       <c r="CN50" s="80"/>
       <c r="CO50" s="8"/>
       <c r="CS50" s="67" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="CT50" s="67"/>
       <c r="CU50" s="82"/>
       <c r="CV50" s="82" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="DB50" s="31"/>
       <c r="DC50" s="84"/>
       <c r="DD50" s="67" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="DE50" s="67"/>
       <c r="DF50" s="67"/>
@@ -50495,7 +50759,7 @@
       <c r="DH50" s="67"/>
       <c r="DI50" s="67"/>
     </row>
-    <row r="51" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:150" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="J51" s="69" t="s">
         <v>30</v>
@@ -50556,7 +50820,7 @@
       <c r="DD51" s="31"/>
       <c r="DE51" s="31"/>
     </row>
-    <row r="52" spans="1:115" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:150" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="J52" s="69"/>
       <c r="K52" s="37" t="s">
@@ -50586,7 +50850,7 @@
       <c r="Z52" s="59"/>
       <c r="AB52" s="59"/>
     </row>
-    <row r="53" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:150" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="J53" s="69"/>
       <c r="K53" s="1" t="s">
@@ -50621,7 +50885,7 @@
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
     </row>
-    <row r="54" spans="1:115" ht="20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:150" ht="20" x14ac:dyDescent="0.25">
       <c r="L54" s="71" t="s">
         <v>42</v>
       </c>
@@ -50631,7 +50895,7 @@
       <c r="P54" s="71"/>
       <c r="Q54" s="71"/>
     </row>
-    <row r="55" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:150" x14ac:dyDescent="0.2">
       <c r="L55" s="6">
         <f t="shared" ref="L55:Q55" si="8">SUM(L51:L53)</f>
         <v>100</v>
@@ -50657,7 +50921,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="56" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:150" x14ac:dyDescent="0.2">
       <c r="L56" s="67" t="s">
         <v>86</v>
       </c>
@@ -50667,7 +50931,7 @@
       <c r="P56" s="67"/>
       <c r="Q56" s="67"/>
     </row>
-    <row r="59" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:150" x14ac:dyDescent="0.2">
       <c r="CQ59" s="31"/>
       <c r="CR59" s="31"/>
       <c r="CS59" s="31"/>
@@ -50679,7 +50943,7 @@
       <c r="CY59" s="31"/>
       <c r="CZ59" s="31"/>
     </row>
-    <row r="60" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:150" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="Z60" s="68" t="s">
         <v>30</v>
@@ -50742,8 +51006,18 @@
       <c r="DI60" s="67"/>
       <c r="DJ60" s="67"/>
       <c r="DK60" s="67"/>
+      <c r="EA60" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB60" s="67"/>
+      <c r="EC60" s="67"/>
+      <c r="ED60" s="67"/>
+      <c r="EE60" s="67"/>
+      <c r="EF60" s="67"/>
+      <c r="EG60" s="67"/>
+      <c r="EH60" s="67"/>
     </row>
-    <row r="61" spans="1:115" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:150" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="V61" s="60"/>
       <c r="W61" s="60"/>
@@ -50874,8 +51148,32 @@
       <c r="DK61" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="EA61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="EB61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="ED61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="EE61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="EF61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="EG61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="EH61" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="62" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:150" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="69" t="s">
         <v>3</v>
       </c>
@@ -51083,8 +51381,68 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="EA62" s="6">
+        <f t="array" aca="1" ref="EA62:EH67" ca="1">MMULT(DD62:DK67, EA83:EH90)</f>
+        <v>1.0309278350515463</v>
+      </c>
+      <c r="EB62" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC62" s="6">
+        <f ca="1"/>
+        <v>0.13807069219440354</v>
+      </c>
+      <c r="ED62" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EE62" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF62" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG62" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH62" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK62" s="6">
+        <f t="array" aca="1" ref="EK62:EK67" ca="1">MMULT(EA62:EH67, CV42:CV49)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="EO62" s="6">
+        <f ca="1">IF((ROW()-ROW($EO$62))=(COLUMN()-COLUMN($EO$62)),INDIRECT("EK"&amp;ROW()),0)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="EP62" s="6">
+        <f t="shared" ref="EP62:ET67" ca="1" si="13">IF((ROW()-ROW($EO$62))=(COLUMN()-COLUMN($EO$62)),INDIRECT("EK"&amp;ROW()),0)</f>
+        <v>0</v>
+      </c>
+      <c r="EQ62" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ER62" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ES62" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ET62" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A63" s="69"/>
       <c r="B63" s="1" t="s">
         <v>24</v>
@@ -51289,8 +51647,68 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="EA63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB63" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EE63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH63" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK63" s="6">
+        <f ca="1"/>
+        <v>87</v>
+      </c>
+      <c r="EO63" s="6">
+        <f t="shared" ref="EO63:EO67" ca="1" si="14">IF((ROW()-ROW($EO$62))=(COLUMN()-COLUMN($EO$62)),INDIRECT("EK"&amp;ROW()),0)</f>
+        <v>0</v>
+      </c>
+      <c r="EP63" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="EQ63" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ER63" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ES63" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ET63" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A64" s="69"/>
       <c r="B64" s="1" t="s">
         <v>25</v>
@@ -51495,8 +51913,68 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="EA64" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB64" s="6">
+        <f ca="1"/>
+        <v>0.20459770114942533</v>
+      </c>
+      <c r="EC64" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED64" s="6">
+        <f ca="1"/>
+        <v>0.22762148337595911</v>
+      </c>
+      <c r="EE64" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF64" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG64" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH64" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK64" s="6">
+        <f ca="1"/>
+        <v>17.800000000000004</v>
+      </c>
+      <c r="EO64" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EP64" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="EQ64" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>17.800000000000004</v>
+      </c>
+      <c r="ER64" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ES64" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ET64" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A65" s="69"/>
       <c r="B65" s="1" t="s">
         <v>0</v>
@@ -51701,8 +52179,68 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="EA65" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB65" s="6">
+        <f ca="1"/>
+        <v>0.51034482758620692</v>
+      </c>
+      <c r="EC65" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED65" s="6">
+        <f ca="1"/>
+        <v>0.56777493606138107</v>
+      </c>
+      <c r="EE65" s="6">
+        <f ca="1"/>
+        <v>0.96031746031746024</v>
+      </c>
+      <c r="EF65" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG65" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH65" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK65" s="6">
+        <f ca="1"/>
+        <v>44.4</v>
+      </c>
+      <c r="EO65" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EP65" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="EQ65" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ER65" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>44.4</v>
+      </c>
+      <c r="ES65" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ET65" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A66" s="69"/>
       <c r="B66" s="1" t="s">
         <v>15</v>
@@ -51907,8 +52445,68 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="EA66" s="6">
+        <f ca="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="EB66" s="6">
+        <f ca="1"/>
+        <v>5.7471264367816109E-3</v>
+      </c>
+      <c r="EC66" s="6">
+        <f ca="1"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="ED66" s="6">
+        <f ca="1"/>
+        <v>6.3938618925831209E-3</v>
+      </c>
+      <c r="EE66" s="6">
+        <f ca="1"/>
+        <v>3.968253968253968E-2</v>
+      </c>
+      <c r="EF66" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG66" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH66" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK66" s="6">
+        <f ca="1"/>
+        <v>19.899999999999995</v>
+      </c>
+      <c r="EO66" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EP66" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="EQ66" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ER66" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ES66" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>19.899999999999995</v>
+      </c>
+      <c r="ET66" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A67" s="69"/>
       <c r="B67" s="1" t="s">
         <v>16</v>
@@ -52113,8 +52711,68 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="EA67" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB67" s="6">
+        <f ca="1"/>
+        <v>0.32298850574712651</v>
+      </c>
+      <c r="EC67" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED67" s="6">
+        <f ca="1"/>
+        <v>0.35933503836317143</v>
+      </c>
+      <c r="EE67" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF67" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG67" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH67" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK67" s="6">
+        <f ca="1"/>
+        <v>28.100000000000005</v>
+      </c>
+      <c r="EO67" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="EP67" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="EQ67" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ER67" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ES67" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="ET67" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>28.100000000000005</v>
+      </c>
     </row>
-    <row r="68" spans="1:115" ht="20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:150" ht="20" x14ac:dyDescent="0.25">
       <c r="C68" s="67" t="s">
         <v>5</v>
       </c>
@@ -52197,7 +52855,7 @@
       <c r="CY68" s="63"/>
       <c r="CZ68" s="63"/>
       <c r="DD68" s="73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DE68" s="73"/>
       <c r="DF68" s="73"/>
@@ -52206,38 +52864,59 @@
       <c r="DI68" s="73"/>
       <c r="DJ68" s="73"/>
       <c r="DK68" s="73"/>
+      <c r="EA68" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="EB68" s="70"/>
+      <c r="EC68" s="70"/>
+      <c r="ED68" s="70"/>
+      <c r="EE68" s="70"/>
+      <c r="EF68" s="70"/>
+      <c r="EG68" s="70"/>
+      <c r="EH68" s="70"/>
+      <c r="EK68" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="EO68" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="EP68" s="67"/>
+      <c r="EQ68" s="67"/>
+      <c r="ER68" s="67"/>
+      <c r="ES68" s="67"/>
+      <c r="ET68" s="67"/>
     </row>
-    <row r="69" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:150" x14ac:dyDescent="0.2">
       <c r="C69" s="20">
         <f>SUM(C62:C67)</f>
         <v>0</v>
       </c>
       <c r="D69" s="20">
-        <f t="shared" ref="D69:J69" si="13">SUM(D62:D67)</f>
+        <f t="shared" ref="D69:J69" si="15">SUM(D62:D67)</f>
         <v>0</v>
       </c>
       <c r="E69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.4</v>
       </c>
       <c r="F69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78.2</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.6</v>
       </c>
       <c r="H69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25.2</v>
       </c>
       <c r="I69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
       <c r="J69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.9</v>
       </c>
       <c r="X69" s="15"/>
@@ -52295,7 +52974,7 @@
       <c r="CY69" s="63"/>
       <c r="CZ69" s="63"/>
     </row>
-    <row r="70" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:150" x14ac:dyDescent="0.2">
       <c r="C70" s="67" t="s">
         <v>73</v>
       </c>
@@ -52361,7 +53040,7 @@
       <c r="CY70" s="74"/>
       <c r="CZ70" s="74"/>
     </row>
-    <row r="71" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:150" x14ac:dyDescent="0.2">
       <c r="CQ71" s="31"/>
       <c r="CR71" s="31"/>
       <c r="CS71" s="63"/>
@@ -52373,7 +53052,7 @@
       <c r="CY71" s="63"/>
       <c r="CZ71" s="63"/>
     </row>
-    <row r="72" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:150" x14ac:dyDescent="0.2">
       <c r="CQ72" s="31"/>
       <c r="CR72" s="31"/>
       <c r="CS72" s="71"/>
@@ -52385,7 +53064,7 @@
       <c r="CY72" s="71"/>
       <c r="CZ72" s="71"/>
     </row>
-    <row r="73" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:150" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="L73" s="63"/>
       <c r="M73" s="63"/>
@@ -52429,7 +53108,7 @@
       <c r="AZ73" s="67"/>
       <c r="BA73" s="67"/>
     </row>
-    <row r="74" spans="1:115" ht="87" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:150" ht="87" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="L74" s="63"/>
       <c r="M74" s="63"/>
@@ -52494,7 +53173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:150" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="69" t="s">
         <v>84</v>
       </c>
@@ -52604,7 +53283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A76" s="69"/>
       <c r="B76" s="1" t="s">
         <v>21</v>
@@ -52711,7 +53390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:115" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:150" ht="18" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="67" t="s">
         <v>51</v>
@@ -52768,38 +53447,38 @@
       <c r="AZ77" s="74"/>
       <c r="BA77" s="74"/>
     </row>
-    <row r="78" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:150" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="6">
         <f>SUM(C75:C76)</f>
         <v>97</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" ref="D78:J78" si="14">SUM(D75:D76)</f>
+        <f t="shared" ref="D78:J78" si="16">SUM(D75:D76)</f>
         <v>87</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L78" s="63"/>
@@ -52819,7 +53498,7 @@
       <c r="Z78" s="62"/>
       <c r="AA78" s="62"/>
     </row>
-    <row r="79" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:150" x14ac:dyDescent="0.2">
       <c r="C79" s="67" t="s">
         <v>54</v>
       </c>
@@ -52831,41 +53510,41 @@
       <c r="I79" s="67"/>
       <c r="J79" s="67"/>
     </row>
-    <row r="80" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:150" x14ac:dyDescent="0.2">
       <c r="C80" s="6">
         <f>C78+SUM(C62:C67)</f>
         <v>97</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" ref="D80:J80" si="15">D78+SUM(D62:D67)</f>
+        <f t="shared" ref="D80:J80" si="17">D78+SUM(D62:D67)</f>
         <v>87</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.4</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>78.2</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12.6</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25.2</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="J80" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.9</v>
       </c>
     </row>
-    <row r="81" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:152" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="75" t="s">
         <v>85</v>
       </c>
@@ -52924,8 +53603,28 @@
       <c r="DI81" s="67"/>
       <c r="DJ81" s="67"/>
       <c r="DK81" s="67"/>
+      <c r="DP81" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="DQ81" s="67"/>
+      <c r="DR81" s="67"/>
+      <c r="DS81" s="67"/>
+      <c r="DT81" s="67"/>
+      <c r="DU81" s="67"/>
+      <c r="DV81" s="67"/>
+      <c r="DW81" s="67"/>
+      <c r="EA81" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB81" s="67"/>
+      <c r="EC81" s="67"/>
+      <c r="ED81" s="67"/>
+      <c r="EE81" s="67"/>
+      <c r="EF81" s="67"/>
+      <c r="EG81" s="67"/>
+      <c r="EH81" s="67"/>
     </row>
-    <row r="82" spans="1:115" ht="114" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:152" ht="114" x14ac:dyDescent="0.2">
       <c r="AI82" s="2" t="s">
         <v>23</v>
       </c>
@@ -53040,8 +53739,56 @@
       <c r="DK82" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="DP82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="DQ82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="DS82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="DT82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="DU82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DV82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="DW82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="EA82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="EB82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="ED82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="EE82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="EF82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="EG82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="EH82" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="83" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:152" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="69" t="s">
         <v>4</v>
       </c>
@@ -53068,7 +53815,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="6">
-        <f t="shared" ref="Z83:Z90" si="16">SUM(L83:Q83)</f>
+        <f t="shared" ref="Z83:Z90" si="18">SUM(L83:Q83)</f>
         <v>-97</v>
       </c>
       <c r="AI83" s="6">
@@ -53172,7 +53919,7 @@
         <v>97.000000000000014</v>
       </c>
       <c r="BP83" s="7">
-        <f t="shared" ref="BP83:BP90" ca="1" si="17">BO83-AB42</f>
+        <f t="shared" ref="BP83:BP90" ca="1" si="19">BO83-AB42</f>
         <v>0</v>
       </c>
       <c r="BT83" s="6">
@@ -53200,7 +53947,7 @@
         <v>0</v>
       </c>
       <c r="CA83" s="7">
-        <f t="shared" ref="CA83:CA90" ca="1" si="18">SUM(BT83:BY83)</f>
+        <f t="shared" ref="CA83:CA90" ca="1" si="20">SUM(BT83:BY83)</f>
         <v>1</v>
       </c>
       <c r="CQ83" s="69" t="s">
@@ -53241,8 +53988,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP83" s="6">
+        <f t="array" aca="1" ref="DP83:DW90" ca="1">_xlfn.MUNIT(8) - DD83:DK90</f>
+        <v>1</v>
+      </c>
+      <c r="DQ83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA83" s="6">
+        <f t="array" aca="1" ref="EA83:EH90" ca="1">MINVERSE(DP83:DW90)</f>
+        <v>1</v>
+      </c>
+      <c r="EB83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EE83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH83" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK83" s="6">
+        <f t="array" aca="1" ref="EK83:EK90" ca="1">MMULT(EA83:EH90, CV42:CV49)</f>
+        <v>97</v>
+      </c>
+      <c r="EO83" s="6">
+        <f ca="1">IF((ROW()-ROW($EO$83))=(COLUMN()-COLUMN($EO$83)),INDIRECT("EK"&amp;ROW()),0)</f>
+        <v>97</v>
+      </c>
+      <c r="EP83" s="6">
+        <f t="shared" ref="EP83:EV90" ca="1" si="21">IF((ROW()-ROW($EO$83))=(COLUMN()-COLUMN($EO$83)),INDIRECT("EK"&amp;ROW()),0)</f>
+        <v>0</v>
+      </c>
+      <c r="EQ83" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER83" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES83" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET83" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU83" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV83" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A84" s="69"/>
       <c r="B84" s="1" t="s">
         <v>1</v>
@@ -53266,7 +54113,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-87</v>
       </c>
       <c r="AI84" s="6">
@@ -53370,7 +54217,7 @@
         <v>87</v>
       </c>
       <c r="BP84" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT84" s="6">
@@ -53398,7 +54245,7 @@
         <v>0</v>
       </c>
       <c r="CA84" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="CQ84" s="69"/>
@@ -53437,8 +54284,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ84" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="DR84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB84" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EC84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EE84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH84" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK84" s="6">
+        <f ca="1"/>
+        <v>87</v>
+      </c>
+      <c r="EO84" s="6">
+        <f t="shared" ref="EO84:EO90" ca="1" si="22">IF((ROW()-ROW($EO$83))=(COLUMN()-COLUMN($EO$83)),INDIRECT("EK"&amp;ROW()),0)</f>
+        <v>0</v>
+      </c>
+      <c r="EP84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>87</v>
+      </c>
+      <c r="EQ84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV84" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="69"/>
       <c r="B85" s="1" t="s">
         <v>27</v>
@@ -53462,7 +54409,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI85" s="6">
@@ -53566,7 +54513,7 @@
         <v>22.400000000000002</v>
       </c>
       <c r="BP85" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT85" s="6">
@@ -53594,7 +54541,7 @@
         <v>0</v>
       </c>
       <c r="CA85" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="CQ85" s="69"/>
@@ -53633,8 +54580,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP85" s="6">
+        <f ca="1"/>
+        <v>-0.22399999999999998</v>
+      </c>
+      <c r="DQ85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR85" s="6">
+        <f ca="1"/>
+        <v>0.97</v>
+      </c>
+      <c r="DS85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA85" s="6">
+        <f ca="1"/>
+        <v>0.23092783505154638</v>
+      </c>
+      <c r="EB85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC85" s="6">
+        <f ca="1"/>
+        <v>1.0309278350515465</v>
+      </c>
+      <c r="ED85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EE85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH85" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK85" s="6">
+        <f ca="1"/>
+        <v>22.4</v>
+      </c>
+      <c r="EO85" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EP85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EQ85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>22.4</v>
+      </c>
+      <c r="ER85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV85" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="69"/>
       <c r="B86" s="1" t="s">
         <v>26</v>
@@ -53658,7 +54705,7 @@
         <v>-28.1</v>
       </c>
       <c r="Z86" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI86" s="6">
@@ -53762,7 +54809,7 @@
         <v>78.199999999999989</v>
       </c>
       <c r="BP86" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT86" s="6">
@@ -53790,7 +54837,7 @@
         <v>0.35933503836317143</v>
       </c>
       <c r="CA86" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="CQ86" s="69"/>
@@ -53829,8 +54876,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ86" s="6">
+        <f ca="1"/>
+        <v>-0.89885057471264374</v>
+      </c>
+      <c r="DR86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS86" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="DT86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB86" s="6">
+        <f ca="1"/>
+        <v>0.89885057471264374</v>
+      </c>
+      <c r="EC86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED86" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EE86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH86" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK86" s="6">
+        <f ca="1"/>
+        <v>78.2</v>
+      </c>
+      <c r="EO86" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EP86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EQ86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>78.2</v>
+      </c>
+      <c r="ES86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV86" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A87" s="69"/>
       <c r="B87" s="1" t="s">
         <v>29</v>
@@ -53854,7 +55001,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI87" s="6">
@@ -53958,7 +55105,7 @@
         <v>12.599999999999998</v>
       </c>
       <c r="BP87" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT87" s="6">
@@ -53986,7 +55133,7 @@
         <v>0</v>
       </c>
       <c r="CA87" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="CQ87" s="69"/>
@@ -54025,8 +55172,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS87" s="6">
+        <f ca="1"/>
+        <v>-0.16112531969309465</v>
+      </c>
+      <c r="DT87" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="DU87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB87" s="6">
+        <f ca="1"/>
+        <v>0.14482758620689659</v>
+      </c>
+      <c r="EC87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED87" s="6">
+        <f ca="1"/>
+        <v>0.16112531969309465</v>
+      </c>
+      <c r="EE87" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EF87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH87" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK87" s="6">
+        <f ca="1"/>
+        <v>12.600000000000003</v>
+      </c>
+      <c r="EO87" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EP87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EQ87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>12.600000000000003</v>
+      </c>
+      <c r="ET87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV87" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="69"/>
       <c r="B88" s="1" t="s">
         <v>19</v>
@@ -54050,7 +55297,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>25.2</v>
       </c>
       <c r="AI88" s="6">
@@ -54154,7 +55401,7 @@
         <v>25.2</v>
       </c>
       <c r="BP88" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT88" s="6">
@@ -54182,7 +55429,7 @@
         <v>0</v>
       </c>
       <c r="CA88" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="CQ88" s="69"/>
@@ -54221,8 +55468,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS88" s="6">
+        <f ca="1"/>
+        <v>-0.23443008225616924</v>
+      </c>
+      <c r="DT88" s="6">
+        <f ca="1"/>
+        <v>-0.54504504504504503</v>
+      </c>
+      <c r="DU88" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="DV88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB88" s="6">
+        <f ca="1"/>
+        <v>0.28965517241379313</v>
+      </c>
+      <c r="EC88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED88" s="6">
+        <f ca="1"/>
+        <v>0.32225063938618931</v>
+      </c>
+      <c r="EE88" s="6">
+        <f ca="1"/>
+        <v>0.54504504504504503</v>
+      </c>
+      <c r="EF88" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EG88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH88" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK88" s="6">
+        <f ca="1"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="EO88" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EP88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EQ88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>25.200000000000003</v>
+      </c>
+      <c r="EU88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV88" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="69"/>
       <c r="B89" s="1" t="s">
         <v>17</v>
@@ -54246,7 +55593,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="AI89" s="6">
@@ -54350,7 +55697,7 @@
         <v>0.4</v>
       </c>
       <c r="BP89" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT89" s="6">
@@ -54378,7 +55725,7 @@
         <v>0</v>
       </c>
       <c r="CA89" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="CQ89" s="69"/>
@@ -54417,8 +55764,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR89" s="6">
+        <f ca="1"/>
+        <v>-1.7408470926058867E-2</v>
+      </c>
+      <c r="DS89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT89" s="6">
+        <f ca="1"/>
+        <v>-7.9763898859376255E-4</v>
+      </c>
+      <c r="DU89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV89" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="DW89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA89" s="6">
+        <f ca="1"/>
+        <v>4.0201005025125632E-3</v>
+      </c>
+      <c r="EB89" s="6">
+        <f ca="1"/>
+        <v>1.1552012938254495E-4</v>
+      </c>
+      <c r="EC89" s="6">
+        <f ca="1"/>
+        <v>1.7946877243359659E-2</v>
+      </c>
+      <c r="ED89" s="6">
+        <f ca="1"/>
+        <v>1.2851983703684666E-4</v>
+      </c>
+      <c r="EE89" s="6">
+        <f ca="1"/>
+        <v>7.9763898859376255E-4</v>
+      </c>
+      <c r="EF89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG89" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EH89" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK89" s="6">
+        <f ca="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="EO89" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EP89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EQ89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.4</v>
+      </c>
+      <c r="EV89" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A90" s="69"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
@@ -54442,7 +55889,7 @@
         <v>5.9</v>
       </c>
       <c r="Z90" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.9</v>
       </c>
       <c r="AI90" s="6">
@@ -54546,7 +55993,7 @@
         <v>5.9</v>
       </c>
       <c r="BP90" s="7">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="BT90" s="6">
@@ -54574,7 +56021,7 @@
         <v>0</v>
       </c>
       <c r="CA90" s="7">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="CQ90" s="69"/>
@@ -54613,8 +56060,108 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="DP90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS90" s="6">
+        <f ca="1"/>
+        <v>-7.5447570332480826E-2</v>
+      </c>
+      <c r="DT90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW90" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EA90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB90" s="6">
+        <f ca="1"/>
+        <v>6.7816091954022995E-2</v>
+      </c>
+      <c r="EC90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED90" s="6">
+        <f ca="1"/>
+        <v>7.5447570332480826E-2</v>
+      </c>
+      <c r="EE90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG90" s="6">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH90" s="6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="EK90" s="6">
+        <f ca="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="EO90" s="6">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="EP90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EQ90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ER90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ES90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="ET90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EU90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="EV90" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="91" spans="1:115" ht="19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:152" ht="19" x14ac:dyDescent="0.2">
       <c r="L91" s="75" t="s">
         <v>13</v>
       </c>
@@ -54698,8 +56245,41 @@
       <c r="DI91" s="67"/>
       <c r="DJ91" s="67"/>
       <c r="DK91" s="67"/>
+      <c r="DP91" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="DQ91" s="67"/>
+      <c r="DR91" s="67"/>
+      <c r="DS91" s="67"/>
+      <c r="DT91" s="67"/>
+      <c r="DU91" s="67"/>
+      <c r="DV91" s="67"/>
+      <c r="DW91" s="67"/>
+      <c r="EA91" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="EB91" s="67"/>
+      <c r="EC91" s="67"/>
+      <c r="ED91" s="67"/>
+      <c r="EE91" s="67"/>
+      <c r="EF91" s="67"/>
+      <c r="EG91" s="67"/>
+      <c r="EH91" s="67"/>
+      <c r="EK91" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="EO91" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="EP91" s="67"/>
+      <c r="EQ91" s="67"/>
+      <c r="ER91" s="67"/>
+      <c r="ES91" s="67"/>
+      <c r="ET91" s="67"/>
+      <c r="EU91" s="67"/>
+      <c r="EV91" s="67"/>
     </row>
-    <row r="92" spans="1:115" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:152" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="69" t="s">
         <v>30</v>
       </c>
@@ -54726,7 +56306,7 @@
         <v>-28.1</v>
       </c>
     </row>
-    <row r="93" spans="1:115" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:152" ht="17" x14ac:dyDescent="0.2">
       <c r="J93" s="69"/>
       <c r="K93" s="37" t="s">
         <v>81</v>
@@ -54750,7 +56330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:152" x14ac:dyDescent="0.2">
       <c r="J94" s="69"/>
       <c r="K94" s="1" t="s">
         <v>33</v>
@@ -54784,7 +56364,7 @@
       <c r="Z94" s="17"/>
       <c r="AA94" s="17"/>
     </row>
-    <row r="95" spans="1:115" ht="20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:152" ht="20" x14ac:dyDescent="0.25">
       <c r="L95" s="75" t="s">
         <v>35</v>
       </c>
@@ -54843,12 +56423,12 @@
         <v>97</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" ref="E102:E109" si="19">Z83</f>
+        <f t="shared" ref="E102:E109" si="23">Z83</f>
         <v>-97</v>
       </c>
       <c r="F102" s="63"/>
       <c r="G102" s="4">
-        <f t="shared" ref="G102:G109" si="20">Z42</f>
+        <f t="shared" ref="G102:G109" si="24">Z42</f>
         <v>0</v>
       </c>
       <c r="I102" s="7">
@@ -54865,16 +56445,16 @@
         <v>87</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-87</v>
       </c>
       <c r="F103" s="63"/>
       <c r="G103" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" ref="I103:I109" si="21">C103+E103-G103</f>
+        <f t="shared" ref="I103:I109" si="25">C103+E103-G103</f>
         <v>0</v>
       </c>
     </row>
@@ -54887,15 +56467,15 @@
         <v>0</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -54911,21 +56491,21 @@
         <v>56</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F105" s="59" t="s">
         <v>9</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H105" s="60" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -54938,16 +56518,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F106" s="63"/>
       <c r="G106" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -54960,16 +56540,16 @@
         <v>0</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>25.2</v>
       </c>
       <c r="F107" s="63"/>
       <c r="G107" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>25.2</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -54982,15 +56562,15 @@
         <v>0</v>
       </c>
       <c r="E108" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
       <c r="I108" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -55003,16 +56583,16 @@
         <v>0</v>
       </c>
       <c r="E109" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.9</v>
       </c>
       <c r="F109" s="63"/>
       <c r="G109" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5.9</v>
       </c>
       <c r="I109" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -55100,11 +56680,11 @@
         <v>22.4</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" ref="D114:E119" si="22">AA62</f>
+        <f t="shared" ref="D114:E119" si="26">AA62</f>
         <v>0</v>
       </c>
       <c r="E114" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G114" s="6">
@@ -55132,11 +56712,11 @@
         <v>0</v>
       </c>
       <c r="P114" s="7">
-        <f t="shared" ref="P114:Q119" si="23">D114-H114-L114</f>
+        <f t="shared" ref="P114:Q119" si="27">D114-H114-L114</f>
         <v>0</v>
       </c>
       <c r="Q114" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO114" s="18"/>
@@ -55149,15 +56729,15 @@
         <v>24</v>
       </c>
       <c r="C115" s="6">
-        <f t="shared" ref="C115:C119" si="24">Z63</f>
+        <f t="shared" ref="C115:C119" si="28">Z63</f>
         <v>78.2</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E115" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G115" s="6">
@@ -55179,15 +56759,15 @@
         <v>0</v>
       </c>
       <c r="O115" s="7">
-        <f t="shared" ref="O115:O119" si="25">C115-G115-K115</f>
+        <f t="shared" ref="O115:O119" si="29">C115-G115-K115</f>
         <v>0</v>
       </c>
       <c r="P115" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q115" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO115" s="18"/>
@@ -55200,15 +56780,15 @@
         <v>25</v>
       </c>
       <c r="C116" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12.6</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E116" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F116" s="59" t="s">
@@ -55239,15 +56819,15 @@
         <v>10</v>
       </c>
       <c r="O116" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P116" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q116" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO116" s="18"/>
@@ -55260,15 +56840,15 @@
         <v>0</v>
       </c>
       <c r="C117" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>25.2</v>
       </c>
       <c r="E117" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G117" s="6">
@@ -55290,15 +56870,15 @@
         <v>0</v>
       </c>
       <c r="O117" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P117" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q117" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO117" s="18"/>
@@ -55311,15 +56891,15 @@
         <v>15</v>
       </c>
       <c r="C118" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
       <c r="G118" s="6">
@@ -55341,15 +56921,15 @@
         <v>0</v>
       </c>
       <c r="O118" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P118" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q118" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO118" s="18"/>
@@ -55362,15 +56942,15 @@
         <v>16</v>
       </c>
       <c r="C119" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.9</v>
       </c>
       <c r="G119" s="6">
@@ -55392,15 +56972,15 @@
         <v>0</v>
       </c>
       <c r="O119" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P119" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q119" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AO119" s="18"/>
@@ -55453,7 +57033,7 @@
         <v>22</v>
       </c>
       <c r="C125" s="6">
-        <f t="shared" ref="C125:C130" si="26">AD62</f>
+        <f t="shared" ref="C125:C130" si="30">AD62</f>
         <v>22.4</v>
       </c>
       <c r="D125" s="6">
@@ -55471,14 +57051,14 @@
         <v>24</v>
       </c>
       <c r="C126" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>78.2</v>
       </c>
       <c r="D126" s="6">
         <v>87</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" ref="F126:F130" si="27">C126/D126</f>
+        <f t="shared" ref="F126:F130" si="31">C126/D126</f>
         <v>0.89885057471264374</v>
       </c>
     </row>
@@ -55488,14 +57068,14 @@
         <v>25</v>
       </c>
       <c r="C127" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>12.6</v>
       </c>
       <c r="D127" s="6">
         <v>17.8</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.7078651685393258</v>
       </c>
     </row>
@@ -55505,14 +57085,14 @@
         <v>0</v>
       </c>
       <c r="C128" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25.2</v>
       </c>
       <c r="D128" s="6">
         <v>44.4</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.56756756756756754</v>
       </c>
     </row>
@@ -55522,14 +57102,14 @@
         <v>15</v>
       </c>
       <c r="C129" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.4</v>
       </c>
       <c r="D129" s="6">
         <v>19.899999999999999</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.0100502512562818E-2</v>
       </c>
     </row>
@@ -55539,14 +57119,14 @@
         <v>16</v>
       </c>
       <c r="C130" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5.9</v>
       </c>
       <c r="D130" s="6">
         <v>28.1</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.20996441281138789</v>
       </c>
     </row>
@@ -55604,27 +57184,27 @@
         <v>22</v>
       </c>
       <c r="C137" s="6">
-        <f t="shared" ref="C137:H142" ca="1" si="28">IF((ROW()-ROW($C$137))=(COLUMN()-COLUMN($C$137)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <f t="shared" ref="C137:H142" ca="1" si="32">IF((ROW()-ROW($C$137))=(COLUMN()-COLUMN($C$137)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
         <v>100</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="H137" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="J137" s="6">
@@ -55632,7 +57212,7 @@
         <v>22.4</v>
       </c>
       <c r="L137" s="7">
-        <f t="shared" ref="L137:L142" ca="1" si="29">J137-AD62</f>
+        <f t="shared" ref="L137:L142" ca="1" si="33">J137-AD62</f>
         <v>0</v>
       </c>
     </row>
@@ -55642,27 +57222,27 @@
         <v>24</v>
       </c>
       <c r="C138" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>87</v>
       </c>
       <c r="E138" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="H138" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="J138" s="6">
@@ -55670,7 +57250,7 @@
         <v>78.2</v>
       </c>
       <c r="L138" s="7">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -55680,27 +57260,27 @@
         <v>25</v>
       </c>
       <c r="C139" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="E139" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>17.8</v>
       </c>
       <c r="F139" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="G139" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="H139" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="J139" s="6">
@@ -55708,7 +57288,7 @@
         <v>12.6</v>
       </c>
       <c r="L139" s="7">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -55718,27 +57298,27 @@
         <v>0</v>
       </c>
       <c r="C140" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="E140" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>44.4</v>
       </c>
       <c r="G140" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="H140" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="J140" s="6">
@@ -55746,7 +57326,7 @@
         <v>25.2</v>
       </c>
       <c r="L140" s="7">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -55756,27 +57336,27 @@
         <v>15</v>
       </c>
       <c r="C141" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="E141" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="G141" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>19.899999999999999</v>
       </c>
       <c r="H141" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="J141" s="6">
@@ -55784,7 +57364,7 @@
         <v>0.4</v>
       </c>
       <c r="L141" s="7">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -55794,27 +57374,27 @@
         <v>16</v>
       </c>
       <c r="C142" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="E142" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="F142" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="G142" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="H142" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="32"/>
         <v>28.1</v>
       </c>
       <c r="J142" s="6">
@@ -55822,7 +57402,7 @@
         <v>5.9</v>
       </c>
       <c r="L142" s="7">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -55845,7 +57425,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="96">
+    <mergeCell ref="EO68:ET68"/>
+    <mergeCell ref="EO91:EV91"/>
+    <mergeCell ref="EA91:EH91"/>
+    <mergeCell ref="DP81:DW81"/>
+    <mergeCell ref="DP91:DW91"/>
+    <mergeCell ref="EA81:EH81"/>
+    <mergeCell ref="EA60:EH60"/>
+    <mergeCell ref="EA68:EH68"/>
     <mergeCell ref="DD40:DI40"/>
     <mergeCell ref="DD68:DK68"/>
     <mergeCell ref="DD60:DK60"/>

--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA3BBD-4910-544E-99FC-A9F2EBB08175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB0818-2E8F-B04B-A23E-8A366408C04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
+++ b/inst/extdata/Testing new_R_ps/new_R_ps_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/Testing new_R_ps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05160C75-FFFF-E94D-BAE4-9D08BD989C95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB8747-B5B7-4640-A19E-045D643076EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="190">
   <si>
     <t>Buildings</t>
   </si>
@@ -5034,6 +5034,163 @@
       <t>iU'_bar</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W'_bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -5918,9 +6075,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5929,26 +6089,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -35353,11 +35510,11 @@
     </row>
     <row r="26" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -35376,7 +35533,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -35395,7 +35552,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -35412,7 +35569,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -35429,7 +35586,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -35446,7 +35603,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -35491,7 +35648,7 @@
       <c r="CO32" s="31"/>
     </row>
     <row r="33" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -35536,7 +35693,7 @@
       <c r="CO33" s="31"/>
     </row>
     <row r="34" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -35581,7 +35738,7 @@
       <c r="CO34" s="31"/>
     </row>
     <row r="35" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
@@ -35626,11 +35783,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -35723,81 +35880,81 @@
       <c r="CO38" s="29"/>
     </row>
     <row r="40" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="L40" s="76" t="s">
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="L40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="W40" s="76" t="s">
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="W40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="X40" s="76"/>
+      <c r="X40" s="77"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-      <c r="AI40" s="76" t="s">
+      <c r="AI40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AJ40" s="76"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="76"/>
-      <c r="AM40" s="76"/>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="76"/>
-      <c r="AP40" s="76"/>
-      <c r="AT40" s="76" t="s">
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="77"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="77"/>
+      <c r="AN40" s="77"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="77"/>
+      <c r="AT40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AU40" s="76"/>
-      <c r="AV40" s="76"/>
-      <c r="AW40" s="76"/>
-      <c r="AX40" s="76"/>
-      <c r="AY40" s="76"/>
-      <c r="BE40" s="76" t="s">
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="77"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="77"/>
+      <c r="AY40" s="77"/>
+      <c r="BE40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BF40" s="76"/>
-      <c r="BG40" s="76"/>
-      <c r="BH40" s="76"/>
-      <c r="BI40" s="76"/>
-      <c r="BJ40" s="76"/>
-      <c r="BT40" s="76" t="s">
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="77"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="77"/>
+      <c r="BT40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU40" s="76"/>
-      <c r="BV40" s="76"/>
-      <c r="BW40" s="76"/>
-      <c r="BX40" s="76"/>
-      <c r="BY40" s="76"/>
-      <c r="CA40" s="76" t="s">
+      <c r="BU40" s="77"/>
+      <c r="BV40" s="77"/>
+      <c r="BW40" s="77"/>
+      <c r="BX40" s="77"/>
+      <c r="BY40" s="77"/>
+      <c r="CA40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="CB40" s="76"/>
-      <c r="CC40" s="76"/>
-      <c r="CD40" s="76"/>
-      <c r="CE40" s="76"/>
-      <c r="CF40" s="76"/>
-      <c r="CG40" s="76"/>
-      <c r="CH40" s="76"/>
-      <c r="CJ40" s="76" t="s">
+      <c r="CB40" s="77"/>
+      <c r="CC40" s="77"/>
+      <c r="CD40" s="77"/>
+      <c r="CE40" s="77"/>
+      <c r="CF40" s="77"/>
+      <c r="CG40" s="77"/>
+      <c r="CH40" s="77"/>
+      <c r="CJ40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="CK40" s="76"/>
+      <c r="CK40" s="77"/>
       <c r="CL40" s="29"/>
       <c r="CM40" s="29"/>
       <c r="CN40" s="29"/>
@@ -35967,7 +36124,7 @@
       <c r="CO41" s="28"/>
     </row>
     <row r="42" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -35992,7 +36149,7 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="78" t="s">
+      <c r="U42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -36170,7 +36327,7 @@
       <c r="CO42" s="31"/>
     </row>
     <row r="43" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -36193,7 +36350,7 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="78"/>
+      <c r="U43" s="79"/>
       <c r="V43" s="1" t="s">
         <v>1</v>
       </c>
@@ -36368,7 +36525,7 @@
       <c r="CO43" s="31"/>
     </row>
     <row r="44" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
@@ -36392,7 +36549,7 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="78"/>
+      <c r="U44" s="79"/>
       <c r="V44" s="1" t="s">
         <v>27</v>
       </c>
@@ -36567,7 +36724,7 @@
       <c r="CO44" s="31"/>
     </row>
     <row r="45" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -36592,7 +36749,7 @@
         <f>S4</f>
         <v>28.1</v>
       </c>
-      <c r="U45" s="78"/>
+      <c r="U45" s="79"/>
       <c r="V45" s="1" t="s">
         <v>26</v>
       </c>
@@ -36767,7 +36924,7 @@
       <c r="CO45" s="31"/>
     </row>
     <row r="46" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -36791,7 +36948,7 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="78"/>
+      <c r="U46" s="79"/>
       <c r="V46" s="1" t="s">
         <v>29</v>
       </c>
@@ -36966,7 +37123,7 @@
       <c r="CO46" s="31"/>
     </row>
     <row r="47" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -36988,7 +37145,7 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="78"/>
+      <c r="U47" s="79"/>
       <c r="V47" s="1" t="s">
         <v>19</v>
       </c>
@@ -37164,7 +37321,7 @@
       <c r="CO47" s="40"/>
     </row>
     <row r="48" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
@@ -37186,7 +37343,7 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="78"/>
+      <c r="U48" s="79"/>
       <c r="V48" s="1" t="s">
         <v>17</v>
       </c>
@@ -37362,7 +37519,7 @@
       <c r="CO48" s="40"/>
     </row>
     <row r="49" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
@@ -37384,7 +37541,7 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="78"/>
+      <c r="U49" s="79"/>
       <c r="V49" s="1" t="s">
         <v>18</v>
       </c>
@@ -37561,18 +37718,18 @@
     </row>
     <row r="50" spans="1:93" ht="19" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="L50" s="76" t="s">
+      <c r="L50" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="W50" s="76" t="s">
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="W50" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="X50" s="76"/>
+      <c r="X50" s="77"/>
       <c r="Z50" s="41" t="s">
         <v>12</v>
       </c>
@@ -37585,53 +37742,53 @@
       <c r="AE50" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AI50" s="76" t="s">
+      <c r="AI50" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AT50" s="76" t="s">
+      <c r="AJ50" s="77"/>
+      <c r="AK50" s="77"/>
+      <c r="AL50" s="77"/>
+      <c r="AM50" s="77"/>
+      <c r="AN50" s="77"/>
+      <c r="AO50" s="77"/>
+      <c r="AP50" s="77"/>
+      <c r="AT50" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="76"/>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
+      <c r="AU50" s="77"/>
+      <c r="AV50" s="77"/>
+      <c r="AW50" s="77"/>
+      <c r="AX50" s="77"/>
+      <c r="AY50" s="77"/>
       <c r="BB50" s="8"/>
       <c r="BC50" s="8"/>
       <c r="BD50" s="8"/>
-      <c r="BE50" s="76" t="s">
+      <c r="BE50" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="BF50" s="76"/>
-      <c r="BG50" s="76"/>
-      <c r="BH50" s="76"/>
-      <c r="BI50" s="76"/>
-      <c r="BJ50" s="76"/>
-      <c r="BT50" s="79" t="s">
+      <c r="BF50" s="77"/>
+      <c r="BG50" s="77"/>
+      <c r="BH50" s="77"/>
+      <c r="BI50" s="77"/>
+      <c r="BJ50" s="77"/>
+      <c r="BT50" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="BU50" s="79"/>
-      <c r="BV50" s="79"/>
-      <c r="BW50" s="79"/>
-      <c r="BX50" s="79"/>
-      <c r="BY50" s="79"/>
-      <c r="CA50" s="76" t="s">
+      <c r="BU50" s="80"/>
+      <c r="BV50" s="80"/>
+      <c r="BW50" s="80"/>
+      <c r="BX50" s="80"/>
+      <c r="BY50" s="80"/>
+      <c r="CA50" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="CB50" s="76"/>
-      <c r="CC50" s="76"/>
-      <c r="CD50" s="76"/>
-      <c r="CE50" s="76"/>
-      <c r="CF50" s="76"/>
-      <c r="CG50" s="76"/>
-      <c r="CH50" s="76"/>
+      <c r="CB50" s="77"/>
+      <c r="CC50" s="77"/>
+      <c r="CD50" s="77"/>
+      <c r="CE50" s="77"/>
+      <c r="CF50" s="77"/>
+      <c r="CG50" s="77"/>
+      <c r="CH50" s="77"/>
       <c r="CJ50" s="8" t="s">
         <v>83</v>
       </c>
@@ -37643,7 +37800,7 @@
     </row>
     <row r="51" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="J51" s="78" t="s">
+      <c r="J51" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -37700,7 +37857,7 @@
     </row>
     <row r="52" spans="1:93" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="J52" s="78"/>
+      <c r="J52" s="79"/>
       <c r="K52" s="37" t="s">
         <v>81</v>
       </c>
@@ -37730,7 +37887,7 @@
     </row>
     <row r="53" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="J53" s="78"/>
+      <c r="J53" s="79"/>
       <c r="K53" s="1" t="s">
         <v>33</v>
       </c>
@@ -37800,58 +37957,58 @@
       </c>
     </row>
     <row r="56" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="L56" s="76" t="s">
+      <c r="L56" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
     </row>
     <row r="60" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-      <c r="Z60" s="83" t="s">
+      <c r="Z60" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="83"/>
-      <c r="AB60" s="83"/>
-      <c r="AI60" s="76" t="s">
+      <c r="AA60" s="78"/>
+      <c r="AB60" s="78"/>
+      <c r="AI60" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AT60" s="76" t="s">
+      <c r="AJ60" s="77"/>
+      <c r="AK60" s="77"/>
+      <c r="AL60" s="77"/>
+      <c r="AM60" s="77"/>
+      <c r="AN60" s="77"/>
+      <c r="AT60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BE60" s="76" t="s">
+      <c r="AU60" s="77"/>
+      <c r="AV60" s="77"/>
+      <c r="AW60" s="77"/>
+      <c r="AX60" s="77"/>
+      <c r="AY60" s="77"/>
+      <c r="AZ60" s="77"/>
+      <c r="BA60" s="77"/>
+      <c r="BE60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="76"/>
-      <c r="BL60" s="76"/>
-      <c r="BT60" s="76" t="s">
+      <c r="BF60" s="77"/>
+      <c r="BG60" s="77"/>
+      <c r="BH60" s="77"/>
+      <c r="BI60" s="77"/>
+      <c r="BJ60" s="77"/>
+      <c r="BK60" s="77"/>
+      <c r="BL60" s="77"/>
+      <c r="BT60" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU60" s="76"/>
-      <c r="BV60" s="76"/>
-      <c r="BW60" s="76"/>
-      <c r="BX60" s="76"/>
-      <c r="BY60" s="76"/>
+      <c r="BU60" s="77"/>
+      <c r="BV60" s="77"/>
+      <c r="BW60" s="77"/>
+      <c r="BX60" s="77"/>
+      <c r="BY60" s="77"/>
     </row>
     <row r="61" spans="1:93" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -37952,7 +38109,7 @@
       </c>
     </row>
     <row r="62" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -38119,7 +38276,7 @@
       </c>
     </row>
     <row r="63" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A63" s="78"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
@@ -38283,7 +38440,7 @@
       </c>
     </row>
     <row r="64" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A64" s="78"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
@@ -38447,7 +38604,7 @@
       </c>
     </row>
     <row r="65" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
@@ -38611,7 +38768,7 @@
       </c>
     </row>
     <row r="66" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -38775,7 +38932,7 @@
       </c>
     </row>
     <row r="67" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A67" s="78"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="1" t="s">
         <v>16</v>
       </c>
@@ -38939,16 +39096,16 @@
       </c>
     </row>
     <row r="68" spans="1:78" ht="18" x14ac:dyDescent="0.25">
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
       <c r="Z68" s="81" t="s">
@@ -38959,37 +39116,37 @@
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AI68" s="76" t="s">
+      <c r="AI68" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AJ68" s="76"/>
-      <c r="AK68" s="76"/>
-      <c r="AL68" s="76"/>
-      <c r="AM68" s="76"/>
-      <c r="AN68" s="76"/>
-      <c r="AT68" s="82" t="s">
+      <c r="AJ68" s="77"/>
+      <c r="AK68" s="77"/>
+      <c r="AL68" s="77"/>
+      <c r="AM68" s="77"/>
+      <c r="AN68" s="77"/>
+      <c r="AT68" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AU68" s="82"/>
-      <c r="AV68" s="82"/>
-      <c r="AW68" s="82"/>
-      <c r="AX68" s="82"/>
-      <c r="AY68" s="82"/>
-      <c r="AZ68" s="82"/>
-      <c r="BA68" s="82"/>
+      <c r="AU68" s="83"/>
+      <c r="AV68" s="83"/>
+      <c r="AW68" s="83"/>
+      <c r="AX68" s="83"/>
+      <c r="AY68" s="83"/>
+      <c r="AZ68" s="83"/>
+      <c r="BA68" s="83"/>
       <c r="BB68" s="25"/>
       <c r="BC68" s="25"/>
       <c r="BD68" s="25"/>
-      <c r="BE68" s="79" t="s">
+      <c r="BE68" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="BF68" s="79"/>
-      <c r="BG68" s="79"/>
-      <c r="BH68" s="79"/>
-      <c r="BI68" s="79"/>
-      <c r="BJ68" s="79"/>
-      <c r="BK68" s="79"/>
-      <c r="BL68" s="79"/>
+      <c r="BF68" s="80"/>
+      <c r="BG68" s="80"/>
+      <c r="BH68" s="80"/>
+      <c r="BI68" s="80"/>
+      <c r="BJ68" s="80"/>
+      <c r="BK68" s="80"/>
+      <c r="BL68" s="80"/>
       <c r="BM68" s="26"/>
       <c r="BN68" s="26"/>
       <c r="BO68" s="30" t="s">
@@ -39001,14 +39158,14 @@
       <c r="BQ68" s="26"/>
       <c r="BR68" s="26"/>
       <c r="BS68" s="26"/>
-      <c r="BT68" s="79" t="s">
+      <c r="BT68" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="BU68" s="79"/>
-      <c r="BV68" s="79"/>
-      <c r="BW68" s="79"/>
-      <c r="BX68" s="79"/>
-      <c r="BY68" s="79"/>
+      <c r="BU68" s="80"/>
+      <c r="BV68" s="80"/>
+      <c r="BW68" s="80"/>
+      <c r="BX68" s="80"/>
+      <c r="BY68" s="80"/>
       <c r="BZ68" s="26"/>
     </row>
     <row r="69" spans="1:78" x14ac:dyDescent="0.2">
@@ -39090,16 +39247,16 @@
       <c r="BZ69" s="26"/>
     </row>
     <row r="70" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
@@ -39161,33 +39318,33 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="83" t="s">
+      <c r="Z73" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="83"/>
-      <c r="AI73" s="84" t="s">
+      <c r="AA73" s="78"/>
+      <c r="AI73" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="84"/>
+      <c r="AJ73" s="82"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="84"/>
-      <c r="AM73" s="84"/>
+      <c r="AL73" s="82"/>
+      <c r="AM73" s="82"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
       <c r="AQ73" s="31"/>
       <c r="AR73" s="31"/>
       <c r="AS73" s="31"/>
-      <c r="AT73" s="76" t="s">
+      <c r="AT73" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU73" s="76"/>
-      <c r="AV73" s="76"/>
-      <c r="AW73" s="76"/>
-      <c r="AX73" s="76"/>
-      <c r="AY73" s="76"/>
-      <c r="AZ73" s="76"/>
-      <c r="BA73" s="76"/>
+      <c r="AU73" s="77"/>
+      <c r="AV73" s="77"/>
+      <c r="AW73" s="77"/>
+      <c r="AX73" s="77"/>
+      <c r="AY73" s="77"/>
+      <c r="AZ73" s="77"/>
+      <c r="BA73" s="77"/>
     </row>
     <row r="74" spans="1:78" ht="87" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
@@ -39255,7 +39412,7 @@
       </c>
     </row>
     <row r="75" spans="1:78" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -39365,7 +39522,7 @@
       </c>
     </row>
     <row r="76" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A76" s="78"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
@@ -39473,16 +39630,16 @@
     </row>
     <row r="77" spans="1:78" ht="18" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
       <c r="N77" s="40"/>
@@ -39504,29 +39661,29 @@
       <c r="AD77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="80" t="s">
+      <c r="AI77" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="80"/>
+      <c r="AJ77" s="84"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="80"/>
-      <c r="AM77" s="80"/>
+      <c r="AL77" s="84"/>
+      <c r="AM77" s="84"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="80" t="s">
+      <c r="AT77" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="80"/>
-      <c r="AV77" s="80"/>
-      <c r="AW77" s="80"/>
-      <c r="AX77" s="80"/>
-      <c r="AY77" s="80"/>
-      <c r="AZ77" s="80"/>
-      <c r="BA77" s="80"/>
+      <c r="AU77" s="84"/>
+      <c r="AV77" s="84"/>
+      <c r="AW77" s="84"/>
+      <c r="AX77" s="84"/>
+      <c r="AY77" s="84"/>
+      <c r="AZ77" s="84"/>
+      <c r="BA77" s="84"/>
     </row>
     <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
@@ -39580,16 +39737,16 @@
       <c r="AA78" s="44"/>
     </row>
     <row r="79" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
     </row>
     <row r="80" spans="1:78" x14ac:dyDescent="0.2">
       <c r="C80" s="6">
@@ -39626,54 +39783,54 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="AI81" s="76" t="s">
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="AI81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AJ81" s="76"/>
-      <c r="AK81" s="76"/>
-      <c r="AL81" s="76"/>
-      <c r="AM81" s="76"/>
-      <c r="AN81" s="76"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="76"/>
-      <c r="AT81" s="76" t="s">
+      <c r="AJ81" s="77"/>
+      <c r="AK81" s="77"/>
+      <c r="AL81" s="77"/>
+      <c r="AM81" s="77"/>
+      <c r="AN81" s="77"/>
+      <c r="AO81" s="77"/>
+      <c r="AP81" s="77"/>
+      <c r="AT81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU81" s="76"/>
-      <c r="AV81" s="76"/>
-      <c r="AW81" s="76"/>
-      <c r="AX81" s="76"/>
-      <c r="AY81" s="76"/>
-      <c r="AZ81" s="76"/>
-      <c r="BA81" s="76"/>
-      <c r="BE81" s="76" t="s">
+      <c r="AU81" s="77"/>
+      <c r="AV81" s="77"/>
+      <c r="AW81" s="77"/>
+      <c r="AX81" s="77"/>
+      <c r="AY81" s="77"/>
+      <c r="AZ81" s="77"/>
+      <c r="BA81" s="77"/>
+      <c r="BE81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF81" s="76"/>
-      <c r="BG81" s="76"/>
-      <c r="BH81" s="76"/>
-      <c r="BI81" s="76"/>
-      <c r="BJ81" s="76"/>
-      <c r="BK81" s="76"/>
-      <c r="BL81" s="76"/>
-      <c r="BT81" s="76" t="s">
+      <c r="BF81" s="77"/>
+      <c r="BG81" s="77"/>
+      <c r="BH81" s="77"/>
+      <c r="BI81" s="77"/>
+      <c r="BJ81" s="77"/>
+      <c r="BK81" s="77"/>
+      <c r="BL81" s="77"/>
+      <c r="BT81" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU81" s="76"/>
-      <c r="BV81" s="76"/>
-      <c r="BW81" s="76"/>
-      <c r="BX81" s="76"/>
-      <c r="BY81" s="76"/>
+      <c r="BU81" s="77"/>
+      <c r="BV81" s="77"/>
+      <c r="BW81" s="77"/>
+      <c r="BX81" s="77"/>
+      <c r="BY81" s="77"/>
     </row>
     <row r="82" spans="1:93" ht="114" x14ac:dyDescent="0.2">
       <c r="AI82" s="2" t="s">
@@ -39768,7 +39925,7 @@
       </c>
     </row>
     <row r="83" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -39931,7 +40088,7 @@
       </c>
     </row>
     <row r="84" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
@@ -40091,7 +40248,7 @@
       </c>
     </row>
     <row r="85" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="1" t="s">
         <v>27</v>
       </c>
@@ -40251,7 +40408,7 @@
       </c>
     </row>
     <row r="86" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A86" s="78"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
@@ -40411,7 +40568,7 @@
       </c>
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A87" s="78"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="1" t="s">
         <v>29</v>
       </c>
@@ -40571,7 +40728,7 @@
       </c>
     </row>
     <row r="88" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A88" s="78"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="1" t="s">
         <v>19</v>
       </c>
@@ -40731,7 +40888,7 @@
       </c>
     </row>
     <row r="89" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A89" s="78"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
@@ -40891,7 +41048,7 @@
       </c>
     </row>
     <row r="90" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="A90" s="78"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
@@ -41051,53 +41208,53 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19" x14ac:dyDescent="0.2">
-      <c r="L91" s="77" t="s">
+      <c r="L91" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
+      <c r="M91" s="85"/>
+      <c r="N91" s="85"/>
+      <c r="O91" s="85"/>
+      <c r="P91" s="85"/>
+      <c r="Q91" s="85"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AI91" s="76" t="s">
+      <c r="AI91" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="AJ91" s="76"/>
-      <c r="AK91" s="76"/>
-      <c r="AL91" s="76"/>
-      <c r="AM91" s="76"/>
-      <c r="AN91" s="76"/>
-      <c r="AO91" s="76"/>
-      <c r="AP91" s="76"/>
+      <c r="AJ91" s="77"/>
+      <c r="AK91" s="77"/>
+      <c r="AL91" s="77"/>
+      <c r="AM91" s="77"/>
+      <c r="AN91" s="77"/>
+      <c r="AO91" s="77"/>
+      <c r="AP91" s="77"/>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="8"/>
       <c r="AS91" s="8"/>
-      <c r="AT91" s="76" t="s">
+      <c r="AT91" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="AU91" s="76"/>
-      <c r="AV91" s="76"/>
-      <c r="AW91" s="76"/>
-      <c r="AX91" s="76"/>
-      <c r="AY91" s="76"/>
-      <c r="AZ91" s="76"/>
-      <c r="BA91" s="76"/>
+      <c r="AU91" s="77"/>
+      <c r="AV91" s="77"/>
+      <c r="AW91" s="77"/>
+      <c r="AX91" s="77"/>
+      <c r="AY91" s="77"/>
+      <c r="AZ91" s="77"/>
+      <c r="BA91" s="77"/>
       <c r="BB91" s="8"/>
       <c r="BC91" s="8"/>
       <c r="BD91" s="8"/>
-      <c r="BE91" s="76" t="s">
+      <c r="BE91" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="BF91" s="76"/>
-      <c r="BG91" s="76"/>
-      <c r="BH91" s="76"/>
-      <c r="BI91" s="76"/>
-      <c r="BJ91" s="76"/>
-      <c r="BK91" s="76"/>
-      <c r="BL91" s="76"/>
+      <c r="BF91" s="77"/>
+      <c r="BG91" s="77"/>
+      <c r="BH91" s="77"/>
+      <c r="BI91" s="77"/>
+      <c r="BJ91" s="77"/>
+      <c r="BK91" s="77"/>
+      <c r="BL91" s="77"/>
       <c r="BM91" s="8"/>
       <c r="BN91" s="8"/>
       <c r="BO91" s="30" t="s">
@@ -41109,14 +41266,14 @@
       <c r="BQ91" s="8"/>
       <c r="BR91" s="8"/>
       <c r="BS91" s="8"/>
-      <c r="BT91" s="79" t="s">
+      <c r="BT91" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="BU91" s="79"/>
-      <c r="BV91" s="79"/>
-      <c r="BW91" s="79"/>
-      <c r="BX91" s="79"/>
-      <c r="BY91" s="79"/>
+      <c r="BU91" s="80"/>
+      <c r="BV91" s="80"/>
+      <c r="BW91" s="80"/>
+      <c r="BX91" s="80"/>
+      <c r="BY91" s="80"/>
       <c r="BZ91" s="8"/>
       <c r="CB91" s="8"/>
       <c r="CC91" s="8"/>
@@ -41126,7 +41283,7 @@
       <c r="CO91" s="8"/>
     </row>
     <row r="92" spans="1:93" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J92" s="78" t="s">
+      <c r="J92" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -41153,7 +41310,7 @@
       </c>
     </row>
     <row r="93" spans="1:93" ht="17" x14ac:dyDescent="0.2">
-      <c r="J93" s="78"/>
+      <c r="J93" s="79"/>
       <c r="K93" s="37" t="s">
         <v>81</v>
       </c>
@@ -41177,7 +41334,7 @@
       </c>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.2">
-      <c r="J94" s="78"/>
+      <c r="J94" s="79"/>
       <c r="K94" s="1" t="s">
         <v>33</v>
       </c>
@@ -41211,14 +41368,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20" x14ac:dyDescent="0.25">
-      <c r="L95" s="77" t="s">
+      <c r="L95" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="85"/>
+      <c r="O95" s="85"/>
+      <c r="P95" s="85"/>
+      <c r="Q95" s="85"/>
     </row>
     <row r="98" spans="1:40" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="27" t="s">
@@ -41234,17 +41391,17 @@
       <c r="I98" s="27"/>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="41"/>
@@ -41258,7 +41415,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -41283,7 +41440,7 @@
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A103" s="78"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
@@ -41305,7 +41462,7 @@
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A104" s="78"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="1" t="s">
         <v>27</v>
       </c>
@@ -41326,7 +41483,7 @@
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A105" s="78"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="1" t="s">
         <v>26</v>
       </c>
@@ -41356,7 +41513,7 @@
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A106" s="78"/>
+      <c r="A106" s="79"/>
       <c r="B106" s="1" t="s">
         <v>29</v>
       </c>
@@ -41378,7 +41535,7 @@
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A107" s="78"/>
+      <c r="A107" s="79"/>
       <c r="B107" s="1" t="s">
         <v>19</v>
       </c>
@@ -41400,7 +41557,7 @@
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A108" s="78"/>
+      <c r="A108" s="79"/>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
@@ -41421,7 +41578,7 @@
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A109" s="78"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="1" t="s">
         <v>18</v>
       </c>
@@ -41458,17 +41615,17 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
       <c r="AL112" s="18"/>
       <c r="AM112" s="18"/>
       <c r="AN112" s="18"/>
@@ -41515,7 +41672,7 @@
       <c r="AN113" s="18"/>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A114" s="78" t="s">
+      <c r="A114" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -41570,7 +41727,7 @@
       <c r="AQ114" s="18"/>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A115" s="78"/>
+      <c r="A115" s="79"/>
       <c r="B115" s="1" t="s">
         <v>24</v>
       </c>
@@ -41621,7 +41778,7 @@
       <c r="AQ115" s="18"/>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A116" s="78"/>
+      <c r="A116" s="79"/>
       <c r="B116" s="1" t="s">
         <v>25</v>
       </c>
@@ -41681,7 +41838,7 @@
       <c r="AQ116" s="18"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A117" s="78"/>
+      <c r="A117" s="79"/>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
@@ -41732,7 +41889,7 @@
       <c r="AQ117" s="18"/>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A118" s="78"/>
+      <c r="A118" s="79"/>
       <c r="B118" s="1" t="s">
         <v>15</v>
       </c>
@@ -41783,7 +41940,7 @@
       <c r="AQ118" s="18"/>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A119" s="78"/>
+      <c r="A119" s="79"/>
       <c r="B119" s="1" t="s">
         <v>16</v>
       </c>
@@ -41834,21 +41991,21 @@
       <c r="AQ119" s="18"/>
     </row>
     <row r="120" spans="1:43" ht="19" x14ac:dyDescent="0.2">
-      <c r="C120" s="76" t="s">
+      <c r="C120" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="G120" s="77" t="s">
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="G120" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="K120" s="77" t="s">
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="K120" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="85"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -41872,7 +42029,7 @@
       </c>
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A125" s="78" t="s">
+      <c r="A125" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -41892,7 +42049,7 @@
       </c>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A126" s="78"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="1" t="s">
         <v>24</v>
       </c>
@@ -41909,7 +42066,7 @@
       </c>
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A127" s="78"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="1" t="s">
         <v>25</v>
       </c>
@@ -41926,7 +42083,7 @@
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A128" s="78"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
@@ -41943,7 +42100,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="78"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
@@ -41960,7 +42117,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="78"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="1" t="s">
         <v>16</v>
       </c>
@@ -41993,14 +42150,14 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C135" s="76" t="s">
+      <c r="C135" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="76"/>
-      <c r="E135" s="76"/>
-      <c r="F135" s="76"/>
-      <c r="G135" s="76"/>
-      <c r="H135" s="76"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
     </row>
     <row r="136" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
@@ -42023,7 +42180,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="78" t="s">
+      <c r="A137" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -42063,7 +42220,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="78"/>
+      <c r="A138" s="79"/>
       <c r="B138" s="1" t="s">
         <v>24</v>
       </c>
@@ -42101,7 +42258,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="78"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="1" t="s">
         <v>25</v>
       </c>
@@ -42139,7 +42296,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="78"/>
+      <c r="A140" s="79"/>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
@@ -42177,7 +42334,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="78"/>
+      <c r="A141" s="79"/>
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
@@ -42215,7 +42372,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="78"/>
+      <c r="A142" s="79"/>
       <c r="B142" s="1" t="s">
         <v>16</v>
       </c>
@@ -42253,14 +42410,14 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C143" s="76" t="s">
+      <c r="C143" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="76"/>
-      <c r="H143" s="76"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
       <c r="J143" s="33" t="s">
         <v>79</v>
       </c>
@@ -42272,6 +42429,65 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -42284,65 +42500,6 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="17" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -42386,113 +42543,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="CQ1" s="85" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="CQ1" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="85"/>
-      <c r="CS1" s="85"/>
-      <c r="CT1" s="85"/>
-      <c r="CU1" s="85"/>
-      <c r="CV1" s="85"/>
-      <c r="CW1" s="85"/>
-      <c r="CX1" s="85"/>
-      <c r="CY1" s="85"/>
-      <c r="CZ1" s="85"/>
-      <c r="DA1" s="85"/>
-      <c r="DB1" s="85"/>
-      <c r="DC1" s="85"/>
-      <c r="DD1" s="85"/>
-      <c r="DE1" s="85"/>
-      <c r="DF1" s="85"/>
-      <c r="DG1" s="85"/>
-      <c r="DH1" s="85"/>
-      <c r="DI1" s="85"/>
-      <c r="DJ1" s="85"/>
-      <c r="DK1" s="85"/>
-      <c r="DL1" s="85"/>
-      <c r="DM1" s="85"/>
-      <c r="DN1" s="85"/>
-      <c r="DO1" s="85"/>
-      <c r="DP1" s="85"/>
-      <c r="DQ1" s="85"/>
-      <c r="DR1" s="85"/>
-      <c r="DS1" s="85"/>
-      <c r="DT1" s="85"/>
-      <c r="DU1" s="85"/>
-      <c r="DV1" s="85"/>
-      <c r="DW1" s="85"/>
-      <c r="EY1" s="85" t="s">
+      <c r="CR1" s="86"/>
+      <c r="CS1" s="86"/>
+      <c r="CT1" s="86"/>
+      <c r="CU1" s="86"/>
+      <c r="CV1" s="86"/>
+      <c r="CW1" s="86"/>
+      <c r="CX1" s="86"/>
+      <c r="CY1" s="86"/>
+      <c r="CZ1" s="86"/>
+      <c r="DA1" s="86"/>
+      <c r="DB1" s="86"/>
+      <c r="DC1" s="86"/>
+      <c r="DD1" s="86"/>
+      <c r="DE1" s="86"/>
+      <c r="DF1" s="86"/>
+      <c r="DG1" s="86"/>
+      <c r="DH1" s="86"/>
+      <c r="DI1" s="86"/>
+      <c r="DJ1" s="86"/>
+      <c r="DK1" s="86"/>
+      <c r="DL1" s="86"/>
+      <c r="DM1" s="86"/>
+      <c r="DN1" s="86"/>
+      <c r="DO1" s="86"/>
+      <c r="DP1" s="86"/>
+      <c r="DQ1" s="86"/>
+      <c r="DR1" s="86"/>
+      <c r="DS1" s="86"/>
+      <c r="DT1" s="86"/>
+      <c r="DU1" s="86"/>
+      <c r="DV1" s="86"/>
+      <c r="DW1" s="86"/>
+      <c r="EY1" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="EZ1" s="85"/>
-      <c r="FA1" s="85"/>
-      <c r="FB1" s="85"/>
-      <c r="FC1" s="85"/>
-      <c r="FD1" s="85"/>
-      <c r="FE1" s="85"/>
-      <c r="FF1" s="85"/>
-      <c r="FG1" s="85"/>
-      <c r="FH1" s="85"/>
-      <c r="FI1" s="85"/>
-      <c r="FJ1" s="85"/>
-      <c r="FK1" s="85"/>
-      <c r="FL1" s="85"/>
-      <c r="FM1" s="85"/>
-      <c r="FN1" s="85"/>
-      <c r="FO1" s="85"/>
-      <c r="FP1" s="85"/>
-      <c r="FQ1" s="85"/>
-      <c r="FR1" s="85"/>
-      <c r="FS1" s="85"/>
-      <c r="FT1" s="85"/>
-      <c r="FU1" s="85"/>
-      <c r="FV1" s="85"/>
-      <c r="FW1" s="85"/>
-      <c r="FX1" s="85"/>
-      <c r="FY1" s="85"/>
-      <c r="FZ1" s="85"/>
-      <c r="GA1" s="85"/>
-      <c r="GB1" s="85"/>
-      <c r="GC1" s="85"/>
-      <c r="GD1" s="85"/>
-      <c r="GE1" s="85"/>
+      <c r="EZ1" s="86"/>
+      <c r="FA1" s="86"/>
+      <c r="FB1" s="86"/>
+      <c r="FC1" s="86"/>
+      <c r="FD1" s="86"/>
+      <c r="FE1" s="86"/>
+      <c r="FF1" s="86"/>
+      <c r="FG1" s="86"/>
+      <c r="FH1" s="86"/>
+      <c r="FI1" s="86"/>
+      <c r="FJ1" s="86"/>
+      <c r="FK1" s="86"/>
+      <c r="FL1" s="86"/>
+      <c r="FM1" s="86"/>
+      <c r="FN1" s="86"/>
+      <c r="FO1" s="86"/>
+      <c r="FP1" s="86"/>
+      <c r="FQ1" s="86"/>
+      <c r="FR1" s="86"/>
+      <c r="FS1" s="86"/>
+      <c r="FT1" s="86"/>
+      <c r="FU1" s="86"/>
+      <c r="FV1" s="86"/>
+      <c r="FW1" s="86"/>
+      <c r="FX1" s="86"/>
+      <c r="FY1" s="86"/>
+      <c r="FZ1" s="86"/>
+      <c r="GA1" s="86"/>
+      <c r="GB1" s="86"/>
+      <c r="GC1" s="86"/>
+      <c r="GD1" s="86"/>
+      <c r="GE1" s="86"/>
     </row>
     <row r="3" spans="1:187" x14ac:dyDescent="0.2">
       <c r="EJ3" s="47">
@@ -42925,11 +43082,11 @@
     </row>
     <row r="29" spans="1:177" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="N29" s="50"/>
@@ -42968,7 +43125,7 @@
       <c r="W30" s="31"/>
     </row>
     <row r="31" spans="1:177" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -42997,7 +43154,7 @@
       <c r="W31" s="31"/>
     </row>
     <row r="32" spans="1:177" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -43024,7 +43181,7 @@
       <c r="W32" s="31"/>
     </row>
     <row r="33" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
@@ -43051,7 +43208,7 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -43078,7 +43235,7 @@
       <c r="W34" s="31"/>
     </row>
     <row r="35" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
@@ -43132,7 +43289,7 @@
       <c r="CN35" s="31"/>
     </row>
     <row r="36" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
@@ -43186,7 +43343,7 @@
       <c r="CN36" s="31"/>
     </row>
     <row r="37" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
@@ -43230,7 +43387,7 @@
       <c r="CN37" s="31"/>
     </row>
     <row r="38" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
@@ -43274,11 +43431,11 @@
       <c r="CN38" s="31"/>
     </row>
     <row r="39" spans="1:179" ht="18" x14ac:dyDescent="0.25">
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="BM39" s="31"/>
@@ -43372,134 +43529,134 @@
       <c r="EW41" s="57"/>
     </row>
     <row r="43" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-      <c r="L43" s="76" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="L43" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="W43" s="76" t="s">
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="W43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="X43" s="76"/>
+      <c r="X43" s="77"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
-      <c r="AI43" s="76" t="s">
+      <c r="AI43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AJ43" s="76"/>
-      <c r="AK43" s="76"/>
-      <c r="AL43" s="76"/>
-      <c r="AM43" s="76"/>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="76"/>
-      <c r="AP43" s="76"/>
-      <c r="AT43" s="76" t="s">
+      <c r="AJ43" s="77"/>
+      <c r="AK43" s="77"/>
+      <c r="AL43" s="77"/>
+      <c r="AM43" s="77"/>
+      <c r="AN43" s="77"/>
+      <c r="AO43" s="77"/>
+      <c r="AP43" s="77"/>
+      <c r="AT43" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AU43" s="76"/>
-      <c r="AV43" s="76"/>
-      <c r="AW43" s="76"/>
-      <c r="AX43" s="76"/>
-      <c r="AY43" s="76"/>
-      <c r="BE43" s="76" t="s">
+      <c r="AU43" s="77"/>
+      <c r="AV43" s="77"/>
+      <c r="AW43" s="77"/>
+      <c r="AX43" s="77"/>
+      <c r="AY43" s="77"/>
+      <c r="BE43" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BF43" s="76"/>
-      <c r="BG43" s="76"/>
-      <c r="BH43" s="76"/>
-      <c r="BI43" s="76"/>
-      <c r="BJ43" s="76"/>
-      <c r="BT43" s="76" t="s">
+      <c r="BF43" s="77"/>
+      <c r="BG43" s="77"/>
+      <c r="BH43" s="77"/>
+      <c r="BI43" s="77"/>
+      <c r="BJ43" s="77"/>
+      <c r="BT43" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU43" s="76"/>
-      <c r="BV43" s="76"/>
-      <c r="BW43" s="76"/>
-      <c r="BX43" s="76"/>
-      <c r="BY43" s="76"/>
-      <c r="CA43" s="76" t="s">
+      <c r="BU43" s="77"/>
+      <c r="BV43" s="77"/>
+      <c r="BW43" s="77"/>
+      <c r="BX43" s="77"/>
+      <c r="BY43" s="77"/>
+      <c r="CA43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="CB43" s="76"/>
-      <c r="CC43" s="76"/>
-      <c r="CD43" s="76"/>
-      <c r="CE43" s="76"/>
-      <c r="CF43" s="76"/>
-      <c r="CG43" s="76"/>
-      <c r="CH43" s="76"/>
-      <c r="CJ43" s="76" t="s">
+      <c r="CB43" s="77"/>
+      <c r="CC43" s="77"/>
+      <c r="CD43" s="77"/>
+      <c r="CE43" s="77"/>
+      <c r="CF43" s="77"/>
+      <c r="CG43" s="77"/>
+      <c r="CH43" s="77"/>
+      <c r="CJ43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="CK43" s="76"/>
+      <c r="CK43" s="77"/>
       <c r="CL43" s="29"/>
       <c r="CM43" s="29"/>
       <c r="CN43" s="29"/>
       <c r="CO43" s="57"/>
-      <c r="CU43" s="76" t="s">
+      <c r="CU43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="CV43" s="76"/>
-      <c r="DM43" s="76" t="s">
+      <c r="CV43" s="77"/>
+      <c r="DM43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="DN43" s="76"/>
-      <c r="DO43" s="76"/>
-      <c r="DP43" s="76"/>
-      <c r="DQ43" s="76"/>
-      <c r="DR43" s="76"/>
-      <c r="DS43" s="76"/>
-      <c r="DT43" s="76"/>
-      <c r="DV43" s="76" t="s">
+      <c r="DN43" s="77"/>
+      <c r="DO43" s="77"/>
+      <c r="DP43" s="77"/>
+      <c r="DQ43" s="77"/>
+      <c r="DR43" s="77"/>
+      <c r="DS43" s="77"/>
+      <c r="DT43" s="77"/>
+      <c r="DV43" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="DW43" s="76"/>
-      <c r="DX43" s="76"/>
-      <c r="DY43" s="76"/>
-      <c r="DZ43" s="76"/>
-      <c r="EA43" s="76"/>
-      <c r="EC43" s="76" t="s">
+      <c r="DW43" s="77"/>
+      <c r="DX43" s="77"/>
+      <c r="DY43" s="77"/>
+      <c r="DZ43" s="77"/>
+      <c r="EA43" s="77"/>
+      <c r="EC43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="ED43" s="76"/>
+      <c r="ED43" s="77"/>
       <c r="EW43" s="57"/>
-      <c r="FD43" s="76" t="s">
+      <c r="FD43" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="FE43" s="76"/>
-      <c r="FF43" s="76"/>
-      <c r="FG43" s="76"/>
-      <c r="FH43" s="76"/>
-      <c r="FI43" s="76"/>
-      <c r="FJ43" s="76"/>
-      <c r="FK43" s="76"/>
-      <c r="FM43" s="76" t="s">
+      <c r="FE43" s="77"/>
+      <c r="FF43" s="77"/>
+      <c r="FG43" s="77"/>
+      <c r="FH43" s="77"/>
+      <c r="FI43" s="77"/>
+      <c r="FJ43" s="77"/>
+      <c r="FK43" s="77"/>
+      <c r="FM43" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="FN43" s="76"/>
-      <c r="FO43" s="76"/>
-      <c r="FP43" s="76"/>
-      <c r="FQ43" s="76"/>
-      <c r="FR43" s="76"/>
-      <c r="FT43" s="76" t="s">
+      <c r="FN43" s="77"/>
+      <c r="FO43" s="77"/>
+      <c r="FP43" s="77"/>
+      <c r="FQ43" s="77"/>
+      <c r="FR43" s="77"/>
+      <c r="FT43" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="FU43" s="76"/>
+      <c r="FU43" s="77"/>
     </row>
     <row r="44" spans="1:179" ht="114" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
@@ -43769,7 +43926,7 @@
       </c>
     </row>
     <row r="45" spans="1:179" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -43793,7 +43950,7 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="78" t="s">
+      <c r="U45" s="79" t="s">
         <v>4</v>
       </c>
       <c r="V45" s="1" t="s">
@@ -43969,7 +44126,7 @@
       <c r="CL45" s="31"/>
       <c r="CM45" s="31"/>
       <c r="CN45" s="31"/>
-      <c r="CS45" s="78" t="s">
+      <c r="CS45" s="79" t="s">
         <v>4</v>
       </c>
       <c r="CT45" s="1" t="s">
@@ -43985,7 +44142,7 @@
         <f>SUM(CU45:CV45)</f>
         <v>97</v>
       </c>
-      <c r="DK45" s="78" t="s">
+      <c r="DK45" s="79" t="s">
         <v>4</v>
       </c>
       <c r="DL45" s="1" t="s">
@@ -44027,7 +44184,7 @@
         <f>SUM(EC45:ED45)</f>
         <v>97</v>
       </c>
-      <c r="FB45" s="78" t="s">
+      <c r="FB45" s="79" t="s">
         <v>4</v>
       </c>
       <c r="FC45" s="1" t="s">
@@ -44071,7 +44228,7 @@
       </c>
     </row>
     <row r="46" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
@@ -44093,7 +44250,7 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="78"/>
+      <c r="U46" s="79"/>
       <c r="V46" s="1" t="s">
         <v>1</v>
       </c>
@@ -44266,7 +44423,7 @@
       <c r="CL46" s="31"/>
       <c r="CM46" s="31"/>
       <c r="CN46" s="31"/>
-      <c r="CS46" s="78"/>
+      <c r="CS46" s="79"/>
       <c r="CT46" s="1" t="s">
         <v>1</v>
       </c>
@@ -44280,7 +44437,7 @@
         <f t="shared" ref="CX46:CX52" si="5">SUM(CU46:CV46)</f>
         <v>87</v>
       </c>
-      <c r="DK46" s="78"/>
+      <c r="DK46" s="79"/>
       <c r="DL46" s="1" t="s">
         <v>1</v>
       </c>
@@ -44320,7 +44477,7 @@
         <f t="shared" ref="EF46:EF52" si="8">SUM(EC46:ED46)</f>
         <v>87</v>
       </c>
-      <c r="FB46" s="78"/>
+      <c r="FB46" s="79"/>
       <c r="FC46" s="1" t="s">
         <v>1</v>
       </c>
@@ -44362,7 +44519,7 @@
       </c>
     </row>
     <row r="47" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -44385,7 +44542,7 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="78"/>
+      <c r="U47" s="79"/>
       <c r="V47" s="1" t="s">
         <v>27</v>
       </c>
@@ -44557,7 +44714,7 @@
       <c r="CL47" s="31"/>
       <c r="CM47" s="31"/>
       <c r="CN47" s="31"/>
-      <c r="CS47" s="78"/>
+      <c r="CS47" s="79"/>
       <c r="CT47" s="1" t="s">
         <v>27</v>
       </c>
@@ -44571,7 +44728,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK47" s="78"/>
+      <c r="DK47" s="79"/>
       <c r="DL47" s="1" t="s">
         <v>27</v>
       </c>
@@ -44611,7 +44768,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="FB47" s="78"/>
+      <c r="FB47" s="79"/>
       <c r="FC47" s="1" t="s">
         <v>27</v>
       </c>
@@ -44653,7 +44810,7 @@
       </c>
     </row>
     <row r="48" spans="1:179" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
@@ -44676,7 +44833,7 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="78"/>
+      <c r="U48" s="79"/>
       <c r="V48" s="1" t="s">
         <v>26</v>
       </c>
@@ -44848,7 +45005,7 @@
       <c r="CL48" s="31"/>
       <c r="CM48" s="31"/>
       <c r="CN48" s="31"/>
-      <c r="CS48" s="78"/>
+      <c r="CS48" s="79"/>
       <c r="CT48" s="1" t="s">
         <v>26</v>
       </c>
@@ -44862,7 +45019,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK48" s="78"/>
+      <c r="DK48" s="79"/>
       <c r="DL48" s="1" t="s">
         <v>26</v>
       </c>
@@ -44902,7 +45059,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="FB48" s="78"/>
+      <c r="FB48" s="79"/>
       <c r="FC48" s="1" t="s">
         <v>26</v>
       </c>
@@ -44944,7 +45101,7 @@
       </c>
     </row>
     <row r="49" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="1" t="s">
         <v>29</v>
       </c>
@@ -44967,7 +45124,7 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="78"/>
+      <c r="U49" s="79"/>
       <c r="V49" s="1" t="s">
         <v>29</v>
       </c>
@@ -45139,7 +45296,7 @@
       <c r="CL49" s="31"/>
       <c r="CM49" s="31"/>
       <c r="CN49" s="31"/>
-      <c r="CS49" s="78"/>
+      <c r="CS49" s="79"/>
       <c r="CT49" s="1" t="s">
         <v>29</v>
       </c>
@@ -45153,7 +45310,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK49" s="78"/>
+      <c r="DK49" s="79"/>
       <c r="DL49" s="1" t="s">
         <v>29</v>
       </c>
@@ -45193,7 +45350,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="FB49" s="78"/>
+      <c r="FB49" s="79"/>
       <c r="FC49" s="1" t="s">
         <v>29</v>
       </c>
@@ -45235,7 +45392,7 @@
       </c>
     </row>
     <row r="50" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
@@ -45258,7 +45415,7 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-      <c r="U50" s="78"/>
+      <c r="U50" s="79"/>
       <c r="V50" s="1" t="s">
         <v>19</v>
       </c>
@@ -45431,7 +45588,7 @@
       <c r="CM50" s="31"/>
       <c r="CN50" s="31"/>
       <c r="CO50" s="56"/>
-      <c r="CS50" s="78"/>
+      <c r="CS50" s="79"/>
       <c r="CT50" s="1" t="s">
         <v>19</v>
       </c>
@@ -45445,7 +45602,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK50" s="78"/>
+      <c r="DK50" s="79"/>
       <c r="DL50" s="1" t="s">
         <v>19</v>
       </c>
@@ -45486,7 +45643,7 @@
         <v>0</v>
       </c>
       <c r="EW50" s="56"/>
-      <c r="FB50" s="78"/>
+      <c r="FB50" s="79"/>
       <c r="FC50" s="1" t="s">
         <v>19</v>
       </c>
@@ -45528,7 +45685,7 @@
       </c>
     </row>
     <row r="51" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
+      <c r="A51" s="79"/>
       <c r="B51" s="1" t="s">
         <v>17</v>
       </c>
@@ -45551,7 +45708,7 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-      <c r="U51" s="78"/>
+      <c r="U51" s="79"/>
       <c r="V51" s="1" t="s">
         <v>17</v>
       </c>
@@ -45724,7 +45881,7 @@
       <c r="CM51" s="31"/>
       <c r="CN51" s="31"/>
       <c r="CO51" s="56"/>
-      <c r="CS51" s="78"/>
+      <c r="CS51" s="79"/>
       <c r="CT51" s="1" t="s">
         <v>17</v>
       </c>
@@ -45738,7 +45895,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK51" s="78"/>
+      <c r="DK51" s="79"/>
       <c r="DL51" s="1" t="s">
         <v>17</v>
       </c>
@@ -45779,7 +45936,7 @@
         <v>0</v>
       </c>
       <c r="EW51" s="56"/>
-      <c r="FB51" s="78"/>
+      <c r="FB51" s="79"/>
       <c r="FC51" s="1" t="s">
         <v>17</v>
       </c>
@@ -45821,7 +45978,7 @@
       </c>
     </row>
     <row r="52" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="1" t="s">
         <v>18</v>
       </c>
@@ -45844,7 +46001,7 @@
         <f>I7</f>
         <v>5.9</v>
       </c>
-      <c r="U52" s="78"/>
+      <c r="U52" s="79"/>
       <c r="V52" s="1" t="s">
         <v>18</v>
       </c>
@@ -46017,7 +46174,7 @@
       <c r="CM52" s="31"/>
       <c r="CN52" s="31"/>
       <c r="CO52" s="56"/>
-      <c r="CS52" s="78"/>
+      <c r="CS52" s="79"/>
       <c r="CT52" s="1" t="s">
         <v>18</v>
       </c>
@@ -46031,7 +46188,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="DK52" s="78"/>
+      <c r="DK52" s="79"/>
       <c r="DL52" s="1" t="s">
         <v>18</v>
       </c>
@@ -46072,7 +46229,7 @@
         <v>0</v>
       </c>
       <c r="EW52" s="56"/>
-      <c r="FB52" s="78"/>
+      <c r="FB52" s="79"/>
       <c r="FC52" s="1" t="s">
         <v>18</v>
       </c>
@@ -46115,18 +46272,18 @@
     </row>
     <row r="53" spans="1:180" ht="19" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="L53" s="76" t="s">
+      <c r="L53" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="W53" s="76" t="s">
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="77"/>
+      <c r="W53" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="X53" s="76"/>
+      <c r="X53" s="77"/>
       <c r="Z53" s="46" t="s">
         <v>113</v>
       </c>
@@ -46139,53 +46296,53 @@
       <c r="AE53" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="AI53" s="76" t="s">
+      <c r="AI53" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="AJ53" s="76"/>
-      <c r="AK53" s="76"/>
-      <c r="AL53" s="76"/>
-      <c r="AM53" s="76"/>
-      <c r="AN53" s="76"/>
-      <c r="AO53" s="76"/>
-      <c r="AP53" s="76"/>
-      <c r="AT53" s="76" t="s">
+      <c r="AJ53" s="77"/>
+      <c r="AK53" s="77"/>
+      <c r="AL53" s="77"/>
+      <c r="AM53" s="77"/>
+      <c r="AN53" s="77"/>
+      <c r="AO53" s="77"/>
+      <c r="AP53" s="77"/>
+      <c r="AT53" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="AU53" s="76"/>
-      <c r="AV53" s="76"/>
-      <c r="AW53" s="76"/>
-      <c r="AX53" s="76"/>
-      <c r="AY53" s="76"/>
+      <c r="AU53" s="77"/>
+      <c r="AV53" s="77"/>
+      <c r="AW53" s="77"/>
+      <c r="AX53" s="77"/>
+      <c r="AY53" s="77"/>
       <c r="BB53" s="8"/>
       <c r="BC53" s="8"/>
       <c r="BD53" s="8"/>
-      <c r="BE53" s="76" t="s">
+      <c r="BE53" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="BF53" s="76"/>
-      <c r="BG53" s="76"/>
-      <c r="BH53" s="76"/>
-      <c r="BI53" s="76"/>
-      <c r="BJ53" s="76"/>
-      <c r="BT53" s="79" t="s">
+      <c r="BF53" s="77"/>
+      <c r="BG53" s="77"/>
+      <c r="BH53" s="77"/>
+      <c r="BI53" s="77"/>
+      <c r="BJ53" s="77"/>
+      <c r="BT53" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="BU53" s="79"/>
-      <c r="BV53" s="79"/>
-      <c r="BW53" s="79"/>
-      <c r="BX53" s="79"/>
-      <c r="BY53" s="79"/>
-      <c r="CA53" s="76" t="s">
+      <c r="BU53" s="80"/>
+      <c r="BV53" s="80"/>
+      <c r="BW53" s="80"/>
+      <c r="BX53" s="80"/>
+      <c r="BY53" s="80"/>
+      <c r="CA53" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="CB53" s="76"/>
-      <c r="CC53" s="76"/>
-      <c r="CD53" s="76"/>
-      <c r="CE53" s="76"/>
-      <c r="CF53" s="76"/>
-      <c r="CG53" s="76"/>
-      <c r="CH53" s="76"/>
+      <c r="CB53" s="77"/>
+      <c r="CC53" s="77"/>
+      <c r="CD53" s="77"/>
+      <c r="CE53" s="77"/>
+      <c r="CF53" s="77"/>
+      <c r="CG53" s="77"/>
+      <c r="CH53" s="77"/>
       <c r="CJ53" s="8" t="s">
         <v>154</v>
       </c>
@@ -46194,26 +46351,26 @@
       <c r="CM53" s="8"/>
       <c r="CN53" s="8"/>
       <c r="CO53" s="57"/>
-      <c r="CU53" s="76" t="s">
+      <c r="CU53" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="CV53" s="76"/>
+      <c r="CV53" s="77"/>
       <c r="CX53" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="DV53" s="76" t="s">
+      <c r="DV53" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="DW53" s="76"/>
-      <c r="DX53" s="76"/>
-      <c r="DY53" s="76"/>
-      <c r="DZ53" s="76"/>
-      <c r="EA53" s="76"/>
+      <c r="DW53" s="77"/>
+      <c r="DX53" s="77"/>
+      <c r="DY53" s="77"/>
+      <c r="DZ53" s="77"/>
+      <c r="EA53" s="77"/>
       <c r="EB53" s="8"/>
-      <c r="EC53" s="76" t="s">
+      <c r="EC53" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="ED53" s="76"/>
+      <c r="ED53" s="77"/>
       <c r="EF53" s="46" t="s">
         <v>156</v>
       </c>
@@ -46234,19 +46391,19 @@
       <c r="EU53" s="8"/>
       <c r="EV53" s="8"/>
       <c r="EW53" s="57"/>
-      <c r="FM53" s="76" t="s">
+      <c r="FM53" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="FN53" s="76"/>
-      <c r="FO53" s="76"/>
-      <c r="FP53" s="76"/>
-      <c r="FQ53" s="76"/>
-      <c r="FR53" s="76"/>
+      <c r="FN53" s="77"/>
+      <c r="FO53" s="77"/>
+      <c r="FP53" s="77"/>
+      <c r="FQ53" s="77"/>
+      <c r="FR53" s="77"/>
       <c r="FS53" s="8"/>
-      <c r="FT53" s="76" t="s">
+      <c r="FT53" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="FU53" s="76"/>
+      <c r="FU53" s="77"/>
       <c r="FW53" s="46" t="s">
         <v>98</v>
       </c>
@@ -46254,7 +46411,7 @@
     </row>
     <row r="54" spans="1:180" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="J54" s="78" t="s">
+      <c r="J54" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -46311,7 +46468,7 @@
     </row>
     <row r="55" spans="1:180" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="J55" s="78"/>
+      <c r="J55" s="79"/>
       <c r="K55" s="37" t="s">
         <v>81</v>
       </c>
@@ -46341,7 +46498,7 @@
     </row>
     <row r="56" spans="1:180" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="J56" s="78"/>
+      <c r="J56" s="79"/>
       <c r="K56" s="1" t="s">
         <v>33</v>
       </c>
@@ -46411,58 +46568,58 @@
       </c>
     </row>
     <row r="59" spans="1:180" x14ac:dyDescent="0.2">
-      <c r="L59" s="76" t="s">
+      <c r="L59" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
     </row>
     <row r="63" spans="1:180" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
-      <c r="Z63" s="83" t="s">
+      <c r="Z63" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA63" s="83"/>
-      <c r="AB63" s="83"/>
-      <c r="AI63" s="76" t="s">
+      <c r="AA63" s="78"/>
+      <c r="AB63" s="78"/>
+      <c r="AI63" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AJ63" s="76"/>
-      <c r="AK63" s="76"/>
-      <c r="AL63" s="76"/>
-      <c r="AM63" s="76"/>
-      <c r="AN63" s="76"/>
-      <c r="AT63" s="76" t="s">
+      <c r="AJ63" s="77"/>
+      <c r="AK63" s="77"/>
+      <c r="AL63" s="77"/>
+      <c r="AM63" s="77"/>
+      <c r="AN63" s="77"/>
+      <c r="AT63" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU63" s="76"/>
-      <c r="AV63" s="76"/>
-      <c r="AW63" s="76"/>
-      <c r="AX63" s="76"/>
-      <c r="AY63" s="76"/>
-      <c r="AZ63" s="76"/>
-      <c r="BA63" s="76"/>
-      <c r="BE63" s="76" t="s">
+      <c r="AU63" s="77"/>
+      <c r="AV63" s="77"/>
+      <c r="AW63" s="77"/>
+      <c r="AX63" s="77"/>
+      <c r="AY63" s="77"/>
+      <c r="AZ63" s="77"/>
+      <c r="BA63" s="77"/>
+      <c r="BE63" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF63" s="76"/>
-      <c r="BG63" s="76"/>
-      <c r="BH63" s="76"/>
-      <c r="BI63" s="76"/>
-      <c r="BJ63" s="76"/>
-      <c r="BK63" s="76"/>
-      <c r="BL63" s="76"/>
-      <c r="BT63" s="76" t="s">
+      <c r="BF63" s="77"/>
+      <c r="BG63" s="77"/>
+      <c r="BH63" s="77"/>
+      <c r="BI63" s="77"/>
+      <c r="BJ63" s="77"/>
+      <c r="BK63" s="77"/>
+      <c r="BL63" s="77"/>
+      <c r="BT63" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU63" s="76"/>
-      <c r="BV63" s="76"/>
-      <c r="BW63" s="76"/>
-      <c r="BX63" s="76"/>
-      <c r="BY63" s="76"/>
+      <c r="BU63" s="77"/>
+      <c r="BV63" s="77"/>
+      <c r="BW63" s="77"/>
+      <c r="BX63" s="77"/>
+      <c r="BY63" s="77"/>
     </row>
     <row r="64" spans="1:180" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
@@ -46563,7 +46720,7 @@
       </c>
     </row>
     <row r="65" spans="1:178" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -46757,7 +46914,7 @@
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DK65" s="78" t="s">
+      <c r="DK65" s="79" t="s">
         <v>3</v>
       </c>
       <c r="DL65" s="1" t="s">
@@ -46795,7 +46952,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB65" s="78" t="s">
+      <c r="FB65" s="79" t="s">
         <v>3</v>
       </c>
       <c r="FC65" s="1" t="s">
@@ -46835,7 +46992,7 @@
       </c>
     </row>
     <row r="66" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="1" t="s">
         <v>24</v>
       </c>
@@ -47025,7 +47182,7 @@
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DK66" s="78"/>
+      <c r="DK66" s="79"/>
       <c r="DL66" s="1" t="s">
         <v>24</v>
       </c>
@@ -47061,7 +47218,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB66" s="78"/>
+      <c r="FB66" s="79"/>
       <c r="FC66" s="1" t="s">
         <v>24</v>
       </c>
@@ -47099,7 +47256,7 @@
       </c>
     </row>
     <row r="67" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A67" s="78"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="1" t="s">
         <v>25</v>
       </c>
@@ -47289,7 +47446,7 @@
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DK67" s="78"/>
+      <c r="DK67" s="79"/>
       <c r="DL67" s="1" t="s">
         <v>25</v>
       </c>
@@ -47325,7 +47482,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB67" s="78"/>
+      <c r="FB67" s="79"/>
       <c r="FC67" s="1" t="s">
         <v>25</v>
       </c>
@@ -47363,7 +47520,7 @@
       </c>
     </row>
     <row r="68" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
+      <c r="A68" s="79"/>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
@@ -47554,7 +47711,7 @@
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DK68" s="78"/>
+      <c r="DK68" s="79"/>
       <c r="DL68" s="1" t="s">
         <v>0</v>
       </c>
@@ -47590,7 +47747,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB68" s="78"/>
+      <c r="FB68" s="79"/>
       <c r="FC68" s="1" t="s">
         <v>0</v>
       </c>
@@ -47628,7 +47785,7 @@
       </c>
     </row>
     <row r="69" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A69" s="78"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -47819,7 +47976,7 @@
         <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
-      <c r="DK69" s="78"/>
+      <c r="DK69" s="79"/>
       <c r="DL69" s="1" t="s">
         <v>15</v>
       </c>
@@ -47855,7 +48012,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB69" s="78"/>
+      <c r="FB69" s="79"/>
       <c r="FC69" s="1" t="s">
         <v>15</v>
       </c>
@@ -47893,7 +48050,7 @@
       </c>
     </row>
     <row r="70" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A70" s="78"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="1" t="s">
         <v>16</v>
       </c>
@@ -48083,7 +48240,7 @@
         <f t="shared" ca="1" si="17"/>
         <v>28.1</v>
       </c>
-      <c r="DK70" s="78"/>
+      <c r="DK70" s="79"/>
       <c r="DL70" s="1" t="s">
         <v>16</v>
       </c>
@@ -48119,7 +48276,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB70" s="78"/>
+      <c r="FB70" s="79"/>
       <c r="FC70" s="1" t="s">
         <v>16</v>
       </c>
@@ -48157,16 +48314,16 @@
       </c>
     </row>
     <row r="71" spans="1:178" ht="20" x14ac:dyDescent="0.25">
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
       <c r="X71" s="15"/>
       <c r="Y71" s="15"/>
       <c r="AA71" s="15"/>
@@ -48176,37 +48333,37 @@
       <c r="AD71" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="AI71" s="76" t="s">
+      <c r="AI71" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="AJ71" s="76"/>
-      <c r="AK71" s="76"/>
-      <c r="AL71" s="76"/>
-      <c r="AM71" s="76"/>
-      <c r="AN71" s="76"/>
-      <c r="AT71" s="82" t="s">
+      <c r="AJ71" s="77"/>
+      <c r="AK71" s="77"/>
+      <c r="AL71" s="77"/>
+      <c r="AM71" s="77"/>
+      <c r="AN71" s="77"/>
+      <c r="AT71" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="AU71" s="82"/>
-      <c r="AV71" s="82"/>
-      <c r="AW71" s="82"/>
-      <c r="AX71" s="82"/>
-      <c r="AY71" s="82"/>
-      <c r="AZ71" s="82"/>
-      <c r="BA71" s="82"/>
+      <c r="AU71" s="83"/>
+      <c r="AV71" s="83"/>
+      <c r="AW71" s="83"/>
+      <c r="AX71" s="83"/>
+      <c r="AY71" s="83"/>
+      <c r="AZ71" s="83"/>
+      <c r="BA71" s="83"/>
       <c r="BB71" s="25"/>
       <c r="BC71" s="25"/>
       <c r="BD71" s="25"/>
-      <c r="BE71" s="79" t="s">
+      <c r="BE71" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="BF71" s="79"/>
-      <c r="BG71" s="79"/>
-      <c r="BH71" s="79"/>
-      <c r="BI71" s="79"/>
-      <c r="BJ71" s="79"/>
-      <c r="BK71" s="79"/>
-      <c r="BL71" s="79"/>
+      <c r="BF71" s="80"/>
+      <c r="BG71" s="80"/>
+      <c r="BH71" s="80"/>
+      <c r="BI71" s="80"/>
+      <c r="BJ71" s="80"/>
+      <c r="BK71" s="80"/>
+      <c r="BL71" s="80"/>
       <c r="BM71" s="26"/>
       <c r="BN71" s="26"/>
       <c r="BO71" s="30" t="s">
@@ -48218,41 +48375,41 @@
       <c r="BQ71" s="26"/>
       <c r="BR71" s="26"/>
       <c r="BS71" s="26"/>
-      <c r="BT71" s="79" t="s">
+      <c r="BT71" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="BU71" s="79"/>
-      <c r="BV71" s="79"/>
-      <c r="BW71" s="79"/>
-      <c r="BX71" s="79"/>
-      <c r="BY71" s="79"/>
+      <c r="BU71" s="80"/>
+      <c r="BV71" s="80"/>
+      <c r="BW71" s="80"/>
+      <c r="BX71" s="80"/>
+      <c r="BY71" s="80"/>
       <c r="BZ71" s="26"/>
       <c r="CX71" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="DB71" s="76" t="s">
+      <c r="DB71" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="DC71" s="76"/>
-      <c r="DD71" s="76"/>
-      <c r="DE71" s="76"/>
-      <c r="DF71" s="76"/>
-      <c r="DG71" s="76"/>
+      <c r="DC71" s="77"/>
+      <c r="DD71" s="77"/>
+      <c r="DE71" s="77"/>
+      <c r="DF71" s="77"/>
+      <c r="DG71" s="77"/>
       <c r="DH71" s="8"/>
       <c r="DI71" s="8"/>
       <c r="DJ71" s="8"/>
       <c r="DK71" s="8"/>
       <c r="DL71" s="8"/>
-      <c r="DM71" s="76" t="s">
+      <c r="DM71" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="DN71" s="76"/>
-      <c r="DO71" s="76"/>
-      <c r="DP71" s="76"/>
-      <c r="DQ71" s="76"/>
-      <c r="DR71" s="76"/>
-      <c r="DS71" s="76"/>
-      <c r="DT71" s="76"/>
+      <c r="DN71" s="77"/>
+      <c r="DO71" s="77"/>
+      <c r="DP71" s="77"/>
+      <c r="DQ71" s="77"/>
+      <c r="DR71" s="77"/>
+      <c r="DS71" s="77"/>
+      <c r="DT71" s="77"/>
       <c r="DU71" s="8"/>
       <c r="DV71" s="8"/>
       <c r="DW71" s="8"/>
@@ -48266,16 +48423,16 @@
       <c r="EE71" s="8"/>
       <c r="FB71" s="8"/>
       <c r="FC71" s="8"/>
-      <c r="FD71" s="76" t="s">
+      <c r="FD71" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="FE71" s="76"/>
-      <c r="FF71" s="76"/>
-      <c r="FG71" s="76"/>
-      <c r="FH71" s="76"/>
-      <c r="FI71" s="76"/>
-      <c r="FJ71" s="76"/>
-      <c r="FK71" s="76"/>
+      <c r="FE71" s="77"/>
+      <c r="FF71" s="77"/>
+      <c r="FG71" s="77"/>
+      <c r="FH71" s="77"/>
+      <c r="FI71" s="77"/>
+      <c r="FJ71" s="77"/>
+      <c r="FK71" s="77"/>
       <c r="FL71" s="8"/>
       <c r="FM71" s="8"/>
       <c r="FN71" s="8"/>
@@ -48367,16 +48524,16 @@
       <c r="BZ72" s="26"/>
     </row>
     <row r="73" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
       <c r="Z73" s="15"/>
@@ -48438,44 +48595,44 @@
       <c r="W76" s="15"/>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
-      <c r="Z76" s="83" t="s">
+      <c r="Z76" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA76" s="83"/>
-      <c r="AB76" s="83"/>
-      <c r="AI76" s="84" t="s">
+      <c r="AA76" s="78"/>
+      <c r="AB76" s="78"/>
+      <c r="AI76" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AJ76" s="84"/>
+      <c r="AJ76" s="82"/>
       <c r="AK76" s="31"/>
-      <c r="AL76" s="84"/>
-      <c r="AM76" s="84"/>
+      <c r="AL76" s="82"/>
+      <c r="AM76" s="82"/>
       <c r="AN76" s="31"/>
       <c r="AO76" s="31"/>
       <c r="AP76" s="31"/>
       <c r="AQ76" s="31"/>
       <c r="AR76" s="31"/>
       <c r="AS76" s="31"/>
-      <c r="AT76" s="76" t="s">
+      <c r="AT76" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU76" s="76"/>
-      <c r="AV76" s="76"/>
-      <c r="AW76" s="76"/>
-      <c r="AX76" s="76"/>
-      <c r="AY76" s="76"/>
-      <c r="AZ76" s="76"/>
-      <c r="BA76" s="76"/>
-      <c r="BE76" s="76" t="s">
+      <c r="AU76" s="77"/>
+      <c r="AV76" s="77"/>
+      <c r="AW76" s="77"/>
+      <c r="AX76" s="77"/>
+      <c r="AY76" s="77"/>
+      <c r="AZ76" s="77"/>
+      <c r="BA76" s="77"/>
+      <c r="BE76" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF76" s="76"/>
-      <c r="BG76" s="76"/>
-      <c r="BH76" s="76"/>
-      <c r="BI76" s="76"/>
-      <c r="BJ76" s="76"/>
-      <c r="BK76" s="76"/>
-      <c r="BL76" s="76"/>
+      <c r="BF76" s="77"/>
+      <c r="BG76" s="77"/>
+      <c r="BH76" s="77"/>
+      <c r="BI76" s="77"/>
+      <c r="BJ76" s="77"/>
+      <c r="BK76" s="77"/>
+      <c r="BL76" s="77"/>
     </row>
     <row r="77" spans="1:178" ht="71" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
@@ -48575,7 +48732,7 @@
       </c>
     </row>
     <row r="78" spans="1:178" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -48716,7 +48873,7 @@
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="DK78" s="78" t="s">
+      <c r="DK78" s="79" t="s">
         <v>84</v>
       </c>
       <c r="DL78" s="1" t="s">
@@ -48754,7 +48911,7 @@
         <f ca="1"/>
         <v>5.9</v>
       </c>
-      <c r="FB78" s="78" t="s">
+      <c r="FB78" s="79" t="s">
         <v>84</v>
       </c>
       <c r="FC78" s="47" t="s">
@@ -48787,7 +48944,7 @@
       </c>
     </row>
     <row r="79" spans="1:178" x14ac:dyDescent="0.2">
-      <c r="A79" s="78"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
@@ -48924,7 +49081,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DK79" s="78"/>
+      <c r="DK79" s="79"/>
       <c r="DL79" s="1" t="s">
         <v>58</v>
       </c>
@@ -48960,7 +49117,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB79" s="78"/>
+      <c r="FB79" s="79"/>
       <c r="FC79" s="47" t="s">
         <v>21</v>
       </c>
@@ -48991,16 +49148,16 @@
     </row>
     <row r="80" spans="1:178" ht="20" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="C80" s="76" t="s">
+      <c r="C80" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
       <c r="L80" s="50"/>
       <c r="M80" s="50"/>
       <c r="N80" s="50"/>
@@ -49022,61 +49179,61 @@
       <c r="AD80" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="AI80" s="80" t="s">
+      <c r="AI80" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="AJ80" s="80"/>
+      <c r="AJ80" s="84"/>
       <c r="AK80" s="29"/>
-      <c r="AL80" s="80"/>
-      <c r="AM80" s="80"/>
+      <c r="AL80" s="84"/>
+      <c r="AM80" s="84"/>
       <c r="AN80" s="29"/>
       <c r="AO80" s="31"/>
       <c r="AP80" s="31"/>
       <c r="AQ80" s="31"/>
       <c r="AR80" s="31"/>
       <c r="AS80" s="31"/>
-      <c r="AT80" s="80" t="s">
+      <c r="AT80" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="AU80" s="80"/>
-      <c r="AV80" s="80"/>
-      <c r="AW80" s="80"/>
-      <c r="AX80" s="80"/>
-      <c r="AY80" s="80"/>
-      <c r="AZ80" s="80"/>
-      <c r="BA80" s="80"/>
-      <c r="BE80" s="80" t="s">
+      <c r="AU80" s="84"/>
+      <c r="AV80" s="84"/>
+      <c r="AW80" s="84"/>
+      <c r="AX80" s="84"/>
+      <c r="AY80" s="84"/>
+      <c r="AZ80" s="84"/>
+      <c r="BA80" s="84"/>
+      <c r="BE80" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="BF80" s="80"/>
-      <c r="BG80" s="80"/>
-      <c r="BH80" s="80"/>
-      <c r="BI80" s="80"/>
-      <c r="BJ80" s="80"/>
-      <c r="BK80" s="80"/>
-      <c r="BL80" s="80"/>
+      <c r="BF80" s="84"/>
+      <c r="BG80" s="84"/>
+      <c r="BH80" s="84"/>
+      <c r="BI80" s="84"/>
+      <c r="BJ80" s="84"/>
+      <c r="BK80" s="84"/>
+      <c r="BL80" s="84"/>
       <c r="DL80" s="1"/>
-      <c r="DM80" s="76" t="s">
+      <c r="DM80" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="DN80" s="76"/>
-      <c r="DO80" s="76"/>
-      <c r="DP80" s="76"/>
-      <c r="DQ80" s="76"/>
-      <c r="DR80" s="76"/>
-      <c r="DS80" s="76"/>
-      <c r="DT80" s="76"/>
+      <c r="DN80" s="77"/>
+      <c r="DO80" s="77"/>
+      <c r="DP80" s="77"/>
+      <c r="DQ80" s="77"/>
+      <c r="DR80" s="77"/>
+      <c r="DS80" s="77"/>
+      <c r="DT80" s="77"/>
       <c r="FC80" s="1"/>
-      <c r="FD80" s="76" t="s">
+      <c r="FD80" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="FE80" s="76"/>
-      <c r="FF80" s="76"/>
-      <c r="FG80" s="76"/>
-      <c r="FH80" s="76"/>
-      <c r="FI80" s="76"/>
-      <c r="FJ80" s="76"/>
-      <c r="FK80" s="76"/>
+      <c r="FE80" s="77"/>
+      <c r="FF80" s="77"/>
+      <c r="FG80" s="77"/>
+      <c r="FH80" s="77"/>
+      <c r="FI80" s="77"/>
+      <c r="FJ80" s="77"/>
+      <c r="FK80" s="77"/>
     </row>
     <row r="81" spans="1:174" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
@@ -49130,16 +49287,16 @@
       <c r="AA81" s="49"/>
     </row>
     <row r="82" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="C82" s="76" t="s">
+      <c r="C82" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
     </row>
     <row r="83" spans="1:174" x14ac:dyDescent="0.2">
       <c r="C83" s="6">
@@ -49176,70 +49333,70 @@
       </c>
     </row>
     <row r="84" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="77" t="s">
+      <c r="C84" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="AI84" s="76" t="s">
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="AI84" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AJ84" s="76"/>
-      <c r="AK84" s="76"/>
-      <c r="AL84" s="76"/>
-      <c r="AM84" s="76"/>
-      <c r="AN84" s="76"/>
-      <c r="AO84" s="76"/>
-      <c r="AP84" s="76"/>
-      <c r="AT84" s="76" t="s">
+      <c r="AJ84" s="77"/>
+      <c r="AK84" s="77"/>
+      <c r="AL84" s="77"/>
+      <c r="AM84" s="77"/>
+      <c r="AN84" s="77"/>
+      <c r="AO84" s="77"/>
+      <c r="AP84" s="77"/>
+      <c r="AT84" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU84" s="76"/>
-      <c r="AV84" s="76"/>
-      <c r="AW84" s="76"/>
-      <c r="AX84" s="76"/>
-      <c r="AY84" s="76"/>
-      <c r="AZ84" s="76"/>
-      <c r="BA84" s="76"/>
-      <c r="BE84" s="76" t="s">
+      <c r="AU84" s="77"/>
+      <c r="AV84" s="77"/>
+      <c r="AW84" s="77"/>
+      <c r="AX84" s="77"/>
+      <c r="AY84" s="77"/>
+      <c r="AZ84" s="77"/>
+      <c r="BA84" s="77"/>
+      <c r="BE84" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF84" s="76"/>
-      <c r="BG84" s="76"/>
-      <c r="BH84" s="76"/>
-      <c r="BI84" s="76"/>
-      <c r="BJ84" s="76"/>
-      <c r="BK84" s="76"/>
-      <c r="BL84" s="76"/>
-      <c r="BT84" s="76" t="s">
+      <c r="BF84" s="77"/>
+      <c r="BG84" s="77"/>
+      <c r="BH84" s="77"/>
+      <c r="BI84" s="77"/>
+      <c r="BJ84" s="77"/>
+      <c r="BK84" s="77"/>
+      <c r="BL84" s="77"/>
+      <c r="BT84" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU84" s="76"/>
-      <c r="BV84" s="76"/>
-      <c r="BW84" s="76"/>
-      <c r="BX84" s="76"/>
-      <c r="BY84" s="76"/>
-      <c r="DV84" s="76" t="s">
+      <c r="BU84" s="77"/>
+      <c r="BV84" s="77"/>
+      <c r="BW84" s="77"/>
+      <c r="BX84" s="77"/>
+      <c r="BY84" s="77"/>
+      <c r="DV84" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="DW84" s="76"/>
-      <c r="DX84" s="76"/>
-      <c r="DY84" s="76"/>
-      <c r="DZ84" s="76"/>
-      <c r="EA84" s="76"/>
-      <c r="FM84" s="76" t="s">
+      <c r="DW84" s="77"/>
+      <c r="DX84" s="77"/>
+      <c r="DY84" s="77"/>
+      <c r="DZ84" s="77"/>
+      <c r="EA84" s="77"/>
+      <c r="FM84" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="FN84" s="76"/>
-      <c r="FO84" s="76"/>
-      <c r="FP84" s="76"/>
-      <c r="FQ84" s="76"/>
-      <c r="FR84" s="76"/>
+      <c r="FN84" s="77"/>
+      <c r="FO84" s="77"/>
+      <c r="FP84" s="77"/>
+      <c r="FQ84" s="77"/>
+      <c r="FR84" s="77"/>
     </row>
     <row r="85" spans="1:174" ht="114" x14ac:dyDescent="0.2">
       <c r="AI85" s="2" t="s">
@@ -49370,7 +49527,7 @@
       </c>
     </row>
     <row r="86" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -49567,7 +49724,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK86" s="78" t="s">
+      <c r="DK86" s="79" t="s">
         <v>4</v>
       </c>
       <c r="DL86" s="1" t="s">
@@ -49597,7 +49754,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB86" s="78" t="s">
+      <c r="FB86" s="79" t="s">
         <v>4</v>
       </c>
       <c r="FC86" s="1" t="s">
@@ -49629,7 +49786,7 @@
       </c>
     </row>
     <row r="87" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A87" s="78"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="1" t="s">
         <v>1</v>
       </c>
@@ -49823,7 +49980,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK87" s="78"/>
+      <c r="DK87" s="79"/>
       <c r="DL87" s="1" t="s">
         <v>1</v>
       </c>
@@ -49851,7 +50008,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB87" s="78"/>
+      <c r="FB87" s="79"/>
       <c r="FC87" s="1" t="s">
         <v>1</v>
       </c>
@@ -49881,7 +50038,7 @@
       </c>
     </row>
     <row r="88" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A88" s="78"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="1" t="s">
         <v>27</v>
       </c>
@@ -50075,7 +50232,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK88" s="78"/>
+      <c r="DK88" s="79"/>
       <c r="DL88" s="1" t="s">
         <v>27</v>
       </c>
@@ -50103,7 +50260,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB88" s="78"/>
+      <c r="FB88" s="79"/>
       <c r="FC88" s="1" t="s">
         <v>27</v>
       </c>
@@ -50133,7 +50290,7 @@
       </c>
     </row>
     <row r="89" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A89" s="78"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="1" t="s">
         <v>26</v>
       </c>
@@ -50327,7 +50484,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK89" s="78"/>
+      <c r="DK89" s="79"/>
       <c r="DL89" s="1" t="s">
         <v>26</v>
       </c>
@@ -50355,7 +50512,7 @@
         <f ca="1"/>
         <v>28.1</v>
       </c>
-      <c r="FB89" s="78"/>
+      <c r="FB89" s="79"/>
       <c r="FC89" s="1" t="s">
         <v>26</v>
       </c>
@@ -50385,7 +50542,7 @@
       </c>
     </row>
     <row r="90" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A90" s="78"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="1" t="s">
         <v>29</v>
       </c>
@@ -50579,7 +50736,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK90" s="78"/>
+      <c r="DK90" s="79"/>
       <c r="DL90" s="1" t="s">
         <v>29</v>
       </c>
@@ -50607,7 +50764,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB90" s="78"/>
+      <c r="FB90" s="79"/>
       <c r="FC90" s="1" t="s">
         <v>29</v>
       </c>
@@ -50637,7 +50794,7 @@
       </c>
     </row>
     <row r="91" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A91" s="78"/>
+      <c r="A91" s="79"/>
       <c r="B91" s="1" t="s">
         <v>19</v>
       </c>
@@ -50831,7 +50988,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK91" s="78"/>
+      <c r="DK91" s="79"/>
       <c r="DL91" s="1" t="s">
         <v>19</v>
       </c>
@@ -50859,7 +51016,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB91" s="78"/>
+      <c r="FB91" s="79"/>
       <c r="FC91" s="1" t="s">
         <v>19</v>
       </c>
@@ -50889,7 +51046,7 @@
       </c>
     </row>
     <row r="92" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A92" s="78"/>
+      <c r="A92" s="79"/>
       <c r="B92" s="1" t="s">
         <v>17</v>
       </c>
@@ -51083,7 +51240,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
-      <c r="DK92" s="78"/>
+      <c r="DK92" s="79"/>
       <c r="DL92" s="1" t="s">
         <v>17</v>
       </c>
@@ -51111,7 +51268,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FB92" s="78"/>
+      <c r="FB92" s="79"/>
       <c r="FC92" s="1" t="s">
         <v>17</v>
       </c>
@@ -51141,7 +51298,7 @@
       </c>
     </row>
     <row r="93" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A93" s="78"/>
+      <c r="A93" s="79"/>
       <c r="B93" s="1" t="s">
         <v>18</v>
       </c>
@@ -51335,7 +51492,7 @@
         <f t="shared" ca="1" si="25"/>
         <v>5.9</v>
       </c>
-      <c r="DK93" s="78"/>
+      <c r="DK93" s="79"/>
       <c r="DL93" s="1" t="s">
         <v>18</v>
       </c>
@@ -51363,7 +51520,7 @@
         <f ca="1"/>
         <v>-5.9</v>
       </c>
-      <c r="FB93" s="78"/>
+      <c r="FB93" s="79"/>
       <c r="FC93" s="1" t="s">
         <v>18</v>
       </c>
@@ -51393,53 +51550,53 @@
       </c>
     </row>
     <row r="94" spans="1:174" ht="19" x14ac:dyDescent="0.2">
-      <c r="L94" s="77" t="s">
+      <c r="L94" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="M94" s="77"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="77"/>
-      <c r="P94" s="77"/>
-      <c r="Q94" s="77"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="85"/>
+      <c r="Q94" s="85"/>
       <c r="Z94" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AI94" s="76" t="s">
+      <c r="AI94" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="AJ94" s="76"/>
-      <c r="AK94" s="76"/>
-      <c r="AL94" s="76"/>
-      <c r="AM94" s="76"/>
-      <c r="AN94" s="76"/>
-      <c r="AO94" s="76"/>
-      <c r="AP94" s="76"/>
+      <c r="AJ94" s="77"/>
+      <c r="AK94" s="77"/>
+      <c r="AL94" s="77"/>
+      <c r="AM94" s="77"/>
+      <c r="AN94" s="77"/>
+      <c r="AO94" s="77"/>
+      <c r="AP94" s="77"/>
       <c r="AQ94" s="8"/>
       <c r="AR94" s="8"/>
       <c r="AS94" s="8"/>
-      <c r="AT94" s="76" t="s">
+      <c r="AT94" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="AU94" s="76"/>
-      <c r="AV94" s="76"/>
-      <c r="AW94" s="76"/>
-      <c r="AX94" s="76"/>
-      <c r="AY94" s="76"/>
-      <c r="AZ94" s="76"/>
-      <c r="BA94" s="76"/>
+      <c r="AU94" s="77"/>
+      <c r="AV94" s="77"/>
+      <c r="AW94" s="77"/>
+      <c r="AX94" s="77"/>
+      <c r="AY94" s="77"/>
+      <c r="AZ94" s="77"/>
+      <c r="BA94" s="77"/>
       <c r="BB94" s="8"/>
       <c r="BC94" s="8"/>
       <c r="BD94" s="8"/>
-      <c r="BE94" s="76" t="s">
+      <c r="BE94" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="BF94" s="76"/>
-      <c r="BG94" s="76"/>
-      <c r="BH94" s="76"/>
-      <c r="BI94" s="76"/>
-      <c r="BJ94" s="76"/>
-      <c r="BK94" s="76"/>
-      <c r="BL94" s="76"/>
+      <c r="BF94" s="77"/>
+      <c r="BG94" s="77"/>
+      <c r="BH94" s="77"/>
+      <c r="BI94" s="77"/>
+      <c r="BJ94" s="77"/>
+      <c r="BK94" s="77"/>
+      <c r="BL94" s="77"/>
       <c r="BM94" s="8"/>
       <c r="BN94" s="8"/>
       <c r="BO94" s="30" t="s">
@@ -51451,14 +51608,14 @@
       <c r="BQ94" s="8"/>
       <c r="BR94" s="8"/>
       <c r="BS94" s="8"/>
-      <c r="BT94" s="79" t="s">
+      <c r="BT94" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="BU94" s="79"/>
-      <c r="BV94" s="79"/>
-      <c r="BW94" s="79"/>
-      <c r="BX94" s="79"/>
-      <c r="BY94" s="79"/>
+      <c r="BU94" s="80"/>
+      <c r="BV94" s="80"/>
+      <c r="BW94" s="80"/>
+      <c r="BX94" s="80"/>
+      <c r="BY94" s="80"/>
       <c r="BZ94" s="8"/>
       <c r="CB94" s="8"/>
       <c r="CC94" s="8"/>
@@ -51469,37 +51626,37 @@
       <c r="CX94" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="DB94" s="76" t="s">
+      <c r="DB94" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="DC94" s="76"/>
-      <c r="DD94" s="76"/>
-      <c r="DE94" s="76"/>
-      <c r="DF94" s="76"/>
-      <c r="DG94" s="76"/>
-      <c r="DH94" s="76"/>
-      <c r="DI94" s="76"/>
+      <c r="DC94" s="77"/>
+      <c r="DD94" s="77"/>
+      <c r="DE94" s="77"/>
+      <c r="DF94" s="77"/>
+      <c r="DG94" s="77"/>
+      <c r="DH94" s="77"/>
+      <c r="DI94" s="77"/>
       <c r="DJ94" s="8"/>
-      <c r="DV94" s="77" t="s">
+      <c r="DV94" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="DW94" s="77"/>
-      <c r="DX94" s="77"/>
-      <c r="DY94" s="77"/>
-      <c r="DZ94" s="77"/>
-      <c r="EA94" s="77"/>
+      <c r="DW94" s="85"/>
+      <c r="DX94" s="85"/>
+      <c r="DY94" s="85"/>
+      <c r="DZ94" s="85"/>
+      <c r="EA94" s="85"/>
       <c r="EW94" s="57"/>
-      <c r="FM94" s="77" t="s">
+      <c r="FM94" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="FN94" s="77"/>
-      <c r="FO94" s="77"/>
-      <c r="FP94" s="77"/>
-      <c r="FQ94" s="77"/>
-      <c r="FR94" s="77"/>
+      <c r="FN94" s="85"/>
+      <c r="FO94" s="85"/>
+      <c r="FP94" s="85"/>
+      <c r="FQ94" s="85"/>
+      <c r="FR94" s="85"/>
     </row>
     <row r="95" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J95" s="78" t="s">
+      <c r="J95" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -51524,7 +51681,7 @@
       <c r="Q95" s="16">
         <v>28.1</v>
       </c>
-      <c r="DT95" s="78" t="s">
+      <c r="DT95" s="79" t="s">
         <v>30</v>
       </c>
       <c r="DU95" s="1" t="s">
@@ -51554,7 +51711,7 @@
         <f ca="1"/>
         <v>28.1</v>
       </c>
-      <c r="FK95" s="78" t="s">
+      <c r="FK95" s="79" t="s">
         <v>30</v>
       </c>
       <c r="FL95" s="1" t="s">
@@ -51586,7 +51743,7 @@
       </c>
     </row>
     <row r="96" spans="1:174" ht="17" x14ac:dyDescent="0.2">
-      <c r="J96" s="78"/>
+      <c r="J96" s="79"/>
       <c r="K96" s="37" t="s">
         <v>81</v>
       </c>
@@ -51608,7 +51765,7 @@
       <c r="Q96" s="6">
         <v>0</v>
       </c>
-      <c r="DT96" s="78"/>
+      <c r="DT96" s="79"/>
       <c r="DU96" s="37" t="s">
         <v>81</v>
       </c>
@@ -51636,7 +51793,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FK96" s="78"/>
+      <c r="FK96" s="79"/>
       <c r="FL96" s="37" t="s">
         <v>81</v>
       </c>
@@ -51666,7 +51823,7 @@
       </c>
     </row>
     <row r="97" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="J97" s="78"/>
+      <c r="J97" s="79"/>
       <c r="K97" s="1" t="s">
         <v>33</v>
       </c>
@@ -51698,7 +51855,7 @@
       <c r="Y97" s="17"/>
       <c r="Z97" s="17"/>
       <c r="AA97" s="17"/>
-      <c r="DT97" s="78"/>
+      <c r="DT97" s="79"/>
       <c r="DU97" s="1" t="s">
         <v>33</v>
       </c>
@@ -51726,7 +51883,7 @@
         <f ca="1"/>
         <v>-5.9</v>
       </c>
-      <c r="FK97" s="78"/>
+      <c r="FK97" s="79"/>
       <c r="FL97" s="1" t="s">
         <v>33</v>
       </c>
@@ -51756,30 +51913,30 @@
       </c>
     </row>
     <row r="98" spans="1:174" ht="20" x14ac:dyDescent="0.25">
-      <c r="L98" s="77" t="s">
+      <c r="L98" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="M98" s="77"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="77"/>
-      <c r="P98" s="77"/>
-      <c r="Q98" s="77"/>
-      <c r="DV98" s="77" t="s">
+      <c r="M98" s="85"/>
+      <c r="N98" s="85"/>
+      <c r="O98" s="85"/>
+      <c r="P98" s="85"/>
+      <c r="Q98" s="85"/>
+      <c r="DV98" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="DW98" s="77"/>
-      <c r="DX98" s="77"/>
-      <c r="DY98" s="77"/>
-      <c r="DZ98" s="77"/>
-      <c r="EA98" s="77"/>
-      <c r="FM98" s="77" t="s">
+      <c r="DW98" s="85"/>
+      <c r="DX98" s="85"/>
+      <c r="DY98" s="85"/>
+      <c r="DZ98" s="85"/>
+      <c r="EA98" s="85"/>
+      <c r="FM98" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="FN98" s="77"/>
-      <c r="FO98" s="77"/>
-      <c r="FP98" s="77"/>
-      <c r="FQ98" s="77"/>
-      <c r="FR98" s="77"/>
+      <c r="FN98" s="85"/>
+      <c r="FO98" s="85"/>
+      <c r="FP98" s="85"/>
+      <c r="FQ98" s="85"/>
+      <c r="FR98" s="85"/>
     </row>
     <row r="101" spans="1:174" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="27" t="s">
@@ -51795,17 +51952,17 @@
       <c r="I101" s="27"/>
     </row>
     <row r="103" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A103" s="76" t="s">
+      <c r="A103" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
-      <c r="I103" s="76"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
     </row>
     <row r="104" spans="1:174" x14ac:dyDescent="0.2">
       <c r="A104" s="46"/>
@@ -51819,7 +51976,7 @@
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:174" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="78" t="s">
+      <c r="A105" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -51844,7 +52001,7 @@
       </c>
     </row>
     <row r="106" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A106" s="78"/>
+      <c r="A106" s="79"/>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
@@ -51866,7 +52023,7 @@
       </c>
     </row>
     <row r="107" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A107" s="78"/>
+      <c r="A107" s="79"/>
       <c r="B107" s="1" t="s">
         <v>27</v>
       </c>
@@ -51887,7 +52044,7 @@
       </c>
     </row>
     <row r="108" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A108" s="78"/>
+      <c r="A108" s="79"/>
       <c r="B108" s="1" t="s">
         <v>26</v>
       </c>
@@ -51917,7 +52074,7 @@
       </c>
     </row>
     <row r="109" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A109" s="78"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="1" t="s">
         <v>29</v>
       </c>
@@ -51939,7 +52096,7 @@
       </c>
     </row>
     <row r="110" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A110" s="78"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="1" t="s">
         <v>19</v>
       </c>
@@ -51961,7 +52118,7 @@
       </c>
     </row>
     <row r="111" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A111" s="78"/>
+      <c r="A111" s="79"/>
       <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
@@ -51982,7 +52139,7 @@
       </c>
     </row>
     <row r="112" spans="1:174" x14ac:dyDescent="0.2">
-      <c r="A112" s="78"/>
+      <c r="A112" s="79"/>
       <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
@@ -52019,17 +52176,17 @@
       </c>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A115" s="76" t="s">
+      <c r="A115" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B115" s="76"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
       <c r="AL115" s="18"/>
       <c r="AM115" s="18"/>
       <c r="AN115" s="18"/>
@@ -52076,7 +52233,7 @@
       <c r="AN116" s="18"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A117" s="78" t="s">
+      <c r="A117" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -52131,7 +52288,7 @@
       <c r="AQ117" s="18"/>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A118" s="78"/>
+      <c r="A118" s="79"/>
       <c r="B118" s="1" t="s">
         <v>24</v>
       </c>
@@ -52182,7 +52339,7 @@
       <c r="AQ118" s="18"/>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A119" s="78"/>
+      <c r="A119" s="79"/>
       <c r="B119" s="1" t="s">
         <v>25</v>
       </c>
@@ -52242,7 +52399,7 @@
       <c r="AQ119" s="18"/>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A120" s="78"/>
+      <c r="A120" s="79"/>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
@@ -52293,7 +52450,7 @@
       <c r="AQ120" s="18"/>
     </row>
     <row r="121" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A121" s="78"/>
+      <c r="A121" s="79"/>
       <c r="B121" s="1" t="s">
         <v>15</v>
       </c>
@@ -52344,7 +52501,7 @@
       <c r="AQ121" s="18"/>
     </row>
     <row r="122" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A122" s="78"/>
+      <c r="A122" s="79"/>
       <c r="B122" s="1" t="s">
         <v>16</v>
       </c>
@@ -52395,21 +52552,21 @@
       <c r="AQ122" s="18"/>
     </row>
     <row r="123" spans="1:43" ht="19" x14ac:dyDescent="0.2">
-      <c r="C123" s="76" t="s">
+      <c r="C123" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="76"/>
-      <c r="E123" s="76"/>
-      <c r="G123" s="77" t="s">
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="G123" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="K123" s="77" t="s">
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="K123" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="L123" s="77"/>
-      <c r="M123" s="77"/>
+      <c r="L123" s="85"/>
+      <c r="M123" s="85"/>
       <c r="N123" s="17"/>
       <c r="O123" s="17" t="s">
         <v>134</v>
@@ -52433,7 +52590,7 @@
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A128" s="78" t="s">
+      <c r="A128" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -52453,7 +52610,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="78"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="1" t="s">
         <v>24</v>
       </c>
@@ -52470,7 +52627,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="78"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="1" t="s">
         <v>25</v>
       </c>
@@ -52487,7 +52644,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="78"/>
+      <c r="A131" s="79"/>
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
@@ -52504,7 +52661,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="78"/>
+      <c r="A132" s="79"/>
       <c r="B132" s="1" t="s">
         <v>15</v>
       </c>
@@ -52521,7 +52678,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="78"/>
+      <c r="A133" s="79"/>
       <c r="B133" s="1" t="s">
         <v>16</v>
       </c>
@@ -52554,14 +52711,14 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C138" s="76" t="s">
+      <c r="C138" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="76"/>
-      <c r="E138" s="76"/>
-      <c r="F138" s="76"/>
-      <c r="G138" s="76"/>
-      <c r="H138" s="76"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
     </row>
     <row r="139" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="C139" s="2" t="s">
@@ -52584,7 +52741,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="78" t="s">
+      <c r="A140" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -52624,7 +52781,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="78"/>
+      <c r="A141" s="79"/>
       <c r="B141" s="1" t="s">
         <v>24</v>
       </c>
@@ -52662,7 +52819,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="78"/>
+      <c r="A142" s="79"/>
       <c r="B142" s="1" t="s">
         <v>25</v>
       </c>
@@ -52700,7 +52857,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" s="78"/>
+      <c r="A143" s="79"/>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
@@ -52738,7 +52895,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="78"/>
+      <c r="A144" s="79"/>
       <c r="B144" s="1" t="s">
         <v>15</v>
       </c>
@@ -52776,7 +52933,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A145" s="78"/>
+      <c r="A145" s="79"/>
       <c r="B145" s="1" t="s">
         <v>16</v>
       </c>
@@ -52814,14 +52971,14 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C146" s="76" t="s">
+      <c r="C146" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D146" s="76"/>
-      <c r="E146" s="76"/>
-      <c r="F146" s="76"/>
-      <c r="G146" s="76"/>
-      <c r="H146" s="76"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="77"/>
       <c r="J146" s="33" t="s">
         <v>140</v>
       </c>
@@ -52833,50 +52990,48 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="AI43:AP43"/>
-    <mergeCell ref="AT43:AY43"/>
-    <mergeCell ref="BE43:BJ43"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AI63:AN63"/>
-    <mergeCell ref="AT63:BA63"/>
-    <mergeCell ref="BE63:BL63"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="U45:U52"/>
-    <mergeCell ref="L53:Q53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="BE53:BJ53"/>
-    <mergeCell ref="BT53:BY53"/>
-    <mergeCell ref="CA53:CH53"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AT53:AY53"/>
-    <mergeCell ref="AL76:AM76"/>
-    <mergeCell ref="AT76:BA76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="AI71:AN71"/>
-    <mergeCell ref="AT71:BA71"/>
-    <mergeCell ref="AI94:AP94"/>
-    <mergeCell ref="AT94:BA94"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AT80:BA80"/>
-    <mergeCell ref="C82:J82"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="AI84:AP84"/>
-    <mergeCell ref="AT84:BA84"/>
-    <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="FK95:FK97"/>
+    <mergeCell ref="FM98:FR98"/>
+    <mergeCell ref="FM84:FR84"/>
+    <mergeCell ref="DV84:EA84"/>
+    <mergeCell ref="DK86:DK93"/>
+    <mergeCell ref="DV94:EA94"/>
+    <mergeCell ref="DT95:DT97"/>
+    <mergeCell ref="DV98:EA98"/>
+    <mergeCell ref="FB65:FB70"/>
+    <mergeCell ref="FD71:FK71"/>
+    <mergeCell ref="FB78:FB79"/>
+    <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="FB86:FB93"/>
+    <mergeCell ref="FM94:FR94"/>
+    <mergeCell ref="DK78:DK79"/>
+    <mergeCell ref="DM80:DT80"/>
+    <mergeCell ref="EY1:GE1"/>
+    <mergeCell ref="FD43:FK43"/>
+    <mergeCell ref="FM43:FR43"/>
+    <mergeCell ref="FT43:FU43"/>
+    <mergeCell ref="FB45:FB52"/>
+    <mergeCell ref="FM53:FR53"/>
+    <mergeCell ref="FT53:FU53"/>
+    <mergeCell ref="EC43:ED43"/>
+    <mergeCell ref="EC53:ED53"/>
+    <mergeCell ref="BE76:BL76"/>
+    <mergeCell ref="DB94:DI94"/>
+    <mergeCell ref="DM71:DT71"/>
+    <mergeCell ref="DV53:EA53"/>
+    <mergeCell ref="DV43:EA43"/>
+    <mergeCell ref="DK45:DK52"/>
+    <mergeCell ref="DK65:DK70"/>
+    <mergeCell ref="DM43:DT43"/>
+    <mergeCell ref="BE71:BL71"/>
+    <mergeCell ref="BT71:BY71"/>
+    <mergeCell ref="BT43:BY43"/>
+    <mergeCell ref="CA43:CH43"/>
+    <mergeCell ref="CJ43:CK43"/>
+    <mergeCell ref="BE94:BL94"/>
+    <mergeCell ref="BT94:BY94"/>
+    <mergeCell ref="BT63:BY63"/>
+    <mergeCell ref="BE80:BL80"/>
     <mergeCell ref="C146:H146"/>
     <mergeCell ref="Z76:AB76"/>
     <mergeCell ref="A1:AI1"/>
@@ -52901,48 +53056,50 @@
     <mergeCell ref="BT84:BY84"/>
     <mergeCell ref="A86:A93"/>
     <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="BE76:BL76"/>
-    <mergeCell ref="DB94:DI94"/>
-    <mergeCell ref="DM71:DT71"/>
-    <mergeCell ref="DV53:EA53"/>
-    <mergeCell ref="DV43:EA43"/>
-    <mergeCell ref="DK45:DK52"/>
-    <mergeCell ref="DK65:DK70"/>
-    <mergeCell ref="DM43:DT43"/>
-    <mergeCell ref="BE71:BL71"/>
-    <mergeCell ref="BT71:BY71"/>
-    <mergeCell ref="BT43:BY43"/>
-    <mergeCell ref="CA43:CH43"/>
-    <mergeCell ref="CJ43:CK43"/>
-    <mergeCell ref="BE94:BL94"/>
-    <mergeCell ref="BT94:BY94"/>
-    <mergeCell ref="BT63:BY63"/>
-    <mergeCell ref="BE80:BL80"/>
-    <mergeCell ref="EY1:GE1"/>
-    <mergeCell ref="FD43:FK43"/>
-    <mergeCell ref="FM43:FR43"/>
-    <mergeCell ref="FT43:FU43"/>
-    <mergeCell ref="FB45:FB52"/>
-    <mergeCell ref="FM53:FR53"/>
-    <mergeCell ref="FT53:FU53"/>
-    <mergeCell ref="EC43:ED43"/>
-    <mergeCell ref="EC53:ED53"/>
-    <mergeCell ref="FK95:FK97"/>
-    <mergeCell ref="FM98:FR98"/>
-    <mergeCell ref="FM84:FR84"/>
-    <mergeCell ref="DV84:EA84"/>
-    <mergeCell ref="DK86:DK93"/>
-    <mergeCell ref="DV94:EA94"/>
-    <mergeCell ref="DT95:DT97"/>
-    <mergeCell ref="DV98:EA98"/>
-    <mergeCell ref="FB65:FB70"/>
-    <mergeCell ref="FD71:FK71"/>
-    <mergeCell ref="FB78:FB79"/>
-    <mergeCell ref="FD80:FK80"/>
-    <mergeCell ref="FB86:FB93"/>
-    <mergeCell ref="FM94:FR94"/>
-    <mergeCell ref="DK78:DK79"/>
-    <mergeCell ref="DM80:DT80"/>
+    <mergeCell ref="AL76:AM76"/>
+    <mergeCell ref="AT76:BA76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="AI71:AN71"/>
+    <mergeCell ref="AT71:BA71"/>
+    <mergeCell ref="AI94:AP94"/>
+    <mergeCell ref="AT94:BA94"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AT80:BA80"/>
+    <mergeCell ref="C82:J82"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="AI84:AP84"/>
+    <mergeCell ref="AT84:BA84"/>
+    <mergeCell ref="L94:Q94"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="BE53:BJ53"/>
+    <mergeCell ref="BT53:BY53"/>
+    <mergeCell ref="CA53:CH53"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AT53:AY53"/>
+    <mergeCell ref="AI43:AP43"/>
+    <mergeCell ref="AT43:AY43"/>
+    <mergeCell ref="BE43:BJ43"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AI63:AN63"/>
+    <mergeCell ref="AT63:BA63"/>
+    <mergeCell ref="BE63:BL63"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="U45:U52"/>
+    <mergeCell ref="L53:Q53"/>
+    <mergeCell ref="W53:X53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -52958,10 +53115,10 @@
   </sheetPr>
   <dimension ref="A1:HL144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="FU1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8440" topLeftCell="A41" activePane="bottomLeft"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="FO1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8440" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="HI19" sqref="HI19"/>
-      <selection pane="bottomLeft" activeCell="GN77" sqref="GN77:GU77"/>
+      <selection pane="bottomLeft" activeCell="GW92" sqref="GW92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53278,11 +53435,11 @@
     </row>
     <row r="26" spans="1:219" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
     </row>
@@ -53301,7 +53458,7 @@
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:219" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -53320,7 +53477,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -53337,7 +53494,7 @@
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A30" s="78"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -53354,7 +53511,7 @@
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -53371,7 +53528,7 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:219" x14ac:dyDescent="0.2">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -53415,7 +53572,7 @@
       <c r="CO32" s="31"/>
     </row>
     <row r="33" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -53459,7 +53616,7 @@
       <c r="CO33" s="31"/>
     </row>
     <row r="34" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
+      <c r="A34" s="79"/>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
@@ -53503,7 +53660,7 @@
       <c r="CO34" s="31"/>
     </row>
     <row r="35" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
@@ -53547,11 +53704,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:215" ht="18" x14ac:dyDescent="0.25">
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="65"/>
       <c r="G36" s="65"/>
       <c r="BM36" s="31"/>
@@ -53643,115 +53800,115 @@
       <c r="CO38" s="29"/>
     </row>
     <row r="40" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="L40" s="76" t="s">
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="L40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="W40" s="76" t="s">
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="W40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="X40" s="76"/>
+      <c r="X40" s="77"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-      <c r="AI40" s="76" t="s">
+      <c r="AI40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AJ40" s="76"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="76"/>
-      <c r="AM40" s="76"/>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="76"/>
-      <c r="AP40" s="76"/>
-      <c r="AT40" s="76" t="s">
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="77"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="77"/>
+      <c r="AN40" s="77"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="77"/>
+      <c r="AT40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AU40" s="76"/>
-      <c r="AV40" s="76"/>
-      <c r="AW40" s="76"/>
-      <c r="AX40" s="76"/>
-      <c r="AY40" s="76"/>
-      <c r="BE40" s="76" t="s">
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="77"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="77"/>
+      <c r="AY40" s="77"/>
+      <c r="BE40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BF40" s="76"/>
-      <c r="BG40" s="76"/>
-      <c r="BH40" s="76"/>
-      <c r="BI40" s="76"/>
-      <c r="BJ40" s="76"/>
-      <c r="BT40" s="76" t="s">
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="77"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="77"/>
+      <c r="BT40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU40" s="76"/>
-      <c r="BV40" s="76"/>
-      <c r="BW40" s="76"/>
-      <c r="BX40" s="76"/>
-      <c r="BY40" s="76"/>
-      <c r="CA40" s="76" t="s">
+      <c r="BU40" s="77"/>
+      <c r="BV40" s="77"/>
+      <c r="BW40" s="77"/>
+      <c r="BX40" s="77"/>
+      <c r="BY40" s="77"/>
+      <c r="CA40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="CB40" s="76"/>
-      <c r="CC40" s="76"/>
-      <c r="CD40" s="76"/>
-      <c r="CE40" s="76"/>
-      <c r="CF40" s="76"/>
-      <c r="CG40" s="76"/>
-      <c r="CH40" s="76"/>
-      <c r="CJ40" s="76" t="s">
+      <c r="CB40" s="77"/>
+      <c r="CC40" s="77"/>
+      <c r="CD40" s="77"/>
+      <c r="CE40" s="77"/>
+      <c r="CF40" s="77"/>
+      <c r="CG40" s="77"/>
+      <c r="CH40" s="77"/>
+      <c r="CJ40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="CK40" s="76"/>
+      <c r="CK40" s="77"/>
       <c r="CL40" s="29"/>
       <c r="CM40" s="29"/>
       <c r="CN40" s="71"/>
       <c r="CO40" s="29"/>
-      <c r="DD40" s="76" t="s">
+      <c r="DD40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="DE40" s="76"/>
-      <c r="DF40" s="76"/>
-      <c r="DG40" s="76"/>
-      <c r="DH40" s="76"/>
-      <c r="DI40" s="76"/>
-      <c r="GN40" s="76" t="s">
+      <c r="DE40" s="77"/>
+      <c r="DF40" s="77"/>
+      <c r="DG40" s="77"/>
+      <c r="DH40" s="77"/>
+      <c r="DI40" s="77"/>
+      <c r="GN40" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="GO40" s="76"/>
-      <c r="GP40" s="76"/>
-      <c r="GQ40" s="76"/>
-      <c r="GR40" s="76"/>
-      <c r="GS40" s="76"/>
-      <c r="GT40" s="76"/>
-      <c r="GU40" s="76"/>
-      <c r="GX40" s="76" t="s">
+      <c r="GO40" s="77"/>
+      <c r="GP40" s="77"/>
+      <c r="GQ40" s="77"/>
+      <c r="GR40" s="77"/>
+      <c r="GS40" s="77"/>
+      <c r="GT40" s="77"/>
+      <c r="GU40" s="77"/>
+      <c r="GX40" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="GY40" s="76"/>
-      <c r="GZ40" s="76"/>
-      <c r="HA40" s="76"/>
-      <c r="HB40" s="76"/>
-      <c r="HC40" s="76"/>
-      <c r="HF40" s="76" t="s">
+      <c r="GY40" s="77"/>
+      <c r="GZ40" s="77"/>
+      <c r="HA40" s="77"/>
+      <c r="HB40" s="77"/>
+      <c r="HC40" s="77"/>
+      <c r="HF40" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="HG40" s="76"/>
+      <c r="HG40" s="77"/>
     </row>
     <row r="41" spans="1:215" ht="114" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
@@ -53983,7 +54140,7 @@
       </c>
     </row>
     <row r="42" spans="1:215" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -54008,7 +54165,7 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="78" t="s">
+      <c r="U42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="V42" s="1" t="s">
@@ -54183,7 +54340,7 @@
       <c r="CL42" s="31"/>
       <c r="CM42" s="31"/>
       <c r="CO42" s="31"/>
-      <c r="CQ42" s="78" t="s">
+      <c r="CQ42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="CR42" s="1" t="s">
@@ -54226,9 +54383,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP42" s="86"/>
+      <c r="FP42" s="76"/>
       <c r="FQ42" s="1"/>
-      <c r="GL42" s="78" t="s">
+      <c r="GL42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="GM42" s="1" t="s">
@@ -54268,7 +54425,7 @@
       </c>
     </row>
     <row r="43" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -54291,7 +54448,7 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="78"/>
+      <c r="U43" s="79"/>
       <c r="V43" s="1" t="s">
         <v>1</v>
       </c>
@@ -54463,7 +54620,7 @@
       <c r="CL43" s="31"/>
       <c r="CM43" s="31"/>
       <c r="CO43" s="31"/>
-      <c r="CQ43" s="78"/>
+      <c r="CQ43" s="79"/>
       <c r="CR43" s="1" t="s">
         <v>1</v>
       </c>
@@ -54503,9 +54660,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP43" s="86"/>
+      <c r="FP43" s="76"/>
       <c r="FQ43" s="1"/>
-      <c r="GL43" s="78"/>
+      <c r="GL43" s="79"/>
       <c r="GM43" s="1" t="s">
         <v>1</v>
       </c>
@@ -54543,7 +54700,7 @@
       </c>
     </row>
     <row r="44" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
@@ -54567,7 +54724,7 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="78"/>
+      <c r="U44" s="79"/>
       <c r="V44" s="1" t="s">
         <v>27</v>
       </c>
@@ -54739,7 +54896,7 @@
       <c r="CL44" s="31"/>
       <c r="CM44" s="31"/>
       <c r="CO44" s="31"/>
-      <c r="CQ44" s="78"/>
+      <c r="CQ44" s="79"/>
       <c r="CR44" s="1" t="s">
         <v>27</v>
       </c>
@@ -54779,9 +54936,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP44" s="86"/>
+      <c r="FP44" s="76"/>
       <c r="FQ44" s="1"/>
-      <c r="GL44" s="78"/>
+      <c r="GL44" s="79"/>
       <c r="GM44" s="1" t="s">
         <v>27</v>
       </c>
@@ -54819,7 +54976,7 @@
       </c>
     </row>
     <row r="45" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -54844,7 +55001,7 @@
         <f>S4</f>
         <v>28.1</v>
       </c>
-      <c r="U45" s="78"/>
+      <c r="U45" s="79"/>
       <c r="V45" s="1" t="s">
         <v>26</v>
       </c>
@@ -55016,7 +55173,7 @@
       <c r="CL45" s="31"/>
       <c r="CM45" s="31"/>
       <c r="CO45" s="31"/>
-      <c r="CQ45" s="78"/>
+      <c r="CQ45" s="79"/>
       <c r="CR45" s="1" t="s">
         <v>26</v>
       </c>
@@ -55056,9 +55213,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP45" s="86"/>
+      <c r="FP45" s="76"/>
       <c r="FQ45" s="1"/>
-      <c r="GL45" s="78"/>
+      <c r="GL45" s="79"/>
       <c r="GM45" s="1" t="s">
         <v>26</v>
       </c>
@@ -55096,7 +55253,7 @@
       </c>
     </row>
     <row r="46" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
+      <c r="A46" s="79"/>
       <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
@@ -55120,7 +55277,7 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="78"/>
+      <c r="U46" s="79"/>
       <c r="V46" s="1" t="s">
         <v>29</v>
       </c>
@@ -55292,7 +55449,7 @@
       <c r="CL46" s="31"/>
       <c r="CM46" s="31"/>
       <c r="CO46" s="31"/>
-      <c r="CQ46" s="78"/>
+      <c r="CQ46" s="79"/>
       <c r="CR46" s="1" t="s">
         <v>29</v>
       </c>
@@ -55332,9 +55489,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP46" s="86"/>
+      <c r="FP46" s="76"/>
       <c r="FQ46" s="1"/>
-      <c r="GL46" s="78"/>
+      <c r="GL46" s="79"/>
       <c r="GM46" s="1" t="s">
         <v>29</v>
       </c>
@@ -55372,7 +55529,7 @@
       </c>
     </row>
     <row r="47" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
+      <c r="A47" s="79"/>
       <c r="B47" s="1" t="s">
         <v>19</v>
       </c>
@@ -55394,7 +55551,7 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="78"/>
+      <c r="U47" s="79"/>
       <c r="V47" s="1" t="s">
         <v>19</v>
       </c>
@@ -55567,7 +55724,7 @@
       <c r="CL47" s="31"/>
       <c r="CM47" s="31"/>
       <c r="CO47" s="63"/>
-      <c r="CQ47" s="78"/>
+      <c r="CQ47" s="79"/>
       <c r="CR47" s="1" t="s">
         <v>19</v>
       </c>
@@ -55607,9 +55764,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP47" s="86"/>
+      <c r="FP47" s="76"/>
       <c r="FQ47" s="1"/>
-      <c r="GL47" s="78"/>
+      <c r="GL47" s="79"/>
       <c r="GM47" s="1" t="s">
         <v>19</v>
       </c>
@@ -55647,7 +55804,7 @@
       </c>
     </row>
     <row r="48" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
+      <c r="A48" s="79"/>
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
@@ -55669,7 +55826,7 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="78"/>
+      <c r="U48" s="79"/>
       <c r="V48" s="1" t="s">
         <v>17</v>
       </c>
@@ -55842,7 +55999,7 @@
       <c r="CL48" s="31"/>
       <c r="CM48" s="31"/>
       <c r="CO48" s="63"/>
-      <c r="CQ48" s="78"/>
+      <c r="CQ48" s="79"/>
       <c r="CR48" s="1" t="s">
         <v>17</v>
       </c>
@@ -55882,9 +56039,9 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="FP48" s="86"/>
+      <c r="FP48" s="76"/>
       <c r="FQ48" s="1"/>
-      <c r="GL48" s="78"/>
+      <c r="GL48" s="79"/>
       <c r="GM48" s="1" t="s">
         <v>17</v>
       </c>
@@ -55922,7 +56079,7 @@
       </c>
     </row>
     <row r="49" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
@@ -55944,7 +56101,7 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="78"/>
+      <c r="U49" s="79"/>
       <c r="V49" s="1" t="s">
         <v>18</v>
       </c>
@@ -56117,7 +56274,7 @@
       <c r="CL49" s="31"/>
       <c r="CM49" s="31"/>
       <c r="CO49" s="63"/>
-      <c r="CQ49" s="78"/>
+      <c r="CQ49" s="79"/>
       <c r="CR49" s="1" t="s">
         <v>18</v>
       </c>
@@ -56157,9 +56314,9 @@
         <f ca="1"/>
         <v>0.20996441281138789</v>
       </c>
-      <c r="FP49" s="86"/>
+      <c r="FP49" s="76"/>
       <c r="FQ49" s="1"/>
-      <c r="GL49" s="78"/>
+      <c r="GL49" s="79"/>
       <c r="GM49" s="1" t="s">
         <v>18</v>
       </c>
@@ -56198,18 +56355,18 @@
     </row>
     <row r="50" spans="1:215" ht="19" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="L50" s="76" t="s">
+      <c r="L50" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="W50" s="76" t="s">
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="W50" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="X50" s="76"/>
+      <c r="X50" s="77"/>
       <c r="Z50" s="59" t="s">
         <v>12</v>
       </c>
@@ -56222,53 +56379,53 @@
       <c r="AE50" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AI50" s="76" t="s">
+      <c r="AI50" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="76"/>
-      <c r="AT50" s="76" t="s">
+      <c r="AJ50" s="77"/>
+      <c r="AK50" s="77"/>
+      <c r="AL50" s="77"/>
+      <c r="AM50" s="77"/>
+      <c r="AN50" s="77"/>
+      <c r="AO50" s="77"/>
+      <c r="AP50" s="77"/>
+      <c r="AT50" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="AU50" s="76"/>
-      <c r="AV50" s="76"/>
-      <c r="AW50" s="76"/>
-      <c r="AX50" s="76"/>
-      <c r="AY50" s="76"/>
+      <c r="AU50" s="77"/>
+      <c r="AV50" s="77"/>
+      <c r="AW50" s="77"/>
+      <c r="AX50" s="77"/>
+      <c r="AY50" s="77"/>
       <c r="BB50" s="8"/>
       <c r="BC50" s="8"/>
       <c r="BD50" s="8"/>
-      <c r="BE50" s="76" t="s">
+      <c r="BE50" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="BF50" s="76"/>
-      <c r="BG50" s="76"/>
-      <c r="BH50" s="76"/>
-      <c r="BI50" s="76"/>
-      <c r="BJ50" s="76"/>
-      <c r="BT50" s="79" t="s">
+      <c r="BF50" s="77"/>
+      <c r="BG50" s="77"/>
+      <c r="BH50" s="77"/>
+      <c r="BI50" s="77"/>
+      <c r="BJ50" s="77"/>
+      <c r="BT50" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="BU50" s="79"/>
-      <c r="BV50" s="79"/>
-      <c r="BW50" s="79"/>
-      <c r="BX50" s="79"/>
-      <c r="BY50" s="79"/>
-      <c r="CA50" s="76" t="s">
+      <c r="BU50" s="80"/>
+      <c r="BV50" s="80"/>
+      <c r="BW50" s="80"/>
+      <c r="BX50" s="80"/>
+      <c r="BY50" s="80"/>
+      <c r="CA50" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="CB50" s="76"/>
-      <c r="CC50" s="76"/>
-      <c r="CD50" s="76"/>
-      <c r="CE50" s="76"/>
-      <c r="CF50" s="76"/>
-      <c r="CG50" s="76"/>
-      <c r="CH50" s="76"/>
+      <c r="CB50" s="77"/>
+      <c r="CC50" s="77"/>
+      <c r="CD50" s="77"/>
+      <c r="CE50" s="77"/>
+      <c r="CF50" s="77"/>
+      <c r="CG50" s="77"/>
+      <c r="CH50" s="77"/>
       <c r="CJ50" s="8" t="s">
         <v>83</v>
       </c>
@@ -56277,39 +56434,39 @@
       <c r="CM50" s="8"/>
       <c r="CN50" s="71"/>
       <c r="CO50" s="8"/>
-      <c r="CS50" s="76" t="s">
+      <c r="CS50" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="CT50" s="76"/>
+      <c r="CT50" s="77"/>
       <c r="CU50" s="73"/>
       <c r="CV50" s="73" t="s">
         <v>168</v>
       </c>
       <c r="DB50" s="31"/>
       <c r="DC50" s="75"/>
-      <c r="DD50" s="76" t="s">
+      <c r="DD50" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="DE50" s="76"/>
-      <c r="DF50" s="76"/>
-      <c r="DG50" s="76"/>
-      <c r="DH50" s="76"/>
-      <c r="DI50" s="76"/>
-      <c r="GX50" s="77" t="s">
+      <c r="DE50" s="77"/>
+      <c r="DF50" s="77"/>
+      <c r="DG50" s="77"/>
+      <c r="DH50" s="77"/>
+      <c r="DI50" s="77"/>
+      <c r="GX50" s="85" t="s">
         <v>183</v>
       </c>
-      <c r="GY50" s="77"/>
-      <c r="GZ50" s="77"/>
-      <c r="HA50" s="77"/>
-      <c r="HB50" s="77"/>
-      <c r="HC50" s="77"/>
+      <c r="GY50" s="85"/>
+      <c r="GZ50" s="85"/>
+      <c r="HA50" s="85"/>
+      <c r="HB50" s="85"/>
+      <c r="HC50" s="85"/>
       <c r="HF50" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:215" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="J51" s="78" t="s">
+      <c r="J51" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -56367,7 +56524,7 @@
       <c r="DC51" s="31"/>
       <c r="DD51" s="31"/>
       <c r="DE51" s="31"/>
-      <c r="GV51" s="78" t="s">
+      <c r="GV51" s="79" t="s">
         <v>30</v>
       </c>
       <c r="GW51" s="1" t="s">
@@ -56400,7 +56557,7 @@
     </row>
     <row r="52" spans="1:215" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="J52" s="78"/>
+      <c r="J52" s="79"/>
       <c r="K52" s="37" t="s">
         <v>81</v>
       </c>
@@ -56427,7 +56584,7 @@
       <c r="X52" s="59"/>
       <c r="Z52" s="59"/>
       <c r="AB52" s="59"/>
-      <c r="GV52" s="78"/>
+      <c r="GV52" s="79"/>
       <c r="GW52" s="37" t="s">
         <v>81</v>
       </c>
@@ -56458,7 +56615,7 @@
     </row>
     <row r="53" spans="1:215" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="J53" s="78"/>
+      <c r="J53" s="79"/>
       <c r="K53" s="1" t="s">
         <v>33</v>
       </c>
@@ -56490,7 +56647,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
-      <c r="GV53" s="78"/>
+      <c r="GV53" s="79"/>
       <c r="GW53" s="1" t="s">
         <v>33</v>
       </c>
@@ -56588,22 +56745,22 @@
       </c>
     </row>
     <row r="56" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="L56" s="76" t="s">
+      <c r="L56" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="GX56" s="76" t="s">
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
+      <c r="GX56" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="GY56" s="76"/>
-      <c r="GZ56" s="76"/>
-      <c r="HA56" s="76"/>
-      <c r="HB56" s="76"/>
-      <c r="HC56" s="76"/>
+      <c r="GY56" s="77"/>
+      <c r="GZ56" s="77"/>
+      <c r="HA56" s="77"/>
+      <c r="HB56" s="77"/>
+      <c r="HC56" s="77"/>
     </row>
     <row r="59" spans="1:215" x14ac:dyDescent="0.2">
       <c r="CQ59" s="31"/>
@@ -56619,47 +56776,47 @@
     </row>
     <row r="60" spans="1:215" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
-      <c r="Z60" s="83" t="s">
+      <c r="Z60" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="83"/>
-      <c r="AB60" s="83"/>
-      <c r="AI60" s="76" t="s">
+      <c r="AA60" s="78"/>
+      <c r="AB60" s="78"/>
+      <c r="AI60" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AT60" s="76" t="s">
+      <c r="AJ60" s="77"/>
+      <c r="AK60" s="77"/>
+      <c r="AL60" s="77"/>
+      <c r="AM60" s="77"/>
+      <c r="AN60" s="77"/>
+      <c r="AT60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BE60" s="76" t="s">
+      <c r="AU60" s="77"/>
+      <c r="AV60" s="77"/>
+      <c r="AW60" s="77"/>
+      <c r="AX60" s="77"/>
+      <c r="AY60" s="77"/>
+      <c r="AZ60" s="77"/>
+      <c r="BA60" s="77"/>
+      <c r="BE60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="76"/>
-      <c r="BL60" s="76"/>
-      <c r="BT60" s="76" t="s">
+      <c r="BF60" s="77"/>
+      <c r="BG60" s="77"/>
+      <c r="BH60" s="77"/>
+      <c r="BI60" s="77"/>
+      <c r="BJ60" s="77"/>
+      <c r="BK60" s="77"/>
+      <c r="BL60" s="77"/>
+      <c r="BT60" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU60" s="76"/>
-      <c r="BV60" s="76"/>
-      <c r="BW60" s="76"/>
-      <c r="BX60" s="76"/>
-      <c r="BY60" s="76"/>
+      <c r="BU60" s="77"/>
+      <c r="BV60" s="77"/>
+      <c r="BW60" s="77"/>
+      <c r="BX60" s="77"/>
+      <c r="BY60" s="77"/>
       <c r="CQ60" s="15"/>
       <c r="CR60" s="15"/>
       <c r="CS60" s="15"/>
@@ -56670,44 +56827,44 @@
       <c r="CX60" s="15"/>
       <c r="CY60" s="15"/>
       <c r="CZ60" s="15"/>
-      <c r="DD60" s="76" t="s">
+      <c r="DD60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="DE60" s="76"/>
-      <c r="DF60" s="76"/>
-      <c r="DG60" s="76"/>
-      <c r="DH60" s="76"/>
-      <c r="DI60" s="76"/>
-      <c r="DJ60" s="76"/>
-      <c r="DK60" s="76"/>
-      <c r="EA60" s="76" t="s">
+      <c r="DE60" s="77"/>
+      <c r="DF60" s="77"/>
+      <c r="DG60" s="77"/>
+      <c r="DH60" s="77"/>
+      <c r="DI60" s="77"/>
+      <c r="DJ60" s="77"/>
+      <c r="DK60" s="77"/>
+      <c r="EA60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="EB60" s="76"/>
-      <c r="EC60" s="76"/>
-      <c r="ED60" s="76"/>
-      <c r="EE60" s="76"/>
-      <c r="EF60" s="76"/>
-      <c r="EG60" s="76"/>
-      <c r="EH60" s="76"/>
-      <c r="EO60" s="76" t="s">
+      <c r="EB60" s="77"/>
+      <c r="EC60" s="77"/>
+      <c r="ED60" s="77"/>
+      <c r="EE60" s="77"/>
+      <c r="EF60" s="77"/>
+      <c r="EG60" s="77"/>
+      <c r="EH60" s="77"/>
+      <c r="EO60" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="EP60" s="76"/>
-      <c r="EQ60" s="76"/>
-      <c r="ER60" s="76"/>
-      <c r="ES60" s="76"/>
-      <c r="ET60" s="76"/>
-      <c r="FD60" s="76" t="s">
+      <c r="EP60" s="77"/>
+      <c r="EQ60" s="77"/>
+      <c r="ER60" s="77"/>
+      <c r="ES60" s="77"/>
+      <c r="ET60" s="77"/>
+      <c r="FD60" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="FE60" s="76"/>
-      <c r="FF60" s="76"/>
-      <c r="FG60" s="76"/>
-      <c r="FH60" s="76"/>
-      <c r="FI60" s="76"/>
-      <c r="FJ60" s="76"/>
-      <c r="FK60" s="76"/>
+      <c r="FE60" s="77"/>
+      <c r="FF60" s="77"/>
+      <c r="FG60" s="77"/>
+      <c r="FH60" s="77"/>
+      <c r="FI60" s="77"/>
+      <c r="FJ60" s="77"/>
+      <c r="FK60" s="77"/>
     </row>
     <row r="61" spans="1:215" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -56908,7 +57065,7 @@
       </c>
     </row>
     <row r="62" spans="1:215" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -57073,7 +57230,7 @@
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="CQ62" s="78" t="s">
+      <c r="CQ62" s="79" t="s">
         <v>3</v>
       </c>
       <c r="CR62" s="1" t="s">
@@ -57211,7 +57368,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL62" s="78" t="s">
+      <c r="GL62" s="79" t="s">
         <v>3</v>
       </c>
       <c r="GM62" s="1" t="s">
@@ -57251,7 +57408,7 @@
       </c>
     </row>
     <row r="63" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A63" s="78"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="1" t="s">
         <v>24</v>
       </c>
@@ -57413,7 +57570,7 @@
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="CQ63" s="78"/>
+      <c r="CQ63" s="79"/>
       <c r="CR63" s="1" t="s">
         <v>24</v>
       </c>
@@ -57549,7 +57706,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL63" s="78"/>
+      <c r="GL63" s="79"/>
       <c r="GM63" s="1" t="s">
         <v>24</v>
       </c>
@@ -57587,7 +57744,7 @@
       </c>
     </row>
     <row r="64" spans="1:215" x14ac:dyDescent="0.2">
-      <c r="A64" s="78"/>
+      <c r="A64" s="79"/>
       <c r="B64" s="1" t="s">
         <v>25</v>
       </c>
@@ -57749,7 +57906,7 @@
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="CQ64" s="78"/>
+      <c r="CQ64" s="79"/>
       <c r="CR64" s="1" t="s">
         <v>25</v>
       </c>
@@ -57885,7 +58042,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL64" s="78"/>
+      <c r="GL64" s="79"/>
       <c r="GM64" s="1" t="s">
         <v>25</v>
       </c>
@@ -57923,7 +58080,7 @@
       </c>
     </row>
     <row r="65" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
+      <c r="A65" s="79"/>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
@@ -58085,7 +58242,7 @@
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="CQ65" s="78"/>
+      <c r="CQ65" s="79"/>
       <c r="CR65" s="1" t="s">
         <v>0</v>
       </c>
@@ -58221,7 +58378,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL65" s="78"/>
+      <c r="GL65" s="79"/>
       <c r="GM65" s="1" t="s">
         <v>0</v>
       </c>
@@ -58259,7 +58416,7 @@
       </c>
     </row>
     <row r="66" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
+      <c r="A66" s="79"/>
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -58421,7 +58578,7 @@
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="CQ66" s="78"/>
+      <c r="CQ66" s="79"/>
       <c r="CR66" s="1" t="s">
         <v>15</v>
       </c>
@@ -58557,7 +58714,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL66" s="78"/>
+      <c r="GL66" s="79"/>
       <c r="GM66" s="1" t="s">
         <v>15</v>
       </c>
@@ -58595,7 +58752,7 @@
       </c>
     </row>
     <row r="67" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A67" s="78"/>
+      <c r="A67" s="79"/>
       <c r="B67" s="1" t="s">
         <v>16</v>
       </c>
@@ -58757,7 +58914,7 @@
         <f t="shared" ca="1" si="13"/>
         <v>28.1</v>
       </c>
-      <c r="CQ67" s="78"/>
+      <c r="CQ67" s="79"/>
       <c r="CR67" s="1" t="s">
         <v>16</v>
       </c>
@@ -58893,7 +59050,7 @@
         <f ca="1"/>
         <v>0.20996441281138789</v>
       </c>
-      <c r="GL67" s="78"/>
+      <c r="GL67" s="79"/>
       <c r="GM67" s="1" t="s">
         <v>16</v>
       </c>
@@ -58931,16 +59088,16 @@
       </c>
     </row>
     <row r="68" spans="1:220" ht="20" x14ac:dyDescent="0.25">
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
       <c r="Z68" s="81" t="s">
@@ -58951,37 +59108,37 @@
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AI68" s="76" t="s">
+      <c r="AI68" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AJ68" s="76"/>
-      <c r="AK68" s="76"/>
-      <c r="AL68" s="76"/>
-      <c r="AM68" s="76"/>
-      <c r="AN68" s="76"/>
-      <c r="AT68" s="82" t="s">
+      <c r="AJ68" s="77"/>
+      <c r="AK68" s="77"/>
+      <c r="AL68" s="77"/>
+      <c r="AM68" s="77"/>
+      <c r="AN68" s="77"/>
+      <c r="AT68" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AU68" s="82"/>
-      <c r="AV68" s="82"/>
-      <c r="AW68" s="82"/>
-      <c r="AX68" s="82"/>
-      <c r="AY68" s="82"/>
-      <c r="AZ68" s="82"/>
-      <c r="BA68" s="82"/>
+      <c r="AU68" s="83"/>
+      <c r="AV68" s="83"/>
+      <c r="AW68" s="83"/>
+      <c r="AX68" s="83"/>
+      <c r="AY68" s="83"/>
+      <c r="AZ68" s="83"/>
+      <c r="BA68" s="83"/>
       <c r="BB68" s="25"/>
       <c r="BC68" s="25"/>
       <c r="BD68" s="25"/>
-      <c r="BE68" s="79" t="s">
+      <c r="BE68" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="BF68" s="79"/>
-      <c r="BG68" s="79"/>
-      <c r="BH68" s="79"/>
-      <c r="BI68" s="79"/>
-      <c r="BJ68" s="79"/>
-      <c r="BK68" s="79"/>
-      <c r="BL68" s="79"/>
+      <c r="BF68" s="80"/>
+      <c r="BG68" s="80"/>
+      <c r="BH68" s="80"/>
+      <c r="BI68" s="80"/>
+      <c r="BJ68" s="80"/>
+      <c r="BK68" s="80"/>
+      <c r="BL68" s="80"/>
       <c r="BM68" s="26"/>
       <c r="BN68" s="26"/>
       <c r="BO68" s="30" t="s">
@@ -58993,14 +59150,14 @@
       <c r="BQ68" s="26"/>
       <c r="BR68" s="26"/>
       <c r="BS68" s="26"/>
-      <c r="BT68" s="79" t="s">
+      <c r="BT68" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="BU68" s="79"/>
-      <c r="BV68" s="79"/>
-      <c r="BW68" s="79"/>
-      <c r="BX68" s="79"/>
-      <c r="BY68" s="79"/>
+      <c r="BU68" s="80"/>
+      <c r="BV68" s="80"/>
+      <c r="BW68" s="80"/>
+      <c r="BX68" s="80"/>
+      <c r="BY68" s="80"/>
       <c r="BZ68" s="26"/>
       <c r="CQ68" s="15"/>
       <c r="CR68" s="15"/>
@@ -59012,57 +59169,57 @@
       <c r="CX68" s="15"/>
       <c r="CY68" s="15"/>
       <c r="CZ68" s="15"/>
-      <c r="DD68" s="82" t="s">
+      <c r="DD68" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="DE68" s="82"/>
-      <c r="DF68" s="82"/>
-      <c r="DG68" s="82"/>
-      <c r="DH68" s="82"/>
-      <c r="DI68" s="82"/>
-      <c r="DJ68" s="82"/>
-      <c r="DK68" s="82"/>
-      <c r="EA68" s="79" t="s">
+      <c r="DE68" s="83"/>
+      <c r="DF68" s="83"/>
+      <c r="DG68" s="83"/>
+      <c r="DH68" s="83"/>
+      <c r="DI68" s="83"/>
+      <c r="DJ68" s="83"/>
+      <c r="DK68" s="83"/>
+      <c r="EA68" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="EB68" s="79"/>
-      <c r="EC68" s="79"/>
-      <c r="ED68" s="79"/>
-      <c r="EE68" s="79"/>
-      <c r="EF68" s="79"/>
-      <c r="EG68" s="79"/>
-      <c r="EH68" s="79"/>
+      <c r="EB68" s="80"/>
+      <c r="EC68" s="80"/>
+      <c r="ED68" s="80"/>
+      <c r="EE68" s="80"/>
+      <c r="EF68" s="80"/>
+      <c r="EG68" s="80"/>
+      <c r="EH68" s="80"/>
       <c r="EK68" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="EO68" s="76" t="s">
+      <c r="EO68" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="EP68" s="76"/>
-      <c r="EQ68" s="76"/>
-      <c r="ER68" s="76"/>
-      <c r="ES68" s="76"/>
-      <c r="ET68" s="76"/>
-      <c r="FD68" s="77" t="s">
+      <c r="EP68" s="77"/>
+      <c r="EQ68" s="77"/>
+      <c r="ER68" s="77"/>
+      <c r="ES68" s="77"/>
+      <c r="ET68" s="77"/>
+      <c r="FD68" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="FE68" s="77"/>
-      <c r="FF68" s="77"/>
-      <c r="FG68" s="77"/>
-      <c r="FH68" s="77"/>
-      <c r="FI68" s="77"/>
-      <c r="FJ68" s="77"/>
-      <c r="FK68" s="77"/>
-      <c r="GN68" s="77" t="s">
+      <c r="FE68" s="85"/>
+      <c r="FF68" s="85"/>
+      <c r="FG68" s="85"/>
+      <c r="FH68" s="85"/>
+      <c r="FI68" s="85"/>
+      <c r="FJ68" s="85"/>
+      <c r="FK68" s="85"/>
+      <c r="GN68" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="GO68" s="77"/>
-      <c r="GP68" s="77"/>
-      <c r="GQ68" s="77"/>
-      <c r="GR68" s="77"/>
-      <c r="GS68" s="77"/>
-      <c r="GT68" s="77"/>
-      <c r="GU68" s="77"/>
+      <c r="GO68" s="85"/>
+      <c r="GP68" s="85"/>
+      <c r="GQ68" s="85"/>
+      <c r="GR68" s="85"/>
+      <c r="GS68" s="85"/>
+      <c r="GT68" s="85"/>
+      <c r="GU68" s="85"/>
     </row>
     <row r="69" spans="1:220" x14ac:dyDescent="0.2">
       <c r="C69" s="20">
@@ -59153,16 +59310,16 @@
       <c r="CZ69" s="15"/>
     </row>
     <row r="70" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
@@ -59258,43 +59415,43 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="83" t="s">
+      <c r="Z73" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="83"/>
-      <c r="AI73" s="84" t="s">
+      <c r="AA73" s="78"/>
+      <c r="AI73" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="84"/>
+      <c r="AJ73" s="82"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="84"/>
-      <c r="AM73" s="84"/>
+      <c r="AL73" s="82"/>
+      <c r="AM73" s="82"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
       <c r="AQ73" s="31"/>
       <c r="AR73" s="31"/>
       <c r="AS73" s="31"/>
-      <c r="AT73" s="76" t="s">
+      <c r="AT73" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU73" s="76"/>
-      <c r="AV73" s="76"/>
-      <c r="AW73" s="76"/>
-      <c r="AX73" s="76"/>
-      <c r="AY73" s="76"/>
-      <c r="AZ73" s="76"/>
-      <c r="BA73" s="76"/>
-      <c r="GN73" s="76" t="s">
+      <c r="AU73" s="77"/>
+      <c r="AV73" s="77"/>
+      <c r="AW73" s="77"/>
+      <c r="AX73" s="77"/>
+      <c r="AY73" s="77"/>
+      <c r="AZ73" s="77"/>
+      <c r="BA73" s="77"/>
+      <c r="GN73" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="GO73" s="76"/>
-      <c r="GP73" s="76"/>
-      <c r="GQ73" s="76"/>
-      <c r="GR73" s="76"/>
-      <c r="GS73" s="76"/>
-      <c r="GT73" s="76"/>
-      <c r="GU73" s="76"/>
+      <c r="GO73" s="77"/>
+      <c r="GP73" s="77"/>
+      <c r="GQ73" s="77"/>
+      <c r="GR73" s="77"/>
+      <c r="GS73" s="77"/>
+      <c r="GT73" s="77"/>
+      <c r="GU73" s="77"/>
     </row>
     <row r="74" spans="1:220" ht="87" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
@@ -59386,7 +59543,7 @@
       </c>
     </row>
     <row r="75" spans="1:220" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="78" t="s">
+      <c r="A75" s="79" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -59526,7 +59683,7 @@
       </c>
     </row>
     <row r="76" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A76" s="78"/>
+      <c r="A76" s="79"/>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
@@ -59662,16 +59819,16 @@
     </row>
     <row r="77" spans="1:220" ht="18" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
       <c r="L77" s="63"/>
       <c r="M77" s="63"/>
       <c r="N77" s="63"/>
@@ -59693,40 +59850,40 @@
       <c r="AD77" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="80" t="s">
+      <c r="AI77" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="80"/>
+      <c r="AJ77" s="84"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="80"/>
-      <c r="AM77" s="80"/>
+      <c r="AL77" s="84"/>
+      <c r="AM77" s="84"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="80" t="s">
+      <c r="AT77" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="80"/>
-      <c r="AV77" s="80"/>
-      <c r="AW77" s="80"/>
-      <c r="AX77" s="80"/>
-      <c r="AY77" s="80"/>
-      <c r="AZ77" s="80"/>
-      <c r="BA77" s="80"/>
+      <c r="AU77" s="84"/>
+      <c r="AV77" s="84"/>
+      <c r="AW77" s="84"/>
+      <c r="AX77" s="84"/>
+      <c r="AY77" s="84"/>
+      <c r="AZ77" s="84"/>
+      <c r="BA77" s="84"/>
       <c r="GM77" s="1"/>
-      <c r="GN77" s="76" t="s">
+      <c r="GN77" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="GO77" s="76"/>
-      <c r="GP77" s="76"/>
-      <c r="GQ77" s="76"/>
-      <c r="GR77" s="76"/>
-      <c r="GS77" s="76"/>
-      <c r="GT77" s="76"/>
-      <c r="GU77" s="76"/>
+      <c r="GO77" s="77"/>
+      <c r="GP77" s="77"/>
+      <c r="GQ77" s="77"/>
+      <c r="GR77" s="77"/>
+      <c r="GS77" s="77"/>
+      <c r="GT77" s="77"/>
+      <c r="GU77" s="77"/>
     </row>
     <row r="78" spans="1:220" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
@@ -59780,16 +59937,16 @@
       <c r="AA78" s="62"/>
     </row>
     <row r="79" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="76"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
       <c r="GV79" s="31"/>
       <c r="GW79" s="31"/>
       <c r="GX79" s="31"/>
@@ -59860,106 +60017,106 @@
       <c r="HL80" s="67"/>
     </row>
     <row r="81" spans="1:220" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="AI81" s="76" t="s">
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="AI81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AJ81" s="76"/>
-      <c r="AK81" s="76"/>
-      <c r="AL81" s="76"/>
-      <c r="AM81" s="76"/>
-      <c r="AN81" s="76"/>
-      <c r="AO81" s="76"/>
-      <c r="AP81" s="76"/>
-      <c r="AT81" s="76" t="s">
+      <c r="AJ81" s="77"/>
+      <c r="AK81" s="77"/>
+      <c r="AL81" s="77"/>
+      <c r="AM81" s="77"/>
+      <c r="AN81" s="77"/>
+      <c r="AO81" s="77"/>
+      <c r="AP81" s="77"/>
+      <c r="AT81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AU81" s="76"/>
-      <c r="AV81" s="76"/>
-      <c r="AW81" s="76"/>
-      <c r="AX81" s="76"/>
-      <c r="AY81" s="76"/>
-      <c r="AZ81" s="76"/>
-      <c r="BA81" s="76"/>
-      <c r="BE81" s="76" t="s">
+      <c r="AU81" s="77"/>
+      <c r="AV81" s="77"/>
+      <c r="AW81" s="77"/>
+      <c r="AX81" s="77"/>
+      <c r="AY81" s="77"/>
+      <c r="AZ81" s="77"/>
+      <c r="BA81" s="77"/>
+      <c r="BE81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="BF81" s="76"/>
-      <c r="BG81" s="76"/>
-      <c r="BH81" s="76"/>
-      <c r="BI81" s="76"/>
-      <c r="BJ81" s="76"/>
-      <c r="BK81" s="76"/>
-      <c r="BL81" s="76"/>
-      <c r="BT81" s="76" t="s">
+      <c r="BF81" s="77"/>
+      <c r="BG81" s="77"/>
+      <c r="BH81" s="77"/>
+      <c r="BI81" s="77"/>
+      <c r="BJ81" s="77"/>
+      <c r="BK81" s="77"/>
+      <c r="BL81" s="77"/>
+      <c r="BT81" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BU81" s="76"/>
-      <c r="BV81" s="76"/>
-      <c r="BW81" s="76"/>
-      <c r="BX81" s="76"/>
-      <c r="BY81" s="76"/>
-      <c r="DD81" s="76" t="s">
+      <c r="BU81" s="77"/>
+      <c r="BV81" s="77"/>
+      <c r="BW81" s="77"/>
+      <c r="BX81" s="77"/>
+      <c r="BY81" s="77"/>
+      <c r="DD81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="DE81" s="76"/>
-      <c r="DF81" s="76"/>
-      <c r="DG81" s="76"/>
-      <c r="DH81" s="76"/>
-      <c r="DI81" s="76"/>
-      <c r="DJ81" s="76"/>
-      <c r="DK81" s="76"/>
-      <c r="DP81" s="76" t="s">
+      <c r="DE81" s="77"/>
+      <c r="DF81" s="77"/>
+      <c r="DG81" s="77"/>
+      <c r="DH81" s="77"/>
+      <c r="DI81" s="77"/>
+      <c r="DJ81" s="77"/>
+      <c r="DK81" s="77"/>
+      <c r="DP81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="DQ81" s="76"/>
-      <c r="DR81" s="76"/>
-      <c r="DS81" s="76"/>
-      <c r="DT81" s="76"/>
-      <c r="DU81" s="76"/>
-      <c r="DV81" s="76"/>
-      <c r="DW81" s="76"/>
-      <c r="EA81" s="76" t="s">
+      <c r="DQ81" s="77"/>
+      <c r="DR81" s="77"/>
+      <c r="DS81" s="77"/>
+      <c r="DT81" s="77"/>
+      <c r="DU81" s="77"/>
+      <c r="DV81" s="77"/>
+      <c r="DW81" s="77"/>
+      <c r="EA81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="EB81" s="76"/>
-      <c r="EC81" s="76"/>
-      <c r="ED81" s="76"/>
-      <c r="EE81" s="76"/>
-      <c r="EF81" s="76"/>
-      <c r="EG81" s="76"/>
-      <c r="EH81" s="76"/>
-      <c r="EO81" s="76" t="s">
+      <c r="EB81" s="77"/>
+      <c r="EC81" s="77"/>
+      <c r="ED81" s="77"/>
+      <c r="EE81" s="77"/>
+      <c r="EF81" s="77"/>
+      <c r="EG81" s="77"/>
+      <c r="EH81" s="77"/>
+      <c r="EO81" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="EP81" s="76"/>
-      <c r="EQ81" s="76"/>
-      <c r="ER81" s="76"/>
-      <c r="ES81" s="76"/>
-      <c r="ET81" s="76"/>
-      <c r="EU81" s="76"/>
-      <c r="EV81" s="76"/>
-      <c r="FD81" s="76" t="s">
+      <c r="EP81" s="77"/>
+      <c r="EQ81" s="77"/>
+      <c r="ER81" s="77"/>
+      <c r="ES81" s="77"/>
+      <c r="ET81" s="77"/>
+      <c r="EU81" s="77"/>
+      <c r="EV81" s="77"/>
+      <c r="FD81" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="FE81" s="76"/>
-      <c r="FQ81" s="76" t="s">
+      <c r="FE81" s="77"/>
+      <c r="FQ81" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="FR81" s="76"/>
-      <c r="FS81" s="76"/>
-      <c r="FT81" s="76"/>
-      <c r="FU81" s="76"/>
-      <c r="FV81" s="76"/>
+      <c r="FR81" s="77"/>
+      <c r="FS81" s="77"/>
+      <c r="FT81" s="77"/>
+      <c r="FU81" s="77"/>
+      <c r="FV81" s="77"/>
       <c r="GV81" s="74"/>
       <c r="GW81" s="68"/>
       <c r="GX81" s="31"/>
@@ -60208,7 +60365,7 @@
       <c r="HL82" s="67"/>
     </row>
     <row r="83" spans="1:220" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -60369,7 +60526,7 @@
         <f t="shared" ref="CA83:CA90" ca="1" si="21">SUM(BT83:BY83)</f>
         <v>1</v>
       </c>
-      <c r="CQ83" s="78" t="s">
+      <c r="CQ83" s="79" t="s">
         <v>4</v>
       </c>
       <c r="CR83" s="1" t="s">
@@ -60539,7 +60696,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL83" s="78" t="s">
+      <c r="GL83" s="79" t="s">
         <v>4</v>
       </c>
       <c r="GM83" s="1" t="s">
@@ -60571,7 +60728,7 @@
       </c>
     </row>
     <row r="84" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A84" s="78"/>
+      <c r="A84" s="79"/>
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
@@ -60729,7 +60886,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>1</v>
       </c>
-      <c r="CQ84" s="78"/>
+      <c r="CQ84" s="79"/>
       <c r="CR84" s="1" t="s">
         <v>1</v>
       </c>
@@ -60897,7 +61054,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL84" s="78"/>
+      <c r="GL84" s="79"/>
       <c r="GM84" s="1" t="s">
         <v>1</v>
       </c>
@@ -60927,7 +61084,7 @@
       </c>
     </row>
     <row r="85" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A85" s="78"/>
+      <c r="A85" s="79"/>
       <c r="B85" s="1" t="s">
         <v>27</v>
       </c>
@@ -61085,7 +61242,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="CQ85" s="78"/>
+      <c r="CQ85" s="79"/>
       <c r="CR85" s="1" t="s">
         <v>27</v>
       </c>
@@ -61253,7 +61410,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL85" s="78"/>
+      <c r="GL85" s="79"/>
       <c r="GM85" s="1" t="s">
         <v>27</v>
       </c>
@@ -61283,7 +61440,7 @@
       </c>
     </row>
     <row r="86" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A86" s="78"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
@@ -61441,7 +61598,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="CQ86" s="78"/>
+      <c r="CQ86" s="79"/>
       <c r="CR86" s="1" t="s">
         <v>26</v>
       </c>
@@ -61609,7 +61766,7 @@
         <f ca="1"/>
         <v>0.35933503836317143</v>
       </c>
-      <c r="GL86" s="78"/>
+      <c r="GL86" s="79"/>
       <c r="GM86" s="1" t="s">
         <v>26</v>
       </c>
@@ -61639,7 +61796,7 @@
       </c>
     </row>
     <row r="87" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A87" s="78"/>
+      <c r="A87" s="79"/>
       <c r="B87" s="1" t="s">
         <v>29</v>
       </c>
@@ -61797,7 +61954,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="CQ87" s="78"/>
+      <c r="CQ87" s="79"/>
       <c r="CR87" s="1" t="s">
         <v>29</v>
       </c>
@@ -61965,7 +62122,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL87" s="78"/>
+      <c r="GL87" s="79"/>
       <c r="GM87" s="1" t="s">
         <v>29</v>
       </c>
@@ -61995,7 +62152,7 @@
       </c>
     </row>
     <row r="88" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A88" s="78"/>
+      <c r="A88" s="79"/>
       <c r="B88" s="1" t="s">
         <v>19</v>
       </c>
@@ -62153,7 +62310,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="CQ88" s="78"/>
+      <c r="CQ88" s="79"/>
       <c r="CR88" s="1" t="s">
         <v>19</v>
       </c>
@@ -62321,7 +62478,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL88" s="78"/>
+      <c r="GL88" s="79"/>
       <c r="GM88" s="1" t="s">
         <v>19</v>
       </c>
@@ -62351,7 +62508,7 @@
       </c>
     </row>
     <row r="89" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A89" s="78"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="1" t="s">
         <v>17</v>
       </c>
@@ -62509,7 +62666,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="CQ89" s="78"/>
+      <c r="CQ89" s="79"/>
       <c r="CR89" s="1" t="s">
         <v>17</v>
       </c>
@@ -62677,7 +62834,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL89" s="78"/>
+      <c r="GL89" s="79"/>
       <c r="GM89" s="1" t="s">
         <v>17</v>
       </c>
@@ -62707,7 +62864,7 @@
       </c>
     </row>
     <row r="90" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="A90" s="78"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
@@ -62865,7 +63022,7 @@
         <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
-      <c r="CQ90" s="78"/>
+      <c r="CQ90" s="79"/>
       <c r="CR90" s="1" t="s">
         <v>18</v>
       </c>
@@ -63033,7 +63190,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="GL90" s="78"/>
+      <c r="GL90" s="79"/>
       <c r="GM90" s="1" t="s">
         <v>18</v>
       </c>
@@ -63063,53 +63220,53 @@
       </c>
     </row>
     <row r="91" spans="1:220" ht="19" x14ac:dyDescent="0.2">
-      <c r="L91" s="77" t="s">
+      <c r="L91" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
+      <c r="M91" s="85"/>
+      <c r="N91" s="85"/>
+      <c r="O91" s="85"/>
+      <c r="P91" s="85"/>
+      <c r="Q91" s="85"/>
       <c r="Z91" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AI91" s="76" t="s">
+      <c r="AI91" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="AJ91" s="76"/>
-      <c r="AK91" s="76"/>
-      <c r="AL91" s="76"/>
-      <c r="AM91" s="76"/>
-      <c r="AN91" s="76"/>
-      <c r="AO91" s="76"/>
-      <c r="AP91" s="76"/>
+      <c r="AJ91" s="77"/>
+      <c r="AK91" s="77"/>
+      <c r="AL91" s="77"/>
+      <c r="AM91" s="77"/>
+      <c r="AN91" s="77"/>
+      <c r="AO91" s="77"/>
+      <c r="AP91" s="77"/>
       <c r="AQ91" s="8"/>
       <c r="AR91" s="8"/>
       <c r="AS91" s="8"/>
-      <c r="AT91" s="76" t="s">
+      <c r="AT91" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="AU91" s="76"/>
-      <c r="AV91" s="76"/>
-      <c r="AW91" s="76"/>
-      <c r="AX91" s="76"/>
-      <c r="AY91" s="76"/>
-      <c r="AZ91" s="76"/>
-      <c r="BA91" s="76"/>
+      <c r="AU91" s="77"/>
+      <c r="AV91" s="77"/>
+      <c r="AW91" s="77"/>
+      <c r="AX91" s="77"/>
+      <c r="AY91" s="77"/>
+      <c r="AZ91" s="77"/>
+      <c r="BA91" s="77"/>
       <c r="BB91" s="8"/>
       <c r="BC91" s="8"/>
       <c r="BD91" s="8"/>
-      <c r="BE91" s="76" t="s">
+      <c r="BE91" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="BF91" s="76"/>
-      <c r="BG91" s="76"/>
-      <c r="BH91" s="76"/>
-      <c r="BI91" s="76"/>
-      <c r="BJ91" s="76"/>
-      <c r="BK91" s="76"/>
-      <c r="BL91" s="76"/>
+      <c r="BF91" s="77"/>
+      <c r="BG91" s="77"/>
+      <c r="BH91" s="77"/>
+      <c r="BI91" s="77"/>
+      <c r="BJ91" s="77"/>
+      <c r="BK91" s="77"/>
+      <c r="BL91" s="77"/>
       <c r="BM91" s="8"/>
       <c r="BN91" s="8"/>
       <c r="BO91" s="30" t="s">
@@ -63121,14 +63278,14 @@
       <c r="BQ91" s="8"/>
       <c r="BR91" s="8"/>
       <c r="BS91" s="8"/>
-      <c r="BT91" s="79" t="s">
+      <c r="BT91" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="BU91" s="79"/>
-      <c r="BV91" s="79"/>
-      <c r="BW91" s="79"/>
-      <c r="BX91" s="79"/>
-      <c r="BY91" s="79"/>
+      <c r="BU91" s="80"/>
+      <c r="BV91" s="80"/>
+      <c r="BW91" s="80"/>
+      <c r="BX91" s="80"/>
+      <c r="BY91" s="80"/>
       <c r="BZ91" s="8"/>
       <c r="CB91" s="8"/>
       <c r="CC91" s="8"/>
@@ -63136,71 +63293,71 @@
       <c r="CM91" s="8"/>
       <c r="CN91" s="71"/>
       <c r="CO91" s="8"/>
-      <c r="DD91" s="76" t="s">
+      <c r="DD91" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="DE91" s="76"/>
-      <c r="DF91" s="76"/>
-      <c r="DG91" s="76"/>
-      <c r="DH91" s="76"/>
-      <c r="DI91" s="76"/>
-      <c r="DJ91" s="76"/>
-      <c r="DK91" s="76"/>
-      <c r="DP91" s="76" t="s">
+      <c r="DE91" s="77"/>
+      <c r="DF91" s="77"/>
+      <c r="DG91" s="77"/>
+      <c r="DH91" s="77"/>
+      <c r="DI91" s="77"/>
+      <c r="DJ91" s="77"/>
+      <c r="DK91" s="77"/>
+      <c r="DP91" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="DQ91" s="76"/>
-      <c r="DR91" s="76"/>
-      <c r="DS91" s="76"/>
-      <c r="DT91" s="76"/>
-      <c r="DU91" s="76"/>
-      <c r="DV91" s="76"/>
-      <c r="DW91" s="76"/>
-      <c r="EA91" s="76" t="s">
+      <c r="DQ91" s="77"/>
+      <c r="DR91" s="77"/>
+      <c r="DS91" s="77"/>
+      <c r="DT91" s="77"/>
+      <c r="DU91" s="77"/>
+      <c r="DV91" s="77"/>
+      <c r="DW91" s="77"/>
+      <c r="EA91" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="EB91" s="76"/>
-      <c r="EC91" s="76"/>
-      <c r="ED91" s="76"/>
-      <c r="EE91" s="76"/>
-      <c r="EF91" s="76"/>
-      <c r="EG91" s="76"/>
-      <c r="EH91" s="76"/>
+      <c r="EB91" s="77"/>
+      <c r="EC91" s="77"/>
+      <c r="ED91" s="77"/>
+      <c r="EE91" s="77"/>
+      <c r="EF91" s="77"/>
+      <c r="EG91" s="77"/>
+      <c r="EH91" s="77"/>
       <c r="EK91" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="EO91" s="76" t="s">
+      <c r="EO91" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="EP91" s="76"/>
-      <c r="EQ91" s="76"/>
-      <c r="ER91" s="76"/>
-      <c r="ES91" s="76"/>
-      <c r="ET91" s="76"/>
-      <c r="EU91" s="76"/>
-      <c r="EV91" s="76"/>
+      <c r="EP91" s="77"/>
+      <c r="EQ91" s="77"/>
+      <c r="ER91" s="77"/>
+      <c r="ES91" s="77"/>
+      <c r="ET91" s="77"/>
+      <c r="EU91" s="77"/>
+      <c r="EV91" s="77"/>
       <c r="FD91" t="s">
         <v>180</v>
       </c>
-      <c r="FQ91" s="77" t="s">
+      <c r="FQ91" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="FR91" s="77"/>
-      <c r="FS91" s="77"/>
-      <c r="FT91" s="77"/>
-      <c r="FU91" s="77"/>
-      <c r="FV91" s="77"/>
-      <c r="GW91" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="GX91" s="77"/>
-      <c r="GY91" s="77"/>
-      <c r="GZ91" s="77"/>
-      <c r="HA91" s="77"/>
-      <c r="HB91" s="77"/>
+      <c r="FR91" s="85"/>
+      <c r="FS91" s="85"/>
+      <c r="FT91" s="85"/>
+      <c r="FU91" s="85"/>
+      <c r="FV91" s="85"/>
+      <c r="GW91" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="GX91" s="85"/>
+      <c r="GY91" s="85"/>
+      <c r="GZ91" s="85"/>
+      <c r="HA91" s="85"/>
+      <c r="HB91" s="85"/>
     </row>
     <row r="92" spans="1:220" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J92" s="78" t="s">
+      <c r="J92" s="79" t="s">
         <v>30</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -63225,7 +63382,7 @@
       <c r="Q92" s="16">
         <v>-28.1</v>
       </c>
-      <c r="GU92" s="78" t="s">
+      <c r="GU92" s="79" t="s">
         <v>30</v>
       </c>
       <c r="GV92" s="1" t="s">
@@ -63257,7 +63414,7 @@
       </c>
     </row>
     <row r="93" spans="1:220" ht="17" x14ac:dyDescent="0.2">
-      <c r="J93" s="78"/>
+      <c r="J93" s="79"/>
       <c r="K93" s="37" t="s">
         <v>81</v>
       </c>
@@ -63279,7 +63436,7 @@
       <c r="Q93" s="6">
         <v>0</v>
       </c>
-      <c r="GU93" s="78"/>
+      <c r="GU93" s="79"/>
       <c r="GV93" s="37" t="s">
         <v>81</v>
       </c>
@@ -63309,7 +63466,7 @@
       </c>
     </row>
     <row r="94" spans="1:220" x14ac:dyDescent="0.2">
-      <c r="J94" s="78"/>
+      <c r="J94" s="79"/>
       <c r="K94" s="1" t="s">
         <v>33</v>
       </c>
@@ -63341,7 +63498,7 @@
       <c r="Y94" s="17"/>
       <c r="Z94" s="17"/>
       <c r="AA94" s="17"/>
-      <c r="GU94" s="78"/>
+      <c r="GU94" s="79"/>
       <c r="GV94" s="1" t="s">
         <v>33</v>
       </c>
@@ -63371,22 +63528,22 @@
       </c>
     </row>
     <row r="95" spans="1:220" ht="20" x14ac:dyDescent="0.25">
-      <c r="L95" s="77" t="s">
+      <c r="L95" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
-      <c r="GW95" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="GX95" s="77"/>
-      <c r="GY95" s="77"/>
-      <c r="GZ95" s="77"/>
-      <c r="HA95" s="77"/>
-      <c r="HB95" s="77"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="85"/>
+      <c r="O95" s="85"/>
+      <c r="P95" s="85"/>
+      <c r="Q95" s="85"/>
+      <c r="GW95" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="GX95" s="85"/>
+      <c r="GY95" s="85"/>
+      <c r="GZ95" s="85"/>
+      <c r="HA95" s="85"/>
+      <c r="HB95" s="85"/>
     </row>
     <row r="98" spans="1:40" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="27" t="s">
@@ -63402,17 +63559,17 @@
       <c r="I98" s="27"/>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
-      <c r="I100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="59"/>
@@ -63426,7 +63583,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -63451,7 +63608,7 @@
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A103" s="78"/>
+      <c r="A103" s="79"/>
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
@@ -63473,7 +63630,7 @@
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A104" s="78"/>
+      <c r="A104" s="79"/>
       <c r="B104" s="1" t="s">
         <v>27</v>
       </c>
@@ -63494,7 +63651,7 @@
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A105" s="78"/>
+      <c r="A105" s="79"/>
       <c r="B105" s="1" t="s">
         <v>26</v>
       </c>
@@ -63524,7 +63681,7 @@
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A106" s="78"/>
+      <c r="A106" s="79"/>
       <c r="B106" s="1" t="s">
         <v>29</v>
       </c>
@@ -63546,7 +63703,7 @@
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A107" s="78"/>
+      <c r="A107" s="79"/>
       <c r="B107" s="1" t="s">
         <v>19</v>
       </c>
@@ -63568,7 +63725,7 @@
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A108" s="78"/>
+      <c r="A108" s="79"/>
       <c r="B108" s="1" t="s">
         <v>17</v>
       </c>
@@ -63589,7 +63746,7 @@
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A109" s="78"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="1" t="s">
         <v>18</v>
       </c>
@@ -63626,17 +63783,17 @@
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
       <c r="AL112" s="18"/>
       <c r="AM112" s="18"/>
       <c r="AN112" s="18"/>
@@ -63683,7 +63840,7 @@
       <c r="AN113" s="18"/>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A114" s="78" t="s">
+      <c r="A114" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -63738,7 +63895,7 @@
       <c r="AQ114" s="18"/>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A115" s="78"/>
+      <c r="A115" s="79"/>
       <c r="B115" s="1" t="s">
         <v>24</v>
       </c>
@@ -63789,7 +63946,7 @@
       <c r="AQ115" s="18"/>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A116" s="78"/>
+      <c r="A116" s="79"/>
       <c r="B116" s="1" t="s">
         <v>25</v>
       </c>
@@ -63849,7 +64006,7 @@
       <c r="AQ116" s="18"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A117" s="78"/>
+      <c r="A117" s="79"/>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
@@ -63900,7 +64057,7 @@
       <c r="AQ117" s="18"/>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A118" s="78"/>
+      <c r="A118" s="79"/>
       <c r="B118" s="1" t="s">
         <v>15</v>
       </c>
@@ -63951,7 +64108,7 @@
       <c r="AQ118" s="18"/>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A119" s="78"/>
+      <c r="A119" s="79"/>
       <c r="B119" s="1" t="s">
         <v>16</v>
       </c>
@@ -64002,21 +64159,21 @@
       <c r="AQ119" s="18"/>
     </row>
     <row r="120" spans="1:43" ht="19" x14ac:dyDescent="0.2">
-      <c r="C120" s="76" t="s">
+      <c r="C120" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="G120" s="77" t="s">
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="G120" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="K120" s="77" t="s">
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="K120" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="85"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -64040,7 +64197,7 @@
       </c>
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A125" s="78" t="s">
+      <c r="A125" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -64060,7 +64217,7 @@
       </c>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A126" s="78"/>
+      <c r="A126" s="79"/>
       <c r="B126" s="1" t="s">
         <v>24</v>
       </c>
@@ -64077,7 +64234,7 @@
       </c>
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A127" s="78"/>
+      <c r="A127" s="79"/>
       <c r="B127" s="1" t="s">
         <v>25</v>
       </c>
@@ -64094,7 +64251,7 @@
       </c>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A128" s="78"/>
+      <c r="A128" s="79"/>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
@@ -64111,7 +64268,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="78"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
@@ -64128,7 +64285,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="78"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="1" t="s">
         <v>16</v>
       </c>
@@ -64161,14 +64318,14 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C135" s="76" t="s">
+      <c r="C135" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="76"/>
-      <c r="E135" s="76"/>
-      <c r="F135" s="76"/>
-      <c r="G135" s="76"/>
-      <c r="H135" s="76"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
     </row>
     <row r="136" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="C136" s="2" t="s">
@@ -64191,7 +64348,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="78" t="s">
+      <c r="A137" s="79" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -64231,7 +64388,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="78"/>
+      <c r="A138" s="79"/>
       <c r="B138" s="1" t="s">
         <v>24</v>
       </c>
@@ -64269,7 +64426,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="78"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="1" t="s">
         <v>25</v>
       </c>
@@ -64307,7 +64464,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="78"/>
+      <c r="A140" s="79"/>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
@@ -64345,7 +64502,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A141" s="78"/>
+      <c r="A141" s="79"/>
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
@@ -64383,7 +64540,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="78"/>
+      <c r="A142" s="79"/>
       <c r="B142" s="1" t="s">
         <v>16</v>
       </c>
@@ -64421,14 +64578,14 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="C143" s="76" t="s">
+      <c r="C143" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="76"/>
-      <c r="H143" s="76"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
       <c r="J143" s="33" t="s">
         <v>79</v>
       </c>
@@ -64440,6 +64597,102 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="CQ83:CQ90"/>
+    <mergeCell ref="DD91:DK91"/>
+    <mergeCell ref="DD81:DK81"/>
+    <mergeCell ref="EA60:EH60"/>
+    <mergeCell ref="EA68:EH68"/>
+    <mergeCell ref="DD40:DI40"/>
+    <mergeCell ref="DD68:DK68"/>
+    <mergeCell ref="DD60:DK60"/>
+    <mergeCell ref="EO68:ET68"/>
+    <mergeCell ref="EO91:EV91"/>
+    <mergeCell ref="EA91:EH91"/>
+    <mergeCell ref="DP81:DW81"/>
+    <mergeCell ref="DP91:DW91"/>
+    <mergeCell ref="EA81:EH81"/>
+    <mergeCell ref="EO81:EV81"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="AI40:AP40"/>
+    <mergeCell ref="AT40:AY40"/>
+    <mergeCell ref="BE40:BJ40"/>
+    <mergeCell ref="BT40:BY40"/>
+    <mergeCell ref="HF40:HG40"/>
+    <mergeCell ref="GN73:GU73"/>
+    <mergeCell ref="GN77:GU77"/>
+    <mergeCell ref="GL75:GL76"/>
+    <mergeCell ref="GX56:HC56"/>
+    <mergeCell ref="EO60:ET60"/>
+    <mergeCell ref="CQ62:CQ67"/>
+    <mergeCell ref="CJ40:CK40"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="CA40:CH40"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="CQ42:CQ49"/>
+    <mergeCell ref="CS50:CT50"/>
+    <mergeCell ref="DD50:DI50"/>
     <mergeCell ref="GL83:GL90"/>
     <mergeCell ref="GW91:HB91"/>
     <mergeCell ref="GU92:GU94"/>
@@ -64457,102 +64710,6 @@
     <mergeCell ref="GV51:GV53"/>
     <mergeCell ref="GX54:HC54"/>
     <mergeCell ref="FD81:FE81"/>
-    <mergeCell ref="HF40:HG40"/>
-    <mergeCell ref="GN73:GU73"/>
-    <mergeCell ref="GN77:GU77"/>
-    <mergeCell ref="GL75:GL76"/>
-    <mergeCell ref="GX56:HC56"/>
-    <mergeCell ref="EO60:ET60"/>
-    <mergeCell ref="CQ62:CQ67"/>
-    <mergeCell ref="CJ40:CK40"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="AI40:AP40"/>
-    <mergeCell ref="AT40:AY40"/>
-    <mergeCell ref="BE40:BJ40"/>
-    <mergeCell ref="BT40:BY40"/>
-    <mergeCell ref="CA40:CH40"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="CQ42:CQ49"/>
-    <mergeCell ref="CS50:CT50"/>
-    <mergeCell ref="DD50:DI50"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="CQ83:CQ90"/>
-    <mergeCell ref="DD91:DK91"/>
-    <mergeCell ref="DD81:DK81"/>
-    <mergeCell ref="EA60:EH60"/>
-    <mergeCell ref="EA68:EH68"/>
-    <mergeCell ref="DD40:DI40"/>
-    <mergeCell ref="DD68:DK68"/>
-    <mergeCell ref="DD60:DK60"/>
-    <mergeCell ref="EO68:ET68"/>
-    <mergeCell ref="EO91:EV91"/>
-    <mergeCell ref="EA91:EH91"/>
-    <mergeCell ref="DP81:DW81"/>
-    <mergeCell ref="DP91:DW91"/>
-    <mergeCell ref="EA81:EH81"/>
-    <mergeCell ref="EO81:EV81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="17" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
